--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9338E75-DCC0-E341-941E-A22DFBDD241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEA18F0-3D0F-DC4E-AB03-E9773386FFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5171" uniqueCount="738">
   <si>
     <t>tree_ID</t>
   </si>
@@ -3517,9 +3517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM221" sqref="AM221"/>
+      <selection pane="topRight" activeCell="AM542" sqref="AM542:AM631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29152,6 +29152,9 @@
       <c r="AL221">
         <v>4</v>
       </c>
+      <c r="AM221" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="222" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
@@ -66435,6 +66438,9 @@
       <c r="AL542" t="s">
         <v>308</v>
       </c>
+      <c r="AM542" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="543" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
@@ -66548,6 +66554,9 @@
       <c r="AL543">
         <v>3</v>
       </c>
+      <c r="AM543" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="544" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
@@ -66664,8 +66673,11 @@
       <c r="AL544" t="s">
         <v>308</v>
       </c>
+      <c r="AM544" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="545" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>585</v>
       </c>
@@ -66777,8 +66789,11 @@
       <c r="AL545">
         <v>3</v>
       </c>
+      <c r="AM545" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="546" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>586</v>
       </c>
@@ -66890,8 +66905,11 @@
       <c r="AL546">
         <v>3</v>
       </c>
+      <c r="AM546" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="547" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>587</v>
       </c>
@@ -67003,8 +67021,11 @@
       <c r="AL547">
         <v>3</v>
       </c>
+      <c r="AM547" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="548" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>588</v>
       </c>
@@ -67116,8 +67137,11 @@
       <c r="AL548">
         <v>3</v>
       </c>
+      <c r="AM548" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="549" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>589</v>
       </c>
@@ -67229,8 +67253,11 @@
       <c r="AL549">
         <v>3</v>
       </c>
+      <c r="AM549" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="550" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>590</v>
       </c>
@@ -67342,8 +67369,11 @@
       <c r="AL550">
         <v>2</v>
       </c>
+      <c r="AM550" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="551" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>591</v>
       </c>
@@ -67455,8 +67485,11 @@
       <c r="AL551">
         <v>3</v>
       </c>
+      <c r="AM551" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="552" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>592</v>
       </c>
@@ -67568,8 +67601,11 @@
       <c r="AL552" t="s">
         <v>308</v>
       </c>
+      <c r="AM552" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="553" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>593</v>
       </c>
@@ -67681,8 +67717,11 @@
       <c r="AL553">
         <v>2</v>
       </c>
+      <c r="AM553" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="554" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>594</v>
       </c>
@@ -67797,8 +67836,11 @@
       <c r="AL554" t="s">
         <v>308</v>
       </c>
+      <c r="AM554" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="555" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>595</v>
       </c>
@@ -67910,8 +67952,11 @@
       <c r="AL555">
         <v>2</v>
       </c>
+      <c r="AM555" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="556" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>596</v>
       </c>
@@ -68023,8 +68068,11 @@
       <c r="AL556">
         <v>3</v>
       </c>
+      <c r="AM556" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="557" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>597</v>
       </c>
@@ -68133,8 +68181,11 @@
       <c r="AL557" t="s">
         <v>308</v>
       </c>
+      <c r="AM557" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="558" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>598</v>
       </c>
@@ -68246,8 +68297,11 @@
       <c r="AL558">
         <v>3</v>
       </c>
+      <c r="AM558" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="559" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>599</v>
       </c>
@@ -68359,8 +68413,11 @@
       <c r="AL559">
         <v>3</v>
       </c>
+      <c r="AM559" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="560" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>600</v>
       </c>
@@ -68472,8 +68529,11 @@
       <c r="AL560">
         <v>3</v>
       </c>
+      <c r="AM560" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="561" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>601</v>
       </c>
@@ -68585,8 +68645,11 @@
       <c r="AL561">
         <v>3</v>
       </c>
+      <c r="AM561" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="562" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>602</v>
       </c>
@@ -68698,8 +68761,11 @@
       <c r="AL562">
         <v>3</v>
       </c>
+      <c r="AM562" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="563" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>603</v>
       </c>
@@ -68811,8 +68877,11 @@
       <c r="AL563">
         <v>3</v>
       </c>
+      <c r="AM563" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="564" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>604</v>
       </c>
@@ -68924,8 +68993,11 @@
       <c r="AL564">
         <v>3</v>
       </c>
+      <c r="AM564" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="565" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>605</v>
       </c>
@@ -69037,8 +69109,11 @@
       <c r="AL565">
         <v>1</v>
       </c>
+      <c r="AM565" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="566" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>606</v>
       </c>
@@ -69150,8 +69225,11 @@
       <c r="AL566" t="s">
         <v>308</v>
       </c>
+      <c r="AM566" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="567" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>607</v>
       </c>
@@ -69263,8 +69341,11 @@
       <c r="AL567">
         <v>3</v>
       </c>
+      <c r="AM567" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="568" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>608</v>
       </c>
@@ -69376,8 +69457,11 @@
       <c r="AL568">
         <v>3</v>
       </c>
+      <c r="AM568" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="569" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>609</v>
       </c>
@@ -69489,8 +69573,11 @@
       <c r="AL569">
         <v>3</v>
       </c>
+      <c r="AM569" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="570" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>610</v>
       </c>
@@ -69602,8 +69689,11 @@
       <c r="AL570">
         <v>3</v>
       </c>
+      <c r="AM570" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="571" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>611</v>
       </c>
@@ -69718,8 +69808,11 @@
       <c r="AL571" t="s">
         <v>308</v>
       </c>
+      <c r="AM571" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="572" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>612</v>
       </c>
@@ -69831,8 +69924,11 @@
       <c r="AL572">
         <v>3</v>
       </c>
+      <c r="AM572" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="573" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>613</v>
       </c>
@@ -69944,8 +70040,11 @@
       <c r="AL573">
         <v>3</v>
       </c>
+      <c r="AM573" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="574" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>614</v>
       </c>
@@ -70057,8 +70156,11 @@
       <c r="AL574" t="s">
         <v>308</v>
       </c>
+      <c r="AM574" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="575" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>615</v>
       </c>
@@ -70170,8 +70272,11 @@
       <c r="AL575" t="s">
         <v>308</v>
       </c>
+      <c r="AM575" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="576" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>616</v>
       </c>
@@ -70283,8 +70388,11 @@
       <c r="AL576" t="s">
         <v>308</v>
       </c>
+      <c r="AM576" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="577" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>617</v>
       </c>
@@ -70396,8 +70504,11 @@
       <c r="AL577">
         <v>3</v>
       </c>
+      <c r="AM577" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="578" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>618</v>
       </c>
@@ -70512,8 +70623,11 @@
       <c r="AL578" t="s">
         <v>308</v>
       </c>
+      <c r="AM578" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="579" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>619</v>
       </c>
@@ -70625,8 +70739,11 @@
       <c r="AL579">
         <v>3</v>
       </c>
+      <c r="AM579" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="580" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>620</v>
       </c>
@@ -70738,8 +70855,11 @@
       <c r="AL580">
         <v>3</v>
       </c>
+      <c r="AM580" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="581" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>621</v>
       </c>
@@ -70851,8 +70971,11 @@
       <c r="AL581">
         <v>3</v>
       </c>
+      <c r="AM581" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="582" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>622</v>
       </c>
@@ -70964,8 +71087,11 @@
       <c r="AL582">
         <v>3</v>
       </c>
+      <c r="AM582" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="583" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>623</v>
       </c>
@@ -71080,8 +71206,11 @@
       <c r="AL583">
         <v>1</v>
       </c>
+      <c r="AM583" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="584" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>624</v>
       </c>
@@ -71193,8 +71322,11 @@
       <c r="AL584">
         <v>3</v>
       </c>
+      <c r="AM584" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="585" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>625</v>
       </c>
@@ -71306,8 +71438,11 @@
       <c r="AL585">
         <v>3</v>
       </c>
+      <c r="AM585" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="586" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>626</v>
       </c>
@@ -71419,8 +71554,11 @@
       <c r="AL586">
         <v>3</v>
       </c>
+      <c r="AM586" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="587" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>627</v>
       </c>
@@ -71532,8 +71670,11 @@
       <c r="AL587">
         <v>3</v>
       </c>
+      <c r="AM587" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="588" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>628</v>
       </c>
@@ -71645,8 +71786,11 @@
       <c r="AL588" t="s">
         <v>308</v>
       </c>
+      <c r="AM588" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="589" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>629</v>
       </c>
@@ -71758,8 +71902,11 @@
       <c r="AL589" t="s">
         <v>308</v>
       </c>
+      <c r="AM589" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="590" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>630</v>
       </c>
@@ -71874,8 +72021,11 @@
       <c r="AL590" t="s">
         <v>308</v>
       </c>
+      <c r="AM590" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="591" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>631</v>
       </c>
@@ -71987,8 +72137,11 @@
       <c r="AL591">
         <v>1</v>
       </c>
+      <c r="AM591" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="592" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>632</v>
       </c>
@@ -72100,8 +72253,11 @@
       <c r="AL592">
         <v>3</v>
       </c>
+      <c r="AM592" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="593" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>633</v>
       </c>
@@ -72213,8 +72369,11 @@
       <c r="AL593">
         <v>3</v>
       </c>
+      <c r="AM593" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="594" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>634</v>
       </c>
@@ -72326,8 +72485,11 @@
       <c r="AL594">
         <v>3</v>
       </c>
+      <c r="AM594" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="595" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>635</v>
       </c>
@@ -72439,8 +72601,11 @@
       <c r="AL595">
         <v>3</v>
       </c>
+      <c r="AM595" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="596" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>636</v>
       </c>
@@ -72552,8 +72717,11 @@
       <c r="AL596">
         <v>1</v>
       </c>
+      <c r="AM596" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="597" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>637</v>
       </c>
@@ -72665,8 +72833,11 @@
       <c r="AL597">
         <v>3</v>
       </c>
+      <c r="AM597" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="598" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>638</v>
       </c>
@@ -72778,8 +72949,11 @@
       <c r="AL598">
         <v>3</v>
       </c>
+      <c r="AM598" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="599" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>639</v>
       </c>
@@ -72891,8 +73065,11 @@
       <c r="AL599">
         <v>3</v>
       </c>
+      <c r="AM599" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="600" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>640</v>
       </c>
@@ -73004,8 +73181,11 @@
       <c r="AL600">
         <v>3</v>
       </c>
+      <c r="AM600" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="601" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>641</v>
       </c>
@@ -73117,8 +73297,11 @@
       <c r="AL601" t="s">
         <v>308</v>
       </c>
+      <c r="AM601" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="602" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>642</v>
       </c>
@@ -73230,8 +73413,11 @@
       <c r="AL602">
         <v>3</v>
       </c>
+      <c r="AM602" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="603" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>643</v>
       </c>
@@ -73340,8 +73526,11 @@
       <c r="AL603" t="s">
         <v>308</v>
       </c>
+      <c r="AM603" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="604" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>644</v>
       </c>
@@ -73450,8 +73639,11 @@
       <c r="AL604" t="s">
         <v>308</v>
       </c>
+      <c r="AM604" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="605" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>645</v>
       </c>
@@ -73560,8 +73752,11 @@
       <c r="AL605" t="s">
         <v>308</v>
       </c>
+      <c r="AM605" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="606" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>646</v>
       </c>
@@ -73673,8 +73868,11 @@
       <c r="AL606">
         <v>3</v>
       </c>
+      <c r="AM606" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="607" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>647</v>
       </c>
@@ -73786,8 +73984,11 @@
       <c r="AL607">
         <v>3</v>
       </c>
+      <c r="AM607" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="608" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>648</v>
       </c>
@@ -73899,8 +74100,11 @@
       <c r="AL608">
         <v>3</v>
       </c>
+      <c r="AM608" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="609" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>649</v>
       </c>
@@ -74015,8 +74219,11 @@
       <c r="AL609" t="s">
         <v>308</v>
       </c>
+      <c r="AM609" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="610" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>650</v>
       </c>
@@ -74128,8 +74335,11 @@
       <c r="AL610">
         <v>1</v>
       </c>
+      <c r="AM610" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="611" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>651</v>
       </c>
@@ -74244,8 +74454,11 @@
       <c r="AL611" t="s">
         <v>308</v>
       </c>
+      <c r="AM611" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="612" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>652</v>
       </c>
@@ -74357,8 +74570,11 @@
       <c r="AL612" t="s">
         <v>308</v>
       </c>
+      <c r="AM612" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="613" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>653</v>
       </c>
@@ -74470,8 +74686,11 @@
       <c r="AL613">
         <v>3</v>
       </c>
+      <c r="AM613" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="614" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>654</v>
       </c>
@@ -74583,8 +74802,11 @@
       <c r="AL614">
         <v>3</v>
       </c>
+      <c r="AM614" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="615" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>655</v>
       </c>
@@ -74696,8 +74918,11 @@
       <c r="AL615">
         <v>3</v>
       </c>
+      <c r="AM615" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="616" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>656</v>
       </c>
@@ -74809,8 +75034,11 @@
       <c r="AL616">
         <v>3</v>
       </c>
+      <c r="AM616" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="617" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>657</v>
       </c>
@@ -74922,8 +75150,11 @@
       <c r="AL617">
         <v>3</v>
       </c>
+      <c r="AM617" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="618" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>658</v>
       </c>
@@ -75035,8 +75266,11 @@
       <c r="AL618">
         <v>3</v>
       </c>
+      <c r="AM618" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="619" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>659</v>
       </c>
@@ -75148,8 +75382,11 @@
       <c r="AL619">
         <v>3</v>
       </c>
+      <c r="AM619" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="620" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>660</v>
       </c>
@@ -75264,8 +75501,11 @@
       <c r="AL620" t="s">
         <v>308</v>
       </c>
+      <c r="AM620" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="621" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>661</v>
       </c>
@@ -75377,8 +75617,11 @@
       <c r="AL621">
         <v>3</v>
       </c>
+      <c r="AM621" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="622" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>662</v>
       </c>
@@ -75490,8 +75733,11 @@
       <c r="AL622">
         <v>3</v>
       </c>
+      <c r="AM622" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="623" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>663</v>
       </c>
@@ -75603,8 +75849,11 @@
       <c r="AL623">
         <v>3</v>
       </c>
+      <c r="AM623" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="624" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>664</v>
       </c>
@@ -75716,8 +75965,11 @@
       <c r="AL624">
         <v>3</v>
       </c>
+      <c r="AM624" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="625" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>665</v>
       </c>
@@ -75829,8 +76081,11 @@
       <c r="AL625">
         <v>3</v>
       </c>
+      <c r="AM625" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="626" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>666</v>
       </c>
@@ -75942,8 +76197,11 @@
       <c r="AL626">
         <v>3</v>
       </c>
+      <c r="AM626" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="627" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>667</v>
       </c>
@@ -76055,8 +76313,11 @@
       <c r="AL627">
         <v>3</v>
       </c>
+      <c r="AM627" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="628" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>668</v>
       </c>
@@ -76168,8 +76429,11 @@
       <c r="AL628">
         <v>3</v>
       </c>
+      <c r="AM628" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="629" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>669</v>
       </c>
@@ -76281,8 +76545,11 @@
       <c r="AL629">
         <v>3</v>
       </c>
+      <c r="AM629" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="630" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>670</v>
       </c>
@@ -76394,8 +76661,11 @@
       <c r="AL630">
         <v>3</v>
       </c>
+      <c r="AM630" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="631" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>671</v>
       </c>
@@ -76508,6 +76778,9 @@
         <v>308</v>
       </c>
       <c r="AL631" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM631" t="s">
         <v>308</v>
       </c>
     </row>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEA18F0-3D0F-DC4E-AB03-E9773386FFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB36AE50-0B81-CB49-AF79-8733B90D2464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5171" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5179" uniqueCount="740">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2252,6 +2252,12 @@
   <si>
     <t>doy255: apical shoot dead</t>
   </si>
+  <si>
+    <t>doy262:bud eaten</t>
+  </si>
+  <si>
+    <t>doy262:bud bursting again</t>
+  </si>
 </sst>
 </file>
 
@@ -2755,12 +2761,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3515,11 +3520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM631"/>
+  <dimension ref="A1:AN631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM542" sqref="AM542:AM631"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN115" sqref="AN115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3531,7 +3536,7 @@
     <col min="30" max="30" width="4.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3649,8 +3654,11 @@
       <c r="AM1" s="3">
         <v>256</v>
       </c>
+      <c r="AN1" s="3">
+        <v>262</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3768,8 +3776,11 @@
       <c r="AM2">
         <v>5</v>
       </c>
+      <c r="AN2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3884,8 +3895,11 @@
       <c r="AM3">
         <v>5</v>
       </c>
+      <c r="AN3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4000,8 +4014,11 @@
       <c r="AM4">
         <v>5</v>
       </c>
+      <c r="AN4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4116,8 +4133,11 @@
       <c r="AM5">
         <v>5</v>
       </c>
+      <c r="AN5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4232,8 +4252,11 @@
       <c r="AM6">
         <v>5</v>
       </c>
+      <c r="AN6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4348,8 +4371,11 @@
       <c r="AM7">
         <v>6</v>
       </c>
+      <c r="AN7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4464,8 +4490,11 @@
       <c r="AM8">
         <v>6</v>
       </c>
+      <c r="AN8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4580,8 +4609,11 @@
       <c r="AM9">
         <v>6</v>
       </c>
+      <c r="AN9">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4696,8 +4728,11 @@
       <c r="AM10">
         <v>6</v>
       </c>
+      <c r="AN10">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4815,8 +4850,11 @@
       <c r="AM11">
         <v>6</v>
       </c>
+      <c r="AN11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4931,8 +4969,11 @@
       <c r="AM12">
         <v>5</v>
       </c>
+      <c r="AN12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5047,8 +5088,11 @@
       <c r="AM13">
         <v>5</v>
       </c>
+      <c r="AN13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5163,8 +5207,11 @@
       <c r="AM14">
         <v>5</v>
       </c>
+      <c r="AN14">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5279,8 +5326,11 @@
       <c r="AM15">
         <v>5</v>
       </c>
+      <c r="AN15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5395,8 +5445,11 @@
       <c r="AM16">
         <v>5</v>
       </c>
+      <c r="AN16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5511,8 +5564,11 @@
       <c r="AM17">
         <v>5</v>
       </c>
+      <c r="AN17">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -5627,8 +5683,11 @@
       <c r="AM18">
         <v>5</v>
       </c>
+      <c r="AN18">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5743,8 +5802,11 @@
       <c r="AM19">
         <v>6</v>
       </c>
+      <c r="AN19">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -5859,8 +5921,11 @@
       <c r="AM20">
         <v>5</v>
       </c>
+      <c r="AN20">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -5975,8 +6040,11 @@
       <c r="AM21">
         <v>5</v>
       </c>
+      <c r="AN21">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6094,8 +6162,11 @@
       <c r="AM22">
         <v>6</v>
       </c>
+      <c r="AN22">
+        <v>6</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6210,8 +6281,11 @@
       <c r="AM23">
         <v>6</v>
       </c>
+      <c r="AN23">
+        <v>6</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6326,8 +6400,11 @@
       <c r="AM24">
         <v>5</v>
       </c>
+      <c r="AN24">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -6442,8 +6519,11 @@
       <c r="AM25">
         <v>6</v>
       </c>
+      <c r="AN25">
+        <v>6</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -6558,8 +6638,11 @@
       <c r="AM26">
         <v>5</v>
       </c>
+      <c r="AN26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -6674,8 +6757,11 @@
       <c r="AM27">
         <v>5</v>
       </c>
+      <c r="AN27">
+        <v>5</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -6793,8 +6879,11 @@
       <c r="AM28">
         <v>5</v>
       </c>
+      <c r="AN28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -6810,6 +6899,9 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
+      <c r="F29" t="s">
+        <v>738</v>
+      </c>
       <c r="G29">
         <v>4</v>
       </c>
@@ -6909,8 +7001,11 @@
       <c r="AM29">
         <v>4</v>
       </c>
+      <c r="AN29" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7025,8 +7120,11 @@
       <c r="AM30">
         <v>5</v>
       </c>
+      <c r="AN30">
+        <v>5</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7141,8 +7239,11 @@
       <c r="AM31">
         <v>6</v>
       </c>
+      <c r="AN31">
+        <v>6</v>
+      </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -7258,7 +7359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -7374,7 +7475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -7490,7 +7591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -7606,7 +7707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -7722,7 +7823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -7838,7 +7939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -7954,7 +8055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -8070,7 +8171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -8186,7 +8287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -8302,7 +8403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -8421,7 +8522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -8537,7 +8638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -8653,7 +8754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -8769,7 +8870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -8885,7 +8986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -9000,8 +9101,11 @@
       <c r="AM47">
         <v>6</v>
       </c>
+      <c r="AN47">
+        <v>6</v>
+      </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -9116,8 +9220,11 @@
       <c r="AM48">
         <v>5</v>
       </c>
+      <c r="AN48">
+        <v>5</v>
+      </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -9232,8 +9339,11 @@
       <c r="AM49">
         <v>4</v>
       </c>
+      <c r="AN49">
+        <v>4</v>
+      </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -9348,8 +9458,11 @@
       <c r="AM50">
         <v>6</v>
       </c>
+      <c r="AN50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -9464,8 +9577,11 @@
       <c r="AM51">
         <v>6</v>
       </c>
+      <c r="AN51">
+        <v>6</v>
+      </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -9580,8 +9696,11 @@
       <c r="AM52">
         <v>0</v>
       </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -9696,8 +9815,11 @@
       <c r="AM53">
         <v>6</v>
       </c>
+      <c r="AN53">
+        <v>6</v>
+      </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -9812,8 +9934,11 @@
       <c r="AM54">
         <v>6</v>
       </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -9931,8 +10056,11 @@
       <c r="AM55">
         <v>6</v>
       </c>
+      <c r="AN55">
+        <v>6</v>
+      </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -10050,8 +10178,11 @@
       <c r="AM56">
         <v>0</v>
       </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -10169,8 +10300,11 @@
       <c r="AM57">
         <v>6</v>
       </c>
+      <c r="AN57">
+        <v>6</v>
+      </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -10285,8 +10419,11 @@
       <c r="AM58">
         <v>6</v>
       </c>
+      <c r="AN58">
+        <v>6</v>
+      </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -10401,8 +10538,11 @@
       <c r="AM59" t="s">
         <v>308</v>
       </c>
+      <c r="AN59" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -10517,8 +10657,11 @@
       <c r="AM60">
         <v>6</v>
       </c>
+      <c r="AN60">
+        <v>6</v>
+      </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -10633,8 +10776,11 @@
       <c r="AM61">
         <v>6</v>
       </c>
+      <c r="AN61">
+        <v>6</v>
+      </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -10750,7 +10896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -10866,7 +11012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -12841,7 +12987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -12957,7 +13103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -13073,7 +13219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -13189,7 +13335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -13305,7 +13451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -13421,7 +13567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -13537,7 +13683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -13653,7 +13799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -13769,7 +13915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -13885,7 +14031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -14001,7 +14147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -14117,7 +14263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -14232,8 +14378,11 @@
       <c r="AM92">
         <v>6</v>
       </c>
+      <c r="AN92">
+        <v>6</v>
+      </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -14348,8 +14497,11 @@
       <c r="AM93">
         <v>6</v>
       </c>
+      <c r="AN93">
+        <v>6</v>
+      </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -14464,8 +14616,11 @@
       <c r="AM94">
         <v>6</v>
       </c>
+      <c r="AN94">
+        <v>6</v>
+      </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -14583,8 +14738,11 @@
       <c r="AM95">
         <v>6</v>
       </c>
+      <c r="AN95">
+        <v>6</v>
+      </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -14699,8 +14857,11 @@
       <c r="AM96">
         <v>6</v>
       </c>
+      <c r="AN96">
+        <v>6</v>
+      </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -14815,8 +14976,11 @@
       <c r="AM97">
         <v>6</v>
       </c>
+      <c r="AN97" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -14931,8 +15095,11 @@
       <c r="AM98">
         <v>6</v>
       </c>
+      <c r="AN98" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -15047,8 +15214,11 @@
       <c r="AM99">
         <v>6</v>
       </c>
+      <c r="AN99" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -15163,8 +15333,11 @@
       <c r="AM100">
         <v>6</v>
       </c>
+      <c r="AN100" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -15279,8 +15452,11 @@
       <c r="AM101">
         <v>6</v>
       </c>
+      <c r="AN101" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -15395,8 +15571,11 @@
       <c r="AM102">
         <v>6</v>
       </c>
+      <c r="AN102" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -15511,8 +15690,11 @@
       <c r="AM103">
         <v>6</v>
       </c>
+      <c r="AN103" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -15627,8 +15809,11 @@
       <c r="AM104">
         <v>6</v>
       </c>
+      <c r="AN104" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -15743,8 +15928,11 @@
       <c r="AM105">
         <v>6</v>
       </c>
+      <c r="AN105" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -15859,8 +16047,11 @@
       <c r="AM106">
         <v>6</v>
       </c>
+      <c r="AN106" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -15975,8 +16166,11 @@
       <c r="AM107" s="2">
         <v>6</v>
       </c>
+      <c r="AN107" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -16091,8 +16285,11 @@
       <c r="AM108" s="2">
         <v>6</v>
       </c>
+      <c r="AN108" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -16210,8 +16407,11 @@
       <c r="AM109" s="2">
         <v>6</v>
       </c>
+      <c r="AN109" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -16326,8 +16526,11 @@
       <c r="AM110" s="2">
         <v>0</v>
       </c>
+      <c r="AN110" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -16343,6 +16546,9 @@
       <c r="E111" t="s">
         <v>107</v>
       </c>
+      <c r="F111" t="s">
+        <v>739</v>
+      </c>
       <c r="G111">
         <v>4</v>
       </c>
@@ -16442,8 +16648,11 @@
       <c r="AM111" s="2">
         <v>6</v>
       </c>
+      <c r="AN111" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -16558,8 +16767,11 @@
       <c r="AM112">
         <v>6</v>
       </c>
+      <c r="AN112" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -16674,8 +16886,11 @@
       <c r="AM113" t="s">
         <v>308</v>
       </c>
+      <c r="AN113" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -16790,8 +17005,11 @@
       <c r="AM114">
         <v>6</v>
       </c>
+      <c r="AN114" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -16906,8 +17124,11 @@
       <c r="AM115">
         <v>6</v>
       </c>
+      <c r="AN115" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -17022,8 +17243,11 @@
       <c r="AM116">
         <v>6</v>
       </c>
+      <c r="AN116" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -17138,8 +17362,11 @@
       <c r="AM117">
         <v>6</v>
       </c>
+      <c r="AN117" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -17254,8 +17481,11 @@
       <c r="AM118">
         <v>6</v>
       </c>
+      <c r="AN118">
+        <v>6</v>
+      </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -17370,8 +17600,11 @@
       <c r="AM119">
         <v>6</v>
       </c>
+      <c r="AN119">
+        <v>6</v>
+      </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -17486,8 +17719,11 @@
       <c r="AM120">
         <v>6</v>
       </c>
+      <c r="AN120">
+        <v>6</v>
+      </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -17605,8 +17841,11 @@
       <c r="AM121">
         <v>6</v>
       </c>
+      <c r="AN121">
+        <v>6</v>
+      </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -17722,7 +17961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -17838,7 +18077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -17954,7 +18193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -18070,7 +18309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -18186,7 +18425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -18302,7 +18541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -18418,7 +18657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>145</v>
       </c>
@@ -18534,7 +18773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -18650,7 +18889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -18769,7 +19008,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -18885,7 +19124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -19001,7 +19240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -19117,7 +19356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -19233,7 +19472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -19349,7 +19588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -19365,6 +19604,9 @@
       <c r="E137" t="s">
         <v>107</v>
       </c>
+      <c r="F137" t="s">
+        <v>739</v>
+      </c>
       <c r="G137" t="s">
         <v>10</v>
       </c>
@@ -19464,8 +19706,11 @@
       <c r="AM137">
         <v>6</v>
       </c>
+      <c r="AN137" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -19580,8 +19825,11 @@
       <c r="AM138">
         <v>6</v>
       </c>
+      <c r="AN138" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>155</v>
       </c>
@@ -19696,8 +19944,11 @@
       <c r="AM139">
         <v>6</v>
       </c>
+      <c r="AN139" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -19812,8 +20063,11 @@
       <c r="AM140">
         <v>0</v>
       </c>
+      <c r="AN140" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -19928,8 +20182,11 @@
       <c r="AM141">
         <v>6</v>
       </c>
+      <c r="AN141" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -20044,8 +20301,11 @@
       <c r="AM142">
         <v>6</v>
       </c>
+      <c r="AN142" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -20160,8 +20420,11 @@
       <c r="AM143">
         <v>6</v>
       </c>
+      <c r="AN143" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>160</v>
       </c>
@@ -20276,8 +20539,11 @@
       <c r="AM144">
         <v>6</v>
       </c>
+      <c r="AN144" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -20392,8 +20658,11 @@
       <c r="AM145">
         <v>6</v>
       </c>
+      <c r="AN145" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>162</v>
       </c>
@@ -20508,8 +20777,11 @@
       <c r="AM146">
         <v>6</v>
       </c>
+      <c r="AN146" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -20624,8 +20896,11 @@
       <c r="AM147">
         <v>6</v>
       </c>
+      <c r="AN147" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>164</v>
       </c>
@@ -20641,6 +20916,9 @@
       <c r="E148" t="s">
         <v>107</v>
       </c>
+      <c r="F148" t="s">
+        <v>739</v>
+      </c>
       <c r="G148" t="s">
         <v>10</v>
       </c>
@@ -20740,8 +21018,11 @@
       <c r="AM148">
         <v>6</v>
       </c>
+      <c r="AN148" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -20856,8 +21137,11 @@
       <c r="AM149">
         <v>6</v>
       </c>
+      <c r="AN149" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>166</v>
       </c>
@@ -20873,6 +21157,9 @@
       <c r="E150" t="s">
         <v>107</v>
       </c>
+      <c r="F150" t="s">
+        <v>739</v>
+      </c>
       <c r="G150" t="s">
         <v>10</v>
       </c>
@@ -20972,8 +21259,11 @@
       <c r="AM150">
         <v>6</v>
       </c>
+      <c r="AN150" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -21088,8 +21378,11 @@
       <c r="AM151">
         <v>0</v>
       </c>
+      <c r="AN151" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -21205,7 +21498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -21321,7 +21614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>170</v>
       </c>
@@ -21437,7 +21730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -21553,7 +21846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>172</v>
       </c>
@@ -21669,7 +21962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -21785,7 +22078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>174</v>
       </c>
@@ -21901,7 +22194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -22017,7 +22310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>176</v>
       </c>
@@ -46753,7 +47046,7 @@
       <c r="AL373">
         <v>6</v>
       </c>
-      <c r="AM373" s="4">
+      <c r="AM373">
         <v>0</v>
       </c>
     </row>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB36AE50-0B81-CB49-AF79-8733B90D2464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3308EF6-D5B8-444D-BFA7-D5B111F5FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5179" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5317" uniqueCount="744">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2166,9 +2166,6 @@
     <t>doy186: close to 6</t>
   </si>
   <si>
-    <t>doy 192: rebursting?? Might be second flush (big green bud)</t>
-  </si>
-  <si>
     <t>doy 193: might resprout</t>
   </si>
   <si>
@@ -2257,6 +2254,21 @@
   </si>
   <si>
     <t>doy262:bud bursting again</t>
+  </si>
+  <si>
+    <t>doy 192: rebursting?? Might be second flush (big green bud), doy262: no bud. Tree is sick</t>
+  </si>
+  <si>
+    <t>doy262: no bud. Tree is sick</t>
+  </si>
+  <si>
+    <t>doy262: bud bursting again</t>
+  </si>
+  <si>
+    <t>doy262: bud bursting again. Maybe its stage 4</t>
+  </si>
+  <si>
+    <t>doy262: bud bursting again. Leaf unfolding</t>
   </si>
 </sst>
 </file>
@@ -2761,11 +2773,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3522,9 +3536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN115" sqref="AN115"/>
+      <selection pane="topRight" activeCell="AN467" sqref="AN467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4749,7 +4763,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -6778,7 +6792,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -6900,7 +6914,7 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -7358,6 +7372,9 @@
       <c r="AM32">
         <v>4</v>
       </c>
+      <c r="AN32">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -7474,6 +7491,9 @@
       <c r="AM33">
         <v>6</v>
       </c>
+      <c r="AN33">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -7590,6 +7610,9 @@
       <c r="AM34">
         <v>5</v>
       </c>
+      <c r="AN34">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -7706,6 +7729,9 @@
       <c r="AM35">
         <v>6</v>
       </c>
+      <c r="AN35">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -7822,6 +7848,9 @@
       <c r="AM36">
         <v>5</v>
       </c>
+      <c r="AN36">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -7938,6 +7967,9 @@
       <c r="AM37">
         <v>6</v>
       </c>
+      <c r="AN37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -8054,6 +8086,9 @@
       <c r="AM38">
         <v>6</v>
       </c>
+      <c r="AN38">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -8170,6 +8205,9 @@
       <c r="AM39">
         <v>5</v>
       </c>
+      <c r="AN39">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -8286,6 +8324,9 @@
       <c r="AM40">
         <v>5</v>
       </c>
+      <c r="AN40">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -8402,6 +8443,9 @@
       <c r="AM41">
         <v>6</v>
       </c>
+      <c r="AN41">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -8521,6 +8565,9 @@
       <c r="AM42">
         <v>5</v>
       </c>
+      <c r="AN42">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -8637,6 +8684,9 @@
       <c r="AM43">
         <v>5</v>
       </c>
+      <c r="AN43">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -8753,6 +8803,9 @@
       <c r="AM44">
         <v>6</v>
       </c>
+      <c r="AN44">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -8869,6 +8922,9 @@
       <c r="AM45">
         <v>5</v>
       </c>
+      <c r="AN45">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -8985,6 +9041,9 @@
       <c r="AM46">
         <v>4</v>
       </c>
+      <c r="AN46">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -10199,7 +10258,7 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G57" t="s">
         <v>10</v>
@@ -10895,6 +10954,9 @@
       <c r="AM62">
         <v>6</v>
       </c>
+      <c r="AN62">
+        <v>6</v>
+      </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -11011,6 +11073,9 @@
       <c r="AM63">
         <v>6</v>
       </c>
+      <c r="AN63">
+        <v>6</v>
+      </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -11127,8 +11192,11 @@
       <c r="AM64">
         <v>6</v>
       </c>
+      <c r="AN64">
+        <v>6</v>
+      </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -11243,8 +11311,11 @@
       <c r="AM65">
         <v>6</v>
       </c>
+      <c r="AN65">
+        <v>6</v>
+      </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -11359,8 +11430,11 @@
       <c r="AM66">
         <v>4</v>
       </c>
+      <c r="AN66">
+        <v>4</v>
+      </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -11475,8 +11549,11 @@
       <c r="AM67">
         <v>6</v>
       </c>
+      <c r="AN67">
+        <v>6</v>
+      </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -11591,8 +11668,11 @@
       <c r="AM68">
         <v>6</v>
       </c>
+      <c r="AN68">
+        <v>6</v>
+      </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -11707,8 +11787,11 @@
       <c r="AM69">
         <v>6</v>
       </c>
+      <c r="AN69">
+        <v>6</v>
+      </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -11823,8 +11906,11 @@
       <c r="AM70">
         <v>6</v>
       </c>
+      <c r="AN70">
+        <v>6</v>
+      </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -11841,7 +11927,7 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G71" t="s">
         <v>10</v>
@@ -11942,8 +12028,11 @@
       <c r="AM71" t="s">
         <v>308</v>
       </c>
+      <c r="AN71" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -12058,8 +12147,11 @@
       <c r="AM72">
         <v>6</v>
       </c>
+      <c r="AN72" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -12174,8 +12266,11 @@
       <c r="AM73">
         <v>6</v>
       </c>
+      <c r="AN73" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -12290,8 +12385,11 @@
       <c r="AM74">
         <v>6</v>
       </c>
+      <c r="AN74" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -12406,8 +12504,11 @@
       <c r="AM75">
         <v>6</v>
       </c>
+      <c r="AN75" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -12522,8 +12623,11 @@
       <c r="AM76">
         <v>5</v>
       </c>
+      <c r="AN76" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -12638,8 +12742,11 @@
       <c r="AM77">
         <v>6</v>
       </c>
+      <c r="AN77" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -12754,8 +12861,11 @@
       <c r="AM78">
         <v>6</v>
       </c>
+      <c r="AN78" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -12870,8 +12980,11 @@
       <c r="AM79">
         <v>6</v>
       </c>
+      <c r="AN79" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -12985,6 +13098,9 @@
       </c>
       <c r="AM80">
         <v>5</v>
+      </c>
+      <c r="AN80" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.2">
@@ -13102,6 +13218,9 @@
       <c r="AM81">
         <v>6</v>
       </c>
+      <c r="AN81" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -13218,6 +13337,9 @@
       <c r="AM82">
         <v>5</v>
       </c>
+      <c r="AN82" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -13334,6 +13456,9 @@
       <c r="AM83">
         <v>6</v>
       </c>
+      <c r="AN83" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -13450,6 +13575,9 @@
       <c r="AM84">
         <v>6</v>
       </c>
+      <c r="AN84" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -13566,6 +13694,9 @@
       <c r="AM85">
         <v>6</v>
       </c>
+      <c r="AN85" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -13682,6 +13813,9 @@
       <c r="AM86">
         <v>6</v>
       </c>
+      <c r="AN86" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -13798,6 +13932,9 @@
       <c r="AM87">
         <v>6</v>
       </c>
+      <c r="AN87" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -13914,6 +14051,9 @@
       <c r="AM88">
         <v>6</v>
       </c>
+      <c r="AN88" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -14030,6 +14170,9 @@
       <c r="AM89">
         <v>6</v>
       </c>
+      <c r="AN89" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -14146,6 +14289,9 @@
       <c r="AM90">
         <v>6</v>
       </c>
+      <c r="AN90" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -14262,6 +14408,9 @@
       <c r="AM91">
         <v>6</v>
       </c>
+      <c r="AN91" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -16547,7 +16696,7 @@
         <v>107</v>
       </c>
       <c r="F111" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -17960,6 +18109,9 @@
       <c r="AM122">
         <v>6</v>
       </c>
+      <c r="AN122">
+        <v>6</v>
+      </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -18076,6 +18228,9 @@
       <c r="AM123">
         <v>6</v>
       </c>
+      <c r="AN123">
+        <v>6</v>
+      </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -18192,6 +18347,9 @@
       <c r="AM124">
         <v>6</v>
       </c>
+      <c r="AN124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -18308,6 +18466,9 @@
       <c r="AM125">
         <v>6</v>
       </c>
+      <c r="AN125">
+        <v>6</v>
+      </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -18424,6 +18585,9 @@
       <c r="AM126">
         <v>6</v>
       </c>
+      <c r="AN126">
+        <v>6</v>
+      </c>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -18540,6 +18704,9 @@
       <c r="AM127">
         <v>6</v>
       </c>
+      <c r="AN127">
+        <v>6</v>
+      </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -18656,6 +18823,9 @@
       <c r="AM128">
         <v>6</v>
       </c>
+      <c r="AN128">
+        <v>6</v>
+      </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -18772,6 +18942,9 @@
       <c r="AM129">
         <v>6</v>
       </c>
+      <c r="AN129">
+        <v>6</v>
+      </c>
     </row>
     <row r="130" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -18888,6 +19061,9 @@
       <c r="AM130">
         <v>6</v>
       </c>
+      <c r="AN130">
+        <v>6</v>
+      </c>
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -18906,7 +19082,7 @@
         <v>107</v>
       </c>
       <c r="F131" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G131">
         <v>4</v>
@@ -19005,6 +19181,9 @@
         <v>308</v>
       </c>
       <c r="AM131" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN131" t="s">
         <v>308</v>
       </c>
     </row>
@@ -19123,6 +19302,9 @@
       <c r="AM132">
         <v>6</v>
       </c>
+      <c r="AN132">
+        <v>6</v>
+      </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -19239,6 +19421,9 @@
       <c r="AM133">
         <v>6</v>
       </c>
+      <c r="AN133">
+        <v>6</v>
+      </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -19355,6 +19540,9 @@
       <c r="AM134">
         <v>6</v>
       </c>
+      <c r="AN134">
+        <v>6</v>
+      </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -19471,6 +19659,9 @@
       <c r="AM135">
         <v>6</v>
       </c>
+      <c r="AN135">
+        <v>6</v>
+      </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -19587,6 +19778,9 @@
       <c r="AM136">
         <v>6</v>
       </c>
+      <c r="AN136">
+        <v>6</v>
+      </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -19605,7 +19799,7 @@
         <v>107</v>
       </c>
       <c r="F137" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G137" t="s">
         <v>10</v>
@@ -20917,7 +21111,7 @@
         <v>107</v>
       </c>
       <c r="F148" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G148" t="s">
         <v>10</v>
@@ -21158,7 +21352,7 @@
         <v>107</v>
       </c>
       <c r="F150" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G150" t="s">
         <v>10</v>
@@ -21497,6 +21691,9 @@
       <c r="AM152">
         <v>6</v>
       </c>
+      <c r="AN152" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="153" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -21613,6 +21810,9 @@
       <c r="AM153">
         <v>6</v>
       </c>
+      <c r="AN153" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -21729,6 +21929,9 @@
       <c r="AM154">
         <v>6</v>
       </c>
+      <c r="AN154" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="155" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -21845,6 +22048,9 @@
       <c r="AM155">
         <v>6</v>
       </c>
+      <c r="AN155" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="156" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -21961,6 +22167,9 @@
       <c r="AM156">
         <v>6</v>
       </c>
+      <c r="AN156" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="157" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -22077,6 +22286,9 @@
       <c r="AM157">
         <v>0</v>
       </c>
+      <c r="AN157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -22193,6 +22405,9 @@
       <c r="AM158">
         <v>6</v>
       </c>
+      <c r="AN158" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -22309,6 +22524,9 @@
       <c r="AM159">
         <v>6</v>
       </c>
+      <c r="AN159" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -22425,8 +22643,11 @@
       <c r="AM160">
         <v>6</v>
       </c>
+      <c r="AN160" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -22541,8 +22762,11 @@
       <c r="AM161">
         <v>0</v>
       </c>
+      <c r="AN161" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -22657,8 +22881,11 @@
       <c r="AM162">
         <v>6</v>
       </c>
+      <c r="AN162" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -22674,6 +22901,7 @@
       <c r="E163" t="s">
         <v>107</v>
       </c>
+      <c r="F163" s="4"/>
       <c r="G163" t="s">
         <v>10</v>
       </c>
@@ -22773,8 +23001,11 @@
       <c r="AM163">
         <v>6</v>
       </c>
+      <c r="AN163" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -22790,6 +23021,9 @@
       <c r="E164" t="s">
         <v>107</v>
       </c>
+      <c r="F164" t="s">
+        <v>743</v>
+      </c>
       <c r="G164" t="s">
         <v>10</v>
       </c>
@@ -22889,8 +23123,11 @@
       <c r="AM164">
         <v>6</v>
       </c>
+      <c r="AN164" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="165" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -23005,8 +23242,11 @@
       <c r="AM165">
         <v>6</v>
       </c>
+      <c r="AN165" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="166" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>182</v>
       </c>
@@ -23121,8 +23361,11 @@
       <c r="AM166">
         <v>6</v>
       </c>
+      <c r="AN166" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -23237,8 +23480,11 @@
       <c r="AM167">
         <v>6</v>
       </c>
+      <c r="AN167">
+        <v>6</v>
+      </c>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -23353,8 +23599,11 @@
       <c r="AM168">
         <v>6</v>
       </c>
+      <c r="AN168">
+        <v>6</v>
+      </c>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -23469,8 +23718,11 @@
       <c r="AM169">
         <v>6</v>
       </c>
+      <c r="AN169">
+        <v>6</v>
+      </c>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>186</v>
       </c>
@@ -23585,8 +23837,11 @@
       <c r="AM170">
         <v>6</v>
       </c>
+      <c r="AN170">
+        <v>6</v>
+      </c>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -23701,8 +23956,11 @@
       <c r="AM171">
         <v>6</v>
       </c>
+      <c r="AN171">
+        <v>6</v>
+      </c>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>188</v>
       </c>
@@ -23817,8 +24075,11 @@
       <c r="AM172">
         <v>6</v>
       </c>
+      <c r="AN172">
+        <v>6</v>
+      </c>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -23933,8 +24194,11 @@
       <c r="AM173">
         <v>6</v>
       </c>
+      <c r="AN173">
+        <v>6</v>
+      </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>190</v>
       </c>
@@ -24049,8 +24313,11 @@
       <c r="AM174">
         <v>6</v>
       </c>
+      <c r="AN174">
+        <v>6</v>
+      </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -24165,8 +24432,11 @@
       <c r="AM175">
         <v>6</v>
       </c>
+      <c r="AN175">
+        <v>0</v>
+      </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -24281,8 +24551,11 @@
       <c r="AM176">
         <v>6</v>
       </c>
+      <c r="AN176">
+        <v>6</v>
+      </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -24397,8 +24670,11 @@
       <c r="AM177">
         <v>6</v>
       </c>
+      <c r="AN177">
+        <v>6</v>
+      </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>194</v>
       </c>
@@ -24513,8 +24789,11 @@
       <c r="AM178">
         <v>0</v>
       </c>
+      <c r="AN178">
+        <v>0</v>
+      </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -24629,8 +24908,11 @@
       <c r="AM179">
         <v>6</v>
       </c>
+      <c r="AN179">
+        <v>6</v>
+      </c>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>196</v>
       </c>
@@ -24745,8 +25027,11 @@
       <c r="AM180">
         <v>6</v>
       </c>
+      <c r="AN180">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -24861,8 +25146,11 @@
       <c r="AM181">
         <v>6</v>
       </c>
+      <c r="AN181">
+        <v>6</v>
+      </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>198</v>
       </c>
@@ -24975,8 +25263,11 @@
       <c r="AM182">
         <v>6</v>
       </c>
+      <c r="AN182">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -25089,8 +25380,11 @@
       <c r="AM183">
         <v>6</v>
       </c>
+      <c r="AN183">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -25203,8 +25497,11 @@
       <c r="AM184">
         <v>6</v>
       </c>
+      <c r="AN184">
+        <v>0</v>
+      </c>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -25317,8 +25614,11 @@
       <c r="AM185">
         <v>6</v>
       </c>
+      <c r="AN185">
+        <v>0</v>
+      </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -25434,8 +25734,11 @@
       <c r="AM186">
         <v>6</v>
       </c>
+      <c r="AN186">
+        <v>0</v>
+      </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -25548,8 +25851,11 @@
       <c r="AM187">
         <v>6</v>
       </c>
+      <c r="AN187">
+        <v>0</v>
+      </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -25662,8 +25968,11 @@
       <c r="AM188">
         <v>6</v>
       </c>
+      <c r="AN188">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -25776,8 +26085,11 @@
       <c r="AM189">
         <v>6</v>
       </c>
+      <c r="AN189">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -25893,8 +26205,11 @@
       <c r="AM190">
         <v>6</v>
       </c>
+      <c r="AN190">
+        <v>0</v>
+      </c>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>210</v>
       </c>
@@ -26007,8 +26322,11 @@
       <c r="AM191">
         <v>6</v>
       </c>
+      <c r="AN191">
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -26121,8 +26439,11 @@
       <c r="AM192">
         <v>6</v>
       </c>
+      <c r="AN192">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>212</v>
       </c>
@@ -26235,8 +26556,11 @@
       <c r="AM193">
         <v>6</v>
       </c>
+      <c r="AN193">
+        <v>0</v>
+      </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -26352,8 +26676,11 @@
       <c r="AM194">
         <v>0</v>
       </c>
+      <c r="AN194">
+        <v>0</v>
+      </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -26466,8 +26793,11 @@
       <c r="AM195">
         <v>0</v>
       </c>
+      <c r="AN195">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -26580,8 +26910,11 @@
       <c r="AM196">
         <v>6</v>
       </c>
+      <c r="AN196">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -26694,8 +27027,11 @@
       <c r="AM197">
         <v>6</v>
       </c>
+      <c r="AN197">
+        <v>0</v>
+      </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -26811,8 +27147,11 @@
       <c r="AM198">
         <v>6</v>
       </c>
+      <c r="AN198">
+        <v>0</v>
+      </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -26925,8 +27264,11 @@
       <c r="AM199">
         <v>6</v>
       </c>
+      <c r="AN199">
+        <v>0</v>
+      </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -27042,8 +27384,11 @@
       <c r="AM200">
         <v>6</v>
       </c>
+      <c r="AN200">
+        <v>0</v>
+      </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -27156,8 +27501,11 @@
       <c r="AM201">
         <v>6</v>
       </c>
+      <c r="AN201">
+        <v>0</v>
+      </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -27270,8 +27618,11 @@
       <c r="AM202">
         <v>6</v>
       </c>
+      <c r="AN202">
+        <v>0</v>
+      </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -27384,8 +27735,11 @@
       <c r="AM203">
         <v>6</v>
       </c>
+      <c r="AN203">
+        <v>0</v>
+      </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -27498,8 +27852,11 @@
       <c r="AM204">
         <v>6</v>
       </c>
+      <c r="AN204">
+        <v>0</v>
+      </c>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -27615,8 +27972,11 @@
       <c r="AM205">
         <v>6</v>
       </c>
+      <c r="AN205">
+        <v>6</v>
+      </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -27729,8 +28089,11 @@
       <c r="AM206">
         <v>6</v>
       </c>
+      <c r="AN206">
+        <v>0</v>
+      </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -27843,8 +28206,11 @@
       <c r="AM207">
         <v>0</v>
       </c>
+      <c r="AN207">
+        <v>0</v>
+      </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -27960,8 +28326,11 @@
       <c r="AM208">
         <v>6</v>
       </c>
+      <c r="AN208">
+        <v>0</v>
+      </c>
     </row>
-    <row r="209" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -28074,8 +28443,11 @@
       <c r="AM209">
         <v>6</v>
       </c>
+      <c r="AN209">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -28188,8 +28560,11 @@
       <c r="AM210">
         <v>6</v>
       </c>
+      <c r="AN210">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -28305,8 +28680,11 @@
       <c r="AM211">
         <v>6</v>
       </c>
+      <c r="AN211">
+        <v>0</v>
+      </c>
     </row>
-    <row r="212" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>233</v>
       </c>
@@ -28419,8 +28797,11 @@
       <c r="AM212">
         <v>6</v>
       </c>
+      <c r="AN212">
+        <v>6</v>
+      </c>
     </row>
-    <row r="213" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -28533,8 +28914,11 @@
       <c r="AM213">
         <v>6</v>
       </c>
+      <c r="AN213">
+        <v>0</v>
+      </c>
     </row>
-    <row r="214" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>235</v>
       </c>
@@ -28647,8 +29031,11 @@
       <c r="AM214">
         <v>6</v>
       </c>
+      <c r="AN214">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -28761,8 +29148,11 @@
       <c r="AM215">
         <v>0</v>
       </c>
+      <c r="AN215">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>237</v>
       </c>
@@ -28878,8 +29268,11 @@
       <c r="AM216">
         <v>6</v>
       </c>
+      <c r="AN216">
+        <v>6</v>
+      </c>
     </row>
-    <row r="217" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -28992,8 +29385,11 @@
       <c r="AM217">
         <v>0</v>
       </c>
+      <c r="AN217">
+        <v>0</v>
+      </c>
     </row>
-    <row r="218" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>239</v>
       </c>
@@ -29106,8 +29502,11 @@
       <c r="AM218">
         <v>6</v>
       </c>
+      <c r="AN218">
+        <v>0</v>
+      </c>
     </row>
-    <row r="219" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -29220,8 +29619,11 @@
       <c r="AM219">
         <v>6</v>
       </c>
+      <c r="AN219">
+        <v>6</v>
+      </c>
     </row>
-    <row r="220" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>241</v>
       </c>
@@ -29334,8 +29736,11 @@
       <c r="AM220">
         <v>6</v>
       </c>
+      <c r="AN220">
+        <v>6</v>
+      </c>
     </row>
-    <row r="221" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -29448,8 +29853,11 @@
       <c r="AM221" t="s">
         <v>308</v>
       </c>
+      <c r="AN221" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="222" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>243</v>
       </c>
@@ -29562,8 +29970,11 @@
       <c r="AM222">
         <v>0</v>
       </c>
+      <c r="AN222">
+        <v>0</v>
+      </c>
     </row>
-    <row r="223" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -29679,8 +30090,11 @@
       <c r="AM223">
         <v>0</v>
       </c>
+      <c r="AN223">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -29793,8 +30207,11 @@
       <c r="AM224">
         <v>0</v>
       </c>
+      <c r="AN224">
+        <v>0</v>
+      </c>
     </row>
-    <row r="225" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -29910,8 +30327,11 @@
       <c r="AM225">
         <v>6</v>
       </c>
+      <c r="AN225">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>247</v>
       </c>
@@ -30024,8 +30444,11 @@
       <c r="AM226">
         <v>0</v>
       </c>
+      <c r="AN226">
+        <v>0</v>
+      </c>
     </row>
-    <row r="227" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -30138,8 +30561,11 @@
       <c r="AM227">
         <v>0</v>
       </c>
+      <c r="AN227">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -30252,8 +30678,11 @@
       <c r="AM228">
         <v>0</v>
       </c>
+      <c r="AN228">
+        <v>0</v>
+      </c>
     </row>
-    <row r="229" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -30366,8 +30795,11 @@
       <c r="AM229">
         <v>0</v>
       </c>
+      <c r="AN229">
+        <v>0</v>
+      </c>
     </row>
-    <row r="230" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>251</v>
       </c>
@@ -30480,8 +30912,11 @@
       <c r="AM230">
         <v>6</v>
       </c>
+      <c r="AN230">
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -30594,8 +31029,11 @@
       <c r="AM231">
         <v>6</v>
       </c>
+      <c r="AN231">
+        <v>0</v>
+      </c>
     </row>
-    <row r="232" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -30708,8 +31146,11 @@
       <c r="AM232">
         <v>6</v>
       </c>
+      <c r="AN232">
+        <v>6</v>
+      </c>
     </row>
-    <row r="233" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -30822,8 +31263,11 @@
       <c r="AM233">
         <v>6</v>
       </c>
+      <c r="AN233">
+        <v>0</v>
+      </c>
     </row>
-    <row r="234" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>255</v>
       </c>
@@ -30936,8 +31380,11 @@
       <c r="AM234">
         <v>6</v>
       </c>
+      <c r="AN234">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -31050,8 +31497,11 @@
       <c r="AM235">
         <v>6</v>
       </c>
+      <c r="AN235">
+        <v>0</v>
+      </c>
     </row>
-    <row r="236" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -31164,8 +31614,11 @@
       <c r="AM236">
         <v>0</v>
       </c>
+      <c r="AN236">
+        <v>0</v>
+      </c>
     </row>
-    <row r="237" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -31278,8 +31731,11 @@
       <c r="AM237">
         <v>6</v>
       </c>
+      <c r="AN237">
+        <v>0</v>
+      </c>
     </row>
-    <row r="238" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -31392,8 +31848,11 @@
       <c r="AM238">
         <v>6</v>
       </c>
+      <c r="AN238">
+        <v>0</v>
+      </c>
     </row>
-    <row r="239" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -31506,8 +31965,11 @@
       <c r="AM239">
         <v>6</v>
       </c>
+      <c r="AN239">
+        <v>0</v>
+      </c>
     </row>
-    <row r="240" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -31620,8 +32082,11 @@
       <c r="AM240">
         <v>6</v>
       </c>
+      <c r="AN240">
+        <v>0</v>
+      </c>
     </row>
-    <row r="241" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -31734,8 +32199,11 @@
       <c r="AM241">
         <v>6</v>
       </c>
+      <c r="AN241">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -31848,8 +32316,11 @@
       <c r="AM242">
         <v>6</v>
       </c>
+      <c r="AN242">
+        <v>6</v>
+      </c>
     </row>
-    <row r="243" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -31962,8 +32433,11 @@
       <c r="AM243">
         <v>6</v>
       </c>
+      <c r="AN243">
+        <v>6</v>
+      </c>
     </row>
-    <row r="244" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>265</v>
       </c>
@@ -32076,8 +32550,11 @@
       <c r="AM244">
         <v>6</v>
       </c>
+      <c r="AN244">
+        <v>0</v>
+      </c>
     </row>
-    <row r="245" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -32190,8 +32667,11 @@
       <c r="AM245">
         <v>0</v>
       </c>
+      <c r="AN245">
+        <v>0</v>
+      </c>
     </row>
-    <row r="246" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -32304,8 +32784,11 @@
       <c r="AM246">
         <v>6</v>
       </c>
+      <c r="AN246">
+        <v>0</v>
+      </c>
     </row>
-    <row r="247" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -32418,8 +32901,11 @@
       <c r="AM247">
         <v>6</v>
       </c>
+      <c r="AN247">
+        <v>0</v>
+      </c>
     </row>
-    <row r="248" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>269</v>
       </c>
@@ -32532,8 +33018,11 @@
       <c r="AM248">
         <v>0</v>
       </c>
+      <c r="AN248">
+        <v>0</v>
+      </c>
     </row>
-    <row r="249" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -32646,8 +33135,11 @@
       <c r="AM249">
         <v>6</v>
       </c>
+      <c r="AN249">
+        <v>0</v>
+      </c>
     </row>
-    <row r="250" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>271</v>
       </c>
@@ -32760,8 +33252,11 @@
       <c r="AM250">
         <v>6</v>
       </c>
+      <c r="AN250">
+        <v>6</v>
+      </c>
     </row>
-    <row r="251" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -32874,8 +33369,11 @@
       <c r="AM251">
         <v>6</v>
       </c>
+      <c r="AN251">
+        <v>0</v>
+      </c>
     </row>
-    <row r="252" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>273</v>
       </c>
@@ -32988,8 +33486,11 @@
       <c r="AM252">
         <v>0</v>
       </c>
+      <c r="AN252">
+        <v>0</v>
+      </c>
     </row>
-    <row r="253" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -33102,8 +33603,11 @@
       <c r="AM253">
         <v>0</v>
       </c>
+      <c r="AN253">
+        <v>0</v>
+      </c>
     </row>
-    <row r="254" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>275</v>
       </c>
@@ -33216,8 +33720,11 @@
       <c r="AM254">
         <v>6</v>
       </c>
+      <c r="AN254">
+        <v>0</v>
+      </c>
     </row>
-    <row r="255" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -33330,8 +33837,11 @@
       <c r="AM255">
         <v>0</v>
       </c>
+      <c r="AN255">
+        <v>0</v>
+      </c>
     </row>
-    <row r="256" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>277</v>
       </c>
@@ -33444,8 +33954,11 @@
       <c r="AM256">
         <v>0</v>
       </c>
+      <c r="AN256">
+        <v>0</v>
+      </c>
     </row>
-    <row r="257" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -33558,8 +34071,11 @@
       <c r="AM257">
         <v>6</v>
       </c>
+      <c r="AN257">
+        <v>0</v>
+      </c>
     </row>
-    <row r="258" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -33672,8 +34188,11 @@
       <c r="AM258">
         <v>6</v>
       </c>
+      <c r="AN258">
+        <v>0</v>
+      </c>
     </row>
-    <row r="259" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>280</v>
       </c>
@@ -33786,8 +34305,11 @@
       <c r="AM259">
         <v>6</v>
       </c>
+      <c r="AN259">
+        <v>0</v>
+      </c>
     </row>
-    <row r="260" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -33900,8 +34422,11 @@
       <c r="AM260">
         <v>6</v>
       </c>
+      <c r="AN260">
+        <v>0</v>
+      </c>
     </row>
-    <row r="261" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>282</v>
       </c>
@@ -34014,8 +34539,11 @@
       <c r="AM261">
         <v>6</v>
       </c>
+      <c r="AN261">
+        <v>0</v>
+      </c>
     </row>
-    <row r="262" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -34128,8 +34656,11 @@
       <c r="AM262">
         <v>6</v>
       </c>
+      <c r="AN262">
+        <v>0</v>
+      </c>
     </row>
-    <row r="263" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>284</v>
       </c>
@@ -34242,8 +34773,11 @@
       <c r="AM263">
         <v>0</v>
       </c>
+      <c r="AN263">
+        <v>0</v>
+      </c>
     </row>
-    <row r="264" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -34356,8 +34890,11 @@
       <c r="AM264">
         <v>6</v>
       </c>
+      <c r="AN264">
+        <v>0</v>
+      </c>
     </row>
-    <row r="265" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>286</v>
       </c>
@@ -34470,8 +35007,11 @@
       <c r="AM265">
         <v>6</v>
       </c>
+      <c r="AN265">
+        <v>0</v>
+      </c>
     </row>
-    <row r="266" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -34584,8 +35124,11 @@
       <c r="AM266">
         <v>6</v>
       </c>
+      <c r="AN266">
+        <v>6</v>
+      </c>
     </row>
-    <row r="267" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>288</v>
       </c>
@@ -34698,8 +35241,11 @@
       <c r="AM267">
         <v>0</v>
       </c>
+      <c r="AN267">
+        <v>0</v>
+      </c>
     </row>
-    <row r="268" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -34812,8 +35358,11 @@
       <c r="AM268">
         <v>0</v>
       </c>
+      <c r="AN268">
+        <v>0</v>
+      </c>
     </row>
-    <row r="269" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>290</v>
       </c>
@@ -34926,8 +35475,11 @@
       <c r="AM269">
         <v>0</v>
       </c>
+      <c r="AN269">
+        <v>0</v>
+      </c>
     </row>
-    <row r="270" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -35040,8 +35592,11 @@
       <c r="AM270">
         <v>0</v>
       </c>
+      <c r="AN270">
+        <v>0</v>
+      </c>
     </row>
-    <row r="271" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>292</v>
       </c>
@@ -35154,8 +35709,11 @@
       <c r="AM271">
         <v>6</v>
       </c>
+      <c r="AN271">
+        <v>0</v>
+      </c>
     </row>
-    <row r="272" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -35172,7 +35730,7 @@
         <v>295</v>
       </c>
       <c r="F272" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G272">
         <v>2</v>
@@ -35273,8 +35831,11 @@
       <c r="AM272" t="s">
         <v>308</v>
       </c>
+      <c r="AN272" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="273" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -35389,8 +35950,11 @@
       <c r="AM273">
         <v>5</v>
       </c>
+      <c r="AN273">
+        <v>0</v>
+      </c>
     </row>
-    <row r="274" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -35505,8 +36069,11 @@
       <c r="AM274">
         <v>0</v>
       </c>
+      <c r="AN274">
+        <v>0</v>
+      </c>
     </row>
-    <row r="275" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>298</v>
       </c>
@@ -35523,7 +36090,7 @@
         <v>295</v>
       </c>
       <c r="F275" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G275">
         <v>3</v>
@@ -35624,8 +36191,11 @@
       <c r="AM275" t="s">
         <v>308</v>
       </c>
+      <c r="AN275" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="276" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -35642,7 +36212,7 @@
         <v>295</v>
       </c>
       <c r="F276" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G276">
         <v>3</v>
@@ -35743,8 +36313,11 @@
       <c r="AM276">
         <v>6</v>
       </c>
+      <c r="AN276">
+        <v>0</v>
+      </c>
     </row>
-    <row r="277" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>300</v>
       </c>
@@ -35859,8 +36432,11 @@
       <c r="AM277">
         <v>5</v>
       </c>
+      <c r="AN277">
+        <v>6</v>
+      </c>
     </row>
-    <row r="278" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -35975,8 +36551,11 @@
       <c r="AM278">
         <v>0</v>
       </c>
+      <c r="AN278">
+        <v>0</v>
+      </c>
     </row>
-    <row r="279" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -36094,8 +36673,11 @@
       <c r="AM279" t="s">
         <v>308</v>
       </c>
+      <c r="AN279" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="280" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -36210,8 +36792,11 @@
       <c r="AM280">
         <v>5</v>
       </c>
+      <c r="AN280">
+        <v>6</v>
+      </c>
     </row>
-    <row r="281" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -36326,8 +36911,11 @@
       <c r="AM281">
         <v>5</v>
       </c>
+      <c r="AN281">
+        <v>6</v>
+      </c>
     </row>
-    <row r="282" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>305</v>
       </c>
@@ -36344,7 +36932,7 @@
         <v>295</v>
       </c>
       <c r="F282" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G282">
         <v>2</v>
@@ -36445,8 +37033,11 @@
       <c r="AM282" t="s">
         <v>308</v>
       </c>
+      <c r="AN282" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="283" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -36564,8 +37155,11 @@
       <c r="AM283" t="s">
         <v>308</v>
       </c>
+      <c r="AN283" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="284" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -36680,8 +37274,11 @@
       <c r="AM284">
         <v>6</v>
       </c>
+      <c r="AN284">
+        <v>0</v>
+      </c>
     </row>
-    <row r="285" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -36796,8 +37393,11 @@
       <c r="AM285">
         <v>0</v>
       </c>
+      <c r="AN285">
+        <v>0</v>
+      </c>
     </row>
-    <row r="286" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -36912,8 +37512,11 @@
       <c r="AM286">
         <v>6</v>
       </c>
+      <c r="AN286">
+        <v>0</v>
+      </c>
     </row>
-    <row r="287" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -37028,8 +37631,11 @@
       <c r="AM287">
         <v>6</v>
       </c>
+      <c r="AN287">
+        <v>6</v>
+      </c>
     </row>
-    <row r="288" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -37144,8 +37750,11 @@
       <c r="AM288">
         <v>6</v>
       </c>
+      <c r="AN288">
+        <v>6</v>
+      </c>
     </row>
-    <row r="289" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -37260,8 +37869,11 @@
       <c r="AM289">
         <v>0</v>
       </c>
+      <c r="AN289">
+        <v>0</v>
+      </c>
     </row>
-    <row r="290" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -37376,8 +37988,11 @@
       <c r="AM290">
         <v>0</v>
       </c>
+      <c r="AN290">
+        <v>0</v>
+      </c>
     </row>
-    <row r="291" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -37492,8 +38107,11 @@
       <c r="AM291">
         <v>6</v>
       </c>
+      <c r="AN291">
+        <v>0</v>
+      </c>
     </row>
-    <row r="292" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -37608,8 +38226,11 @@
       <c r="AM292">
         <v>0</v>
       </c>
+      <c r="AN292">
+        <v>0</v>
+      </c>
     </row>
-    <row r="293" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -37724,8 +38345,11 @@
       <c r="AM293">
         <v>0</v>
       </c>
+      <c r="AN293">
+        <v>0</v>
+      </c>
     </row>
-    <row r="294" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -37843,8 +38467,11 @@
       <c r="AM294">
         <v>0</v>
       </c>
+      <c r="AN294">
+        <v>0</v>
+      </c>
     </row>
-    <row r="295" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -37959,8 +38586,11 @@
       <c r="AM295">
         <v>0</v>
       </c>
+      <c r="AN295">
+        <v>0</v>
+      </c>
     </row>
-    <row r="296" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>322</v>
       </c>
@@ -38075,8 +38705,11 @@
       <c r="AM296">
         <v>6</v>
       </c>
+      <c r="AN296">
+        <v>0</v>
+      </c>
     </row>
-    <row r="297" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -38093,7 +38726,7 @@
         <v>295</v>
       </c>
       <c r="F297" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G297">
         <v>2</v>
@@ -38194,8 +38827,11 @@
       <c r="AM297" t="s">
         <v>308</v>
       </c>
+      <c r="AN297" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="298" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>324</v>
       </c>
@@ -38310,8 +38946,11 @@
       <c r="AM298">
         <v>5</v>
       </c>
+      <c r="AN298">
+        <v>5</v>
+      </c>
     </row>
-    <row r="299" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -38328,7 +38967,7 @@
         <v>295</v>
       </c>
       <c r="F299" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G299">
         <v>3</v>
@@ -38429,8 +39068,11 @@
       <c r="AM299" t="s">
         <v>308</v>
       </c>
+      <c r="AN299" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="300" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>326</v>
       </c>
@@ -38545,8 +39187,11 @@
       <c r="AM300">
         <v>0</v>
       </c>
+      <c r="AN300">
+        <v>0</v>
+      </c>
     </row>
-    <row r="301" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -38661,8 +39306,11 @@
       <c r="AM301">
         <v>6</v>
       </c>
+      <c r="AN301">
+        <v>6</v>
+      </c>
     </row>
-    <row r="302" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>328</v>
       </c>
@@ -38777,8 +39425,11 @@
       <c r="AM302">
         <v>6</v>
       </c>
+      <c r="AN302">
+        <v>0</v>
+      </c>
     </row>
-    <row r="303" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -38893,8 +39544,11 @@
       <c r="AM303">
         <v>6</v>
       </c>
+      <c r="AN303">
+        <v>0</v>
+      </c>
     </row>
-    <row r="304" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>330</v>
       </c>
@@ -39009,8 +39663,11 @@
       <c r="AM304">
         <v>0</v>
       </c>
+      <c r="AN304">
+        <v>0</v>
+      </c>
     </row>
-    <row r="305" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -39125,8 +39782,11 @@
       <c r="AM305">
         <v>0</v>
       </c>
+      <c r="AN305">
+        <v>0</v>
+      </c>
     </row>
-    <row r="306" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>332</v>
       </c>
@@ -39241,8 +39901,11 @@
       <c r="AM306">
         <v>6</v>
       </c>
+      <c r="AN306">
+        <v>6</v>
+      </c>
     </row>
-    <row r="307" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -39357,8 +40020,11 @@
       <c r="AM307">
         <v>6</v>
       </c>
+      <c r="AN307">
+        <v>0</v>
+      </c>
     </row>
-    <row r="308" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>334</v>
       </c>
@@ -39473,8 +40139,11 @@
       <c r="AM308">
         <v>6</v>
       </c>
+      <c r="AN308">
+        <v>0</v>
+      </c>
     </row>
-    <row r="309" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -39589,8 +40258,11 @@
       <c r="AM309">
         <v>6</v>
       </c>
+      <c r="AN309">
+        <v>0</v>
+      </c>
     </row>
-    <row r="310" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>336</v>
       </c>
@@ -39705,8 +40377,11 @@
       <c r="AM310">
         <v>0</v>
       </c>
+      <c r="AN310">
+        <v>0</v>
+      </c>
     </row>
-    <row r="311" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -39821,8 +40496,11 @@
       <c r="AM311">
         <v>6</v>
       </c>
+      <c r="AN311">
+        <v>6</v>
+      </c>
     </row>
-    <row r="312" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -39937,8 +40615,11 @@
       <c r="AM312">
         <v>6</v>
       </c>
+      <c r="AN312">
+        <v>6</v>
+      </c>
     </row>
-    <row r="313" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -40053,8 +40734,11 @@
       <c r="AM313">
         <v>6</v>
       </c>
+      <c r="AN313">
+        <v>0</v>
+      </c>
     </row>
-    <row r="314" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -40169,8 +40853,11 @@
       <c r="AM314">
         <v>5</v>
       </c>
+      <c r="AN314">
+        <v>6</v>
+      </c>
     </row>
-    <row r="315" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -40285,8 +40972,11 @@
       <c r="AM315">
         <v>6</v>
       </c>
+      <c r="AN315">
+        <v>0</v>
+      </c>
     </row>
-    <row r="316" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -40303,7 +40993,7 @@
         <v>295</v>
       </c>
       <c r="F316" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G316">
         <v>2</v>
@@ -40404,8 +41094,11 @@
       <c r="AM316">
         <v>6</v>
       </c>
+      <c r="AN316">
+        <v>0</v>
+      </c>
     </row>
-    <row r="317" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -40422,7 +41115,7 @@
         <v>295</v>
       </c>
       <c r="F317" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G317" t="s">
         <v>10</v>
@@ -40523,8 +41216,11 @@
       <c r="AM317" t="s">
         <v>308</v>
       </c>
+      <c r="AN317" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="318" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -40639,8 +41335,11 @@
       <c r="AM318">
         <v>0</v>
       </c>
+      <c r="AN318">
+        <v>0</v>
+      </c>
     </row>
-    <row r="319" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -40755,8 +41454,11 @@
       <c r="AM319">
         <v>6</v>
       </c>
+      <c r="AN319">
+        <v>6</v>
+      </c>
     </row>
-    <row r="320" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -40871,8 +41573,11 @@
       <c r="AM320">
         <v>6</v>
       </c>
+      <c r="AN320">
+        <v>6</v>
+      </c>
     </row>
-    <row r="321" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -40987,8 +41692,11 @@
       <c r="AM321">
         <v>6</v>
       </c>
+      <c r="AN321">
+        <v>6</v>
+      </c>
     </row>
-    <row r="322" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -41106,8 +41814,11 @@
       <c r="AM322" t="s">
         <v>308</v>
       </c>
+      <c r="AN322" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="323" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -41222,8 +41933,11 @@
       <c r="AM323">
         <v>0</v>
       </c>
+      <c r="AN323">
+        <v>0</v>
+      </c>
     </row>
-    <row r="324" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>351</v>
       </c>
@@ -41341,8 +42055,11 @@
       <c r="AM324" t="s">
         <v>308</v>
       </c>
+      <c r="AN324" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="325" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -41457,8 +42174,11 @@
       <c r="AM325">
         <v>6</v>
       </c>
+      <c r="AN325">
+        <v>6</v>
+      </c>
     </row>
-    <row r="326" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>354</v>
       </c>
@@ -41573,8 +42293,11 @@
       <c r="AM326">
         <v>5</v>
       </c>
+      <c r="AN326">
+        <v>6</v>
+      </c>
     </row>
-    <row r="327" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -41689,8 +42412,11 @@
       <c r="AM327">
         <v>5</v>
       </c>
+      <c r="AN327">
+        <v>0</v>
+      </c>
     </row>
-    <row r="328" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -41707,7 +42433,7 @@
         <v>295</v>
       </c>
       <c r="F328" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G328" t="s">
         <v>10</v>
@@ -41808,8 +42534,11 @@
       <c r="AM328" t="s">
         <v>308</v>
       </c>
+      <c r="AN328" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="329" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>357</v>
       </c>
@@ -41924,8 +42653,11 @@
       <c r="AM329">
         <v>5</v>
       </c>
+      <c r="AN329" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="330" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -41941,6 +42673,9 @@
       <c r="E330" t="s">
         <v>295</v>
       </c>
+      <c r="F330" t="s">
+        <v>740</v>
+      </c>
       <c r="G330" t="s">
         <v>10</v>
       </c>
@@ -42040,8 +42775,11 @@
       <c r="AM330">
         <v>6</v>
       </c>
+      <c r="AN330" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="331" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>359</v>
       </c>
@@ -42156,8 +42894,11 @@
       <c r="AM331" t="s">
         <v>308</v>
       </c>
+      <c r="AN331" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="332" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -42272,8 +43013,11 @@
       <c r="AM332">
         <v>6</v>
       </c>
+      <c r="AN332">
+        <v>6</v>
+      </c>
     </row>
-    <row r="333" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>361</v>
       </c>
@@ -42388,8 +43132,11 @@
       <c r="AM333">
         <v>5</v>
       </c>
+      <c r="AN333">
+        <v>6</v>
+      </c>
     </row>
-    <row r="334" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -42406,7 +43153,7 @@
         <v>295</v>
       </c>
       <c r="F334" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G334" t="s">
         <v>10</v>
@@ -42507,8 +43254,11 @@
       <c r="AM334" t="s">
         <v>308</v>
       </c>
+      <c r="AN334" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="335" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>363</v>
       </c>
@@ -42524,6 +43274,9 @@
       <c r="E335" t="s">
         <v>295</v>
       </c>
+      <c r="F335" t="s">
+        <v>740</v>
+      </c>
       <c r="G335" t="s">
         <v>10</v>
       </c>
@@ -42623,8 +43376,11 @@
       <c r="AM335">
         <v>5</v>
       </c>
+      <c r="AN335" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="336" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -42739,8 +43495,11 @@
       <c r="AM336">
         <v>6</v>
       </c>
+      <c r="AN336">
+        <v>6</v>
+      </c>
     </row>
-    <row r="337" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>365</v>
       </c>
@@ -42757,7 +43516,7 @@
         <v>295</v>
       </c>
       <c r="F337" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="G337" t="s">
         <v>10</v>
@@ -42858,8 +43617,11 @@
       <c r="AM337">
         <v>5</v>
       </c>
+      <c r="AN337" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="338" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -42974,8 +43736,11 @@
       <c r="AM338">
         <v>5</v>
       </c>
+      <c r="AN338">
+        <v>6</v>
+      </c>
     </row>
-    <row r="339" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>367</v>
       </c>
@@ -43090,8 +43855,11 @@
       <c r="AM339">
         <v>5</v>
       </c>
+      <c r="AN339">
+        <v>6</v>
+      </c>
     </row>
-    <row r="340" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -43206,8 +43974,11 @@
       <c r="AM340">
         <v>6</v>
       </c>
+      <c r="AN340">
+        <v>0</v>
+      </c>
     </row>
-    <row r="341" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>369</v>
       </c>
@@ -43322,8 +44093,11 @@
       <c r="AM341">
         <v>6</v>
       </c>
+      <c r="AN341">
+        <v>6</v>
+      </c>
     </row>
-    <row r="342" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -43339,6 +44113,9 @@
       <c r="E342" t="s">
         <v>295</v>
       </c>
+      <c r="F342" t="s">
+        <v>740</v>
+      </c>
       <c r="G342" t="s">
         <v>10</v>
       </c>
@@ -43438,8 +44215,11 @@
       <c r="AM342">
         <v>5</v>
       </c>
+      <c r="AN342" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="343" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>371</v>
       </c>
@@ -43456,7 +44236,7 @@
         <v>295</v>
       </c>
       <c r="F343" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G343" t="s">
         <v>10</v>
@@ -43557,8 +44337,11 @@
       <c r="AM343" t="s">
         <v>308</v>
       </c>
+      <c r="AN343" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="344" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -43575,7 +44358,7 @@
         <v>295</v>
       </c>
       <c r="F344" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G344" t="s">
         <v>10</v>
@@ -43676,8 +44459,11 @@
       <c r="AM344">
         <v>5</v>
       </c>
+      <c r="AN344">
+        <v>0</v>
+      </c>
     </row>
-    <row r="345" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>373</v>
       </c>
@@ -43792,8 +44578,11 @@
       <c r="AM345">
         <v>5</v>
       </c>
+      <c r="AN345" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="346" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -43908,8 +44697,11 @@
       <c r="AM346">
         <v>5</v>
       </c>
+      <c r="AN346">
+        <v>0</v>
+      </c>
     </row>
-    <row r="347" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>375</v>
       </c>
@@ -44024,8 +44816,11 @@
       <c r="AM347">
         <v>6</v>
       </c>
+      <c r="AN347">
+        <v>6</v>
+      </c>
     </row>
-    <row r="348" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -44041,6 +44836,9 @@
       <c r="E348" t="s">
         <v>295</v>
       </c>
+      <c r="F348" t="s">
+        <v>741</v>
+      </c>
       <c r="G348" t="s">
         <v>10</v>
       </c>
@@ -44140,8 +44938,11 @@
       <c r="AM348">
         <v>6</v>
       </c>
+      <c r="AN348">
+        <v>1</v>
+      </c>
     </row>
-    <row r="349" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>377</v>
       </c>
@@ -44256,8 +45057,11 @@
       <c r="AM349">
         <v>6</v>
       </c>
+      <c r="AN349">
+        <v>0</v>
+      </c>
     </row>
-    <row r="350" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -44372,8 +45176,11 @@
       <c r="AM350" t="s">
         <v>308</v>
       </c>
+      <c r="AN350" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="351" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -44488,8 +45295,11 @@
       <c r="AM351">
         <v>0</v>
       </c>
+      <c r="AN351">
+        <v>0</v>
+      </c>
     </row>
-    <row r="352" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>380</v>
       </c>
@@ -44505,6 +45315,9 @@
       <c r="E352" t="s">
         <v>295</v>
       </c>
+      <c r="F352" t="s">
+        <v>741</v>
+      </c>
       <c r="G352" t="s">
         <v>10</v>
       </c>
@@ -44604,8 +45417,11 @@
       <c r="AM352">
         <v>6</v>
       </c>
+      <c r="AN352">
+        <v>1</v>
+      </c>
     </row>
-    <row r="353" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -44720,8 +45536,11 @@
       <c r="AM353">
         <v>5</v>
       </c>
+      <c r="AN353">
+        <v>6</v>
+      </c>
     </row>
-    <row r="354" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>382</v>
       </c>
@@ -44836,8 +45655,11 @@
       <c r="AM354">
         <v>0</v>
       </c>
+      <c r="AN354">
+        <v>0</v>
+      </c>
     </row>
-    <row r="355" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -44955,8 +45777,11 @@
       <c r="AM355" t="s">
         <v>308</v>
       </c>
+      <c r="AN355" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="356" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>384</v>
       </c>
@@ -45071,8 +45896,11 @@
       <c r="AM356">
         <v>0</v>
       </c>
+      <c r="AN356">
+        <v>0</v>
+      </c>
     </row>
-    <row r="357" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -45187,8 +46015,11 @@
       <c r="AM357">
         <v>5</v>
       </c>
+      <c r="AN357">
+        <v>6</v>
+      </c>
     </row>
-    <row r="358" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>386</v>
       </c>
@@ -45303,8 +46134,11 @@
       <c r="AM358">
         <v>6</v>
       </c>
+      <c r="AN358">
+        <v>0</v>
+      </c>
     </row>
-    <row r="359" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -45320,6 +46154,9 @@
       <c r="E359" t="s">
         <v>295</v>
       </c>
+      <c r="F359" t="s">
+        <v>740</v>
+      </c>
       <c r="G359" t="s">
         <v>10</v>
       </c>
@@ -45419,8 +46256,11 @@
       <c r="AM359">
         <v>5</v>
       </c>
+      <c r="AN359" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="360" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>388</v>
       </c>
@@ -45535,8 +46375,11 @@
       <c r="AM360">
         <v>5</v>
       </c>
+      <c r="AN360">
+        <v>6</v>
+      </c>
     </row>
-    <row r="361" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -45552,6 +46395,9 @@
       <c r="E361" t="s">
         <v>295</v>
       </c>
+      <c r="F361" t="s">
+        <v>742</v>
+      </c>
       <c r="G361" t="s">
         <v>10</v>
       </c>
@@ -45651,8 +46497,11 @@
       <c r="AM361">
         <v>5</v>
       </c>
+      <c r="AN361">
+        <v>1</v>
+      </c>
     </row>
-    <row r="362" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>390</v>
       </c>
@@ -45767,8 +46616,11 @@
       <c r="AM362">
         <v>0</v>
       </c>
+      <c r="AN362">
+        <v>0</v>
+      </c>
     </row>
-    <row r="363" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -45883,8 +46735,11 @@
       <c r="AM363">
         <v>0</v>
       </c>
+      <c r="AN363">
+        <v>0</v>
+      </c>
     </row>
-    <row r="364" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -45999,8 +46854,11 @@
       <c r="AM364">
         <v>0</v>
       </c>
+      <c r="AN364">
+        <v>0</v>
+      </c>
     </row>
-    <row r="365" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -46115,8 +46973,11 @@
       <c r="AM365">
         <v>0</v>
       </c>
+      <c r="AN365">
+        <v>0</v>
+      </c>
     </row>
-    <row r="366" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -46231,8 +47092,11 @@
       <c r="AM366">
         <v>0</v>
       </c>
+      <c r="AN366">
+        <v>0</v>
+      </c>
     </row>
-    <row r="367" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -46347,8 +47211,11 @@
       <c r="AM367">
         <v>0</v>
       </c>
+      <c r="AN367">
+        <v>0</v>
+      </c>
     </row>
-    <row r="368" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>398</v>
       </c>
@@ -46463,8 +47330,11 @@
       <c r="AM368">
         <v>0</v>
       </c>
+      <c r="AN368">
+        <v>0</v>
+      </c>
     </row>
-    <row r="369" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -46582,8 +47452,11 @@
       <c r="AM369">
         <v>0</v>
       </c>
+      <c r="AN369">
+        <v>0</v>
+      </c>
     </row>
-    <row r="370" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -46698,8 +47571,11 @@
       <c r="AM370">
         <v>0</v>
       </c>
+      <c r="AN370">
+        <v>0</v>
+      </c>
     </row>
-    <row r="371" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -46814,8 +47690,11 @@
       <c r="AM371">
         <v>0</v>
       </c>
+      <c r="AN371">
+        <v>0</v>
+      </c>
     </row>
-    <row r="372" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -46930,8 +47809,11 @@
       <c r="AM372">
         <v>0</v>
       </c>
+      <c r="AN372">
+        <v>0</v>
+      </c>
     </row>
-    <row r="373" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -46948,7 +47830,7 @@
         <v>392</v>
       </c>
       <c r="F373" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G373">
         <v>4</v>
@@ -47049,8 +47931,11 @@
       <c r="AM373">
         <v>0</v>
       </c>
+      <c r="AN373">
+        <v>0</v>
+      </c>
     </row>
-    <row r="374" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -47165,8 +48050,11 @@
       <c r="AM374">
         <v>0</v>
       </c>
+      <c r="AN374">
+        <v>0</v>
+      </c>
     </row>
-    <row r="375" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -47281,8 +48169,11 @@
       <c r="AM375">
         <v>0</v>
       </c>
+      <c r="AN375">
+        <v>0</v>
+      </c>
     </row>
-    <row r="376" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -47397,8 +48288,11 @@
       <c r="AM376">
         <v>0</v>
       </c>
+      <c r="AN376">
+        <v>0</v>
+      </c>
     </row>
-    <row r="377" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -47513,8 +48407,11 @@
       <c r="AM377">
         <v>0</v>
       </c>
+      <c r="AN377">
+        <v>0</v>
+      </c>
     </row>
-    <row r="378" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -47629,8 +48526,11 @@
       <c r="AM378">
         <v>0</v>
       </c>
+      <c r="AN378">
+        <v>0</v>
+      </c>
     </row>
-    <row r="379" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -47745,8 +48645,11 @@
       <c r="AM379">
         <v>0</v>
       </c>
+      <c r="AN379">
+        <v>0</v>
+      </c>
     </row>
-    <row r="380" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -47864,8 +48767,11 @@
       <c r="AM380">
         <v>0</v>
       </c>
+      <c r="AN380">
+        <v>0</v>
+      </c>
     </row>
-    <row r="381" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -47980,8 +48886,11 @@
       <c r="AM381">
         <v>0</v>
       </c>
+      <c r="AN381">
+        <v>0</v>
+      </c>
     </row>
-    <row r="382" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>413</v>
       </c>
@@ -48096,8 +49005,11 @@
       <c r="AM382">
         <v>0</v>
       </c>
+      <c r="AN382">
+        <v>0</v>
+      </c>
     </row>
-    <row r="383" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -48212,8 +49124,11 @@
       <c r="AM383">
         <v>0</v>
       </c>
+      <c r="AN383">
+        <v>0</v>
+      </c>
     </row>
-    <row r="384" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>415</v>
       </c>
@@ -48328,8 +49243,11 @@
       <c r="AM384">
         <v>0</v>
       </c>
+      <c r="AN384">
+        <v>0</v>
+      </c>
     </row>
-    <row r="385" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -48444,8 +49362,11 @@
       <c r="AM385">
         <v>0</v>
       </c>
+      <c r="AN385">
+        <v>0</v>
+      </c>
     </row>
-    <row r="386" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>417</v>
       </c>
@@ -48563,8 +49484,11 @@
       <c r="AM386">
         <v>0</v>
       </c>
+      <c r="AN386">
+        <v>0</v>
+      </c>
     </row>
-    <row r="387" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -48679,8 +49603,11 @@
       <c r="AM387" t="s">
         <v>308</v>
       </c>
+      <c r="AN387" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="388" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>419</v>
       </c>
@@ -48795,8 +49722,11 @@
       <c r="AM388">
         <v>0</v>
       </c>
+      <c r="AN388">
+        <v>0</v>
+      </c>
     </row>
-    <row r="389" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -48911,8 +49841,11 @@
       <c r="AM389">
         <v>0</v>
       </c>
+      <c r="AN389">
+        <v>0</v>
+      </c>
     </row>
-    <row r="390" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>421</v>
       </c>
@@ -49027,8 +49960,11 @@
       <c r="AM390">
         <v>0</v>
       </c>
+      <c r="AN390">
+        <v>0</v>
+      </c>
     </row>
-    <row r="391" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -49146,8 +50082,11 @@
       <c r="AM391" t="s">
         <v>308</v>
       </c>
+      <c r="AN391" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="392" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>423</v>
       </c>
@@ -49164,7 +50103,7 @@
         <v>392</v>
       </c>
       <c r="F392" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G392">
         <v>2</v>
@@ -49265,8 +50204,11 @@
       <c r="AM392">
         <v>0</v>
       </c>
+      <c r="AN392">
+        <v>0</v>
+      </c>
     </row>
-    <row r="393" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>424</v>
       </c>
@@ -49381,8 +50323,11 @@
       <c r="AM393">
         <v>0</v>
       </c>
+      <c r="AN393">
+        <v>0</v>
+      </c>
     </row>
-    <row r="394" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>425</v>
       </c>
@@ -49497,8 +50442,11 @@
       <c r="AM394">
         <v>0</v>
       </c>
+      <c r="AN394">
+        <v>0</v>
+      </c>
     </row>
-    <row r="395" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>426</v>
       </c>
@@ -49613,8 +50561,11 @@
       <c r="AM395">
         <v>0</v>
       </c>
+      <c r="AN395">
+        <v>0</v>
+      </c>
     </row>
-    <row r="396" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>427</v>
       </c>
@@ -49729,8 +50680,11 @@
       <c r="AM396">
         <v>0</v>
       </c>
+      <c r="AN396">
+        <v>0</v>
+      </c>
     </row>
-    <row r="397" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>428</v>
       </c>
@@ -49845,8 +50799,11 @@
       <c r="AM397">
         <v>0</v>
       </c>
+      <c r="AN397">
+        <v>0</v>
+      </c>
     </row>
-    <row r="398" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>429</v>
       </c>
@@ -49961,8 +50918,11 @@
       <c r="AM398">
         <v>0</v>
       </c>
+      <c r="AN398">
+        <v>0</v>
+      </c>
     </row>
-    <row r="399" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>430</v>
       </c>
@@ -49979,7 +50939,7 @@
         <v>392</v>
       </c>
       <c r="F399" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G399">
         <v>4</v>
@@ -50080,8 +51040,11 @@
       <c r="AM399">
         <v>0</v>
       </c>
+      <c r="AN399">
+        <v>0</v>
+      </c>
     </row>
-    <row r="400" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>431</v>
       </c>
@@ -50196,8 +51159,11 @@
       <c r="AM400">
         <v>0</v>
       </c>
+      <c r="AN400">
+        <v>0</v>
+      </c>
     </row>
-    <row r="401" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>432</v>
       </c>
@@ -50312,8 +51278,11 @@
       <c r="AM401">
         <v>0</v>
       </c>
+      <c r="AN401">
+        <v>0</v>
+      </c>
     </row>
-    <row r="402" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>433</v>
       </c>
@@ -50431,8 +51400,11 @@
       <c r="AM402" t="s">
         <v>308</v>
       </c>
+      <c r="AN402" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="403" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>434</v>
       </c>
@@ -50547,8 +51519,11 @@
       <c r="AM403">
         <v>0</v>
       </c>
+      <c r="AN403">
+        <v>0</v>
+      </c>
     </row>
-    <row r="404" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>435</v>
       </c>
@@ -50666,8 +51641,11 @@
       <c r="AM404">
         <v>0</v>
       </c>
+      <c r="AN404">
+        <v>0</v>
+      </c>
     </row>
-    <row r="405" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>437</v>
       </c>
@@ -50782,8 +51760,11 @@
       <c r="AM405">
         <v>0</v>
       </c>
+      <c r="AN405">
+        <v>0</v>
+      </c>
     </row>
-    <row r="406" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>438</v>
       </c>
@@ -50898,8 +51879,11 @@
       <c r="AM406">
         <v>0</v>
       </c>
+      <c r="AN406">
+        <v>0</v>
+      </c>
     </row>
-    <row r="407" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>439</v>
       </c>
@@ -51014,8 +51998,11 @@
       <c r="AM407">
         <v>0</v>
       </c>
+      <c r="AN407">
+        <v>0</v>
+      </c>
     </row>
-    <row r="408" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>440</v>
       </c>
@@ -51130,8 +52117,11 @@
       <c r="AM408">
         <v>0</v>
       </c>
+      <c r="AN408">
+        <v>0</v>
+      </c>
     </row>
-    <row r="409" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>441</v>
       </c>
@@ -51246,8 +52236,11 @@
       <c r="AM409">
         <v>0</v>
       </c>
+      <c r="AN409">
+        <v>0</v>
+      </c>
     </row>
-    <row r="410" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>442</v>
       </c>
@@ -51362,8 +52355,11 @@
       <c r="AM410">
         <v>0</v>
       </c>
+      <c r="AN410">
+        <v>0</v>
+      </c>
     </row>
-    <row r="411" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>443</v>
       </c>
@@ -51478,8 +52474,11 @@
       <c r="AM411">
         <v>0</v>
       </c>
+      <c r="AN411">
+        <v>0</v>
+      </c>
     </row>
-    <row r="412" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>444</v>
       </c>
@@ -51594,8 +52593,11 @@
       <c r="AM412">
         <v>0</v>
       </c>
+      <c r="AN412">
+        <v>0</v>
+      </c>
     </row>
-    <row r="413" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>445</v>
       </c>
@@ -51710,8 +52712,11 @@
       <c r="AM413">
         <v>0</v>
       </c>
+      <c r="AN413">
+        <v>0</v>
+      </c>
     </row>
-    <row r="414" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>446</v>
       </c>
@@ -51826,8 +52831,11 @@
       <c r="AM414">
         <v>0</v>
       </c>
+      <c r="AN414">
+        <v>0</v>
+      </c>
     </row>
-    <row r="415" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>447</v>
       </c>
@@ -51942,8 +52950,11 @@
       <c r="AM415">
         <v>0</v>
       </c>
+      <c r="AN415">
+        <v>0</v>
+      </c>
     </row>
-    <row r="416" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>448</v>
       </c>
@@ -52058,8 +53069,11 @@
       <c r="AM416" t="s">
         <v>308</v>
       </c>
+      <c r="AN416" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="417" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>449</v>
       </c>
@@ -52177,8 +53191,11 @@
       <c r="AM417" t="s">
         <v>308</v>
       </c>
+      <c r="AN417" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="418" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>450</v>
       </c>
@@ -52293,8 +53310,11 @@
       <c r="AM418">
         <v>0</v>
       </c>
+      <c r="AN418">
+        <v>0</v>
+      </c>
     </row>
-    <row r="419" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>451</v>
       </c>
@@ -52409,8 +53429,11 @@
       <c r="AM419">
         <v>0</v>
       </c>
+      <c r="AN419">
+        <v>0</v>
+      </c>
     </row>
-    <row r="420" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>452</v>
       </c>
@@ -52525,8 +53548,11 @@
       <c r="AM420">
         <v>0</v>
       </c>
+      <c r="AN420">
+        <v>0</v>
+      </c>
     </row>
-    <row r="421" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>453</v>
       </c>
@@ -52644,8 +53670,11 @@
       <c r="AM421" t="s">
         <v>308</v>
       </c>
+      <c r="AN421" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="422" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>454</v>
       </c>
@@ -52760,8 +53789,11 @@
       <c r="AM422">
         <v>0</v>
       </c>
+      <c r="AN422">
+        <v>0</v>
+      </c>
     </row>
-    <row r="423" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>455</v>
       </c>
@@ -52879,8 +53911,11 @@
       <c r="AM423" t="s">
         <v>308</v>
       </c>
+      <c r="AN423" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="424" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>457</v>
       </c>
@@ -52995,8 +54030,11 @@
       <c r="AM424">
         <v>0</v>
       </c>
+      <c r="AN424">
+        <v>0</v>
+      </c>
     </row>
-    <row r="425" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>458</v>
       </c>
@@ -53111,8 +54149,11 @@
       <c r="AM425">
         <v>0</v>
       </c>
+      <c r="AN425">
+        <v>0</v>
+      </c>
     </row>
-    <row r="426" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>459</v>
       </c>
@@ -53227,8 +54268,11 @@
       <c r="AM426" t="s">
         <v>308</v>
       </c>
+      <c r="AN426" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="427" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>460</v>
       </c>
@@ -53343,8 +54387,11 @@
       <c r="AM427">
         <v>0</v>
       </c>
+      <c r="AN427">
+        <v>0</v>
+      </c>
     </row>
-    <row r="428" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>461</v>
       </c>
@@ -53459,8 +54506,11 @@
       <c r="AM428">
         <v>0</v>
       </c>
+      <c r="AN428">
+        <v>0</v>
+      </c>
     </row>
-    <row r="429" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>462</v>
       </c>
@@ -53578,8 +54628,11 @@
       <c r="AM429">
         <v>0</v>
       </c>
+      <c r="AN429">
+        <v>0</v>
+      </c>
     </row>
-    <row r="430" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>464</v>
       </c>
@@ -53694,8 +54747,11 @@
       <c r="AM430">
         <v>0</v>
       </c>
+      <c r="AN430">
+        <v>0</v>
+      </c>
     </row>
-    <row r="431" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>465</v>
       </c>
@@ -53813,8 +54869,11 @@
       <c r="AM431" t="s">
         <v>308</v>
       </c>
+      <c r="AN431" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="432" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>466</v>
       </c>
@@ -53929,8 +54988,11 @@
       <c r="AM432">
         <v>0</v>
       </c>
+      <c r="AN432">
+        <v>0</v>
+      </c>
     </row>
-    <row r="433" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>467</v>
       </c>
@@ -54045,8 +55107,11 @@
       <c r="AM433">
         <v>0</v>
       </c>
+      <c r="AN433">
+        <v>0</v>
+      </c>
     </row>
-    <row r="434" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>468</v>
       </c>
@@ -54161,8 +55226,11 @@
       <c r="AM434">
         <v>0</v>
       </c>
+      <c r="AN434">
+        <v>0</v>
+      </c>
     </row>
-    <row r="435" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>469</v>
       </c>
@@ -54277,8 +55345,11 @@
       <c r="AM435">
         <v>0</v>
       </c>
+      <c r="AN435">
+        <v>0</v>
+      </c>
     </row>
-    <row r="436" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>470</v>
       </c>
@@ -54393,8 +55464,11 @@
       <c r="AM436">
         <v>0</v>
       </c>
+      <c r="AN436">
+        <v>0</v>
+      </c>
     </row>
-    <row r="437" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>471</v>
       </c>
@@ -54509,8 +55583,11 @@
       <c r="AM437">
         <v>0</v>
       </c>
+      <c r="AN437">
+        <v>0</v>
+      </c>
     </row>
-    <row r="438" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>472</v>
       </c>
@@ -54622,8 +55699,11 @@
       <c r="AM438">
         <v>0</v>
       </c>
+      <c r="AN438">
+        <v>0</v>
+      </c>
     </row>
-    <row r="439" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>473</v>
       </c>
@@ -54738,8 +55818,11 @@
       <c r="AM439">
         <v>0</v>
       </c>
+      <c r="AN439">
+        <v>0</v>
+      </c>
     </row>
-    <row r="440" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>474</v>
       </c>
@@ -54854,8 +55937,11 @@
       <c r="AM440">
         <v>0</v>
       </c>
+      <c r="AN440">
+        <v>0</v>
+      </c>
     </row>
-    <row r="441" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>475</v>
       </c>
@@ -54970,8 +56056,11 @@
       <c r="AM441">
         <v>0</v>
       </c>
+      <c r="AN441">
+        <v>0</v>
+      </c>
     </row>
-    <row r="442" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>476</v>
       </c>
@@ -55089,8 +56178,11 @@
       <c r="AM442" t="s">
         <v>308</v>
       </c>
+      <c r="AN442" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="443" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>478</v>
       </c>
@@ -55205,8 +56297,11 @@
       <c r="AM443">
         <v>0</v>
       </c>
+      <c r="AN443">
+        <v>0</v>
+      </c>
     </row>
-    <row r="444" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>479</v>
       </c>
@@ -55324,8 +56419,11 @@
       <c r="AM444" t="s">
         <v>308</v>
       </c>
+      <c r="AN444" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="445" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>480</v>
       </c>
@@ -55440,8 +56538,11 @@
       <c r="AM445">
         <v>0</v>
       </c>
+      <c r="AN445">
+        <v>0</v>
+      </c>
     </row>
-    <row r="446" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>481</v>
       </c>
@@ -55556,8 +56657,11 @@
       <c r="AM446">
         <v>0</v>
       </c>
+      <c r="AN446">
+        <v>0</v>
+      </c>
     </row>
-    <row r="447" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>482</v>
       </c>
@@ -55672,8 +56776,11 @@
       <c r="AM447">
         <v>0</v>
       </c>
+      <c r="AN447">
+        <v>0</v>
+      </c>
     </row>
-    <row r="448" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>483</v>
       </c>
@@ -55788,8 +56895,11 @@
       <c r="AM448">
         <v>0</v>
       </c>
+      <c r="AN448">
+        <v>0</v>
+      </c>
     </row>
-    <row r="449" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>484</v>
       </c>
@@ -55904,8 +57014,11 @@
       <c r="AM449">
         <v>0</v>
       </c>
+      <c r="AN449">
+        <v>0</v>
+      </c>
     </row>
-    <row r="450" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>485</v>
       </c>
@@ -56020,8 +57133,11 @@
       <c r="AM450">
         <v>0</v>
       </c>
+      <c r="AN450">
+        <v>0</v>
+      </c>
     </row>
-    <row r="451" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>486</v>
       </c>
@@ -56038,7 +57154,7 @@
         <v>392</v>
       </c>
       <c r="F451" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G451" t="s">
         <v>10</v>
@@ -56139,8 +57255,11 @@
       <c r="AM451" t="s">
         <v>308</v>
       </c>
+      <c r="AN451" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="452" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>487</v>
       </c>
@@ -56255,8 +57374,11 @@
       <c r="AM452">
         <v>6</v>
       </c>
+      <c r="AN452">
+        <v>6</v>
+      </c>
     </row>
-    <row r="453" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>490</v>
       </c>
@@ -56371,8 +57493,11 @@
       <c r="AM453">
         <v>6</v>
       </c>
+      <c r="AN453">
+        <v>6</v>
+      </c>
     </row>
-    <row r="454" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>491</v>
       </c>
@@ -56487,8 +57612,11 @@
       <c r="AM454">
         <v>0</v>
       </c>
+      <c r="AN454">
+        <v>0</v>
+      </c>
     </row>
-    <row r="455" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>492</v>
       </c>
@@ -56603,8 +57731,11 @@
       <c r="AM455">
         <v>6</v>
       </c>
+      <c r="AN455">
+        <v>0</v>
+      </c>
     </row>
-    <row r="456" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>493</v>
       </c>
@@ -56719,8 +57850,11 @@
       <c r="AM456">
         <v>0</v>
       </c>
+      <c r="AN456">
+        <v>0</v>
+      </c>
     </row>
-    <row r="457" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>494</v>
       </c>
@@ -56838,8 +57972,11 @@
       <c r="AM457">
         <v>6</v>
       </c>
+      <c r="AN457">
+        <v>0</v>
+      </c>
     </row>
-    <row r="458" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>495</v>
       </c>
@@ -56954,8 +58091,11 @@
       <c r="AM458">
         <v>6</v>
       </c>
+      <c r="AN458">
+        <v>6</v>
+      </c>
     </row>
-    <row r="459" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>496</v>
       </c>
@@ -57070,8 +58210,11 @@
       <c r="AM459">
         <v>6</v>
       </c>
+      <c r="AN459">
+        <v>6</v>
+      </c>
     </row>
-    <row r="460" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>497</v>
       </c>
@@ -57186,8 +58329,11 @@
       <c r="AM460">
         <v>6</v>
       </c>
+      <c r="AN460">
+        <v>6</v>
+      </c>
     </row>
-    <row r="461" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>498</v>
       </c>
@@ -57302,8 +58448,11 @@
       <c r="AM461">
         <v>0</v>
       </c>
+      <c r="AN461">
+        <v>0</v>
+      </c>
     </row>
-    <row r="462" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>499</v>
       </c>
@@ -57418,8 +58567,11 @@
       <c r="AM462">
         <v>0</v>
       </c>
+      <c r="AN462">
+        <v>0</v>
+      </c>
     </row>
-    <row r="463" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>500</v>
       </c>
@@ -57534,8 +58686,11 @@
       <c r="AM463">
         <v>6</v>
       </c>
+      <c r="AN463">
+        <v>6</v>
+      </c>
     </row>
-    <row r="464" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>501</v>
       </c>
@@ -57650,8 +58805,11 @@
       <c r="AM464">
         <v>6</v>
       </c>
+      <c r="AN464">
+        <v>6</v>
+      </c>
     </row>
-    <row r="465" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>502</v>
       </c>
@@ -57766,8 +58924,11 @@
       <c r="AM465">
         <v>0</v>
       </c>
+      <c r="AN465">
+        <v>0</v>
+      </c>
     </row>
-    <row r="466" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>503</v>
       </c>
@@ -57882,8 +59043,11 @@
       <c r="AM466">
         <v>5</v>
       </c>
+      <c r="AN466">
+        <v>6</v>
+      </c>
     </row>
-    <row r="467" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>504</v>
       </c>
@@ -57998,8 +59162,11 @@
       <c r="AM467">
         <v>0</v>
       </c>
+      <c r="AN467">
+        <v>0</v>
+      </c>
     </row>
-    <row r="468" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>505</v>
       </c>
@@ -58117,8 +59284,11 @@
       <c r="AM468">
         <v>6</v>
       </c>
+      <c r="AN468">
+        <v>6</v>
+      </c>
     </row>
-    <row r="469" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>506</v>
       </c>
@@ -58236,8 +59406,11 @@
       <c r="AM469">
         <v>0</v>
       </c>
+      <c r="AN469">
+        <v>0</v>
+      </c>
     </row>
-    <row r="470" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>507</v>
       </c>
@@ -58352,8 +59525,11 @@
       <c r="AM470">
         <v>0</v>
       </c>
+      <c r="AN470">
+        <v>0</v>
+      </c>
     </row>
-    <row r="471" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>508</v>
       </c>
@@ -58468,8 +59644,11 @@
       <c r="AM471">
         <v>0</v>
       </c>
+      <c r="AN471">
+        <v>0</v>
+      </c>
     </row>
-    <row r="472" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>509</v>
       </c>
@@ -58584,8 +59763,11 @@
       <c r="AM472">
         <v>6</v>
       </c>
+      <c r="AN472">
+        <v>6</v>
+      </c>
     </row>
-    <row r="473" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>510</v>
       </c>
@@ -58700,8 +59882,11 @@
       <c r="AM473">
         <v>5</v>
       </c>
+      <c r="AN473">
+        <v>6</v>
+      </c>
     </row>
-    <row r="474" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>511</v>
       </c>
@@ -58816,8 +60001,11 @@
       <c r="AM474">
         <v>6</v>
       </c>
+      <c r="AN474">
+        <v>6</v>
+      </c>
     </row>
-    <row r="475" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>512</v>
       </c>
@@ -58935,8 +60123,11 @@
       <c r="AM475">
         <v>0</v>
       </c>
+      <c r="AN475">
+        <v>0</v>
+      </c>
     </row>
-    <row r="476" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>513</v>
       </c>
@@ -59051,8 +60242,11 @@
       <c r="AM476">
         <v>6</v>
       </c>
+      <c r="AN476">
+        <v>0</v>
+      </c>
     </row>
-    <row r="477" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>514</v>
       </c>
@@ -59167,8 +60361,11 @@
       <c r="AM477">
         <v>0</v>
       </c>
+      <c r="AN477">
+        <v>0</v>
+      </c>
     </row>
-    <row r="478" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>515</v>
       </c>
@@ -59283,8 +60480,11 @@
       <c r="AM478">
         <v>0</v>
       </c>
+      <c r="AN478">
+        <v>0</v>
+      </c>
     </row>
-    <row r="479" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>516</v>
       </c>
@@ -59399,8 +60599,11 @@
       <c r="AM479">
         <v>6</v>
       </c>
+      <c r="AN479">
+        <v>6</v>
+      </c>
     </row>
-    <row r="480" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>517</v>
       </c>
@@ -59515,8 +60718,11 @@
       <c r="AM480">
         <v>6</v>
       </c>
+      <c r="AN480">
+        <v>6</v>
+      </c>
     </row>
-    <row r="481" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>518</v>
       </c>
@@ -59631,8 +60837,11 @@
       <c r="AM481">
         <v>6</v>
       </c>
+      <c r="AN481">
+        <v>6</v>
+      </c>
     </row>
-    <row r="482" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>519</v>
       </c>
@@ -59747,8 +60956,11 @@
       <c r="AM482">
         <v>0</v>
       </c>
+      <c r="AN482">
+        <v>0</v>
+      </c>
     </row>
-    <row r="483" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>520</v>
       </c>
@@ -59863,8 +61075,11 @@
       <c r="AM483">
         <v>6</v>
       </c>
+      <c r="AN483">
+        <v>6</v>
+      </c>
     </row>
-    <row r="484" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>521</v>
       </c>
@@ -59979,8 +61194,11 @@
       <c r="AM484">
         <v>0</v>
       </c>
+      <c r="AN484">
+        <v>0</v>
+      </c>
     </row>
-    <row r="485" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>522</v>
       </c>
@@ -60095,8 +61313,11 @@
       <c r="AM485">
         <v>6</v>
       </c>
+      <c r="AN485">
+        <v>0</v>
+      </c>
     </row>
-    <row r="486" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>523</v>
       </c>
@@ -60211,8 +61432,11 @@
       <c r="AM486">
         <v>0</v>
       </c>
+      <c r="AN486">
+        <v>0</v>
+      </c>
     </row>
-    <row r="487" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>524</v>
       </c>
@@ -60327,8 +61551,11 @@
       <c r="AM487">
         <v>0</v>
       </c>
+      <c r="AN487">
+        <v>0</v>
+      </c>
     </row>
-    <row r="488" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>525</v>
       </c>
@@ -60446,8 +61673,11 @@
       <c r="AM488">
         <v>0</v>
       </c>
+      <c r="AN488">
+        <v>0</v>
+      </c>
     </row>
-    <row r="489" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>526</v>
       </c>
@@ -60562,8 +61792,11 @@
       <c r="AM489">
         <v>0</v>
       </c>
+      <c r="AN489">
+        <v>0</v>
+      </c>
     </row>
-    <row r="490" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>527</v>
       </c>
@@ -60678,8 +61911,11 @@
       <c r="AM490">
         <v>0</v>
       </c>
+      <c r="AN490">
+        <v>0</v>
+      </c>
     </row>
-    <row r="491" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>528</v>
       </c>
@@ -60794,8 +62030,11 @@
       <c r="AM491">
         <v>0</v>
       </c>
+      <c r="AN491">
+        <v>0</v>
+      </c>
     </row>
-    <row r="492" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>529</v>
       </c>
@@ -60910,8 +62149,11 @@
       <c r="AM492">
         <v>6</v>
       </c>
+      <c r="AN492">
+        <v>0</v>
+      </c>
     </row>
-    <row r="493" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>530</v>
       </c>
@@ -61026,8 +62268,11 @@
       <c r="AM493">
         <v>6</v>
       </c>
+      <c r="AN493">
+        <v>0</v>
+      </c>
     </row>
-    <row r="494" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>531</v>
       </c>
@@ -61142,8 +62387,11 @@
       <c r="AM494">
         <v>0</v>
       </c>
+      <c r="AN494">
+        <v>0</v>
+      </c>
     </row>
-    <row r="495" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>532</v>
       </c>
@@ -61160,7 +62408,7 @@
         <v>489</v>
       </c>
       <c r="F495" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G495">
         <v>0</v>
@@ -61261,8 +62509,11 @@
       <c r="AM495" t="s">
         <v>308</v>
       </c>
+      <c r="AN495" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="496" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>533</v>
       </c>
@@ -61377,8 +62628,11 @@
       <c r="AM496">
         <v>0</v>
       </c>
+      <c r="AN496">
+        <v>0</v>
+      </c>
     </row>
-    <row r="497" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>534</v>
       </c>
@@ -61493,8 +62747,11 @@
       <c r="AM497">
         <v>0</v>
       </c>
+      <c r="AN497">
+        <v>0</v>
+      </c>
     </row>
-    <row r="498" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>535</v>
       </c>
@@ -61609,8 +62866,11 @@
       <c r="AM498">
         <v>6</v>
       </c>
+      <c r="AN498">
+        <v>0</v>
+      </c>
     </row>
-    <row r="499" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>536</v>
       </c>
@@ -61725,8 +62985,11 @@
       <c r="AM499">
         <v>6</v>
       </c>
+      <c r="AN499">
+        <v>0</v>
+      </c>
     </row>
-    <row r="500" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>537</v>
       </c>
@@ -61841,8 +63104,11 @@
       <c r="AM500">
         <v>0</v>
       </c>
+      <c r="AN500">
+        <v>0</v>
+      </c>
     </row>
-    <row r="501" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>538</v>
       </c>
@@ -61957,8 +63223,11 @@
       <c r="AM501">
         <v>6</v>
       </c>
+      <c r="AN501">
+        <v>0</v>
+      </c>
     </row>
-    <row r="502" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>539</v>
       </c>
@@ -62073,8 +63342,11 @@
       <c r="AM502">
         <v>0</v>
       </c>
+      <c r="AN502">
+        <v>0</v>
+      </c>
     </row>
-    <row r="503" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>540</v>
       </c>
@@ -62189,8 +63461,11 @@
       <c r="AM503">
         <v>0</v>
       </c>
+      <c r="AN503">
+        <v>0</v>
+      </c>
     </row>
-    <row r="504" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>541</v>
       </c>
@@ -62305,8 +63580,11 @@
       <c r="AM504">
         <v>0</v>
       </c>
+      <c r="AN504">
+        <v>0</v>
+      </c>
     </row>
-    <row r="505" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>542</v>
       </c>
@@ -62421,8 +63699,11 @@
       <c r="AM505">
         <v>0</v>
       </c>
+      <c r="AN505">
+        <v>0</v>
+      </c>
     </row>
-    <row r="506" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>543</v>
       </c>
@@ -62537,8 +63818,11 @@
       <c r="AM506">
         <v>0</v>
       </c>
+      <c r="AN506">
+        <v>0</v>
+      </c>
     </row>
-    <row r="507" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>544</v>
       </c>
@@ -62653,8 +63937,11 @@
       <c r="AM507">
         <v>6</v>
       </c>
+      <c r="AN507">
+        <v>6</v>
+      </c>
     </row>
-    <row r="508" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>545</v>
       </c>
@@ -62769,8 +64056,11 @@
       <c r="AM508">
         <v>0</v>
       </c>
+      <c r="AN508">
+        <v>0</v>
+      </c>
     </row>
-    <row r="509" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>546</v>
       </c>
@@ -62885,8 +64175,11 @@
       <c r="AM509">
         <v>0</v>
       </c>
+      <c r="AN509">
+        <v>0</v>
+      </c>
     </row>
-    <row r="510" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>547</v>
       </c>
@@ -63001,8 +64294,11 @@
       <c r="AM510">
         <v>6</v>
       </c>
+      <c r="AN510">
+        <v>0</v>
+      </c>
     </row>
-    <row r="511" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>548</v>
       </c>
@@ -63117,8 +64413,11 @@
       <c r="AM511">
         <v>6</v>
       </c>
+      <c r="AN511">
+        <v>0</v>
+      </c>
     </row>
-    <row r="512" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>549</v>
       </c>
@@ -63135,7 +64434,7 @@
         <v>489</v>
       </c>
       <c r="F512" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G512" t="s">
         <v>10</v>
@@ -63236,8 +64535,11 @@
       <c r="AM512">
         <v>0</v>
       </c>
+      <c r="AN512">
+        <v>0</v>
+      </c>
     </row>
-    <row r="513" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>550</v>
       </c>
@@ -63352,8 +64654,11 @@
       <c r="AM513">
         <v>6</v>
       </c>
+      <c r="AN513">
+        <v>6</v>
+      </c>
     </row>
-    <row r="514" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>551</v>
       </c>
@@ -63468,8 +64773,11 @@
       <c r="AM514">
         <v>6</v>
       </c>
+      <c r="AN514">
+        <v>6</v>
+      </c>
     </row>
-    <row r="515" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>552</v>
       </c>
@@ -63584,8 +64892,11 @@
       <c r="AM515">
         <v>0</v>
       </c>
+      <c r="AN515">
+        <v>0</v>
+      </c>
     </row>
-    <row r="516" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>553</v>
       </c>
@@ -63700,8 +65011,11 @@
       <c r="AM516">
         <v>6</v>
       </c>
+      <c r="AN516">
+        <v>6</v>
+      </c>
     </row>
-    <row r="517" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>554</v>
       </c>
@@ -63819,8 +65133,11 @@
       <c r="AM517" t="s">
         <v>308</v>
       </c>
+      <c r="AN517" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="518" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>555</v>
       </c>
@@ -63938,8 +65255,11 @@
       <c r="AM518" t="s">
         <v>308</v>
       </c>
+      <c r="AN518" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="519" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>557</v>
       </c>
@@ -64054,8 +65374,11 @@
       <c r="AM519">
         <v>0</v>
       </c>
+      <c r="AN519">
+        <v>0</v>
+      </c>
     </row>
-    <row r="520" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>558</v>
       </c>
@@ -64170,8 +65493,11 @@
       <c r="AM520">
         <v>6</v>
       </c>
+      <c r="AN520">
+        <v>6</v>
+      </c>
     </row>
-    <row r="521" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>559</v>
       </c>
@@ -64286,8 +65612,11 @@
       <c r="AM521">
         <v>6</v>
       </c>
+      <c r="AN521">
+        <v>6</v>
+      </c>
     </row>
-    <row r="522" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>560</v>
       </c>
@@ -64402,8 +65731,11 @@
       <c r="AM522">
         <v>6</v>
       </c>
+      <c r="AN522">
+        <v>6</v>
+      </c>
     </row>
-    <row r="523" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>561</v>
       </c>
@@ -64518,8 +65850,11 @@
       <c r="AM523">
         <v>0</v>
       </c>
+      <c r="AN523">
+        <v>0</v>
+      </c>
     </row>
-    <row r="524" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>562</v>
       </c>
@@ -64634,8 +65969,11 @@
       <c r="AM524">
         <v>0</v>
       </c>
+      <c r="AN524">
+        <v>0</v>
+      </c>
     </row>
-    <row r="525" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>563</v>
       </c>
@@ -64750,8 +66088,11 @@
       <c r="AM525">
         <v>0</v>
       </c>
+      <c r="AN525">
+        <v>0</v>
+      </c>
     </row>
-    <row r="526" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>564</v>
       </c>
@@ -64866,8 +66207,11 @@
       <c r="AM526">
         <v>0</v>
       </c>
+      <c r="AN526">
+        <v>0</v>
+      </c>
     </row>
-    <row r="527" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>565</v>
       </c>
@@ -64982,8 +66326,11 @@
       <c r="AM527">
         <v>6</v>
       </c>
+      <c r="AN527">
+        <v>0</v>
+      </c>
     </row>
-    <row r="528" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>566</v>
       </c>
@@ -65101,8 +66448,11 @@
       <c r="AM528">
         <v>0</v>
       </c>
+      <c r="AN528">
+        <v>0</v>
+      </c>
     </row>
-    <row r="529" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>567</v>
       </c>
@@ -65217,8 +66567,11 @@
       <c r="AM529">
         <v>0</v>
       </c>
+      <c r="AN529">
+        <v>0</v>
+      </c>
     </row>
-    <row r="530" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>568</v>
       </c>
@@ -65333,8 +66686,11 @@
       <c r="AM530">
         <v>0</v>
       </c>
+      <c r="AN530">
+        <v>0</v>
+      </c>
     </row>
-    <row r="531" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>569</v>
       </c>
@@ -65351,7 +66707,7 @@
         <v>489</v>
       </c>
       <c r="F531" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G531" t="s">
         <v>10</v>
@@ -65452,8 +66808,11 @@
       <c r="AM531">
         <v>6</v>
       </c>
+      <c r="AN531">
+        <v>6</v>
+      </c>
     </row>
-    <row r="532" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>570</v>
       </c>
@@ -65571,8 +66930,11 @@
       <c r="AM532">
         <v>0</v>
       </c>
+      <c r="AN532">
+        <v>0</v>
+      </c>
     </row>
-    <row r="533" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>571</v>
       </c>
@@ -65685,10 +67047,13 @@
         <v>6</v>
       </c>
       <c r="AM533">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="AN533">
+        <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>572</v>
       </c>
@@ -65803,8 +67168,11 @@
       <c r="AM534">
         <v>6</v>
       </c>
+      <c r="AN534">
+        <v>6</v>
+      </c>
     </row>
-    <row r="535" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>573</v>
       </c>
@@ -65919,8 +67287,11 @@
       <c r="AM535">
         <v>6</v>
       </c>
+      <c r="AN535">
+        <v>6</v>
+      </c>
     </row>
-    <row r="536" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>574</v>
       </c>
@@ -66035,8 +67406,11 @@
       <c r="AM536">
         <v>0</v>
       </c>
+      <c r="AN536">
+        <v>0</v>
+      </c>
     </row>
-    <row r="537" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>575</v>
       </c>
@@ -66151,8 +67525,11 @@
       <c r="AM537">
         <v>0</v>
       </c>
+      <c r="AN537">
+        <v>0</v>
+      </c>
     </row>
-    <row r="538" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>576</v>
       </c>
@@ -66267,8 +67644,11 @@
       <c r="AM538">
         <v>6</v>
       </c>
+      <c r="AN538">
+        <v>6</v>
+      </c>
     </row>
-    <row r="539" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>577</v>
       </c>
@@ -66383,8 +67763,11 @@
       <c r="AM539">
         <v>0</v>
       </c>
+      <c r="AN539">
+        <v>0</v>
+      </c>
     </row>
-    <row r="540" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>578</v>
       </c>
@@ -66499,8 +67882,11 @@
       <c r="AM540">
         <v>0</v>
       </c>
+      <c r="AN540">
+        <v>0</v>
+      </c>
     </row>
-    <row r="541" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>579</v>
       </c>
@@ -66615,8 +68001,11 @@
       <c r="AM541">
         <v>6</v>
       </c>
+      <c r="AN541">
+        <v>6</v>
+      </c>
     </row>
-    <row r="542" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>580</v>
       </c>
@@ -66633,7 +68022,7 @@
         <v>582</v>
       </c>
       <c r="F542" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G542">
         <v>1</v>
@@ -66734,8 +68123,11 @@
       <c r="AM542" t="s">
         <v>308</v>
       </c>
+      <c r="AN542" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="543" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>583</v>
       </c>
@@ -66850,8 +68242,11 @@
       <c r="AM543" t="s">
         <v>308</v>
       </c>
+      <c r="AN543" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="544" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>584</v>
       </c>
@@ -66868,7 +68263,7 @@
         <v>582</v>
       </c>
       <c r="F544" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G544">
         <v>1</v>
@@ -66969,8 +68364,11 @@
       <c r="AM544" t="s">
         <v>308</v>
       </c>
+      <c r="AN544" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="545" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>585</v>
       </c>
@@ -67085,8 +68483,11 @@
       <c r="AM545" t="s">
         <v>308</v>
       </c>
+      <c r="AN545" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="546" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>586</v>
       </c>
@@ -67201,8 +68602,11 @@
       <c r="AM546" t="s">
         <v>308</v>
       </c>
+      <c r="AN546" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="547" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>587</v>
       </c>
@@ -67317,8 +68721,11 @@
       <c r="AM547" t="s">
         <v>308</v>
       </c>
+      <c r="AN547" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="548" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>588</v>
       </c>
@@ -67433,8 +68840,11 @@
       <c r="AM548" t="s">
         <v>308</v>
       </c>
+      <c r="AN548" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="549" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>589</v>
       </c>
@@ -67549,8 +68959,11 @@
       <c r="AM549" t="s">
         <v>308</v>
       </c>
+      <c r="AN549" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="550" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>590</v>
       </c>
@@ -67665,8 +69078,11 @@
       <c r="AM550" t="s">
         <v>308</v>
       </c>
+      <c r="AN550" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="551" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>591</v>
       </c>
@@ -67781,8 +69197,11 @@
       <c r="AM551" t="s">
         <v>308</v>
       </c>
+      <c r="AN551" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="552" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>592</v>
       </c>
@@ -67897,8 +69316,11 @@
       <c r="AM552" t="s">
         <v>308</v>
       </c>
+      <c r="AN552" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="553" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>593</v>
       </c>
@@ -68013,8 +69435,11 @@
       <c r="AM553" t="s">
         <v>308</v>
       </c>
+      <c r="AN553" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="554" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>594</v>
       </c>
@@ -68031,7 +69456,7 @@
         <v>582</v>
       </c>
       <c r="F554" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G554">
         <v>1</v>
@@ -68132,8 +69557,11 @@
       <c r="AM554" t="s">
         <v>308</v>
       </c>
+      <c r="AN554" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="555" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>595</v>
       </c>
@@ -68248,8 +69676,11 @@
       <c r="AM555" t="s">
         <v>308</v>
       </c>
+      <c r="AN555" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="556" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>596</v>
       </c>
@@ -68364,8 +69795,11 @@
       <c r="AM556" t="s">
         <v>308</v>
       </c>
+      <c r="AN556" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="557" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>597</v>
       </c>
@@ -68477,8 +69911,11 @@
       <c r="AM557" t="s">
         <v>308</v>
       </c>
+      <c r="AN557" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="558" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>598</v>
       </c>
@@ -68593,8 +70030,11 @@
       <c r="AM558" t="s">
         <v>308</v>
       </c>
+      <c r="AN558" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="559" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>599</v>
       </c>
@@ -68709,8 +70149,11 @@
       <c r="AM559" t="s">
         <v>308</v>
       </c>
+      <c r="AN559" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="560" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>600</v>
       </c>
@@ -68825,8 +70268,11 @@
       <c r="AM560" t="s">
         <v>308</v>
       </c>
+      <c r="AN560" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="561" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>601</v>
       </c>
@@ -68941,8 +70387,11 @@
       <c r="AM561" t="s">
         <v>308</v>
       </c>
+      <c r="AN561" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="562" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>602</v>
       </c>
@@ -69057,8 +70506,11 @@
       <c r="AM562" t="s">
         <v>308</v>
       </c>
+      <c r="AN562" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="563" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>603</v>
       </c>
@@ -69173,8 +70625,11 @@
       <c r="AM563" t="s">
         <v>308</v>
       </c>
+      <c r="AN563" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="564" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>604</v>
       </c>
@@ -69289,8 +70744,11 @@
       <c r="AM564" t="s">
         <v>308</v>
       </c>
+      <c r="AN564" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="565" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>605</v>
       </c>
@@ -69405,8 +70863,11 @@
       <c r="AM565" t="s">
         <v>308</v>
       </c>
+      <c r="AN565" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="566" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>606</v>
       </c>
@@ -69521,8 +70982,11 @@
       <c r="AM566" t="s">
         <v>308</v>
       </c>
+      <c r="AN566" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="567" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>607</v>
       </c>
@@ -69637,8 +71101,11 @@
       <c r="AM567" t="s">
         <v>308</v>
       </c>
+      <c r="AN567" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="568" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>608</v>
       </c>
@@ -69753,8 +71220,11 @@
       <c r="AM568" t="s">
         <v>308</v>
       </c>
+      <c r="AN568" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="569" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>609</v>
       </c>
@@ -69869,8 +71339,11 @@
       <c r="AM569" t="s">
         <v>308</v>
       </c>
+      <c r="AN569" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="570" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>610</v>
       </c>
@@ -69985,8 +71458,11 @@
       <c r="AM570" t="s">
         <v>308</v>
       </c>
+      <c r="AN570" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="571" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>611</v>
       </c>
@@ -70104,8 +71580,11 @@
       <c r="AM571" t="s">
         <v>308</v>
       </c>
+      <c r="AN571" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="572" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>612</v>
       </c>
@@ -70220,8 +71699,11 @@
       <c r="AM572" t="s">
         <v>308</v>
       </c>
+      <c r="AN572" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="573" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>613</v>
       </c>
@@ -70336,8 +71818,11 @@
       <c r="AM573" t="s">
         <v>308</v>
       </c>
+      <c r="AN573" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="574" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>614</v>
       </c>
@@ -70452,8 +71937,11 @@
       <c r="AM574" t="s">
         <v>308</v>
       </c>
+      <c r="AN574" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="575" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>615</v>
       </c>
@@ -70568,8 +72056,11 @@
       <c r="AM575" t="s">
         <v>308</v>
       </c>
+      <c r="AN575" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="576" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>616</v>
       </c>
@@ -70684,8 +72175,11 @@
       <c r="AM576" t="s">
         <v>308</v>
       </c>
+      <c r="AN576" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="577" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>617</v>
       </c>
@@ -70800,8 +72294,11 @@
       <c r="AM577" t="s">
         <v>308</v>
       </c>
+      <c r="AN577" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="578" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>618</v>
       </c>
@@ -70818,7 +72315,7 @@
         <v>582</v>
       </c>
       <c r="F578" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G578">
         <v>1</v>
@@ -70919,8 +72416,11 @@
       <c r="AM578" t="s">
         <v>308</v>
       </c>
+      <c r="AN578" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="579" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>619</v>
       </c>
@@ -71035,8 +72535,11 @@
       <c r="AM579" t="s">
         <v>308</v>
       </c>
+      <c r="AN579" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="580" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>620</v>
       </c>
@@ -71151,8 +72654,11 @@
       <c r="AM580" t="s">
         <v>308</v>
       </c>
+      <c r="AN580" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="581" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>621</v>
       </c>
@@ -71267,8 +72773,11 @@
       <c r="AM581" t="s">
         <v>308</v>
       </c>
+      <c r="AN581" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="582" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>622</v>
       </c>
@@ -71383,8 +72892,11 @@
       <c r="AM582" t="s">
         <v>308</v>
       </c>
+      <c r="AN582" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="583" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>623</v>
       </c>
@@ -71401,7 +72913,7 @@
         <v>582</v>
       </c>
       <c r="F583" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G583">
         <v>1</v>
@@ -71502,8 +73014,11 @@
       <c r="AM583" t="s">
         <v>308</v>
       </c>
+      <c r="AN583" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="584" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>624</v>
       </c>
@@ -71618,8 +73133,11 @@
       <c r="AM584" t="s">
         <v>308</v>
       </c>
+      <c r="AN584" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="585" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>625</v>
       </c>
@@ -71734,8 +73252,11 @@
       <c r="AM585" t="s">
         <v>308</v>
       </c>
+      <c r="AN585" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="586" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>626</v>
       </c>
@@ -71850,8 +73371,11 @@
       <c r="AM586" t="s">
         <v>308</v>
       </c>
+      <c r="AN586" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="587" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>627</v>
       </c>
@@ -71966,8 +73490,11 @@
       <c r="AM587" t="s">
         <v>308</v>
       </c>
+      <c r="AN587" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="588" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>628</v>
       </c>
@@ -72082,8 +73609,11 @@
       <c r="AM588" t="s">
         <v>308</v>
       </c>
+      <c r="AN588" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="589" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>629</v>
       </c>
@@ -72198,8 +73728,11 @@
       <c r="AM589" t="s">
         <v>308</v>
       </c>
+      <c r="AN589" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="590" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>630</v>
       </c>
@@ -72216,7 +73749,7 @@
         <v>582</v>
       </c>
       <c r="F590" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G590" t="s">
         <v>10</v>
@@ -72317,8 +73850,11 @@
       <c r="AM590" t="s">
         <v>308</v>
       </c>
+      <c r="AN590" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="591" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>631</v>
       </c>
@@ -72433,8 +73969,11 @@
       <c r="AM591" t="s">
         <v>308</v>
       </c>
+      <c r="AN591" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="592" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>632</v>
       </c>
@@ -72549,8 +74088,11 @@
       <c r="AM592" t="s">
         <v>308</v>
       </c>
+      <c r="AN592" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="593" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>633</v>
       </c>
@@ -72665,8 +74207,11 @@
       <c r="AM593" t="s">
         <v>308</v>
       </c>
+      <c r="AN593" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="594" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>634</v>
       </c>
@@ -72781,8 +74326,11 @@
       <c r="AM594" t="s">
         <v>308</v>
       </c>
+      <c r="AN594" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="595" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>635</v>
       </c>
@@ -72897,8 +74445,11 @@
       <c r="AM595" t="s">
         <v>308</v>
       </c>
+      <c r="AN595" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="596" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>636</v>
       </c>
@@ -73013,8 +74564,11 @@
       <c r="AM596" t="s">
         <v>308</v>
       </c>
+      <c r="AN596" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="597" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>637</v>
       </c>
@@ -73129,8 +74683,11 @@
       <c r="AM597" t="s">
         <v>308</v>
       </c>
+      <c r="AN597" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="598" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>638</v>
       </c>
@@ -73245,8 +74802,11 @@
       <c r="AM598" t="s">
         <v>308</v>
       </c>
+      <c r="AN598" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="599" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>639</v>
       </c>
@@ -73361,8 +74921,11 @@
       <c r="AM599" t="s">
         <v>308</v>
       </c>
+      <c r="AN599" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="600" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>640</v>
       </c>
@@ -73477,8 +75040,11 @@
       <c r="AM600" t="s">
         <v>308</v>
       </c>
+      <c r="AN600" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="601" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>641</v>
       </c>
@@ -73593,8 +75159,11 @@
       <c r="AM601" t="s">
         <v>308</v>
       </c>
+      <c r="AN601" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="602" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>642</v>
       </c>
@@ -73709,8 +75278,11 @@
       <c r="AM602" t="s">
         <v>308</v>
       </c>
+      <c r="AN602" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="603" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>643</v>
       </c>
@@ -73822,8 +75394,11 @@
       <c r="AM603" t="s">
         <v>308</v>
       </c>
+      <c r="AN603" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="604" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>644</v>
       </c>
@@ -73935,8 +75510,11 @@
       <c r="AM604" t="s">
         <v>308</v>
       </c>
+      <c r="AN604" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="605" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>645</v>
       </c>
@@ -74048,8 +75626,11 @@
       <c r="AM605" t="s">
         <v>308</v>
       </c>
+      <c r="AN605" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="606" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>646</v>
       </c>
@@ -74164,8 +75745,11 @@
       <c r="AM606" t="s">
         <v>308</v>
       </c>
+      <c r="AN606" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="607" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>647</v>
       </c>
@@ -74280,8 +75864,11 @@
       <c r="AM607" t="s">
         <v>308</v>
       </c>
+      <c r="AN607" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="608" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>648</v>
       </c>
@@ -74396,8 +75983,11 @@
       <c r="AM608" t="s">
         <v>308</v>
       </c>
+      <c r="AN608" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="609" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>649</v>
       </c>
@@ -74515,8 +76105,11 @@
       <c r="AM609" t="s">
         <v>308</v>
       </c>
+      <c r="AN609" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="610" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>650</v>
       </c>
@@ -74631,8 +76224,11 @@
       <c r="AM610" t="s">
         <v>308</v>
       </c>
+      <c r="AN610" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="611" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>651</v>
       </c>
@@ -74649,7 +76245,7 @@
         <v>582</v>
       </c>
       <c r="F611" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G611" t="s">
         <v>10</v>
@@ -74750,8 +76346,11 @@
       <c r="AM611" t="s">
         <v>308</v>
       </c>
+      <c r="AN611" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="612" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>652</v>
       </c>
@@ -74866,8 +76465,11 @@
       <c r="AM612" t="s">
         <v>308</v>
       </c>
+      <c r="AN612" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="613" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>653</v>
       </c>
@@ -74982,8 +76584,11 @@
       <c r="AM613" t="s">
         <v>308</v>
       </c>
+      <c r="AN613" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="614" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>654</v>
       </c>
@@ -75098,8 +76703,11 @@
       <c r="AM614" t="s">
         <v>308</v>
       </c>
+      <c r="AN614" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="615" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>655</v>
       </c>
@@ -75214,8 +76822,11 @@
       <c r="AM615" t="s">
         <v>308</v>
       </c>
+      <c r="AN615" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="616" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>656</v>
       </c>
@@ -75330,8 +76941,11 @@
       <c r="AM616" t="s">
         <v>308</v>
       </c>
+      <c r="AN616" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="617" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>657</v>
       </c>
@@ -75446,8 +77060,11 @@
       <c r="AM617" t="s">
         <v>308</v>
       </c>
+      <c r="AN617" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="618" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>658</v>
       </c>
@@ -75562,8 +77179,11 @@
       <c r="AM618" t="s">
         <v>308</v>
       </c>
+      <c r="AN618" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="619" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>659</v>
       </c>
@@ -75678,8 +77298,11 @@
       <c r="AM619" t="s">
         <v>308</v>
       </c>
+      <c r="AN619" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="620" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>660</v>
       </c>
@@ -75797,8 +77420,11 @@
       <c r="AM620" t="s">
         <v>308</v>
       </c>
+      <c r="AN620" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="621" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>661</v>
       </c>
@@ -75913,8 +77539,11 @@
       <c r="AM621" t="s">
         <v>308</v>
       </c>
+      <c r="AN621" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="622" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>662</v>
       </c>
@@ -76029,8 +77658,11 @@
       <c r="AM622" t="s">
         <v>308</v>
       </c>
+      <c r="AN622" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="623" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>663</v>
       </c>
@@ -76145,8 +77777,11 @@
       <c r="AM623" t="s">
         <v>308</v>
       </c>
+      <c r="AN623" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="624" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>664</v>
       </c>
@@ -76261,8 +77896,11 @@
       <c r="AM624" t="s">
         <v>308</v>
       </c>
+      <c r="AN624" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="625" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>665</v>
       </c>
@@ -76377,8 +78015,11 @@
       <c r="AM625" t="s">
         <v>308</v>
       </c>
+      <c r="AN625" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="626" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>666</v>
       </c>
@@ -76493,8 +78134,11 @@
       <c r="AM626" t="s">
         <v>308</v>
       </c>
+      <c r="AN626" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="627" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>667</v>
       </c>
@@ -76609,8 +78253,11 @@
       <c r="AM627" t="s">
         <v>308</v>
       </c>
+      <c r="AN627" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="628" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>668</v>
       </c>
@@ -76725,8 +78372,11 @@
       <c r="AM628" t="s">
         <v>308</v>
       </c>
+      <c r="AN628" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="629" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>669</v>
       </c>
@@ -76841,8 +78491,11 @@
       <c r="AM629" t="s">
         <v>308</v>
       </c>
+      <c r="AN629" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="630" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>670</v>
       </c>
@@ -76957,8 +78610,11 @@
       <c r="AM630" t="s">
         <v>308</v>
       </c>
+      <c r="AN630" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="631" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>671</v>
       </c>
@@ -76975,7 +78631,7 @@
         <v>582</v>
       </c>
       <c r="F631" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G631" t="s">
         <v>10</v>
@@ -77074,6 +78730,9 @@
         <v>308</v>
       </c>
       <c r="AM631" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN631" t="s">
         <v>308</v>
       </c>
     </row>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3308EF6-D5B8-444D-BFA7-D5B111F5FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5BE840-56CC-234F-AD08-85F111EC012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -2773,13 +2773,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3536,8 +3534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AN467" sqref="AN467"/>
     </sheetView>
   </sheetViews>
@@ -22901,7 +22899,6 @@
       <c r="E163" t="s">
         <v>107</v>
       </c>
-      <c r="F163" s="4"/>
       <c r="G163" t="s">
         <v>10</v>
       </c>
@@ -42653,7 +42650,7 @@
       <c r="AM329">
         <v>5</v>
       </c>
-      <c r="AN329" s="5">
+      <c r="AN329">
         <v>6</v>
       </c>
     </row>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5BE840-56CC-234F-AD08-85F111EC012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEF62B8-BB03-754F-96E3-FB434113EFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5317" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5333" uniqueCount="745">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2270,6 +2270,9 @@
   <si>
     <t>doy262: bud bursting again. Leaf unfolding</t>
   </si>
+  <si>
+    <t>doy276: seems like it flushed and starts to set bud again</t>
+  </si>
 </sst>
 </file>
 
@@ -3532,11 +3535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN631"/>
+  <dimension ref="A1:AO631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN467" sqref="AN467"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO267" sqref="AO267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3548,7 +3551,7 @@
     <col min="30" max="30" width="4.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3669,8 +3672,11 @@
       <c r="AN1" s="3">
         <v>262</v>
       </c>
+      <c r="AO1" s="3">
+        <v>276</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4268,7 +4274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4387,7 +4393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4625,7 +4631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4744,7 +4750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4866,7 +4872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4985,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5104,7 +5110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5223,7 +5229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5342,7 +5348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5461,7 +5467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5580,7 +5586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -5699,7 +5705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5818,7 +5824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -5937,7 +5943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6056,7 +6062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6297,7 +6303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6416,7 +6422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -6535,7 +6541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -6654,7 +6660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -6773,7 +6779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -6895,7 +6901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7017,7 +7023,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7136,7 +7142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7255,7 +7261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -7373,8 +7379,11 @@
       <c r="AN32">
         <v>4</v>
       </c>
+      <c r="AO32">
+        <v>6</v>
+      </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -7492,8 +7501,11 @@
       <c r="AN33">
         <v>6</v>
       </c>
+      <c r="AO33">
+        <v>6</v>
+      </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -7611,8 +7623,11 @@
       <c r="AN34">
         <v>5</v>
       </c>
+      <c r="AO34">
+        <v>5</v>
+      </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -7730,8 +7745,11 @@
       <c r="AN35">
         <v>6</v>
       </c>
+      <c r="AO35">
+        <v>6</v>
+      </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -7849,8 +7867,11 @@
       <c r="AN36">
         <v>5</v>
       </c>
+      <c r="AO36">
+        <v>6</v>
+      </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -7968,8 +7989,11 @@
       <c r="AN37">
         <v>6</v>
       </c>
+      <c r="AO37">
+        <v>6</v>
+      </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -8087,8 +8111,11 @@
       <c r="AN38">
         <v>6</v>
       </c>
+      <c r="AO38">
+        <v>6</v>
+      </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -8206,8 +8233,11 @@
       <c r="AN39">
         <v>6</v>
       </c>
+      <c r="AO39">
+        <v>6</v>
+      </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -8325,8 +8355,11 @@
       <c r="AN40">
         <v>5</v>
       </c>
+      <c r="AO40">
+        <v>6</v>
+      </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -8444,8 +8477,11 @@
       <c r="AN41">
         <v>6</v>
       </c>
+      <c r="AO41">
+        <v>6</v>
+      </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -8566,8 +8602,11 @@
       <c r="AN42">
         <v>5</v>
       </c>
+      <c r="AO42">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -8685,8 +8724,11 @@
       <c r="AN43">
         <v>6</v>
       </c>
+      <c r="AO43">
+        <v>6</v>
+      </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -8804,8 +8846,11 @@
       <c r="AN44">
         <v>6</v>
       </c>
+      <c r="AO44">
+        <v>6</v>
+      </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -8923,8 +8968,11 @@
       <c r="AN45">
         <v>6</v>
       </c>
+      <c r="AO45">
+        <v>6</v>
+      </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -9042,8 +9090,11 @@
       <c r="AN46">
         <v>5</v>
       </c>
+      <c r="AO46">
+        <v>6</v>
+      </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -9162,7 +9213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -9281,7 +9332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -9400,7 +9451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -9519,7 +9570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -9638,7 +9689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -9757,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -9876,7 +9927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -9995,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -10117,7 +10168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -10239,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -10361,7 +10412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -10480,7 +10531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -10599,7 +10650,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -10718,7 +10769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -10837,7 +10888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -10955,8 +11006,11 @@
       <c r="AN62">
         <v>6</v>
       </c>
+      <c r="AO62">
+        <v>6</v>
+      </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -11074,8 +11128,11 @@
       <c r="AN63">
         <v>6</v>
       </c>
+      <c r="AO63">
+        <v>6</v>
+      </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -11193,8 +11250,11 @@
       <c r="AN64">
         <v>6</v>
       </c>
+      <c r="AO64">
+        <v>6</v>
+      </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -11312,8 +11372,11 @@
       <c r="AN65">
         <v>6</v>
       </c>
+      <c r="AO65">
+        <v>6</v>
+      </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -11431,8 +11494,11 @@
       <c r="AN66">
         <v>4</v>
       </c>
+      <c r="AO66">
+        <v>5</v>
+      </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -11550,8 +11616,11 @@
       <c r="AN67">
         <v>6</v>
       </c>
+      <c r="AO67">
+        <v>6</v>
+      </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -11669,8 +11738,11 @@
       <c r="AN68">
         <v>6</v>
       </c>
+      <c r="AO68">
+        <v>6</v>
+      </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -11788,8 +11860,11 @@
       <c r="AN69">
         <v>6</v>
       </c>
+      <c r="AO69">
+        <v>6</v>
+      </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -11907,8 +11982,11 @@
       <c r="AN70">
         <v>6</v>
       </c>
+      <c r="AO70">
+        <v>6</v>
+      </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -12029,8 +12107,11 @@
       <c r="AN71" t="s">
         <v>308</v>
       </c>
+      <c r="AO71" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -12148,8 +12229,11 @@
       <c r="AN72" s="2">
         <v>6</v>
       </c>
+      <c r="AO72">
+        <v>6</v>
+      </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -12267,8 +12351,11 @@
       <c r="AN73" s="2">
         <v>6</v>
       </c>
+      <c r="AO73">
+        <v>6</v>
+      </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -12386,8 +12473,11 @@
       <c r="AN74" s="2">
         <v>6</v>
       </c>
+      <c r="AO74">
+        <v>6</v>
+      </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -12505,8 +12595,11 @@
       <c r="AN75" s="2">
         <v>6</v>
       </c>
+      <c r="AO75">
+        <v>6</v>
+      </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -12624,8 +12717,11 @@
       <c r="AN76" s="2">
         <v>6</v>
       </c>
+      <c r="AO76">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -12743,8 +12839,11 @@
       <c r="AN77" s="2">
         <v>6</v>
       </c>
+      <c r="AO77" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -12862,8 +12961,11 @@
       <c r="AN78" s="2">
         <v>6</v>
       </c>
+      <c r="AO78" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -12981,8 +13083,11 @@
       <c r="AN79" s="2">
         <v>6</v>
       </c>
+      <c r="AO79" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -13100,8 +13205,11 @@
       <c r="AN80" s="2">
         <v>6</v>
       </c>
+      <c r="AO80" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -13219,8 +13327,11 @@
       <c r="AN81" s="2">
         <v>6</v>
       </c>
+      <c r="AO81" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -13338,8 +13449,11 @@
       <c r="AN82" s="2">
         <v>6</v>
       </c>
+      <c r="AO82" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -13457,8 +13571,11 @@
       <c r="AN83" s="2">
         <v>6</v>
       </c>
+      <c r="AO83" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -13576,8 +13693,11 @@
       <c r="AN84" s="2">
         <v>6</v>
       </c>
+      <c r="AO84" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -13695,8 +13815,11 @@
       <c r="AN85" s="2">
         <v>6</v>
       </c>
+      <c r="AO85" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -13814,8 +13937,11 @@
       <c r="AN86" s="2">
         <v>6</v>
       </c>
+      <c r="AO86" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -13933,8 +14059,11 @@
       <c r="AN87" s="2">
         <v>6</v>
       </c>
+      <c r="AO87" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -14052,8 +14181,11 @@
       <c r="AN88" s="2">
         <v>6</v>
       </c>
+      <c r="AO88" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -14171,8 +14303,11 @@
       <c r="AN89" s="2">
         <v>6</v>
       </c>
+      <c r="AO89" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -14290,8 +14425,11 @@
       <c r="AN90" s="2">
         <v>6</v>
       </c>
+      <c r="AO90" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -14409,8 +14547,11 @@
       <c r="AN91" s="2">
         <v>6</v>
       </c>
+      <c r="AO91" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -14529,7 +14670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -14648,7 +14789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -14767,7 +14908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -14889,7 +15030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -16918,7 +17059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -17037,7 +17178,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -17156,7 +17297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -17275,7 +17416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -17394,7 +17535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -17513,7 +17654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -17632,7 +17773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -17751,7 +17892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -17870,7 +18011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -17992,7 +18133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -18110,8 +18251,11 @@
       <c r="AN122">
         <v>6</v>
       </c>
+      <c r="AO122">
+        <v>6</v>
+      </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -18229,8 +18373,11 @@
       <c r="AN123">
         <v>6</v>
       </c>
+      <c r="AO123">
+        <v>6</v>
+      </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -18348,8 +18495,11 @@
       <c r="AN124">
         <v>6</v>
       </c>
+      <c r="AO124">
+        <v>6</v>
+      </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -18467,8 +18617,11 @@
       <c r="AN125">
         <v>6</v>
       </c>
+      <c r="AO125">
+        <v>6</v>
+      </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -18586,8 +18739,11 @@
       <c r="AN126">
         <v>6</v>
       </c>
+      <c r="AO126">
+        <v>6</v>
+      </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -18705,8 +18861,11 @@
       <c r="AN127">
         <v>6</v>
       </c>
+      <c r="AO127">
+        <v>6</v>
+      </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -18824,8 +18983,11 @@
       <c r="AN128">
         <v>6</v>
       </c>
+      <c r="AO128">
+        <v>6</v>
+      </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>145</v>
       </c>
@@ -18943,8 +19105,11 @@
       <c r="AN129">
         <v>6</v>
       </c>
+      <c r="AO129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -19062,8 +19227,11 @@
       <c r="AN130">
         <v>6</v>
       </c>
+      <c r="AO130">
+        <v>6</v>
+      </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -19184,8 +19352,11 @@
       <c r="AN131" t="s">
         <v>308</v>
       </c>
+      <c r="AO131" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -19303,8 +19474,11 @@
       <c r="AN132">
         <v>6</v>
       </c>
+      <c r="AO132">
+        <v>6</v>
+      </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -19422,8 +19596,11 @@
       <c r="AN133">
         <v>6</v>
       </c>
+      <c r="AO133">
+        <v>6</v>
+      </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -19541,8 +19718,11 @@
       <c r="AN134">
         <v>6</v>
       </c>
+      <c r="AO134">
+        <v>6</v>
+      </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -19660,8 +19840,11 @@
       <c r="AN135">
         <v>6</v>
       </c>
+      <c r="AO135">
+        <v>6</v>
+      </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -19779,8 +19962,11 @@
       <c r="AN136">
         <v>6</v>
       </c>
+      <c r="AO136">
+        <v>6</v>
+      </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -19902,7 +20088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -20021,7 +20207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>155</v>
       </c>
@@ -20140,7 +20326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -20259,7 +20445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -20378,7 +20564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -20497,7 +20683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -20616,7 +20802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>160</v>
       </c>
@@ -20735,7 +20921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -20854,7 +21040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>162</v>
       </c>
@@ -20973,7 +21159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -21092,7 +21278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>164</v>
       </c>
@@ -21214,7 +21400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -21333,7 +21519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>166</v>
       </c>
@@ -21455,7 +21641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -21574,7 +21760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -21692,8 +21878,11 @@
       <c r="AN152" s="2">
         <v>6</v>
       </c>
+      <c r="AO152">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -21811,8 +22000,11 @@
       <c r="AN153" s="2">
         <v>0</v>
       </c>
+      <c r="AO153">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>170</v>
       </c>
@@ -21930,8 +22122,11 @@
       <c r="AN154" s="2">
         <v>6</v>
       </c>
+      <c r="AO154">
+        <v>6</v>
+      </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -22049,8 +22244,11 @@
       <c r="AN155" s="2">
         <v>6</v>
       </c>
+      <c r="AO155">
+        <v>6</v>
+      </c>
     </row>
-    <row r="156" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>172</v>
       </c>
@@ -22168,8 +22366,11 @@
       <c r="AN156" s="2">
         <v>6</v>
       </c>
+      <c r="AO156">
+        <v>6</v>
+      </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -22287,8 +22488,11 @@
       <c r="AN157">
         <v>0</v>
       </c>
+      <c r="AO157">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>174</v>
       </c>
@@ -22406,8 +22610,11 @@
       <c r="AN158" s="2">
         <v>6</v>
       </c>
+      <c r="AO158">
+        <v>6</v>
+      </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -22525,8 +22732,11 @@
       <c r="AN159" s="2">
         <v>6</v>
       </c>
+      <c r="AO159">
+        <v>6</v>
+      </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>176</v>
       </c>
@@ -22644,8 +22854,11 @@
       <c r="AN160" s="2">
         <v>6</v>
       </c>
+      <c r="AO160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -22763,8 +22976,11 @@
       <c r="AN161" s="2">
         <v>0</v>
       </c>
+      <c r="AO161">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -22780,6 +22996,9 @@
       <c r="E162" t="s">
         <v>107</v>
       </c>
+      <c r="F162" t="s">
+        <v>744</v>
+      </c>
       <c r="G162" t="s">
         <v>10</v>
       </c>
@@ -22882,8 +23101,11 @@
       <c r="AN162" s="2">
         <v>6</v>
       </c>
+      <c r="AO162">
+        <v>5</v>
+      </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -23001,8 +23223,11 @@
       <c r="AN163" s="2">
         <v>6</v>
       </c>
+      <c r="AO163">
+        <v>6</v>
+      </c>
     </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -23123,8 +23348,11 @@
       <c r="AN164" s="2">
         <v>2</v>
       </c>
+      <c r="AO164">
+        <v>4</v>
+      </c>
     </row>
-    <row r="165" spans="1:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -23242,8 +23470,11 @@
       <c r="AN165" s="2">
         <v>6</v>
       </c>
+      <c r="AO165">
+        <v>6</v>
+      </c>
     </row>
-    <row r="166" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>182</v>
       </c>
@@ -23361,8 +23592,11 @@
       <c r="AN166" s="2">
         <v>6</v>
       </c>
+      <c r="AO166">
+        <v>6</v>
+      </c>
     </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -23480,8 +23714,11 @@
       <c r="AN167">
         <v>6</v>
       </c>
+      <c r="AO167">
+        <v>6</v>
+      </c>
     </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -23599,8 +23836,11 @@
       <c r="AN168">
         <v>6</v>
       </c>
+      <c r="AO168">
+        <v>6</v>
+      </c>
     </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -23718,8 +23958,11 @@
       <c r="AN169">
         <v>6</v>
       </c>
+      <c r="AO169">
+        <v>6</v>
+      </c>
     </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>186</v>
       </c>
@@ -23837,8 +24080,11 @@
       <c r="AN170">
         <v>6</v>
       </c>
+      <c r="AO170">
+        <v>6</v>
+      </c>
     </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -23956,8 +24202,11 @@
       <c r="AN171">
         <v>6</v>
       </c>
+      <c r="AO171">
+        <v>6</v>
+      </c>
     </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>188</v>
       </c>
@@ -24075,8 +24324,11 @@
       <c r="AN172">
         <v>6</v>
       </c>
+      <c r="AO172">
+        <v>6</v>
+      </c>
     </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -24194,8 +24446,11 @@
       <c r="AN173">
         <v>6</v>
       </c>
+      <c r="AO173">
+        <v>6</v>
+      </c>
     </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>190</v>
       </c>
@@ -24313,8 +24568,11 @@
       <c r="AN174">
         <v>6</v>
       </c>
+      <c r="AO174">
+        <v>6</v>
+      </c>
     </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -24432,8 +24690,11 @@
       <c r="AN175">
         <v>0</v>
       </c>
+      <c r="AO175">
+        <v>0</v>
+      </c>
     </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -24551,8 +24812,11 @@
       <c r="AN176">
         <v>6</v>
       </c>
+      <c r="AO176">
+        <v>6</v>
+      </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -24670,8 +24934,11 @@
       <c r="AN177">
         <v>6</v>
       </c>
+      <c r="AO177">
+        <v>6</v>
+      </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>194</v>
       </c>
@@ -24789,8 +25056,11 @@
       <c r="AN178">
         <v>0</v>
       </c>
+      <c r="AO178">
+        <v>0</v>
+      </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -24908,8 +25178,11 @@
       <c r="AN179">
         <v>6</v>
       </c>
+      <c r="AO179">
+        <v>6</v>
+      </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>196</v>
       </c>
@@ -25027,8 +25300,11 @@
       <c r="AN180">
         <v>0</v>
       </c>
+      <c r="AO180">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -25146,8 +25422,11 @@
       <c r="AN181">
         <v>6</v>
       </c>
+      <c r="AO181">
+        <v>6</v>
+      </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>198</v>
       </c>
@@ -25264,7 +25543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -25381,7 +25660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -25498,7 +25777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -25615,7 +25894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -25735,7 +26014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -25852,7 +26131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -25969,7 +26248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -26086,7 +26365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -26206,7 +26485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>210</v>
       </c>
@@ -26323,7 +26602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -28327,7 +28606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -28444,7 +28723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -28561,7 +28840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -28681,7 +28960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>233</v>
       </c>
@@ -28797,8 +29076,11 @@
       <c r="AN212">
         <v>6</v>
       </c>
+      <c r="AO212">
+        <v>0</v>
+      </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -28914,8 +29196,11 @@
       <c r="AN213">
         <v>0</v>
       </c>
+      <c r="AO213">
+        <v>0</v>
+      </c>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>235</v>
       </c>
@@ -29031,8 +29316,11 @@
       <c r="AN214">
         <v>0</v>
       </c>
+      <c r="AO214">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -29148,8 +29436,11 @@
       <c r="AN215">
         <v>0</v>
       </c>
+      <c r="AO215">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>237</v>
       </c>
@@ -29268,8 +29559,11 @@
       <c r="AN216">
         <v>6</v>
       </c>
+      <c r="AO216">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -29385,8 +29679,11 @@
       <c r="AN217">
         <v>0</v>
       </c>
+      <c r="AO217">
+        <v>0</v>
+      </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>239</v>
       </c>
@@ -29502,8 +29799,11 @@
       <c r="AN218">
         <v>0</v>
       </c>
+      <c r="AO218">
+        <v>0</v>
+      </c>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -29619,8 +29919,11 @@
       <c r="AN219">
         <v>6</v>
       </c>
+      <c r="AO219">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>241</v>
       </c>
@@ -29736,8 +30039,11 @@
       <c r="AN220">
         <v>6</v>
       </c>
+      <c r="AO220">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -29853,8 +30159,11 @@
       <c r="AN221" t="s">
         <v>308</v>
       </c>
+      <c r="AO221" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>243</v>
       </c>
@@ -29970,8 +30279,11 @@
       <c r="AN222">
         <v>0</v>
       </c>
+      <c r="AO222">
+        <v>0</v>
+      </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -30090,8 +30402,11 @@
       <c r="AN223">
         <v>0</v>
       </c>
+      <c r="AO223">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -30207,8 +30522,11 @@
       <c r="AN224">
         <v>0</v>
       </c>
+      <c r="AO224">
+        <v>0</v>
+      </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -30327,8 +30645,11 @@
       <c r="AN225">
         <v>0</v>
       </c>
+      <c r="AO225">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>247</v>
       </c>
@@ -30444,8 +30765,11 @@
       <c r="AN226">
         <v>0</v>
       </c>
+      <c r="AO226">
+        <v>0</v>
+      </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -30562,7 +30886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -30679,7 +31003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -30796,7 +31120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>251</v>
       </c>
@@ -30913,7 +31237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -31030,7 +31354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -31147,7 +31471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -31264,7 +31588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>255</v>
       </c>
@@ -31381,7 +31705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -31498,7 +31822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -31615,7 +31939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -31732,7 +32056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -31849,7 +32173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -31966,7 +32290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -32083,7 +32407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -32200,7 +32524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -32316,8 +32640,11 @@
       <c r="AN242">
         <v>6</v>
       </c>
+      <c r="AO242">
+        <v>0</v>
+      </c>
     </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -32433,8 +32760,11 @@
       <c r="AN243">
         <v>6</v>
       </c>
+      <c r="AO243">
+        <v>0</v>
+      </c>
     </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>265</v>
       </c>
@@ -32550,8 +32880,11 @@
       <c r="AN244">
         <v>0</v>
       </c>
+      <c r="AO244">
+        <v>0</v>
+      </c>
     </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -32667,8 +33000,11 @@
       <c r="AN245">
         <v>0</v>
       </c>
+      <c r="AO245">
+        <v>0</v>
+      </c>
     </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -32784,8 +33120,11 @@
       <c r="AN246">
         <v>0</v>
       </c>
+      <c r="AO246">
+        <v>0</v>
+      </c>
     </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -32901,8 +33240,11 @@
       <c r="AN247">
         <v>0</v>
       </c>
+      <c r="AO247">
+        <v>0</v>
+      </c>
     </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>269</v>
       </c>
@@ -33018,8 +33360,11 @@
       <c r="AN248">
         <v>0</v>
       </c>
+      <c r="AO248">
+        <v>0</v>
+      </c>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -33135,8 +33480,11 @@
       <c r="AN249">
         <v>0</v>
       </c>
+      <c r="AO249">
+        <v>0</v>
+      </c>
     </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>271</v>
       </c>
@@ -33252,8 +33600,11 @@
       <c r="AN250">
         <v>6</v>
       </c>
+      <c r="AO250">
+        <v>0</v>
+      </c>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -33369,8 +33720,11 @@
       <c r="AN251">
         <v>0</v>
       </c>
+      <c r="AO251">
+        <v>0</v>
+      </c>
     </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>273</v>
       </c>
@@ -33486,8 +33840,11 @@
       <c r="AN252">
         <v>0</v>
       </c>
+      <c r="AO252">
+        <v>0</v>
+      </c>
     </row>
-    <row r="253" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -33603,8 +33960,11 @@
       <c r="AN253">
         <v>0</v>
       </c>
+      <c r="AO253">
+        <v>0</v>
+      </c>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>275</v>
       </c>
@@ -33720,8 +34080,11 @@
       <c r="AN254">
         <v>0</v>
       </c>
+      <c r="AO254">
+        <v>0</v>
+      </c>
     </row>
-    <row r="255" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -33837,8 +34200,11 @@
       <c r="AN255">
         <v>0</v>
       </c>
+      <c r="AO255">
+        <v>0</v>
+      </c>
     </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>277</v>
       </c>
@@ -33954,8 +34320,11 @@
       <c r="AN256">
         <v>0</v>
       </c>
+      <c r="AO256">
+        <v>0</v>
+      </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -34071,8 +34440,11 @@
       <c r="AN257">
         <v>0</v>
       </c>
+      <c r="AO257">
+        <v>0</v>
+      </c>
     </row>
-    <row r="258" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -34188,8 +34560,11 @@
       <c r="AN258">
         <v>0</v>
       </c>
+      <c r="AO258">
+        <v>0</v>
+      </c>
     </row>
-    <row r="259" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>280</v>
       </c>
@@ -34305,8 +34680,11 @@
       <c r="AN259">
         <v>0</v>
       </c>
+      <c r="AO259">
+        <v>0</v>
+      </c>
     </row>
-    <row r="260" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -34422,8 +34800,11 @@
       <c r="AN260">
         <v>0</v>
       </c>
+      <c r="AO260">
+        <v>0</v>
+      </c>
     </row>
-    <row r="261" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>282</v>
       </c>
@@ -34539,8 +34920,11 @@
       <c r="AN261">
         <v>0</v>
       </c>
+      <c r="AO261">
+        <v>0</v>
+      </c>
     </row>
-    <row r="262" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -34656,8 +35040,11 @@
       <c r="AN262">
         <v>0</v>
       </c>
+      <c r="AO262">
+        <v>0</v>
+      </c>
     </row>
-    <row r="263" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>284</v>
       </c>
@@ -34773,8 +35160,11 @@
       <c r="AN263">
         <v>0</v>
       </c>
+      <c r="AO263">
+        <v>0</v>
+      </c>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -34890,8 +35280,11 @@
       <c r="AN264">
         <v>0</v>
       </c>
+      <c r="AO264">
+        <v>0</v>
+      </c>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>286</v>
       </c>
@@ -35007,8 +35400,11 @@
       <c r="AN265">
         <v>0</v>
       </c>
+      <c r="AO265">
+        <v>0</v>
+      </c>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -35124,8 +35520,11 @@
       <c r="AN266">
         <v>6</v>
       </c>
+      <c r="AO266">
+        <v>0</v>
+      </c>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>288</v>
       </c>
@@ -35241,8 +35640,11 @@
       <c r="AN267">
         <v>0</v>
       </c>
+      <c r="AO267">
+        <v>0</v>
+      </c>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -35358,8 +35760,11 @@
       <c r="AN268">
         <v>0</v>
       </c>
+      <c r="AO268">
+        <v>0</v>
+      </c>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>290</v>
       </c>
@@ -35475,8 +35880,11 @@
       <c r="AN269">
         <v>0</v>
       </c>
+      <c r="AO269">
+        <v>0</v>
+      </c>
     </row>
-    <row r="270" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -35592,8 +36000,11 @@
       <c r="AN270">
         <v>0</v>
       </c>
+      <c r="AO270">
+        <v>0</v>
+      </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>292</v>
       </c>
@@ -35709,8 +36120,11 @@
       <c r="AN271">
         <v>0</v>
       </c>
+      <c r="AO271">
+        <v>0</v>
+      </c>
     </row>
-    <row r="272" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -37751,7 +38165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -37870,7 +38284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -37989,7 +38403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -38108,7 +38522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -38227,7 +38641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -38346,7 +38760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -38468,7 +38882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -38587,7 +39001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>322</v>
       </c>
@@ -38706,7 +39120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -38828,7 +39242,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="298" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>324</v>
       </c>
@@ -38947,7 +39361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -39069,7 +39483,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="300" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>326</v>
       </c>
@@ -39188,7 +39602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -39307,7 +39721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>328</v>
       </c>
@@ -39425,8 +39839,11 @@
       <c r="AN302">
         <v>0</v>
       </c>
+      <c r="AO302">
+        <v>0</v>
+      </c>
     </row>
-    <row r="303" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -39544,8 +39961,11 @@
       <c r="AN303">
         <v>0</v>
       </c>
+      <c r="AO303">
+        <v>0</v>
+      </c>
     </row>
-    <row r="304" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>330</v>
       </c>
@@ -39663,8 +40083,11 @@
       <c r="AN304">
         <v>0</v>
       </c>
+      <c r="AO304">
+        <v>0</v>
+      </c>
     </row>
-    <row r="305" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -39782,8 +40205,11 @@
       <c r="AN305">
         <v>0</v>
       </c>
+      <c r="AO305">
+        <v>0</v>
+      </c>
     </row>
-    <row r="306" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>332</v>
       </c>
@@ -39901,8 +40327,11 @@
       <c r="AN306">
         <v>6</v>
       </c>
+      <c r="AO306">
+        <v>0</v>
+      </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -40020,8 +40449,11 @@
       <c r="AN307">
         <v>0</v>
       </c>
+      <c r="AO307">
+        <v>0</v>
+      </c>
     </row>
-    <row r="308" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>334</v>
       </c>
@@ -40139,8 +40571,11 @@
       <c r="AN308">
         <v>0</v>
       </c>
+      <c r="AO308">
+        <v>0</v>
+      </c>
     </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -40258,8 +40693,11 @@
       <c r="AN309">
         <v>0</v>
       </c>
+      <c r="AO309">
+        <v>0</v>
+      </c>
     </row>
-    <row r="310" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>336</v>
       </c>
@@ -40377,8 +40815,11 @@
       <c r="AN310">
         <v>0</v>
       </c>
+      <c r="AO310">
+        <v>0</v>
+      </c>
     </row>
-    <row r="311" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -40496,8 +40937,11 @@
       <c r="AN311">
         <v>6</v>
       </c>
+      <c r="AO311">
+        <v>0</v>
+      </c>
     </row>
-    <row r="312" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -40615,8 +41059,11 @@
       <c r="AN312">
         <v>6</v>
       </c>
+      <c r="AO312">
+        <v>0</v>
+      </c>
     </row>
-    <row r="313" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -40734,8 +41181,11 @@
       <c r="AN313">
         <v>0</v>
       </c>
+      <c r="AO313">
+        <v>0</v>
+      </c>
     </row>
-    <row r="314" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -40853,8 +41303,11 @@
       <c r="AN314">
         <v>6</v>
       </c>
+      <c r="AO314">
+        <v>0</v>
+      </c>
     </row>
-    <row r="315" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -40972,8 +41425,11 @@
       <c r="AN315">
         <v>0</v>
       </c>
+      <c r="AO315">
+        <v>0</v>
+      </c>
     </row>
-    <row r="316" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -41094,8 +41550,11 @@
       <c r="AN316">
         <v>0</v>
       </c>
+      <c r="AO316">
+        <v>0</v>
+      </c>
     </row>
-    <row r="317" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -41217,7 +41676,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="318" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -41336,7 +41795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -41455,7 +41914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -41574,7 +42033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -41693,7 +42152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -41815,7 +42274,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="323" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -41934,7 +42393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>351</v>
       </c>
@@ -42056,7 +42515,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="325" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -42175,7 +42634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>354</v>
       </c>
@@ -42294,7 +42753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -42413,7 +42872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -42535,7 +42994,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="329" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>357</v>
       </c>
@@ -42654,7 +43113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -42776,7 +43235,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="331" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>359</v>
       </c>
@@ -42895,7 +43354,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="332" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -43013,8 +43472,11 @@
       <c r="AN332">
         <v>6</v>
       </c>
+      <c r="AO332">
+        <v>0</v>
+      </c>
     </row>
-    <row r="333" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>361</v>
       </c>
@@ -43132,8 +43594,11 @@
       <c r="AN333">
         <v>6</v>
       </c>
+      <c r="AO333">
+        <v>0</v>
+      </c>
     </row>
-    <row r="334" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -43254,8 +43719,11 @@
       <c r="AN334" t="s">
         <v>308</v>
       </c>
+      <c r="AO334" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="335" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>363</v>
       </c>
@@ -43376,8 +43844,11 @@
       <c r="AN335" t="s">
         <v>308</v>
       </c>
+      <c r="AO335" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="336" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -43495,8 +43966,11 @@
       <c r="AN336">
         <v>6</v>
       </c>
+      <c r="AO336">
+        <v>0</v>
+      </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>365</v>
       </c>
@@ -43617,8 +44091,11 @@
       <c r="AN337" t="s">
         <v>308</v>
       </c>
+      <c r="AO337" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -43736,8 +44213,11 @@
       <c r="AN338">
         <v>6</v>
       </c>
+      <c r="AO338">
+        <v>0</v>
+      </c>
     </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>367</v>
       </c>
@@ -43855,8 +44335,11 @@
       <c r="AN339">
         <v>6</v>
       </c>
+      <c r="AO339">
+        <v>0</v>
+      </c>
     </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -43974,8 +44457,11 @@
       <c r="AN340">
         <v>0</v>
       </c>
+      <c r="AO340">
+        <v>0</v>
+      </c>
     </row>
-    <row r="341" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>369</v>
       </c>
@@ -44093,8 +44579,11 @@
       <c r="AN341">
         <v>6</v>
       </c>
+      <c r="AO341">
+        <v>0</v>
+      </c>
     </row>
-    <row r="342" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -44215,8 +44704,11 @@
       <c r="AN342" t="s">
         <v>308</v>
       </c>
+      <c r="AO342" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="343" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>371</v>
       </c>
@@ -44337,8 +44829,11 @@
       <c r="AN343" t="s">
         <v>308</v>
       </c>
+      <c r="AO343" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="344" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -44459,8 +44954,11 @@
       <c r="AN344">
         <v>0</v>
       </c>
+      <c r="AO344">
+        <v>0</v>
+      </c>
     </row>
-    <row r="345" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>373</v>
       </c>
@@ -44578,8 +45076,11 @@
       <c r="AN345" t="s">
         <v>308</v>
       </c>
+      <c r="AO345" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="346" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -44697,8 +45198,11 @@
       <c r="AN346">
         <v>0</v>
       </c>
+      <c r="AO346">
+        <v>0</v>
+      </c>
     </row>
-    <row r="347" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>375</v>
       </c>
@@ -44816,8 +45320,11 @@
       <c r="AN347">
         <v>6</v>
       </c>
+      <c r="AO347">
+        <v>6</v>
+      </c>
     </row>
-    <row r="348" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -44938,8 +45445,11 @@
       <c r="AN348">
         <v>1</v>
       </c>
+      <c r="AO348">
+        <v>5</v>
+      </c>
     </row>
-    <row r="349" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>377</v>
       </c>
@@ -45057,8 +45567,11 @@
       <c r="AN349">
         <v>0</v>
       </c>
+      <c r="AO349">
+        <v>0</v>
+      </c>
     </row>
-    <row r="350" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -45176,8 +45689,11 @@
       <c r="AN350" t="s">
         <v>308</v>
       </c>
+      <c r="AO350" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="351" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -45295,8 +45811,11 @@
       <c r="AN351">
         <v>0</v>
       </c>
+      <c r="AO351">
+        <v>0</v>
+      </c>
     </row>
-    <row r="352" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>380</v>
       </c>
@@ -45417,8 +45936,11 @@
       <c r="AN352">
         <v>1</v>
       </c>
+      <c r="AO352">
+        <v>5</v>
+      </c>
     </row>
-    <row r="353" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -45536,8 +46058,11 @@
       <c r="AN353">
         <v>6</v>
       </c>
+      <c r="AO353">
+        <v>6</v>
+      </c>
     </row>
-    <row r="354" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>382</v>
       </c>
@@ -45655,8 +46180,11 @@
       <c r="AN354">
         <v>0</v>
       </c>
+      <c r="AO354">
+        <v>0</v>
+      </c>
     </row>
-    <row r="355" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -45777,8 +46305,11 @@
       <c r="AN355" t="s">
         <v>308</v>
       </c>
+      <c r="AO355" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="356" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>384</v>
       </c>
@@ -45896,8 +46427,11 @@
       <c r="AN356">
         <v>0</v>
       </c>
+      <c r="AO356">
+        <v>0</v>
+      </c>
     </row>
-    <row r="357" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -46015,8 +46549,11 @@
       <c r="AN357">
         <v>6</v>
       </c>
+      <c r="AO357">
+        <v>0</v>
+      </c>
     </row>
-    <row r="358" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>386</v>
       </c>
@@ -46134,8 +46671,11 @@
       <c r="AN358">
         <v>0</v>
       </c>
+      <c r="AO358">
+        <v>0</v>
+      </c>
     </row>
-    <row r="359" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -46256,8 +46796,11 @@
       <c r="AN359" t="s">
         <v>308</v>
       </c>
+      <c r="AO359" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="360" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>388</v>
       </c>
@@ -46375,8 +46918,11 @@
       <c r="AN360">
         <v>6</v>
       </c>
+      <c r="AO360">
+        <v>0</v>
+      </c>
     </row>
-    <row r="361" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -46497,8 +47043,11 @@
       <c r="AN361">
         <v>1</v>
       </c>
+      <c r="AO361">
+        <v>5</v>
+      </c>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>390</v>
       </c>
@@ -46617,7 +47166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -46736,7 +47285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -46855,7 +47404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -46974,7 +47523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -47093,7 +47642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -47212,7 +47761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>398</v>
       </c>
@@ -60719,7 +61268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>518</v>
       </c>
@@ -60838,7 +61387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>519</v>
       </c>
@@ -60956,8 +61505,11 @@
       <c r="AN482">
         <v>0</v>
       </c>
+      <c r="AO482">
+        <v>0</v>
+      </c>
     </row>
-    <row r="483" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>520</v>
       </c>
@@ -61075,8 +61627,11 @@
       <c r="AN483">
         <v>6</v>
       </c>
+      <c r="AO483">
+        <v>0</v>
+      </c>
     </row>
-    <row r="484" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>521</v>
       </c>
@@ -61194,8 +61749,11 @@
       <c r="AN484">
         <v>0</v>
       </c>
+      <c r="AO484">
+        <v>0</v>
+      </c>
     </row>
-    <row r="485" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>522</v>
       </c>
@@ -61313,8 +61871,11 @@
       <c r="AN485">
         <v>0</v>
       </c>
+      <c r="AO485">
+        <v>0</v>
+      </c>
     </row>
-    <row r="486" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>523</v>
       </c>
@@ -61432,8 +61993,11 @@
       <c r="AN486">
         <v>0</v>
       </c>
+      <c r="AO486">
+        <v>0</v>
+      </c>
     </row>
-    <row r="487" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>524</v>
       </c>
@@ -61551,8 +62115,11 @@
       <c r="AN487">
         <v>0</v>
       </c>
+      <c r="AO487">
+        <v>0</v>
+      </c>
     </row>
-    <row r="488" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>525</v>
       </c>
@@ -61673,8 +62240,11 @@
       <c r="AN488">
         <v>0</v>
       </c>
+      <c r="AO488">
+        <v>0</v>
+      </c>
     </row>
-    <row r="489" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>526</v>
       </c>
@@ -61792,8 +62362,11 @@
       <c r="AN489">
         <v>0</v>
       </c>
+      <c r="AO489">
+        <v>0</v>
+      </c>
     </row>
-    <row r="490" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>527</v>
       </c>
@@ -61911,8 +62484,11 @@
       <c r="AN490">
         <v>0</v>
       </c>
+      <c r="AO490">
+        <v>0</v>
+      </c>
     </row>
-    <row r="491" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>528</v>
       </c>
@@ -62030,8 +62606,11 @@
       <c r="AN491">
         <v>0</v>
       </c>
+      <c r="AO491">
+        <v>0</v>
+      </c>
     </row>
-    <row r="492" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>529</v>
       </c>
@@ -62149,8 +62728,11 @@
       <c r="AN492">
         <v>0</v>
       </c>
+      <c r="AO492">
+        <v>0</v>
+      </c>
     </row>
-    <row r="493" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>530</v>
       </c>
@@ -62268,8 +62850,11 @@
       <c r="AN493">
         <v>0</v>
       </c>
+      <c r="AO493">
+        <v>0</v>
+      </c>
     </row>
-    <row r="494" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>531</v>
       </c>
@@ -62387,8 +62972,11 @@
       <c r="AN494">
         <v>0</v>
       </c>
+      <c r="AO494">
+        <v>0</v>
+      </c>
     </row>
-    <row r="495" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>532</v>
       </c>
@@ -62509,8 +63097,11 @@
       <c r="AN495" t="s">
         <v>308</v>
       </c>
+      <c r="AO495" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="496" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>533</v>
       </c>
@@ -62628,8 +63219,11 @@
       <c r="AN496">
         <v>0</v>
       </c>
+      <c r="AO496">
+        <v>0</v>
+      </c>
     </row>
-    <row r="497" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>534</v>
       </c>
@@ -62748,7 +63342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>535</v>
       </c>
@@ -62867,7 +63461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>536</v>
       </c>
@@ -62986,7 +63580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>537</v>
       </c>
@@ -63105,7 +63699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>538</v>
       </c>
@@ -63224,7 +63818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>539</v>
       </c>
@@ -63343,7 +63937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>540</v>
       </c>
@@ -63462,7 +64056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>541</v>
       </c>
@@ -63581,7 +64175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>542</v>
       </c>
@@ -63700,7 +64294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>543</v>
       </c>
@@ -63819,7 +64413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>544</v>
       </c>
@@ -63938,7 +64532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>545</v>
       </c>
@@ -64057,7 +64651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>546</v>
       </c>
@@ -64176,7 +64770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>547</v>
       </c>
@@ -64295,7 +64889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>548</v>
       </c>
@@ -64414,7 +65008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>549</v>
       </c>
@@ -64535,8 +65129,11 @@
       <c r="AN512">
         <v>0</v>
       </c>
+      <c r="AO512">
+        <v>0</v>
+      </c>
     </row>
-    <row r="513" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>550</v>
       </c>
@@ -64654,8 +65251,11 @@
       <c r="AN513">
         <v>6</v>
       </c>
+      <c r="AO513">
+        <v>0</v>
+      </c>
     </row>
-    <row r="514" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>551</v>
       </c>
@@ -64773,8 +65373,11 @@
       <c r="AN514">
         <v>6</v>
       </c>
+      <c r="AO514">
+        <v>0</v>
+      </c>
     </row>
-    <row r="515" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>552</v>
       </c>
@@ -64892,8 +65495,11 @@
       <c r="AN515">
         <v>0</v>
       </c>
+      <c r="AO515">
+        <v>0</v>
+      </c>
     </row>
-    <row r="516" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>553</v>
       </c>
@@ -65011,8 +65617,11 @@
       <c r="AN516">
         <v>6</v>
       </c>
+      <c r="AO516">
+        <v>6</v>
+      </c>
     </row>
-    <row r="517" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>554</v>
       </c>
@@ -65133,8 +65742,11 @@
       <c r="AN517" t="s">
         <v>308</v>
       </c>
+      <c r="AO517" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="518" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>555</v>
       </c>
@@ -65255,8 +65867,11 @@
       <c r="AN518" t="s">
         <v>308</v>
       </c>
+      <c r="AO518" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="519" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>557</v>
       </c>
@@ -65374,8 +65989,11 @@
       <c r="AN519">
         <v>0</v>
       </c>
+      <c r="AO519">
+        <v>0</v>
+      </c>
     </row>
-    <row r="520" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>558</v>
       </c>
@@ -65493,8 +66111,11 @@
       <c r="AN520">
         <v>6</v>
       </c>
+      <c r="AO520">
+        <v>0</v>
+      </c>
     </row>
-    <row r="521" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>559</v>
       </c>
@@ -65612,8 +66233,11 @@
       <c r="AN521">
         <v>6</v>
       </c>
+      <c r="AO521">
+        <v>6</v>
+      </c>
     </row>
-    <row r="522" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>560</v>
       </c>
@@ -65731,8 +66355,11 @@
       <c r="AN522">
         <v>6</v>
       </c>
+      <c r="AO522">
+        <v>6</v>
+      </c>
     </row>
-    <row r="523" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>561</v>
       </c>
@@ -65850,8 +66477,11 @@
       <c r="AN523">
         <v>0</v>
       </c>
+      <c r="AO523">
+        <v>0</v>
+      </c>
     </row>
-    <row r="524" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>562</v>
       </c>
@@ -65969,8 +66599,11 @@
       <c r="AN524">
         <v>0</v>
       </c>
+      <c r="AO524">
+        <v>0</v>
+      </c>
     </row>
-    <row r="525" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>563</v>
       </c>
@@ -66088,8 +66721,11 @@
       <c r="AN525">
         <v>0</v>
       </c>
+      <c r="AO525">
+        <v>0</v>
+      </c>
     </row>
-    <row r="526" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>564</v>
       </c>
@@ -66207,8 +66843,11 @@
       <c r="AN526">
         <v>0</v>
       </c>
+      <c r="AO526">
+        <v>0</v>
+      </c>
     </row>
-    <row r="527" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>565</v>
       </c>
@@ -66326,8 +66965,11 @@
       <c r="AN527">
         <v>0</v>
       </c>
+      <c r="AO527">
+        <v>0</v>
+      </c>
     </row>
-    <row r="528" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>566</v>
       </c>
@@ -66448,8 +67090,11 @@
       <c r="AN528">
         <v>0</v>
       </c>
+      <c r="AO528">
+        <v>0</v>
+      </c>
     </row>
-    <row r="529" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>567</v>
       </c>
@@ -66567,8 +67212,11 @@
       <c r="AN529">
         <v>0</v>
       </c>
+      <c r="AO529">
+        <v>0</v>
+      </c>
     </row>
-    <row r="530" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>568</v>
       </c>
@@ -66686,8 +67334,11 @@
       <c r="AN530">
         <v>0</v>
       </c>
+      <c r="AO530">
+        <v>0</v>
+      </c>
     </row>
-    <row r="531" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>569</v>
       </c>
@@ -66808,8 +67459,11 @@
       <c r="AN531">
         <v>6</v>
       </c>
+      <c r="AO531">
+        <v>0</v>
+      </c>
     </row>
-    <row r="532" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>570</v>
       </c>
@@ -66930,8 +67584,11 @@
       <c r="AN532">
         <v>0</v>
       </c>
+      <c r="AO532">
+        <v>0</v>
+      </c>
     </row>
-    <row r="533" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>571</v>
       </c>
@@ -67049,8 +67706,11 @@
       <c r="AN533">
         <v>0</v>
       </c>
+      <c r="AO533">
+        <v>0</v>
+      </c>
     </row>
-    <row r="534" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>572</v>
       </c>
@@ -67168,8 +67828,11 @@
       <c r="AN534">
         <v>6</v>
       </c>
+      <c r="AO534">
+        <v>0</v>
+      </c>
     </row>
-    <row r="535" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>573</v>
       </c>
@@ -67287,8 +67950,11 @@
       <c r="AN535">
         <v>6</v>
       </c>
+      <c r="AO535">
+        <v>0</v>
+      </c>
     </row>
-    <row r="536" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>574</v>
       </c>
@@ -67406,8 +68072,11 @@
       <c r="AN536">
         <v>0</v>
       </c>
+      <c r="AO536">
+        <v>0</v>
+      </c>
     </row>
-    <row r="537" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>575</v>
       </c>
@@ -67525,8 +68194,11 @@
       <c r="AN537">
         <v>0</v>
       </c>
+      <c r="AO537">
+        <v>0</v>
+      </c>
     </row>
-    <row r="538" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>576</v>
       </c>
@@ -67644,8 +68316,11 @@
       <c r="AN538">
         <v>6</v>
       </c>
+      <c r="AO538">
+        <v>0</v>
+      </c>
     </row>
-    <row r="539" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>577</v>
       </c>
@@ -67763,8 +68438,11 @@
       <c r="AN539">
         <v>0</v>
       </c>
+      <c r="AO539">
+        <v>0</v>
+      </c>
     </row>
-    <row r="540" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>578</v>
       </c>
@@ -67882,8 +68560,11 @@
       <c r="AN540">
         <v>0</v>
       </c>
+      <c r="AO540">
+        <v>0</v>
+      </c>
     </row>
-    <row r="541" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>579</v>
       </c>
@@ -68001,8 +68682,11 @@
       <c r="AN541">
         <v>6</v>
       </c>
+      <c r="AO541">
+        <v>0</v>
+      </c>
     </row>
-    <row r="542" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>580</v>
       </c>
@@ -68124,7 +68808,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="543" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>583</v>
       </c>
@@ -68243,7 +68927,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="544" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>584</v>
       </c>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEF62B8-BB03-754F-96E3-FB434113EFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA74B7DC-1AD0-9548-945F-33A181E787A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5333" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5361" uniqueCount="745">
   <si>
     <t>tree_ID</t>
   </si>
@@ -3537,9 +3537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO267" sqref="AO267"/>
+    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP238" sqref="AP238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3797,6 +3797,9 @@
       <c r="AN2">
         <v>5</v>
       </c>
+      <c r="AO2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3916,6 +3919,9 @@
       <c r="AN3">
         <v>5</v>
       </c>
+      <c r="AO3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4035,6 +4041,9 @@
       <c r="AN4">
         <v>5</v>
       </c>
+      <c r="AO4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4154,6 +4163,9 @@
       <c r="AN5">
         <v>5</v>
       </c>
+      <c r="AO5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4273,6 +4285,9 @@
       <c r="AN6">
         <v>5</v>
       </c>
+      <c r="AO6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4392,6 +4407,9 @@
       <c r="AN7">
         <v>6</v>
       </c>
+      <c r="AO7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4511,6 +4529,9 @@
       <c r="AN8">
         <v>6</v>
       </c>
+      <c r="AO8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4630,6 +4651,9 @@
       <c r="AN9">
         <v>6</v>
       </c>
+      <c r="AO9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -4749,6 +4773,9 @@
       <c r="AN10">
         <v>6</v>
       </c>
+      <c r="AO10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4871,6 +4898,9 @@
       <c r="AN11">
         <v>6</v>
       </c>
+      <c r="AO11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4990,6 +5020,9 @@
       <c r="AN12">
         <v>5</v>
       </c>
+      <c r="AO12">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5109,6 +5142,9 @@
       <c r="AN13">
         <v>5</v>
       </c>
+      <c r="AO13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -5228,6 +5264,9 @@
       <c r="AN14">
         <v>5</v>
       </c>
+      <c r="AO14">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -5347,6 +5386,9 @@
       <c r="AN15">
         <v>5</v>
       </c>
+      <c r="AO15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -5466,6 +5508,9 @@
       <c r="AN16">
         <v>5</v>
       </c>
+      <c r="AO16">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -5585,6 +5630,9 @@
       <c r="AN17">
         <v>6</v>
       </c>
+      <c r="AO17">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -5704,6 +5752,9 @@
       <c r="AN18">
         <v>6</v>
       </c>
+      <c r="AO18">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -5823,6 +5874,9 @@
       <c r="AN19">
         <v>6</v>
       </c>
+      <c r="AO19">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -5942,6 +5996,9 @@
       <c r="AN20">
         <v>6</v>
       </c>
+      <c r="AO20">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -6061,6 +6118,9 @@
       <c r="AN21">
         <v>6</v>
       </c>
+      <c r="AO21">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -6183,6 +6243,9 @@
       <c r="AN22">
         <v>6</v>
       </c>
+      <c r="AO22">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -6302,6 +6365,9 @@
       <c r="AN23">
         <v>6</v>
       </c>
+      <c r="AO23">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -6421,6 +6487,9 @@
       <c r="AN24">
         <v>5</v>
       </c>
+      <c r="AO24">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -6540,6 +6609,9 @@
       <c r="AN25">
         <v>6</v>
       </c>
+      <c r="AO25">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -6659,6 +6731,9 @@
       <c r="AN26">
         <v>5</v>
       </c>
+      <c r="AO26">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -6778,6 +6853,9 @@
       <c r="AN27">
         <v>5</v>
       </c>
+      <c r="AO27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -6900,6 +6978,9 @@
       <c r="AN28">
         <v>6</v>
       </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -7022,6 +7103,9 @@
       <c r="AN29" t="s">
         <v>308</v>
       </c>
+      <c r="AO29" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -7141,6 +7225,9 @@
       <c r="AN30">
         <v>5</v>
       </c>
+      <c r="AO30">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -7260,6 +7347,9 @@
       <c r="AN31">
         <v>6</v>
       </c>
+      <c r="AO31">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -9212,6 +9302,9 @@
       <c r="AN47">
         <v>6</v>
       </c>
+      <c r="AO47">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -9331,6 +9424,9 @@
       <c r="AN48">
         <v>5</v>
       </c>
+      <c r="AO48">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -9450,6 +9546,9 @@
       <c r="AN49">
         <v>4</v>
       </c>
+      <c r="AO49">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -9569,6 +9668,9 @@
       <c r="AN50">
         <v>6</v>
       </c>
+      <c r="AO50">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -9688,6 +9790,9 @@
       <c r="AN51">
         <v>6</v>
       </c>
+      <c r="AO51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -9807,6 +9912,9 @@
       <c r="AN52">
         <v>0</v>
       </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -9926,6 +10034,9 @@
       <c r="AN53">
         <v>6</v>
       </c>
+      <c r="AO53">
+        <v>6</v>
+      </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -10045,6 +10156,9 @@
       <c r="AN54">
         <v>0</v>
       </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -10167,6 +10281,9 @@
       <c r="AN55">
         <v>6</v>
       </c>
+      <c r="AO55">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -10289,6 +10406,9 @@
       <c r="AN56">
         <v>0</v>
       </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -10411,6 +10531,9 @@
       <c r="AN57">
         <v>6</v>
       </c>
+      <c r="AO57">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -10530,6 +10653,9 @@
       <c r="AN58">
         <v>6</v>
       </c>
+      <c r="AO58">
+        <v>6</v>
+      </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -10649,6 +10775,9 @@
       <c r="AN59" t="s">
         <v>308</v>
       </c>
+      <c r="AO59" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -10768,6 +10897,9 @@
       <c r="AN60">
         <v>6</v>
       </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -10887,6 +11019,9 @@
       <c r="AN61">
         <v>6</v>
       </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -14669,6 +14804,9 @@
       <c r="AN92">
         <v>6</v>
       </c>
+      <c r="AO92" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -14788,6 +14926,9 @@
       <c r="AN93">
         <v>6</v>
       </c>
+      <c r="AO93" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -14907,6 +15048,9 @@
       <c r="AN94">
         <v>6</v>
       </c>
+      <c r="AO94" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -15029,6 +15173,9 @@
       <c r="AN95">
         <v>6</v>
       </c>
+      <c r="AO95" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -15148,8 +15295,11 @@
       <c r="AN96">
         <v>6</v>
       </c>
+      <c r="AO96" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -15267,8 +15417,11 @@
       <c r="AN97" s="2">
         <v>6</v>
       </c>
+      <c r="AO97" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -15386,8 +15539,11 @@
       <c r="AN98" s="2">
         <v>6</v>
       </c>
+      <c r="AO98" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -15505,8 +15661,11 @@
       <c r="AN99" s="2">
         <v>6</v>
       </c>
+      <c r="AO99" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -15624,8 +15783,11 @@
       <c r="AN100" s="2">
         <v>6</v>
       </c>
+      <c r="AO100" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -15743,8 +15905,11 @@
       <c r="AN101" s="2">
         <v>6</v>
       </c>
+      <c r="AO101" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -15862,8 +16027,11 @@
       <c r="AN102" s="2">
         <v>6</v>
       </c>
+      <c r="AO102" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -15981,8 +16149,11 @@
       <c r="AN103" s="2">
         <v>6</v>
       </c>
+      <c r="AO103" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -16100,8 +16271,11 @@
       <c r="AN104" s="2">
         <v>6</v>
       </c>
+      <c r="AO104" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -16219,8 +16393,11 @@
       <c r="AN105" s="2">
         <v>6</v>
       </c>
+      <c r="AO105" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -16338,8 +16515,11 @@
       <c r="AN106" s="2">
         <v>6</v>
       </c>
+      <c r="AO106" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -16457,8 +16637,11 @@
       <c r="AN107" s="2">
         <v>6</v>
       </c>
+      <c r="AO107" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -16576,8 +16759,11 @@
       <c r="AN108" s="2">
         <v>6</v>
       </c>
+      <c r="AO108" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -16698,8 +16884,11 @@
       <c r="AN109" s="2">
         <v>6</v>
       </c>
+      <c r="AO109" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -16817,8 +17006,11 @@
       <c r="AN110" s="2">
         <v>6</v>
       </c>
+      <c r="AO110" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -16939,8 +17131,11 @@
       <c r="AN111" s="2">
         <v>1</v>
       </c>
+      <c r="AO111" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -17057,6 +17252,9 @@
       </c>
       <c r="AN112" s="2">
         <v>6</v>
+      </c>
+      <c r="AO112" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:41" x14ac:dyDescent="0.2">
@@ -17177,6 +17375,9 @@
       <c r="AN113" t="s">
         <v>308</v>
       </c>
+      <c r="AO113" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -17296,6 +17497,9 @@
       <c r="AN114" s="2">
         <v>6</v>
       </c>
+      <c r="AO114" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -17415,6 +17619,9 @@
       <c r="AN115" s="2">
         <v>6</v>
       </c>
+      <c r="AO115" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -17534,6 +17741,9 @@
       <c r="AN116" s="2">
         <v>0</v>
       </c>
+      <c r="AO116" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -17653,6 +17863,9 @@
       <c r="AN117" s="2">
         <v>4</v>
       </c>
+      <c r="AO117" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -17772,6 +17985,9 @@
       <c r="AN118">
         <v>6</v>
       </c>
+      <c r="AO118" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -17891,6 +18107,9 @@
       <c r="AN119">
         <v>6</v>
       </c>
+      <c r="AO119" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -18010,6 +18229,9 @@
       <c r="AN120">
         <v>6</v>
       </c>
+      <c r="AO120" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -18132,6 +18354,9 @@
       <c r="AN121">
         <v>6</v>
       </c>
+      <c r="AO121" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -20087,6 +20312,9 @@
       <c r="AN137" s="2">
         <v>1</v>
       </c>
+      <c r="AO137">
+        <v>5</v>
+      </c>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -20206,6 +20434,9 @@
       <c r="AN138" s="2">
         <v>6</v>
       </c>
+      <c r="AO138">
+        <v>6</v>
+      </c>
     </row>
     <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
@@ -20325,6 +20556,9 @@
       <c r="AN139" s="2">
         <v>6</v>
       </c>
+      <c r="AO139">
+        <v>6</v>
+      </c>
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
@@ -20444,6 +20678,9 @@
       <c r="AN140" s="2">
         <v>0</v>
       </c>
+      <c r="AO140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
@@ -20563,6 +20800,9 @@
       <c r="AN141" s="2">
         <v>6</v>
       </c>
+      <c r="AO141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -20682,6 +20922,9 @@
       <c r="AN142" s="2">
         <v>6</v>
       </c>
+      <c r="AO142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
@@ -20801,6 +21044,9 @@
       <c r="AN143" s="2">
         <v>0</v>
       </c>
+      <c r="AO143">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
@@ -20920,6 +21166,9 @@
       <c r="AN144" s="2">
         <v>6</v>
       </c>
+      <c r="AO144">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
@@ -21039,6 +21288,9 @@
       <c r="AN145" s="2">
         <v>0</v>
       </c>
+      <c r="AO145">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
@@ -21158,6 +21410,9 @@
       <c r="AN146" s="2">
         <v>6</v>
       </c>
+      <c r="AO146">
+        <v>6</v>
+      </c>
     </row>
     <row r="147" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
@@ -21277,6 +21532,9 @@
       <c r="AN147" s="2">
         <v>6</v>
       </c>
+      <c r="AO147">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
@@ -21399,6 +21657,9 @@
       <c r="AN148" s="2">
         <v>1</v>
       </c>
+      <c r="AO148">
+        <v>5</v>
+      </c>
     </row>
     <row r="149" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
@@ -21518,6 +21779,9 @@
       <c r="AN149" s="2">
         <v>6</v>
       </c>
+      <c r="AO149">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -21640,6 +21904,9 @@
       <c r="AN150" s="2">
         <v>1</v>
       </c>
+      <c r="AO150">
+        <v>5</v>
+      </c>
     </row>
     <row r="151" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
@@ -21759,6 +22026,9 @@
       <c r="AN151" s="2">
         <v>0</v>
       </c>
+      <c r="AO151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
@@ -25542,6 +25812,9 @@
       <c r="AN182">
         <v>0</v>
       </c>
+      <c r="AO182">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
@@ -25659,6 +25932,9 @@
       <c r="AN183">
         <v>0</v>
       </c>
+      <c r="AO183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
@@ -25776,6 +26052,9 @@
       <c r="AN184">
         <v>0</v>
       </c>
+      <c r="AO184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
@@ -25893,6 +26172,9 @@
       <c r="AN185">
         <v>0</v>
       </c>
+      <c r="AO185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
@@ -26013,6 +26295,9 @@
       <c r="AN186">
         <v>0</v>
       </c>
+      <c r="AO186">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -26130,6 +26415,9 @@
       <c r="AN187">
         <v>0</v>
       </c>
+      <c r="AO187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -26247,6 +26535,9 @@
       <c r="AN188">
         <v>0</v>
       </c>
+      <c r="AO188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
@@ -26364,6 +26655,9 @@
       <c r="AN189">
         <v>0</v>
       </c>
+      <c r="AO189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
@@ -26484,6 +26778,9 @@
       <c r="AN190">
         <v>0</v>
       </c>
+      <c r="AO190">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
@@ -26601,6 +26898,9 @@
       <c r="AN191">
         <v>0</v>
       </c>
+      <c r="AO191">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
@@ -26718,8 +27018,11 @@
       <c r="AN192">
         <v>0</v>
       </c>
+      <c r="AO192">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>212</v>
       </c>
@@ -26835,8 +27138,11 @@
       <c r="AN193">
         <v>0</v>
       </c>
+      <c r="AO193">
+        <v>0</v>
+      </c>
     </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -26955,8 +27261,11 @@
       <c r="AN194">
         <v>0</v>
       </c>
+      <c r="AO194">
+        <v>0</v>
+      </c>
     </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -27072,8 +27381,11 @@
       <c r="AN195">
         <v>0</v>
       </c>
+      <c r="AO195">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -27189,8 +27501,11 @@
       <c r="AN196">
         <v>0</v>
       </c>
+      <c r="AO196">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -27306,8 +27621,11 @@
       <c r="AN197">
         <v>0</v>
       </c>
+      <c r="AO197">
+        <v>0</v>
+      </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -27426,8 +27744,11 @@
       <c r="AN198">
         <v>0</v>
       </c>
+      <c r="AO198">
+        <v>0</v>
+      </c>
     </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -27543,8 +27864,11 @@
       <c r="AN199">
         <v>0</v>
       </c>
+      <c r="AO199">
+        <v>0</v>
+      </c>
     </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -27663,8 +27987,11 @@
       <c r="AN200">
         <v>0</v>
       </c>
+      <c r="AO200">
+        <v>0</v>
+      </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -27780,8 +28107,11 @@
       <c r="AN201">
         <v>0</v>
       </c>
+      <c r="AO201">
+        <v>0</v>
+      </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -27897,8 +28227,11 @@
       <c r="AN202">
         <v>0</v>
       </c>
+      <c r="AO202">
+        <v>0</v>
+      </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -28014,8 +28347,11 @@
       <c r="AN203">
         <v>0</v>
       </c>
+      <c r="AO203">
+        <v>0</v>
+      </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -28131,8 +28467,11 @@
       <c r="AN204">
         <v>0</v>
       </c>
+      <c r="AO204">
+        <v>0</v>
+      </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -28251,8 +28590,11 @@
       <c r="AN205">
         <v>6</v>
       </c>
+      <c r="AO205">
+        <v>0</v>
+      </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -28368,8 +28710,11 @@
       <c r="AN206">
         <v>0</v>
       </c>
+      <c r="AO206">
+        <v>0</v>
+      </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -28485,8 +28830,11 @@
       <c r="AN207">
         <v>0</v>
       </c>
+      <c r="AO207">
+        <v>0</v>
+      </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -28603,6 +28951,9 @@
         <v>6</v>
       </c>
       <c r="AN208">
+        <v>0</v>
+      </c>
+      <c r="AO208">
         <v>0</v>
       </c>
     </row>
@@ -28722,6 +29073,9 @@
       <c r="AN209">
         <v>0</v>
       </c>
+      <c r="AO209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
@@ -28839,6 +29193,9 @@
       <c r="AN210">
         <v>0</v>
       </c>
+      <c r="AO210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
@@ -28959,6 +29316,9 @@
       <c r="AN211">
         <v>0</v>
       </c>
+      <c r="AO211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
@@ -30885,6 +31245,9 @@
       <c r="AN227">
         <v>0</v>
       </c>
+      <c r="AO227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
@@ -31002,6 +31365,9 @@
       <c r="AN228">
         <v>0</v>
       </c>
+      <c r="AO228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
@@ -31119,6 +31485,9 @@
       <c r="AN229">
         <v>0</v>
       </c>
+      <c r="AO229">
+        <v>0</v>
+      </c>
     </row>
     <row r="230" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -31236,6 +31605,9 @@
       <c r="AN230">
         <v>0</v>
       </c>
+      <c r="AO230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
@@ -31353,6 +31725,9 @@
       <c r="AN231">
         <v>0</v>
       </c>
+      <c r="AO231">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
@@ -31470,6 +31845,9 @@
       <c r="AN232">
         <v>6</v>
       </c>
+      <c r="AO232">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -31587,6 +31965,9 @@
       <c r="AN233">
         <v>0</v>
       </c>
+      <c r="AO233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
@@ -31704,6 +32085,9 @@
       <c r="AN234">
         <v>0</v>
       </c>
+      <c r="AO234">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
@@ -31821,6 +32205,9 @@
       <c r="AN235">
         <v>0</v>
       </c>
+      <c r="AO235">
+        <v>0</v>
+      </c>
     </row>
     <row r="236" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
@@ -31938,6 +32325,9 @@
       <c r="AN236">
         <v>0</v>
       </c>
+      <c r="AO236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
@@ -32055,6 +32445,9 @@
       <c r="AN237">
         <v>0</v>
       </c>
+      <c r="AO237">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
@@ -32172,6 +32565,9 @@
       <c r="AN238">
         <v>0</v>
       </c>
+      <c r="AO238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
@@ -32289,6 +32685,9 @@
       <c r="AN239">
         <v>0</v>
       </c>
+      <c r="AO239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
@@ -32406,6 +32805,9 @@
       <c r="AN240">
         <v>0</v>
       </c>
+      <c r="AO240">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
@@ -32523,6 +32925,9 @@
       <c r="AN241">
         <v>0</v>
       </c>
+      <c r="AO241">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
@@ -36245,8 +36650,11 @@
       <c r="AN272" t="s">
         <v>308</v>
       </c>
+      <c r="AO272" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -36364,8 +36772,11 @@
       <c r="AN273">
         <v>0</v>
       </c>
+      <c r="AO273">
+        <v>0</v>
+      </c>
     </row>
-    <row r="274" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -36483,8 +36894,11 @@
       <c r="AN274">
         <v>0</v>
       </c>
+      <c r="AO274">
+        <v>0</v>
+      </c>
     </row>
-    <row r="275" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>298</v>
       </c>
@@ -36605,8 +37019,11 @@
       <c r="AN275" t="s">
         <v>308</v>
       </c>
+      <c r="AO275" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="276" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -36727,8 +37144,11 @@
       <c r="AN276">
         <v>0</v>
       </c>
+      <c r="AO276">
+        <v>0</v>
+      </c>
     </row>
-    <row r="277" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>300</v>
       </c>
@@ -36846,8 +37266,11 @@
       <c r="AN277">
         <v>6</v>
       </c>
+      <c r="AO277">
+        <v>0</v>
+      </c>
     </row>
-    <row r="278" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -36965,8 +37388,11 @@
       <c r="AN278">
         <v>0</v>
       </c>
+      <c r="AO278">
+        <v>0</v>
+      </c>
     </row>
-    <row r="279" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -37087,8 +37513,11 @@
       <c r="AN279" t="s">
         <v>308</v>
       </c>
+      <c r="AO279" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -37206,8 +37635,11 @@
       <c r="AN280">
         <v>6</v>
       </c>
+      <c r="AO280">
+        <v>0</v>
+      </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -37325,8 +37757,11 @@
       <c r="AN281">
         <v>6</v>
       </c>
+      <c r="AO281">
+        <v>0</v>
+      </c>
     </row>
-    <row r="282" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>305</v>
       </c>
@@ -37447,8 +37882,11 @@
       <c r="AN282" t="s">
         <v>308</v>
       </c>
+      <c r="AO282" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="283" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -37569,8 +38007,11 @@
       <c r="AN283" t="s">
         <v>308</v>
       </c>
+      <c r="AO283" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="284" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -37688,8 +38129,11 @@
       <c r="AN284">
         <v>0</v>
       </c>
+      <c r="AO284">
+        <v>0</v>
+      </c>
     </row>
-    <row r="285" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -37807,8 +38251,11 @@
       <c r="AN285">
         <v>0</v>
       </c>
+      <c r="AO285">
+        <v>0</v>
+      </c>
     </row>
-    <row r="286" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -37926,8 +38373,11 @@
       <c r="AN286">
         <v>0</v>
       </c>
+      <c r="AO286">
+        <v>0</v>
+      </c>
     </row>
-    <row r="287" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -38045,8 +38495,11 @@
       <c r="AN287">
         <v>6</v>
       </c>
+      <c r="AO287">
+        <v>0</v>
+      </c>
     </row>
-    <row r="288" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -38163,6 +38616,9 @@
       </c>
       <c r="AN288">
         <v>6</v>
+      </c>
+      <c r="AO288">
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:41" x14ac:dyDescent="0.2">
@@ -38283,6 +38739,9 @@
       <c r="AN289">
         <v>0</v>
       </c>
+      <c r="AO289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
@@ -38402,6 +38861,9 @@
       <c r="AN290">
         <v>0</v>
       </c>
+      <c r="AO290">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
@@ -38521,6 +38983,9 @@
       <c r="AN291">
         <v>0</v>
       </c>
+      <c r="AO291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
@@ -38640,6 +39105,9 @@
       <c r="AN292">
         <v>0</v>
       </c>
+      <c r="AO292">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
@@ -38759,6 +39227,9 @@
       <c r="AN293">
         <v>0</v>
       </c>
+      <c r="AO293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
@@ -38881,6 +39352,9 @@
       <c r="AN294">
         <v>0</v>
       </c>
+      <c r="AO294">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
@@ -39000,6 +39474,9 @@
       <c r="AN295">
         <v>0</v>
       </c>
+      <c r="AO295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -39119,6 +39596,9 @@
       <c r="AN296">
         <v>0</v>
       </c>
+      <c r="AO296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -39241,6 +39721,9 @@
       <c r="AN297" t="s">
         <v>308</v>
       </c>
+      <c r="AO297" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="298" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -39360,6 +39843,9 @@
       <c r="AN298">
         <v>5</v>
       </c>
+      <c r="AO298">
+        <v>6</v>
+      </c>
     </row>
     <row r="299" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -39482,6 +39968,9 @@
       <c r="AN299" t="s">
         <v>308</v>
       </c>
+      <c r="AO299" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="300" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
@@ -39601,6 +40090,9 @@
       <c r="AN300">
         <v>0</v>
       </c>
+      <c r="AO300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -39720,6 +40212,9 @@
       <c r="AN301">
         <v>6</v>
       </c>
+      <c r="AO301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
@@ -41675,6 +42170,9 @@
       <c r="AN317" t="s">
         <v>308</v>
       </c>
+      <c r="AO317" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="318" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
@@ -41794,6 +42292,9 @@
       <c r="AN318">
         <v>0</v>
       </c>
+      <c r="AO318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
@@ -41913,6 +42414,9 @@
       <c r="AN319">
         <v>6</v>
       </c>
+      <c r="AO319">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
@@ -42032,6 +42536,9 @@
       <c r="AN320">
         <v>6</v>
       </c>
+      <c r="AO320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
@@ -42151,6 +42658,9 @@
       <c r="AN321">
         <v>6</v>
       </c>
+      <c r="AO321">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
@@ -42273,6 +42783,9 @@
       <c r="AN322" t="s">
         <v>308</v>
       </c>
+      <c r="AO322" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="323" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
@@ -42392,6 +42905,9 @@
       <c r="AN323">
         <v>0</v>
       </c>
+      <c r="AO323">
+        <v>0</v>
+      </c>
     </row>
     <row r="324" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
@@ -42514,6 +43030,9 @@
       <c r="AN324" t="s">
         <v>308</v>
       </c>
+      <c r="AO324" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="325" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -42633,6 +43152,9 @@
       <c r="AN325">
         <v>6</v>
       </c>
+      <c r="AO325">
+        <v>6</v>
+      </c>
     </row>
     <row r="326" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
@@ -42752,6 +43274,9 @@
       <c r="AN326">
         <v>6</v>
       </c>
+      <c r="AO326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
@@ -42871,6 +43396,9 @@
       <c r="AN327">
         <v>0</v>
       </c>
+      <c r="AO327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -42993,6 +43521,9 @@
       <c r="AN328" t="s">
         <v>308</v>
       </c>
+      <c r="AO328" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="329" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
@@ -43112,6 +43643,9 @@
       <c r="AN329">
         <v>6</v>
       </c>
+      <c r="AO329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
@@ -43234,6 +43768,9 @@
       <c r="AN330" t="s">
         <v>308</v>
       </c>
+      <c r="AO330" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="331" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
@@ -43353,6 +43890,9 @@
       <c r="AN331" t="s">
         <v>308</v>
       </c>
+      <c r="AO331" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="332" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -47165,6 +47705,9 @@
       <c r="AN362">
         <v>0</v>
       </c>
+      <c r="AO362">
+        <v>0</v>
+      </c>
     </row>
     <row r="363" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
@@ -47284,6 +47827,9 @@
       <c r="AN363">
         <v>0</v>
       </c>
+      <c r="AO363">
+        <v>0</v>
+      </c>
     </row>
     <row r="364" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
@@ -47403,6 +47949,9 @@
       <c r="AN364">
         <v>0</v>
       </c>
+      <c r="AO364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
@@ -47522,6 +48071,9 @@
       <c r="AN365">
         <v>0</v>
       </c>
+      <c r="AO365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
@@ -47641,6 +48193,9 @@
       <c r="AN366">
         <v>0</v>
       </c>
+      <c r="AO366">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
@@ -47760,6 +48315,9 @@
       <c r="AN367">
         <v>0</v>
       </c>
+      <c r="AO367">
+        <v>0</v>
+      </c>
     </row>
     <row r="368" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
@@ -47879,8 +48437,11 @@
       <c r="AN368">
         <v>0</v>
       </c>
+      <c r="AO368">
+        <v>0</v>
+      </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -48001,8 +48562,11 @@
       <c r="AN369">
         <v>0</v>
       </c>
+      <c r="AO369">
+        <v>0</v>
+      </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -48120,8 +48684,11 @@
       <c r="AN370">
         <v>0</v>
       </c>
+      <c r="AO370">
+        <v>0</v>
+      </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -48239,8 +48806,11 @@
       <c r="AN371">
         <v>0</v>
       </c>
+      <c r="AO371">
+        <v>0</v>
+      </c>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -48358,8 +48928,11 @@
       <c r="AN372">
         <v>0</v>
       </c>
+      <c r="AO372">
+        <v>0</v>
+      </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -48480,8 +49053,11 @@
       <c r="AN373">
         <v>0</v>
       </c>
+      <c r="AO373">
+        <v>0</v>
+      </c>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -48599,8 +49175,11 @@
       <c r="AN374">
         <v>0</v>
       </c>
+      <c r="AO374">
+        <v>0</v>
+      </c>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -48718,8 +49297,11 @@
       <c r="AN375">
         <v>0</v>
       </c>
+      <c r="AO375">
+        <v>0</v>
+      </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -48837,8 +49419,11 @@
       <c r="AN376">
         <v>0</v>
       </c>
+      <c r="AO376">
+        <v>0</v>
+      </c>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -48956,8 +49541,11 @@
       <c r="AN377">
         <v>0</v>
       </c>
+      <c r="AO377">
+        <v>0</v>
+      </c>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -49075,8 +49663,11 @@
       <c r="AN378">
         <v>0</v>
       </c>
+      <c r="AO378">
+        <v>0</v>
+      </c>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -49194,8 +49785,11 @@
       <c r="AN379">
         <v>0</v>
       </c>
+      <c r="AO379">
+        <v>0</v>
+      </c>
     </row>
-    <row r="380" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -49316,8 +49910,11 @@
       <c r="AN380">
         <v>0</v>
       </c>
+      <c r="AO380">
+        <v>0</v>
+      </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -49435,8 +50032,11 @@
       <c r="AN381">
         <v>0</v>
       </c>
+      <c r="AO381">
+        <v>0</v>
+      </c>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>413</v>
       </c>
@@ -49554,8 +50154,11 @@
       <c r="AN382">
         <v>0</v>
       </c>
+      <c r="AO382">
+        <v>0</v>
+      </c>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -49673,8 +50276,11 @@
       <c r="AN383">
         <v>0</v>
       </c>
+      <c r="AO383">
+        <v>0</v>
+      </c>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>415</v>
       </c>
@@ -49792,8 +50398,11 @@
       <c r="AN384">
         <v>0</v>
       </c>
+      <c r="AO384">
+        <v>0</v>
+      </c>
     </row>
-    <row r="385" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -49911,8 +50520,11 @@
       <c r="AN385">
         <v>0</v>
       </c>
+      <c r="AO385">
+        <v>0</v>
+      </c>
     </row>
-    <row r="386" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>417</v>
       </c>
@@ -50033,8 +50645,11 @@
       <c r="AN386">
         <v>0</v>
       </c>
+      <c r="AO386">
+        <v>0</v>
+      </c>
     </row>
-    <row r="387" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -50152,8 +50767,11 @@
       <c r="AN387" t="s">
         <v>308</v>
       </c>
+      <c r="AO387" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="388" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>419</v>
       </c>
@@ -50271,8 +50889,11 @@
       <c r="AN388">
         <v>0</v>
       </c>
+      <c r="AO388">
+        <v>0</v>
+      </c>
     </row>
-    <row r="389" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -50390,8 +51011,11 @@
       <c r="AN389">
         <v>0</v>
       </c>
+      <c r="AO389">
+        <v>0</v>
+      </c>
     </row>
-    <row r="390" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>421</v>
       </c>
@@ -50509,8 +51133,11 @@
       <c r="AN390">
         <v>0</v>
       </c>
+      <c r="AO390">
+        <v>0</v>
+      </c>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -50631,8 +51258,11 @@
       <c r="AN391" t="s">
         <v>308</v>
       </c>
+      <c r="AO391" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="392" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>423</v>
       </c>
@@ -50753,8 +51383,11 @@
       <c r="AN392">
         <v>0</v>
       </c>
+      <c r="AO392">
+        <v>0</v>
+      </c>
     </row>
-    <row r="393" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>424</v>
       </c>
@@ -50872,8 +51505,11 @@
       <c r="AN393">
         <v>0</v>
       </c>
+      <c r="AO393">
+        <v>0</v>
+      </c>
     </row>
-    <row r="394" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>425</v>
       </c>
@@ -50991,8 +51627,11 @@
       <c r="AN394">
         <v>0</v>
       </c>
+      <c r="AO394">
+        <v>0</v>
+      </c>
     </row>
-    <row r="395" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>426</v>
       </c>
@@ -51110,8 +51749,11 @@
       <c r="AN395">
         <v>0</v>
       </c>
+      <c r="AO395">
+        <v>0</v>
+      </c>
     </row>
-    <row r="396" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>427</v>
       </c>
@@ -51229,8 +51871,11 @@
       <c r="AN396">
         <v>0</v>
       </c>
+      <c r="AO396">
+        <v>0</v>
+      </c>
     </row>
-    <row r="397" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>428</v>
       </c>
@@ -51348,8 +51993,11 @@
       <c r="AN397">
         <v>0</v>
       </c>
+      <c r="AO397">
+        <v>0</v>
+      </c>
     </row>
-    <row r="398" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>429</v>
       </c>
@@ -51467,8 +52115,11 @@
       <c r="AN398">
         <v>0</v>
       </c>
+      <c r="AO398">
+        <v>0</v>
+      </c>
     </row>
-    <row r="399" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>430</v>
       </c>
@@ -51589,8 +52240,11 @@
       <c r="AN399">
         <v>0</v>
       </c>
+      <c r="AO399">
+        <v>0</v>
+      </c>
     </row>
-    <row r="400" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>431</v>
       </c>
@@ -51708,8 +52362,11 @@
       <c r="AN400">
         <v>0</v>
       </c>
+      <c r="AO400">
+        <v>0</v>
+      </c>
     </row>
-    <row r="401" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>432</v>
       </c>
@@ -51827,8 +52484,11 @@
       <c r="AN401">
         <v>0</v>
       </c>
+      <c r="AO401">
+        <v>0</v>
+      </c>
     </row>
-    <row r="402" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>433</v>
       </c>
@@ -51949,8 +52609,11 @@
       <c r="AN402" t="s">
         <v>308</v>
       </c>
+      <c r="AO402" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="403" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>434</v>
       </c>
@@ -52068,8 +52731,11 @@
       <c r="AN403">
         <v>0</v>
       </c>
+      <c r="AO403">
+        <v>0</v>
+      </c>
     </row>
-    <row r="404" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>435</v>
       </c>
@@ -52190,8 +52856,11 @@
       <c r="AN404">
         <v>0</v>
       </c>
+      <c r="AO404">
+        <v>0</v>
+      </c>
     </row>
-    <row r="405" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>437</v>
       </c>
@@ -52309,8 +52978,11 @@
       <c r="AN405">
         <v>0</v>
       </c>
+      <c r="AO405">
+        <v>0</v>
+      </c>
     </row>
-    <row r="406" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>438</v>
       </c>
@@ -52428,8 +53100,11 @@
       <c r="AN406">
         <v>0</v>
       </c>
+      <c r="AO406">
+        <v>0</v>
+      </c>
     </row>
-    <row r="407" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>439</v>
       </c>
@@ -52547,8 +53222,11 @@
       <c r="AN407">
         <v>0</v>
       </c>
+      <c r="AO407">
+        <v>0</v>
+      </c>
     </row>
-    <row r="408" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>440</v>
       </c>
@@ -52666,8 +53344,11 @@
       <c r="AN408">
         <v>0</v>
       </c>
+      <c r="AO408">
+        <v>0</v>
+      </c>
     </row>
-    <row r="409" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>441</v>
       </c>
@@ -52785,8 +53466,11 @@
       <c r="AN409">
         <v>0</v>
       </c>
+      <c r="AO409">
+        <v>0</v>
+      </c>
     </row>
-    <row r="410" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>442</v>
       </c>
@@ -52904,8 +53588,11 @@
       <c r="AN410">
         <v>0</v>
       </c>
+      <c r="AO410">
+        <v>0</v>
+      </c>
     </row>
-    <row r="411" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>443</v>
       </c>
@@ -53023,8 +53710,11 @@
       <c r="AN411">
         <v>0</v>
       </c>
+      <c r="AO411">
+        <v>0</v>
+      </c>
     </row>
-    <row r="412" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>444</v>
       </c>
@@ -53142,8 +53832,11 @@
       <c r="AN412">
         <v>0</v>
       </c>
+      <c r="AO412">
+        <v>0</v>
+      </c>
     </row>
-    <row r="413" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>445</v>
       </c>
@@ -53261,8 +53954,11 @@
       <c r="AN413">
         <v>0</v>
       </c>
+      <c r="AO413">
+        <v>0</v>
+      </c>
     </row>
-    <row r="414" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>446</v>
       </c>
@@ -53380,8 +54076,11 @@
       <c r="AN414">
         <v>0</v>
       </c>
+      <c r="AO414">
+        <v>0</v>
+      </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>447</v>
       </c>
@@ -53499,8 +54198,11 @@
       <c r="AN415">
         <v>0</v>
       </c>
+      <c r="AO415">
+        <v>0</v>
+      </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>448</v>
       </c>
@@ -53618,8 +54320,11 @@
       <c r="AN416" t="s">
         <v>308</v>
       </c>
+      <c r="AO416" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>449</v>
       </c>
@@ -53740,8 +54445,11 @@
       <c r="AN417" t="s">
         <v>308</v>
       </c>
+      <c r="AO417" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>450</v>
       </c>
@@ -53859,8 +54567,11 @@
       <c r="AN418">
         <v>0</v>
       </c>
+      <c r="AO418">
+        <v>0</v>
+      </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>451</v>
       </c>
@@ -53978,8 +54689,11 @@
       <c r="AN419">
         <v>0</v>
       </c>
+      <c r="AO419">
+        <v>0</v>
+      </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>452</v>
       </c>
@@ -54097,8 +54811,11 @@
       <c r="AN420">
         <v>0</v>
       </c>
+      <c r="AO420">
+        <v>0</v>
+      </c>
     </row>
-    <row r="421" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>453</v>
       </c>
@@ -54219,8 +54936,11 @@
       <c r="AN421" t="s">
         <v>308</v>
       </c>
+      <c r="AO421" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="422" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>454</v>
       </c>
@@ -54338,8 +55058,11 @@
       <c r="AN422">
         <v>0</v>
       </c>
+      <c r="AO422">
+        <v>0</v>
+      </c>
     </row>
-    <row r="423" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>455</v>
       </c>
@@ -54460,8 +55183,11 @@
       <c r="AN423" t="s">
         <v>308</v>
       </c>
+      <c r="AO423" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="424" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>457</v>
       </c>
@@ -54579,8 +55305,11 @@
       <c r="AN424">
         <v>0</v>
       </c>
+      <c r="AO424">
+        <v>0</v>
+      </c>
     </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>458</v>
       </c>
@@ -54698,8 +55427,11 @@
       <c r="AN425">
         <v>0</v>
       </c>
+      <c r="AO425">
+        <v>0</v>
+      </c>
     </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>459</v>
       </c>
@@ -54817,8 +55549,11 @@
       <c r="AN426" t="s">
         <v>308</v>
       </c>
+      <c r="AO426" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>460</v>
       </c>
@@ -54936,8 +55671,11 @@
       <c r="AN427">
         <v>0</v>
       </c>
+      <c r="AO427">
+        <v>0</v>
+      </c>
     </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>461</v>
       </c>
@@ -55055,8 +55793,11 @@
       <c r="AN428">
         <v>0</v>
       </c>
+      <c r="AO428">
+        <v>0</v>
+      </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>462</v>
       </c>
@@ -55177,8 +55918,11 @@
       <c r="AN429">
         <v>0</v>
       </c>
+      <c r="AO429">
+        <v>0</v>
+      </c>
     </row>
-    <row r="430" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>464</v>
       </c>
@@ -55296,8 +56040,11 @@
       <c r="AN430">
         <v>0</v>
       </c>
+      <c r="AO430">
+        <v>0</v>
+      </c>
     </row>
-    <row r="431" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>465</v>
       </c>
@@ -55418,8 +56165,11 @@
       <c r="AN431" t="s">
         <v>308</v>
       </c>
+      <c r="AO431" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="432" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>466</v>
       </c>
@@ -55537,8 +56287,11 @@
       <c r="AN432">
         <v>0</v>
       </c>
+      <c r="AO432">
+        <v>0</v>
+      </c>
     </row>
-    <row r="433" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>467</v>
       </c>
@@ -55656,8 +56409,11 @@
       <c r="AN433">
         <v>0</v>
       </c>
+      <c r="AO433">
+        <v>0</v>
+      </c>
     </row>
-    <row r="434" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>468</v>
       </c>
@@ -55775,8 +56531,11 @@
       <c r="AN434">
         <v>0</v>
       </c>
+      <c r="AO434">
+        <v>0</v>
+      </c>
     </row>
-    <row r="435" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>469</v>
       </c>
@@ -55894,8 +56653,11 @@
       <c r="AN435">
         <v>0</v>
       </c>
+      <c r="AO435">
+        <v>0</v>
+      </c>
     </row>
-    <row r="436" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>470</v>
       </c>
@@ -56013,8 +56775,11 @@
       <c r="AN436">
         <v>0</v>
       </c>
+      <c r="AO436">
+        <v>0</v>
+      </c>
     </row>
-    <row r="437" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>471</v>
       </c>
@@ -56132,8 +56897,11 @@
       <c r="AN437">
         <v>0</v>
       </c>
+      <c r="AO437">
+        <v>0</v>
+      </c>
     </row>
-    <row r="438" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>472</v>
       </c>
@@ -56248,8 +57016,11 @@
       <c r="AN438">
         <v>0</v>
       </c>
+      <c r="AO438">
+        <v>0</v>
+      </c>
     </row>
-    <row r="439" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>473</v>
       </c>
@@ -56367,8 +57138,11 @@
       <c r="AN439">
         <v>0</v>
       </c>
+      <c r="AO439">
+        <v>0</v>
+      </c>
     </row>
-    <row r="440" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>474</v>
       </c>
@@ -56486,8 +57260,11 @@
       <c r="AN440">
         <v>0</v>
       </c>
+      <c r="AO440">
+        <v>0</v>
+      </c>
     </row>
-    <row r="441" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>475</v>
       </c>
@@ -56605,8 +57382,11 @@
       <c r="AN441">
         <v>0</v>
       </c>
+      <c r="AO441">
+        <v>0</v>
+      </c>
     </row>
-    <row r="442" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>476</v>
       </c>
@@ -56727,8 +57507,11 @@
       <c r="AN442" t="s">
         <v>308</v>
       </c>
+      <c r="AO442" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="443" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>478</v>
       </c>
@@ -56846,8 +57629,11 @@
       <c r="AN443">
         <v>0</v>
       </c>
+      <c r="AO443">
+        <v>0</v>
+      </c>
     </row>
-    <row r="444" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>479</v>
       </c>
@@ -56968,8 +57754,11 @@
       <c r="AN444" t="s">
         <v>308</v>
       </c>
+      <c r="AO444" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="445" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>480</v>
       </c>
@@ -57087,8 +57876,11 @@
       <c r="AN445">
         <v>0</v>
       </c>
+      <c r="AO445">
+        <v>0</v>
+      </c>
     </row>
-    <row r="446" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>481</v>
       </c>
@@ -57206,8 +57998,11 @@
       <c r="AN446">
         <v>0</v>
       </c>
+      <c r="AO446">
+        <v>0</v>
+      </c>
     </row>
-    <row r="447" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>482</v>
       </c>
@@ -57325,8 +58120,11 @@
       <c r="AN447">
         <v>0</v>
       </c>
+      <c r="AO447">
+        <v>0</v>
+      </c>
     </row>
-    <row r="448" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>483</v>
       </c>
@@ -57444,8 +58242,11 @@
       <c r="AN448">
         <v>0</v>
       </c>
+      <c r="AO448">
+        <v>0</v>
+      </c>
     </row>
-    <row r="449" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>484</v>
       </c>
@@ -57563,8 +58364,11 @@
       <c r="AN449">
         <v>0</v>
       </c>
+      <c r="AO449">
+        <v>0</v>
+      </c>
     </row>
-    <row r="450" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>485</v>
       </c>
@@ -57682,8 +58486,11 @@
       <c r="AN450">
         <v>0</v>
       </c>
+      <c r="AO450">
+        <v>0</v>
+      </c>
     </row>
-    <row r="451" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>486</v>
       </c>
@@ -57804,8 +58611,11 @@
       <c r="AN451" t="s">
         <v>308</v>
       </c>
+      <c r="AO451" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="452" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>487</v>
       </c>
@@ -57923,8 +58733,11 @@
       <c r="AN452">
         <v>6</v>
       </c>
+      <c r="AO452">
+        <v>0</v>
+      </c>
     </row>
-    <row r="453" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>490</v>
       </c>
@@ -58042,8 +58855,11 @@
       <c r="AN453">
         <v>6</v>
       </c>
+      <c r="AO453">
+        <v>6</v>
+      </c>
     </row>
-    <row r="454" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>491</v>
       </c>
@@ -58161,8 +58977,11 @@
       <c r="AN454">
         <v>0</v>
       </c>
+      <c r="AO454">
+        <v>0</v>
+      </c>
     </row>
-    <row r="455" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>492</v>
       </c>
@@ -58280,8 +59099,11 @@
       <c r="AN455">
         <v>0</v>
       </c>
+      <c r="AO455">
+        <v>0</v>
+      </c>
     </row>
-    <row r="456" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>493</v>
       </c>
@@ -58399,8 +59221,11 @@
       <c r="AN456">
         <v>0</v>
       </c>
+      <c r="AO456">
+        <v>0</v>
+      </c>
     </row>
-    <row r="457" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>494</v>
       </c>
@@ -58521,8 +59346,11 @@
       <c r="AN457">
         <v>0</v>
       </c>
+      <c r="AO457">
+        <v>0</v>
+      </c>
     </row>
-    <row r="458" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>495</v>
       </c>
@@ -58640,8 +59468,11 @@
       <c r="AN458">
         <v>6</v>
       </c>
+      <c r="AO458">
+        <v>6</v>
+      </c>
     </row>
-    <row r="459" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>496</v>
       </c>
@@ -58759,8 +59590,11 @@
       <c r="AN459">
         <v>6</v>
       </c>
+      <c r="AO459">
+        <v>0</v>
+      </c>
     </row>
-    <row r="460" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>497</v>
       </c>
@@ -58878,8 +59712,11 @@
       <c r="AN460">
         <v>6</v>
       </c>
+      <c r="AO460">
+        <v>0</v>
+      </c>
     </row>
-    <row r="461" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>498</v>
       </c>
@@ -58997,8 +59834,11 @@
       <c r="AN461">
         <v>0</v>
       </c>
+      <c r="AO461">
+        <v>0</v>
+      </c>
     </row>
-    <row r="462" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>499</v>
       </c>
@@ -59116,8 +59956,11 @@
       <c r="AN462">
         <v>0</v>
       </c>
+      <c r="AO462">
+        <v>0</v>
+      </c>
     </row>
-    <row r="463" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>500</v>
       </c>
@@ -59235,8 +60078,11 @@
       <c r="AN463">
         <v>6</v>
       </c>
+      <c r="AO463">
+        <v>6</v>
+      </c>
     </row>
-    <row r="464" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>501</v>
       </c>
@@ -59354,8 +60200,11 @@
       <c r="AN464">
         <v>6</v>
       </c>
+      <c r="AO464">
+        <v>6</v>
+      </c>
     </row>
-    <row r="465" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>502</v>
       </c>
@@ -59473,8 +60322,11 @@
       <c r="AN465">
         <v>0</v>
       </c>
+      <c r="AO465">
+        <v>0</v>
+      </c>
     </row>
-    <row r="466" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>503</v>
       </c>
@@ -59592,8 +60444,11 @@
       <c r="AN466">
         <v>6</v>
       </c>
+      <c r="AO466">
+        <v>6</v>
+      </c>
     </row>
-    <row r="467" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>504</v>
       </c>
@@ -59711,8 +60566,11 @@
       <c r="AN467">
         <v>0</v>
       </c>
+      <c r="AO467">
+        <v>0</v>
+      </c>
     </row>
-    <row r="468" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>505</v>
       </c>
@@ -59833,8 +60691,11 @@
       <c r="AN468">
         <v>6</v>
       </c>
+      <c r="AO468" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="469" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>506</v>
       </c>
@@ -59955,8 +60816,11 @@
       <c r="AN469">
         <v>0</v>
       </c>
+      <c r="AO469" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="470" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>507</v>
       </c>
@@ -60074,8 +60938,11 @@
       <c r="AN470">
         <v>0</v>
       </c>
+      <c r="AO470" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="471" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>508</v>
       </c>
@@ -60193,8 +61060,11 @@
       <c r="AN471">
         <v>0</v>
       </c>
+      <c r="AO471" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="472" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>509</v>
       </c>
@@ -60312,8 +61182,11 @@
       <c r="AN472">
         <v>6</v>
       </c>
+      <c r="AO472" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="473" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>510</v>
       </c>
@@ -60431,8 +61304,11 @@
       <c r="AN473">
         <v>6</v>
       </c>
+      <c r="AO473" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="474" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>511</v>
       </c>
@@ -60550,8 +61426,11 @@
       <c r="AN474">
         <v>6</v>
       </c>
+      <c r="AO474" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="475" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>512</v>
       </c>
@@ -60672,8 +61551,11 @@
       <c r="AN475">
         <v>0</v>
       </c>
+      <c r="AO475" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="476" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>513</v>
       </c>
@@ -60791,8 +61673,11 @@
       <c r="AN476">
         <v>0</v>
       </c>
+      <c r="AO476" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="477" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>514</v>
       </c>
@@ -60910,8 +61795,11 @@
       <c r="AN477">
         <v>0</v>
       </c>
+      <c r="AO477" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="478" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>515</v>
       </c>
@@ -61029,8 +61917,11 @@
       <c r="AN478">
         <v>0</v>
       </c>
+      <c r="AO478" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="479" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>516</v>
       </c>
@@ -61148,8 +62039,11 @@
       <c r="AN479">
         <v>6</v>
       </c>
+      <c r="AO479" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>517</v>
       </c>
@@ -61266,6 +62160,9 @@
       </c>
       <c r="AN480">
         <v>6</v>
+      </c>
+      <c r="AO480" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:41" x14ac:dyDescent="0.2">
@@ -61386,6 +62283,9 @@
       <c r="AN481">
         <v>6</v>
       </c>
+      <c r="AO481" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="482" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
@@ -63341,6 +64241,9 @@
       <c r="AN497">
         <v>0</v>
       </c>
+      <c r="AO497" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="498" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
@@ -63460,6 +64363,9 @@
       <c r="AN498">
         <v>0</v>
       </c>
+      <c r="AO498" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="499" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
@@ -63579,6 +64485,9 @@
       <c r="AN499">
         <v>0</v>
       </c>
+      <c r="AO499" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="500" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
@@ -63698,6 +64607,9 @@
       <c r="AN500">
         <v>0</v>
       </c>
+      <c r="AO500" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="501" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
@@ -63817,6 +64729,9 @@
       <c r="AN501">
         <v>0</v>
       </c>
+      <c r="AO501" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="502" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
@@ -63936,6 +64851,9 @@
       <c r="AN502">
         <v>0</v>
       </c>
+      <c r="AO502" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="503" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
@@ -64055,6 +64973,9 @@
       <c r="AN503">
         <v>0</v>
       </c>
+      <c r="AO503" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="504" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
@@ -64174,6 +65095,9 @@
       <c r="AN504">
         <v>0</v>
       </c>
+      <c r="AO504" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="505" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
@@ -64293,6 +65217,9 @@
       <c r="AN505">
         <v>0</v>
       </c>
+      <c r="AO505" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="506" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
@@ -64412,6 +65339,9 @@
       <c r="AN506">
         <v>0</v>
       </c>
+      <c r="AO506" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="507" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
@@ -64531,6 +65461,9 @@
       <c r="AN507">
         <v>6</v>
       </c>
+      <c r="AO507" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="508" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
@@ -64650,6 +65583,9 @@
       <c r="AN508">
         <v>0</v>
       </c>
+      <c r="AO508" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="509" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
@@ -64769,6 +65705,9 @@
       <c r="AN509">
         <v>0</v>
       </c>
+      <c r="AO509" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="510" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
@@ -64888,6 +65827,9 @@
       <c r="AN510">
         <v>0</v>
       </c>
+      <c r="AO510" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="511" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
@@ -65005,6 +65947,9 @@
         <v>6</v>
       </c>
       <c r="AN511">
+        <v>0</v>
+      </c>
+      <c r="AO511" s="2">
         <v>0</v>
       </c>
     </row>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA74B7DC-1AD0-9548-945F-33A181E787A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EFDC39-0789-464E-A620-436D84294FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5361" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5385" uniqueCount="745">
   <si>
     <t>tree_ID</t>
   </si>
@@ -3181,7 +3181,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:AD631" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:AD631" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
+  <autoFilter ref="A1:AD631" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="CoolS/WarmF"/>
+        <filter val="WarmS/WarmF"/>
+        <filter val="WarmS/WarmF_nitro"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="28"/>
@@ -3535,11 +3543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO631"/>
+  <dimension ref="A1:AP631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP238" sqref="AP238"/>
+    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP527" sqref="AP527:AP541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3551,7 +3559,7 @@
     <col min="30" max="30" width="4.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3675,8 +3683,11 @@
       <c r="AO1" s="3">
         <v>276</v>
       </c>
+      <c r="AP1" s="3">
+        <v>283</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3801,7 +3812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3923,7 +3934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4045,7 +4056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4167,7 +4178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4289,7 +4300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4411,7 +4422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4533,7 +4544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4655,7 +4666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4777,7 +4788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4902,7 +4913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5024,7 +5035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5146,7 +5157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5268,7 +5279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5390,7 +5401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5512,7 +5523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5634,7 +5645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -5756,7 +5767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5878,7 +5889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -6000,7 +6011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6122,7 +6133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6247,7 +6258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6369,7 +6380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6491,7 +6502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -6613,7 +6624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -6735,7 +6746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -6857,7 +6868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -6982,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7107,7 +7118,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7229,7 +7240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7351,7 +7362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -7472,8 +7483,11 @@
       <c r="AO32">
         <v>6</v>
       </c>
+      <c r="AP32">
+        <v>6</v>
+      </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -7594,8 +7608,11 @@
       <c r="AO33">
         <v>6</v>
       </c>
+      <c r="AP33">
+        <v>6</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -7716,8 +7733,11 @@
       <c r="AO34">
         <v>5</v>
       </c>
+      <c r="AP34">
+        <v>5</v>
+      </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -7838,8 +7858,11 @@
       <c r="AO35">
         <v>6</v>
       </c>
+      <c r="AP35">
+        <v>6</v>
+      </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -7960,8 +7983,11 @@
       <c r="AO36">
         <v>6</v>
       </c>
+      <c r="AP36">
+        <v>6</v>
+      </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -8082,8 +8108,11 @@
       <c r="AO37">
         <v>6</v>
       </c>
+      <c r="AP37">
+        <v>6</v>
+      </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -8204,8 +8233,11 @@
       <c r="AO38">
         <v>6</v>
       </c>
+      <c r="AP38">
+        <v>6</v>
+      </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -8326,8 +8358,11 @@
       <c r="AO39">
         <v>6</v>
       </c>
+      <c r="AP39">
+        <v>6</v>
+      </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -8448,8 +8483,11 @@
       <c r="AO40">
         <v>6</v>
       </c>
+      <c r="AP40">
+        <v>6</v>
+      </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -8570,8 +8608,11 @@
       <c r="AO41">
         <v>6</v>
       </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -8695,8 +8736,11 @@
       <c r="AO42">
         <v>6</v>
       </c>
+      <c r="AP42">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -8817,8 +8861,11 @@
       <c r="AO43">
         <v>6</v>
       </c>
+      <c r="AP43">
+        <v>6</v>
+      </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -8939,8 +8986,11 @@
       <c r="AO44">
         <v>6</v>
       </c>
+      <c r="AP44">
+        <v>6</v>
+      </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -9061,8 +9111,11 @@
       <c r="AO45">
         <v>6</v>
       </c>
+      <c r="AP45">
+        <v>6</v>
+      </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -9183,8 +9236,11 @@
       <c r="AO46">
         <v>6</v>
       </c>
+      <c r="AP46">
+        <v>6</v>
+      </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -9306,7 +9362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -9428,7 +9484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -9550,7 +9606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -9672,7 +9728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -9794,7 +9850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -9916,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -10038,7 +10094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -10160,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -10285,7 +10341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -10410,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -10535,7 +10591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -10657,7 +10713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -10779,7 +10835,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -10901,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -11023,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -11144,8 +11200,11 @@
       <c r="AO62">
         <v>6</v>
       </c>
+      <c r="AP62">
+        <v>6</v>
+      </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -11266,8 +11325,11 @@
       <c r="AO63">
         <v>6</v>
       </c>
+      <c r="AP63">
+        <v>6</v>
+      </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -11388,8 +11450,11 @@
       <c r="AO64">
         <v>6</v>
       </c>
+      <c r="AP64">
+        <v>6</v>
+      </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -11510,8 +11575,11 @@
       <c r="AO65">
         <v>6</v>
       </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -11632,8 +11700,11 @@
       <c r="AO66">
         <v>5</v>
       </c>
+      <c r="AP66">
+        <v>5</v>
+      </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -11754,8 +11825,11 @@
       <c r="AO67">
         <v>6</v>
       </c>
+      <c r="AP67">
+        <v>6</v>
+      </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -11876,8 +11950,11 @@
       <c r="AO68">
         <v>6</v>
       </c>
+      <c r="AP68">
+        <v>6</v>
+      </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -11998,8 +12075,11 @@
       <c r="AO69">
         <v>6</v>
       </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -12120,8 +12200,11 @@
       <c r="AO70">
         <v>6</v>
       </c>
+      <c r="AP70">
+        <v>6</v>
+      </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -12245,8 +12328,11 @@
       <c r="AO71" t="s">
         <v>308</v>
       </c>
+      <c r="AP71" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -12367,8 +12453,11 @@
       <c r="AO72">
         <v>6</v>
       </c>
+      <c r="AP72">
+        <v>6</v>
+      </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -12489,8 +12578,11 @@
       <c r="AO73">
         <v>6</v>
       </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -12611,8 +12703,11 @@
       <c r="AO74">
         <v>6</v>
       </c>
+      <c r="AP74">
+        <v>6</v>
+      </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -12733,8 +12828,11 @@
       <c r="AO75">
         <v>6</v>
       </c>
+      <c r="AP75">
+        <v>6</v>
+      </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -12855,8 +12953,11 @@
       <c r="AO76">
         <v>6</v>
       </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -12977,8 +13078,11 @@
       <c r="AO77" s="2">
         <v>6</v>
       </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -13099,8 +13203,11 @@
       <c r="AO78" s="2">
         <v>6</v>
       </c>
+      <c r="AP78" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -13221,8 +13328,11 @@
       <c r="AO79" s="2">
         <v>6</v>
       </c>
+      <c r="AP79" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -13343,8 +13453,11 @@
       <c r="AO80" s="2">
         <v>6</v>
       </c>
+      <c r="AP80" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -13465,8 +13578,11 @@
       <c r="AO81" s="2">
         <v>6</v>
       </c>
+      <c r="AP81" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -13587,8 +13703,11 @@
       <c r="AO82" s="2">
         <v>6</v>
       </c>
+      <c r="AP82" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -13709,8 +13828,11 @@
       <c r="AO83" s="2">
         <v>6</v>
       </c>
+      <c r="AP83" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -13831,8 +13953,11 @@
       <c r="AO84" s="2">
         <v>6</v>
       </c>
+      <c r="AP84" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -13953,8 +14078,11 @@
       <c r="AO85" s="2">
         <v>6</v>
       </c>
+      <c r="AP85" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -14075,8 +14203,11 @@
       <c r="AO86" s="2">
         <v>6</v>
       </c>
+      <c r="AP86" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -14197,8 +14328,11 @@
       <c r="AO87" s="2">
         <v>6</v>
       </c>
+      <c r="AP87" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -14319,8 +14453,11 @@
       <c r="AO88" s="2">
         <v>6</v>
       </c>
+      <c r="AP88" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -14441,8 +14578,11 @@
       <c r="AO89" s="2">
         <v>6</v>
       </c>
+      <c r="AP89" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -14563,8 +14703,11 @@
       <c r="AO90" s="2">
         <v>6</v>
       </c>
+      <c r="AP90" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -14685,8 +14828,11 @@
       <c r="AO91" s="2">
         <v>6</v>
       </c>
+      <c r="AP91" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -14808,7 +14954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -14930,7 +15076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -15052,7 +15198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -15177,7 +15323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -15299,7 +15445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -15421,7 +15567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -15543,7 +15689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -15665,7 +15811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -15787,7 +15933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -15909,7 +16055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -16031,7 +16177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -16153,7 +16299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -16275,7 +16421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -16397,7 +16543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -16519,7 +16665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -16641,7 +16787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -16763,7 +16909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -16888,7 +17034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -17010,7 +17156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -17135,7 +17281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -17257,7 +17403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -17379,7 +17525,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -17501,7 +17647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -17623,7 +17769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -17745,7 +17891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -17867,7 +18013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -17989,7 +18135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -18111,7 +18257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -18233,7 +18379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -18358,7 +18504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -18479,8 +18625,11 @@
       <c r="AO122">
         <v>6</v>
       </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -18601,8 +18750,11 @@
       <c r="AO123">
         <v>6</v>
       </c>
+      <c r="AP123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -18723,8 +18875,11 @@
       <c r="AO124">
         <v>6</v>
       </c>
+      <c r="AP124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -18845,8 +19000,11 @@
       <c r="AO125">
         <v>6</v>
       </c>
+      <c r="AP125">
+        <v>6</v>
+      </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -18967,8 +19125,11 @@
       <c r="AO126">
         <v>6</v>
       </c>
+      <c r="AP126">
+        <v>6</v>
+      </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -19089,8 +19250,11 @@
       <c r="AO127">
         <v>6</v>
       </c>
+      <c r="AP127">
+        <v>6</v>
+      </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -19211,8 +19375,11 @@
       <c r="AO128">
         <v>6</v>
       </c>
+      <c r="AP128">
+        <v>6</v>
+      </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>145</v>
       </c>
@@ -19333,8 +19500,11 @@
       <c r="AO129">
         <v>0</v>
       </c>
+      <c r="AP129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -19455,8 +19625,11 @@
       <c r="AO130">
         <v>6</v>
       </c>
+      <c r="AP130">
+        <v>6</v>
+      </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -19580,8 +19753,11 @@
       <c r="AO131" t="s">
         <v>308</v>
       </c>
+      <c r="AP131" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -19702,8 +19878,11 @@
       <c r="AO132">
         <v>6</v>
       </c>
+      <c r="AP132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -19824,8 +20003,11 @@
       <c r="AO133">
         <v>6</v>
       </c>
+      <c r="AP133">
+        <v>6</v>
+      </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -19946,8 +20128,11 @@
       <c r="AO134">
         <v>6</v>
       </c>
+      <c r="AP134">
+        <v>6</v>
+      </c>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -20068,8 +20253,11 @@
       <c r="AO135">
         <v>6</v>
       </c>
+      <c r="AP135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -20190,8 +20378,11 @@
       <c r="AO136">
         <v>6</v>
       </c>
+      <c r="AP136">
+        <v>6</v>
+      </c>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -20316,7 +20507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -20438,7 +20629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>155</v>
       </c>
@@ -20560,7 +20751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -20682,7 +20873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -20804,7 +20995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -20926,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -21048,7 +21239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>160</v>
       </c>
@@ -21170,7 +21361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -21292,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>162</v>
       </c>
@@ -21414,7 +21605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -21536,7 +21727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>164</v>
       </c>
@@ -21661,7 +21852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -21783,7 +21974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>166</v>
       </c>
@@ -21908,7 +22099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -22030,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -22151,8 +22342,11 @@
       <c r="AO152">
         <v>0</v>
       </c>
+      <c r="AP152">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -22273,8 +22467,11 @@
       <c r="AO153">
         <v>0</v>
       </c>
+      <c r="AP153">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>170</v>
       </c>
@@ -22395,8 +22592,11 @@
       <c r="AO154">
         <v>6</v>
       </c>
+      <c r="AP154">
+        <v>6</v>
+      </c>
     </row>
-    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -22517,8 +22717,11 @@
       <c r="AO155">
         <v>6</v>
       </c>
+      <c r="AP155">
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>172</v>
       </c>
@@ -22639,8 +22842,11 @@
       <c r="AO156">
         <v>6</v>
       </c>
+      <c r="AP156">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -22761,8 +22967,11 @@
       <c r="AO157">
         <v>0</v>
       </c>
+      <c r="AP157">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>174</v>
       </c>
@@ -22883,8 +23092,11 @@
       <c r="AO158">
         <v>6</v>
       </c>
+      <c r="AP158">
+        <v>6</v>
+      </c>
     </row>
-    <row r="159" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -23005,8 +23217,11 @@
       <c r="AO159">
         <v>6</v>
       </c>
+      <c r="AP159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>176</v>
       </c>
@@ -23127,8 +23342,11 @@
       <c r="AO160">
         <v>0</v>
       </c>
+      <c r="AP160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -23249,8 +23467,11 @@
       <c r="AO161">
         <v>0</v>
       </c>
+      <c r="AP161">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -23374,8 +23595,11 @@
       <c r="AO162">
         <v>5</v>
       </c>
+      <c r="AP162">
+        <v>6</v>
+      </c>
     </row>
-    <row r="163" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -23496,8 +23720,11 @@
       <c r="AO163">
         <v>6</v>
       </c>
+      <c r="AP163">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -23621,8 +23848,11 @@
       <c r="AO164">
         <v>4</v>
       </c>
+      <c r="AP164">
+        <v>4</v>
+      </c>
     </row>
-    <row r="165" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -23743,8 +23973,11 @@
       <c r="AO165">
         <v>6</v>
       </c>
+      <c r="AP165">
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>182</v>
       </c>
@@ -23865,8 +24098,11 @@
       <c r="AO166">
         <v>6</v>
       </c>
+      <c r="AP166">
+        <v>6</v>
+      </c>
     </row>
-    <row r="167" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -23987,8 +24223,11 @@
       <c r="AO167">
         <v>6</v>
       </c>
+      <c r="AP167">
+        <v>6</v>
+      </c>
     </row>
-    <row r="168" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -24109,8 +24348,11 @@
       <c r="AO168">
         <v>6</v>
       </c>
+      <c r="AP168">
+        <v>6</v>
+      </c>
     </row>
-    <row r="169" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -24231,8 +24473,11 @@
       <c r="AO169">
         <v>6</v>
       </c>
+      <c r="AP169">
+        <v>6</v>
+      </c>
     </row>
-    <row r="170" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>186</v>
       </c>
@@ -24353,8 +24598,11 @@
       <c r="AO170">
         <v>6</v>
       </c>
+      <c r="AP170">
+        <v>6</v>
+      </c>
     </row>
-    <row r="171" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -24475,8 +24723,11 @@
       <c r="AO171">
         <v>6</v>
       </c>
+      <c r="AP171">
+        <v>0</v>
+      </c>
     </row>
-    <row r="172" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>188</v>
       </c>
@@ -24597,8 +24848,11 @@
       <c r="AO172">
         <v>6</v>
       </c>
+      <c r="AP172">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -24719,8 +24973,11 @@
       <c r="AO173">
         <v>6</v>
       </c>
+      <c r="AP173">
+        <v>0</v>
+      </c>
     </row>
-    <row r="174" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>190</v>
       </c>
@@ -24841,8 +25098,11 @@
       <c r="AO174">
         <v>6</v>
       </c>
+      <c r="AP174">
+        <v>0</v>
+      </c>
     </row>
-    <row r="175" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -24963,8 +25223,11 @@
       <c r="AO175">
         <v>0</v>
       </c>
+      <c r="AP175">
+        <v>0</v>
+      </c>
     </row>
-    <row r="176" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -25085,8 +25348,11 @@
       <c r="AO176">
         <v>6</v>
       </c>
+      <c r="AP176">
+        <v>6</v>
+      </c>
     </row>
-    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -25207,8 +25473,11 @@
       <c r="AO177">
         <v>6</v>
       </c>
+      <c r="AP177">
+        <v>0</v>
+      </c>
     </row>
-    <row r="178" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>194</v>
       </c>
@@ -25329,8 +25598,11 @@
       <c r="AO178">
         <v>0</v>
       </c>
+      <c r="AP178">
+        <v>0</v>
+      </c>
     </row>
-    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -25451,8 +25723,11 @@
       <c r="AO179">
         <v>6</v>
       </c>
+      <c r="AP179">
+        <v>6</v>
+      </c>
     </row>
-    <row r="180" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>196</v>
       </c>
@@ -25573,8 +25848,11 @@
       <c r="AO180">
         <v>0</v>
       </c>
+      <c r="AP180">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -25695,8 +25973,11 @@
       <c r="AO181">
         <v>6</v>
       </c>
+      <c r="AP181">
+        <v>6</v>
+      </c>
     </row>
-    <row r="182" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>198</v>
       </c>
@@ -25816,7 +26097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -25936,7 +26217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -26056,7 +26337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -26176,7 +26457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -26299,7 +26580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -26419,7 +26700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -26539,7 +26820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -26659,7 +26940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -26782,7 +27063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>210</v>
       </c>
@@ -26902,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -27022,7 +27303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>212</v>
       </c>
@@ -27142,7 +27423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -27265,7 +27546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -27385,7 +27666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -27505,7 +27786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -27625,7 +27906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -27748,7 +28029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -27868,7 +28149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -27991,7 +28272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -28111,7 +28392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -28231,7 +28512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -28351,7 +28632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -28471,7 +28752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -28594,7 +28875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -28714,7 +28995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -28834,7 +29115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -28957,7 +29238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -29077,7 +29358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -29197,7 +29478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -31129,7 +31410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -31249,7 +31530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -31369,7 +31650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -31489,7 +31770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>251</v>
       </c>
@@ -31609,7 +31890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -31729,7 +32010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -31849,7 +32130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -31969,7 +32250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>255</v>
       </c>
@@ -32089,7 +32370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -32209,7 +32490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -32329,7 +32610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -32449,7 +32730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -32569,7 +32850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -32689,7 +32970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -32809,7 +33090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -36529,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -36654,7 +36935,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="273" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -36776,7 +37057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -36898,7 +37179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>298</v>
       </c>
@@ -37023,7 +37304,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="276" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -37148,7 +37429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>300</v>
       </c>
@@ -37270,7 +37551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -37392,7 +37673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -37517,7 +37798,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="280" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -37639,7 +37920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -37761,7 +38042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>305</v>
       </c>
@@ -37886,7 +38167,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="283" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -38011,7 +38292,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="284" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -38133,7 +38414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -38255,7 +38536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -38377,7 +38658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -38499,7 +38780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -38621,7 +38902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -38743,7 +39024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -38865,7 +39146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -38987,7 +39268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -39109,7 +39390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -39231,7 +39512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -39356,7 +39637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -39478,7 +39759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>322</v>
       </c>
@@ -39600,7 +39881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -39725,7 +40006,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="298" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>324</v>
       </c>
@@ -39847,7 +40128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -39972,7 +40253,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="300" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>326</v>
       </c>
@@ -40094,7 +40375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -40216,7 +40497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>328</v>
       </c>
@@ -40337,8 +40618,11 @@
       <c r="AO302">
         <v>0</v>
       </c>
+      <c r="AP302">
+        <v>0</v>
+      </c>
     </row>
-    <row r="303" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -40459,8 +40743,11 @@
       <c r="AO303">
         <v>0</v>
       </c>
+      <c r="AP303">
+        <v>0</v>
+      </c>
     </row>
-    <row r="304" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>330</v>
       </c>
@@ -40581,8 +40868,11 @@
       <c r="AO304">
         <v>0</v>
       </c>
+      <c r="AP304">
+        <v>0</v>
+      </c>
     </row>
-    <row r="305" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -40703,8 +40993,11 @@
       <c r="AO305">
         <v>0</v>
       </c>
+      <c r="AP305">
+        <v>0</v>
+      </c>
     </row>
-    <row r="306" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>332</v>
       </c>
@@ -40825,8 +41118,11 @@
       <c r="AO306">
         <v>0</v>
       </c>
+      <c r="AP306">
+        <v>0</v>
+      </c>
     </row>
-    <row r="307" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -40947,8 +41243,11 @@
       <c r="AO307">
         <v>0</v>
       </c>
+      <c r="AP307">
+        <v>0</v>
+      </c>
     </row>
-    <row r="308" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>334</v>
       </c>
@@ -41069,8 +41368,11 @@
       <c r="AO308">
         <v>0</v>
       </c>
+      <c r="AP308">
+        <v>0</v>
+      </c>
     </row>
-    <row r="309" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -41191,8 +41493,11 @@
       <c r="AO309">
         <v>0</v>
       </c>
+      <c r="AP309">
+        <v>0</v>
+      </c>
     </row>
-    <row r="310" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>336</v>
       </c>
@@ -41313,8 +41618,11 @@
       <c r="AO310">
         <v>0</v>
       </c>
+      <c r="AP310">
+        <v>0</v>
+      </c>
     </row>
-    <row r="311" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -41435,8 +41743,11 @@
       <c r="AO311">
         <v>0</v>
       </c>
+      <c r="AP311">
+        <v>0</v>
+      </c>
     </row>
-    <row r="312" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -41557,8 +41868,11 @@
       <c r="AO312">
         <v>0</v>
       </c>
+      <c r="AP312">
+        <v>0</v>
+      </c>
     </row>
-    <row r="313" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -41679,8 +41993,11 @@
       <c r="AO313">
         <v>0</v>
       </c>
+      <c r="AP313">
+        <v>0</v>
+      </c>
     </row>
-    <row r="314" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -41801,8 +42118,11 @@
       <c r="AO314">
         <v>0</v>
       </c>
+      <c r="AP314">
+        <v>0</v>
+      </c>
     </row>
-    <row r="315" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -41923,8 +42243,11 @@
       <c r="AO315">
         <v>0</v>
       </c>
+      <c r="AP315">
+        <v>0</v>
+      </c>
     </row>
-    <row r="316" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -42048,8 +42371,11 @@
       <c r="AO316">
         <v>0</v>
       </c>
+      <c r="AP316">
+        <v>0</v>
+      </c>
     </row>
-    <row r="317" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -42174,7 +42500,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="318" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -42296,7 +42622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -42418,7 +42744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -42540,7 +42866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -42662,7 +42988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -42787,7 +43113,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="323" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -42909,7 +43235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>351</v>
       </c>
@@ -43034,7 +43360,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="325" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -43156,7 +43482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>354</v>
       </c>
@@ -43278,7 +43604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -43400,7 +43726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -43525,7 +43851,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="329" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>357</v>
       </c>
@@ -43647,7 +43973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -43772,7 +44098,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="331" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>359</v>
       </c>
@@ -43894,7 +44220,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="332" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -44015,8 +44341,11 @@
       <c r="AO332">
         <v>0</v>
       </c>
+      <c r="AP332">
+        <v>0</v>
+      </c>
     </row>
-    <row r="333" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>361</v>
       </c>
@@ -44137,8 +44466,11 @@
       <c r="AO333">
         <v>0</v>
       </c>
+      <c r="AP333">
+        <v>0</v>
+      </c>
     </row>
-    <row r="334" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -44262,8 +44594,11 @@
       <c r="AO334" t="s">
         <v>308</v>
       </c>
+      <c r="AP334" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="335" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>363</v>
       </c>
@@ -44387,8 +44722,11 @@
       <c r="AO335" t="s">
         <v>308</v>
       </c>
+      <c r="AP335" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="336" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -44509,8 +44847,11 @@
       <c r="AO336">
         <v>0</v>
       </c>
+      <c r="AP336">
+        <v>0</v>
+      </c>
     </row>
-    <row r="337" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>365</v>
       </c>
@@ -44634,8 +44975,11 @@
       <c r="AO337" t="s">
         <v>308</v>
       </c>
+      <c r="AP337" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="338" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -44756,8 +45100,11 @@
       <c r="AO338">
         <v>0</v>
       </c>
+      <c r="AP338">
+        <v>0</v>
+      </c>
     </row>
-    <row r="339" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>367</v>
       </c>
@@ -44878,8 +45225,11 @@
       <c r="AO339">
         <v>0</v>
       </c>
+      <c r="AP339">
+        <v>0</v>
+      </c>
     </row>
-    <row r="340" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -45000,8 +45350,11 @@
       <c r="AO340">
         <v>0</v>
       </c>
+      <c r="AP340">
+        <v>0</v>
+      </c>
     </row>
-    <row r="341" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>369</v>
       </c>
@@ -45122,8 +45475,11 @@
       <c r="AO341">
         <v>0</v>
       </c>
+      <c r="AP341">
+        <v>0</v>
+      </c>
     </row>
-    <row r="342" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -45247,8 +45603,11 @@
       <c r="AO342" t="s">
         <v>308</v>
       </c>
+      <c r="AP342" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="343" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>371</v>
       </c>
@@ -45372,8 +45731,11 @@
       <c r="AO343" t="s">
         <v>308</v>
       </c>
+      <c r="AP343" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="344" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -45497,8 +45859,11 @@
       <c r="AO344">
         <v>0</v>
       </c>
+      <c r="AP344">
+        <v>0</v>
+      </c>
     </row>
-    <row r="345" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>373</v>
       </c>
@@ -45619,8 +45984,11 @@
       <c r="AO345" t="s">
         <v>308</v>
       </c>
+      <c r="AP345" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="346" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -45741,8 +46109,11 @@
       <c r="AO346">
         <v>0</v>
       </c>
+      <c r="AP346">
+        <v>0</v>
+      </c>
     </row>
-    <row r="347" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>375</v>
       </c>
@@ -45863,8 +46234,11 @@
       <c r="AO347">
         <v>6</v>
       </c>
+      <c r="AP347">
+        <v>6</v>
+      </c>
     </row>
-    <row r="348" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -45988,8 +46362,11 @@
       <c r="AO348">
         <v>5</v>
       </c>
+      <c r="AP348">
+        <v>6</v>
+      </c>
     </row>
-    <row r="349" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>377</v>
       </c>
@@ -46110,8 +46487,11 @@
       <c r="AO349">
         <v>0</v>
       </c>
+      <c r="AP349">
+        <v>0</v>
+      </c>
     </row>
-    <row r="350" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -46232,8 +46612,11 @@
       <c r="AO350" t="s">
         <v>308</v>
       </c>
+      <c r="AP350" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="351" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -46354,8 +46737,11 @@
       <c r="AO351">
         <v>0</v>
       </c>
+      <c r="AP351">
+        <v>0</v>
+      </c>
     </row>
-    <row r="352" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>380</v>
       </c>
@@ -46479,8 +46865,11 @@
       <c r="AO352">
         <v>5</v>
       </c>
+      <c r="AP352">
+        <v>6</v>
+      </c>
     </row>
-    <row r="353" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -46601,8 +46990,11 @@
       <c r="AO353">
         <v>6</v>
       </c>
+      <c r="AP353">
+        <v>6</v>
+      </c>
     </row>
-    <row r="354" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>382</v>
       </c>
@@ -46723,8 +47115,11 @@
       <c r="AO354">
         <v>0</v>
       </c>
+      <c r="AP354">
+        <v>0</v>
+      </c>
     </row>
-    <row r="355" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -46848,8 +47243,11 @@
       <c r="AO355" t="s">
         <v>308</v>
       </c>
+      <c r="AP355" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="356" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>384</v>
       </c>
@@ -46970,8 +47368,11 @@
       <c r="AO356">
         <v>0</v>
       </c>
+      <c r="AP356">
+        <v>0</v>
+      </c>
     </row>
-    <row r="357" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -47092,8 +47493,11 @@
       <c r="AO357">
         <v>0</v>
       </c>
+      <c r="AP357">
+        <v>0</v>
+      </c>
     </row>
-    <row r="358" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>386</v>
       </c>
@@ -47214,8 +47618,11 @@
       <c r="AO358">
         <v>0</v>
       </c>
+      <c r="AP358">
+        <v>0</v>
+      </c>
     </row>
-    <row r="359" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -47339,8 +47746,11 @@
       <c r="AO359" t="s">
         <v>308</v>
       </c>
+      <c r="AP359" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="360" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>388</v>
       </c>
@@ -47461,8 +47871,11 @@
       <c r="AO360">
         <v>0</v>
       </c>
+      <c r="AP360">
+        <v>0</v>
+      </c>
     </row>
-    <row r="361" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -47587,7 +48000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>390</v>
       </c>
@@ -47709,7 +48122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -47831,7 +48244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -47953,7 +48366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -48075,7 +48488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -48197,7 +48610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -48319,7 +48732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>398</v>
       </c>
@@ -48441,7 +48854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -48566,7 +48979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -48688,7 +49101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -48810,7 +49223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -48932,7 +49345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -49057,7 +49470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -49179,7 +49592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -49301,7 +49714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -49423,7 +49836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -49545,7 +49958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -49667,7 +50080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -49789,7 +50202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -49914,7 +50327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -50036,7 +50449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>413</v>
       </c>
@@ -50158,7 +50571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -50280,7 +50693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>415</v>
       </c>
@@ -50402,7 +50815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -50524,7 +50937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>417</v>
       </c>
@@ -50649,7 +51062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -50771,7 +51184,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="388" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>419</v>
       </c>
@@ -50893,7 +51306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -51015,7 +51428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>421</v>
       </c>
@@ -51137,7 +51550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -51262,7 +51675,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="392" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>423</v>
       </c>
@@ -51386,8 +51799,11 @@
       <c r="AO392">
         <v>0</v>
       </c>
+      <c r="AP392">
+        <v>0</v>
+      </c>
     </row>
-    <row r="393" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>424</v>
       </c>
@@ -51508,8 +51924,11 @@
       <c r="AO393">
         <v>0</v>
       </c>
+      <c r="AP393">
+        <v>0</v>
+      </c>
     </row>
-    <row r="394" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>425</v>
       </c>
@@ -51630,8 +52049,11 @@
       <c r="AO394">
         <v>0</v>
       </c>
+      <c r="AP394">
+        <v>0</v>
+      </c>
     </row>
-    <row r="395" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>426</v>
       </c>
@@ -51752,8 +52174,11 @@
       <c r="AO395">
         <v>0</v>
       </c>
+      <c r="AP395">
+        <v>0</v>
+      </c>
     </row>
-    <row r="396" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>427</v>
       </c>
@@ -51874,8 +52299,11 @@
       <c r="AO396">
         <v>0</v>
       </c>
+      <c r="AP396">
+        <v>0</v>
+      </c>
     </row>
-    <row r="397" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>428</v>
       </c>
@@ -51996,8 +52424,11 @@
       <c r="AO397">
         <v>0</v>
       </c>
+      <c r="AP397">
+        <v>0</v>
+      </c>
     </row>
-    <row r="398" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>429</v>
       </c>
@@ -52118,8 +52549,11 @@
       <c r="AO398">
         <v>0</v>
       </c>
+      <c r="AP398">
+        <v>0</v>
+      </c>
     </row>
-    <row r="399" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>430</v>
       </c>
@@ -52243,8 +52677,11 @@
       <c r="AO399">
         <v>0</v>
       </c>
+      <c r="AP399">
+        <v>0</v>
+      </c>
     </row>
-    <row r="400" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>431</v>
       </c>
@@ -52365,8 +52802,11 @@
       <c r="AO400">
         <v>0</v>
       </c>
+      <c r="AP400">
+        <v>0</v>
+      </c>
     </row>
-    <row r="401" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>432</v>
       </c>
@@ -52487,8 +52927,11 @@
       <c r="AO401">
         <v>0</v>
       </c>
+      <c r="AP401">
+        <v>0</v>
+      </c>
     </row>
-    <row r="402" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>433</v>
       </c>
@@ -52612,8 +53055,11 @@
       <c r="AO402" t="s">
         <v>308</v>
       </c>
+      <c r="AP402" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="403" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>434</v>
       </c>
@@ -52734,8 +53180,11 @@
       <c r="AO403">
         <v>0</v>
       </c>
+      <c r="AP403">
+        <v>0</v>
+      </c>
     </row>
-    <row r="404" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>435</v>
       </c>
@@ -52859,8 +53308,11 @@
       <c r="AO404">
         <v>0</v>
       </c>
+      <c r="AP404">
+        <v>0</v>
+      </c>
     </row>
-    <row r="405" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>437</v>
       </c>
@@ -52981,8 +53433,11 @@
       <c r="AO405">
         <v>0</v>
       </c>
+      <c r="AP405">
+        <v>0</v>
+      </c>
     </row>
-    <row r="406" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>438</v>
       </c>
@@ -53103,8 +53558,11 @@
       <c r="AO406">
         <v>0</v>
       </c>
+      <c r="AP406">
+        <v>0</v>
+      </c>
     </row>
-    <row r="407" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>439</v>
       </c>
@@ -53225,8 +53683,11 @@
       <c r="AO407">
         <v>0</v>
       </c>
+      <c r="AP407">
+        <v>0</v>
+      </c>
     </row>
-    <row r="408" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>440</v>
       </c>
@@ -53347,8 +53808,11 @@
       <c r="AO408">
         <v>0</v>
       </c>
+      <c r="AP408">
+        <v>0</v>
+      </c>
     </row>
-    <row r="409" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>441</v>
       </c>
@@ -53469,8 +53933,11 @@
       <c r="AO409">
         <v>0</v>
       </c>
+      <c r="AP409">
+        <v>0</v>
+      </c>
     </row>
-    <row r="410" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>442</v>
       </c>
@@ -53591,8 +54058,11 @@
       <c r="AO410">
         <v>0</v>
       </c>
+      <c r="AP410">
+        <v>0</v>
+      </c>
     </row>
-    <row r="411" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>443</v>
       </c>
@@ -53713,8 +54183,11 @@
       <c r="AO411">
         <v>0</v>
       </c>
+      <c r="AP411">
+        <v>0</v>
+      </c>
     </row>
-    <row r="412" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>444</v>
       </c>
@@ -53835,8 +54308,11 @@
       <c r="AO412">
         <v>0</v>
       </c>
+      <c r="AP412">
+        <v>0</v>
+      </c>
     </row>
-    <row r="413" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>445</v>
       </c>
@@ -53957,8 +54433,11 @@
       <c r="AO413">
         <v>0</v>
       </c>
+      <c r="AP413">
+        <v>0</v>
+      </c>
     </row>
-    <row r="414" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>446</v>
       </c>
@@ -54079,8 +54558,11 @@
       <c r="AO414">
         <v>0</v>
       </c>
+      <c r="AP414">
+        <v>0</v>
+      </c>
     </row>
-    <row r="415" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>447</v>
       </c>
@@ -54201,8 +54683,11 @@
       <c r="AO415">
         <v>0</v>
       </c>
+      <c r="AP415">
+        <v>0</v>
+      </c>
     </row>
-    <row r="416" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>448</v>
       </c>
@@ -54323,8 +54808,11 @@
       <c r="AO416" t="s">
         <v>308</v>
       </c>
+      <c r="AP416" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="417" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>449</v>
       </c>
@@ -54448,8 +54936,11 @@
       <c r="AO417" t="s">
         <v>308</v>
       </c>
+      <c r="AP417" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="418" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>450</v>
       </c>
@@ -54570,8 +55061,11 @@
       <c r="AO418">
         <v>0</v>
       </c>
+      <c r="AP418">
+        <v>0</v>
+      </c>
     </row>
-    <row r="419" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>451</v>
       </c>
@@ -54692,8 +55186,11 @@
       <c r="AO419">
         <v>0</v>
       </c>
+      <c r="AP419">
+        <v>0</v>
+      </c>
     </row>
-    <row r="420" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>452</v>
       </c>
@@ -54814,8 +55311,11 @@
       <c r="AO420">
         <v>0</v>
       </c>
+      <c r="AP420">
+        <v>0</v>
+      </c>
     </row>
-    <row r="421" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>453</v>
       </c>
@@ -54939,8 +55439,11 @@
       <c r="AO421" t="s">
         <v>308</v>
       </c>
+      <c r="AP421" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="422" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>454</v>
       </c>
@@ -55061,8 +55564,11 @@
       <c r="AO422">
         <v>0</v>
       </c>
+      <c r="AP422">
+        <v>0</v>
+      </c>
     </row>
-    <row r="423" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>455</v>
       </c>
@@ -55186,8 +55692,11 @@
       <c r="AO423" t="s">
         <v>308</v>
       </c>
+      <c r="AP423" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="424" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>457</v>
       </c>
@@ -55308,8 +55817,11 @@
       <c r="AO424">
         <v>0</v>
       </c>
+      <c r="AP424">
+        <v>0</v>
+      </c>
     </row>
-    <row r="425" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>458</v>
       </c>
@@ -55430,8 +55942,11 @@
       <c r="AO425">
         <v>0</v>
       </c>
+      <c r="AP425">
+        <v>0</v>
+      </c>
     </row>
-    <row r="426" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>459</v>
       </c>
@@ -55552,8 +56067,11 @@
       <c r="AO426" t="s">
         <v>308</v>
       </c>
+      <c r="AP426" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="427" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>460</v>
       </c>
@@ -55674,8 +56192,11 @@
       <c r="AO427">
         <v>0</v>
       </c>
+      <c r="AP427">
+        <v>0</v>
+      </c>
     </row>
-    <row r="428" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>461</v>
       </c>
@@ -55796,8 +56317,11 @@
       <c r="AO428">
         <v>0</v>
       </c>
+      <c r="AP428">
+        <v>0</v>
+      </c>
     </row>
-    <row r="429" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>462</v>
       </c>
@@ -55921,8 +56445,11 @@
       <c r="AO429">
         <v>0</v>
       </c>
+      <c r="AP429">
+        <v>0</v>
+      </c>
     </row>
-    <row r="430" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>464</v>
       </c>
@@ -56043,8 +56570,11 @@
       <c r="AO430">
         <v>0</v>
       </c>
+      <c r="AP430">
+        <v>0</v>
+      </c>
     </row>
-    <row r="431" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>465</v>
       </c>
@@ -56168,8 +56698,11 @@
       <c r="AO431" t="s">
         <v>308</v>
       </c>
+      <c r="AP431" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="432" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>466</v>
       </c>
@@ -56290,8 +56823,11 @@
       <c r="AO432">
         <v>0</v>
       </c>
+      <c r="AP432">
+        <v>0</v>
+      </c>
     </row>
-    <row r="433" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>467</v>
       </c>
@@ -56412,8 +56948,11 @@
       <c r="AO433">
         <v>0</v>
       </c>
+      <c r="AP433">
+        <v>0</v>
+      </c>
     </row>
-    <row r="434" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>468</v>
       </c>
@@ -56534,8 +57073,11 @@
       <c r="AO434">
         <v>0</v>
       </c>
+      <c r="AP434">
+        <v>0</v>
+      </c>
     </row>
-    <row r="435" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>469</v>
       </c>
@@ -56656,8 +57198,11 @@
       <c r="AO435">
         <v>0</v>
       </c>
+      <c r="AP435">
+        <v>0</v>
+      </c>
     </row>
-    <row r="436" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>470</v>
       </c>
@@ -56778,8 +57323,11 @@
       <c r="AO436">
         <v>0</v>
       </c>
+      <c r="AP436">
+        <v>0</v>
+      </c>
     </row>
-    <row r="437" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>471</v>
       </c>
@@ -56900,8 +57448,11 @@
       <c r="AO437">
         <v>0</v>
       </c>
+      <c r="AP437">
+        <v>0</v>
+      </c>
     </row>
-    <row r="438" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>472</v>
       </c>
@@ -57019,8 +57570,11 @@
       <c r="AO438">
         <v>0</v>
       </c>
+      <c r="AP438">
+        <v>0</v>
+      </c>
     </row>
-    <row r="439" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>473</v>
       </c>
@@ -57141,8 +57695,11 @@
       <c r="AO439">
         <v>0</v>
       </c>
+      <c r="AP439">
+        <v>0</v>
+      </c>
     </row>
-    <row r="440" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>474</v>
       </c>
@@ -57263,8 +57820,11 @@
       <c r="AO440">
         <v>0</v>
       </c>
+      <c r="AP440">
+        <v>0</v>
+      </c>
     </row>
-    <row r="441" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>475</v>
       </c>
@@ -57385,8 +57945,11 @@
       <c r="AO441">
         <v>0</v>
       </c>
+      <c r="AP441">
+        <v>0</v>
+      </c>
     </row>
-    <row r="442" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>476</v>
       </c>
@@ -57510,8 +58073,11 @@
       <c r="AO442" t="s">
         <v>308</v>
       </c>
+      <c r="AP442" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="443" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>478</v>
       </c>
@@ -57632,8 +58198,11 @@
       <c r="AO443">
         <v>0</v>
       </c>
+      <c r="AP443">
+        <v>0</v>
+      </c>
     </row>
-    <row r="444" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>479</v>
       </c>
@@ -57757,8 +58326,11 @@
       <c r="AO444" t="s">
         <v>308</v>
       </c>
+      <c r="AP444" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="445" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>480</v>
       </c>
@@ -57879,8 +58451,11 @@
       <c r="AO445">
         <v>0</v>
       </c>
+      <c r="AP445">
+        <v>0</v>
+      </c>
     </row>
-    <row r="446" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>481</v>
       </c>
@@ -58001,8 +58576,11 @@
       <c r="AO446">
         <v>0</v>
       </c>
+      <c r="AP446">
+        <v>0</v>
+      </c>
     </row>
-    <row r="447" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>482</v>
       </c>
@@ -58123,8 +58701,11 @@
       <c r="AO447">
         <v>0</v>
       </c>
+      <c r="AP447">
+        <v>0</v>
+      </c>
     </row>
-    <row r="448" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>483</v>
       </c>
@@ -58245,8 +58826,11 @@
       <c r="AO448">
         <v>0</v>
       </c>
+      <c r="AP448">
+        <v>0</v>
+      </c>
     </row>
-    <row r="449" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>484</v>
       </c>
@@ -58367,8 +58951,11 @@
       <c r="AO449">
         <v>0</v>
       </c>
+      <c r="AP449">
+        <v>0</v>
+      </c>
     </row>
-    <row r="450" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>485</v>
       </c>
@@ -58489,8 +59076,11 @@
       <c r="AO450">
         <v>0</v>
       </c>
+      <c r="AP450">
+        <v>0</v>
+      </c>
     </row>
-    <row r="451" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>486</v>
       </c>
@@ -58614,8 +59204,11 @@
       <c r="AO451" t="s">
         <v>308</v>
       </c>
+      <c r="AP451" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="452" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>487</v>
       </c>
@@ -58737,7 +59330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>490</v>
       </c>
@@ -58859,7 +59452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>491</v>
       </c>
@@ -58981,7 +59574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>492</v>
       </c>
@@ -59103,7 +59696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>493</v>
       </c>
@@ -59225,7 +59818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>494</v>
       </c>
@@ -59350,7 +59943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>495</v>
       </c>
@@ -59472,7 +60065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>496</v>
       </c>
@@ -59594,7 +60187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>497</v>
       </c>
@@ -59716,7 +60309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>498</v>
       </c>
@@ -59838,7 +60431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>499</v>
       </c>
@@ -59960,7 +60553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>500</v>
       </c>
@@ -60082,7 +60675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>501</v>
       </c>
@@ -60204,7 +60797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>502</v>
       </c>
@@ -60326,7 +60919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>503</v>
       </c>
@@ -60448,7 +61041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>504</v>
       </c>
@@ -60570,7 +61163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>505</v>
       </c>
@@ -60695,7 +61288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>506</v>
       </c>
@@ -60820,7 +61413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>507</v>
       </c>
@@ -60942,7 +61535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>508</v>
       </c>
@@ -61064,7 +61657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>509</v>
       </c>
@@ -61186,7 +61779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>510</v>
       </c>
@@ -61308,7 +61901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>511</v>
       </c>
@@ -61430,7 +62023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>512</v>
       </c>
@@ -61555,7 +62148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>513</v>
       </c>
@@ -61677,7 +62270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>514</v>
       </c>
@@ -61799,7 +62392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>515</v>
       </c>
@@ -61921,7 +62514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>516</v>
       </c>
@@ -62043,7 +62636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>517</v>
       </c>
@@ -62165,7 +62758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>518</v>
       </c>
@@ -62287,7 +62880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>519</v>
       </c>
@@ -62408,8 +63001,11 @@
       <c r="AO482">
         <v>0</v>
       </c>
+      <c r="AP482">
+        <v>0</v>
+      </c>
     </row>
-    <row r="483" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>520</v>
       </c>
@@ -62530,8 +63126,11 @@
       <c r="AO483">
         <v>0</v>
       </c>
+      <c r="AP483">
+        <v>0</v>
+      </c>
     </row>
-    <row r="484" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>521</v>
       </c>
@@ -62652,8 +63251,11 @@
       <c r="AO484">
         <v>0</v>
       </c>
+      <c r="AP484">
+        <v>0</v>
+      </c>
     </row>
-    <row r="485" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>522</v>
       </c>
@@ -62774,8 +63376,11 @@
       <c r="AO485">
         <v>0</v>
       </c>
+      <c r="AP485">
+        <v>0</v>
+      </c>
     </row>
-    <row r="486" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>523</v>
       </c>
@@ -62896,8 +63501,11 @@
       <c r="AO486">
         <v>0</v>
       </c>
+      <c r="AP486">
+        <v>0</v>
+      </c>
     </row>
-    <row r="487" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>524</v>
       </c>
@@ -63018,8 +63626,11 @@
       <c r="AO487">
         <v>0</v>
       </c>
+      <c r="AP487">
+        <v>0</v>
+      </c>
     </row>
-    <row r="488" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>525</v>
       </c>
@@ -63143,8 +63754,11 @@
       <c r="AO488">
         <v>0</v>
       </c>
+      <c r="AP488">
+        <v>0</v>
+      </c>
     </row>
-    <row r="489" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>526</v>
       </c>
@@ -63265,8 +63879,11 @@
       <c r="AO489">
         <v>0</v>
       </c>
+      <c r="AP489">
+        <v>0</v>
+      </c>
     </row>
-    <row r="490" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>527</v>
       </c>
@@ -63387,8 +64004,11 @@
       <c r="AO490">
         <v>0</v>
       </c>
+      <c r="AP490">
+        <v>0</v>
+      </c>
     </row>
-    <row r="491" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>528</v>
       </c>
@@ -63509,8 +64129,11 @@
       <c r="AO491">
         <v>0</v>
       </c>
+      <c r="AP491">
+        <v>0</v>
+      </c>
     </row>
-    <row r="492" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>529</v>
       </c>
@@ -63631,8 +64254,11 @@
       <c r="AO492">
         <v>0</v>
       </c>
+      <c r="AP492">
+        <v>0</v>
+      </c>
     </row>
-    <row r="493" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>530</v>
       </c>
@@ -63753,8 +64379,11 @@
       <c r="AO493">
         <v>0</v>
       </c>
+      <c r="AP493">
+        <v>0</v>
+      </c>
     </row>
-    <row r="494" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>531</v>
       </c>
@@ -63875,8 +64504,11 @@
       <c r="AO494">
         <v>0</v>
       </c>
+      <c r="AP494">
+        <v>0</v>
+      </c>
     </row>
-    <row r="495" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>532</v>
       </c>
@@ -64000,8 +64632,11 @@
       <c r="AO495" t="s">
         <v>308</v>
       </c>
+      <c r="AP495" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="496" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>533</v>
       </c>
@@ -64122,8 +64757,11 @@
       <c r="AO496">
         <v>0</v>
       </c>
+      <c r="AP496">
+        <v>0</v>
+      </c>
     </row>
-    <row r="497" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>534</v>
       </c>
@@ -64245,7 +64883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>535</v>
       </c>
@@ -64367,7 +65005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>536</v>
       </c>
@@ -64489,7 +65127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>537</v>
       </c>
@@ -64611,7 +65249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>538</v>
       </c>
@@ -64733,7 +65371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>539</v>
       </c>
@@ -64855,7 +65493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>540</v>
       </c>
@@ -64977,7 +65615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>541</v>
       </c>
@@ -65099,7 +65737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>542</v>
       </c>
@@ -65221,7 +65859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>543</v>
       </c>
@@ -65343,7 +65981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>544</v>
       </c>
@@ -65465,7 +66103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>545</v>
       </c>
@@ -65587,7 +66225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>546</v>
       </c>
@@ -65709,7 +66347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>547</v>
       </c>
@@ -65831,7 +66469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>548</v>
       </c>
@@ -65953,7 +66591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>549</v>
       </c>
@@ -66077,8 +66715,11 @@
       <c r="AO512">
         <v>0</v>
       </c>
+      <c r="AP512">
+        <v>0</v>
+      </c>
     </row>
-    <row r="513" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>550</v>
       </c>
@@ -66199,8 +66840,11 @@
       <c r="AO513">
         <v>0</v>
       </c>
+      <c r="AP513">
+        <v>0</v>
+      </c>
     </row>
-    <row r="514" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>551</v>
       </c>
@@ -66321,8 +66965,11 @@
       <c r="AO514">
         <v>0</v>
       </c>
+      <c r="AP514">
+        <v>0</v>
+      </c>
     </row>
-    <row r="515" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>552</v>
       </c>
@@ -66443,8 +67090,11 @@
       <c r="AO515">
         <v>0</v>
       </c>
+      <c r="AP515">
+        <v>0</v>
+      </c>
     </row>
-    <row r="516" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>553</v>
       </c>
@@ -66565,8 +67215,11 @@
       <c r="AO516">
         <v>6</v>
       </c>
+      <c r="AP516">
+        <v>0</v>
+      </c>
     </row>
-    <row r="517" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>554</v>
       </c>
@@ -66690,8 +67343,11 @@
       <c r="AO517" t="s">
         <v>308</v>
       </c>
+      <c r="AP517" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="518" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>555</v>
       </c>
@@ -66815,8 +67471,11 @@
       <c r="AO518" t="s">
         <v>308</v>
       </c>
+      <c r="AP518" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="519" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>557</v>
       </c>
@@ -66937,8 +67596,11 @@
       <c r="AO519">
         <v>0</v>
       </c>
+      <c r="AP519">
+        <v>0</v>
+      </c>
     </row>
-    <row r="520" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>558</v>
       </c>
@@ -67059,8 +67721,11 @@
       <c r="AO520">
         <v>0</v>
       </c>
+      <c r="AP520">
+        <v>0</v>
+      </c>
     </row>
-    <row r="521" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>559</v>
       </c>
@@ -67181,8 +67846,11 @@
       <c r="AO521">
         <v>6</v>
       </c>
+      <c r="AP521">
+        <v>0</v>
+      </c>
     </row>
-    <row r="522" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>560</v>
       </c>
@@ -67303,8 +67971,11 @@
       <c r="AO522">
         <v>6</v>
       </c>
+      <c r="AP522">
+        <v>0</v>
+      </c>
     </row>
-    <row r="523" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>561</v>
       </c>
@@ -67425,8 +68096,11 @@
       <c r="AO523">
         <v>0</v>
       </c>
+      <c r="AP523">
+        <v>0</v>
+      </c>
     </row>
-    <row r="524" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>562</v>
       </c>
@@ -67547,8 +68221,11 @@
       <c r="AO524">
         <v>0</v>
       </c>
+      <c r="AP524">
+        <v>0</v>
+      </c>
     </row>
-    <row r="525" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>563</v>
       </c>
@@ -67669,8 +68346,11 @@
       <c r="AO525">
         <v>0</v>
       </c>
+      <c r="AP525">
+        <v>0</v>
+      </c>
     </row>
-    <row r="526" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>564</v>
       </c>
@@ -67791,8 +68471,11 @@
       <c r="AO526">
         <v>0</v>
       </c>
+      <c r="AP526">
+        <v>0</v>
+      </c>
     </row>
-    <row r="527" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>565</v>
       </c>
@@ -67913,8 +68596,11 @@
       <c r="AO527">
         <v>0</v>
       </c>
+      <c r="AP527">
+        <v>0</v>
+      </c>
     </row>
-    <row r="528" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>566</v>
       </c>
@@ -68038,8 +68724,11 @@
       <c r="AO528">
         <v>0</v>
       </c>
+      <c r="AP528">
+        <v>0</v>
+      </c>
     </row>
-    <row r="529" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>567</v>
       </c>
@@ -68160,8 +68849,11 @@
       <c r="AO529">
         <v>0</v>
       </c>
+      <c r="AP529">
+        <v>0</v>
+      </c>
     </row>
-    <row r="530" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>568</v>
       </c>
@@ -68282,8 +68974,11 @@
       <c r="AO530">
         <v>0</v>
       </c>
+      <c r="AP530">
+        <v>0</v>
+      </c>
     </row>
-    <row r="531" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>569</v>
       </c>
@@ -68407,8 +69102,11 @@
       <c r="AO531">
         <v>0</v>
       </c>
+      <c r="AP531">
+        <v>0</v>
+      </c>
     </row>
-    <row r="532" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>570</v>
       </c>
@@ -68532,8 +69230,11 @@
       <c r="AO532">
         <v>0</v>
       </c>
+      <c r="AP532">
+        <v>0</v>
+      </c>
     </row>
-    <row r="533" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>571</v>
       </c>
@@ -68654,8 +69355,11 @@
       <c r="AO533">
         <v>0</v>
       </c>
+      <c r="AP533">
+        <v>0</v>
+      </c>
     </row>
-    <row r="534" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>572</v>
       </c>
@@ -68776,8 +69480,11 @@
       <c r="AO534">
         <v>0</v>
       </c>
+      <c r="AP534">
+        <v>0</v>
+      </c>
     </row>
-    <row r="535" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>573</v>
       </c>
@@ -68898,8 +69605,11 @@
       <c r="AO535">
         <v>0</v>
       </c>
+      <c r="AP535">
+        <v>0</v>
+      </c>
     </row>
-    <row r="536" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>574</v>
       </c>
@@ -69020,8 +69730,11 @@
       <c r="AO536">
         <v>0</v>
       </c>
+      <c r="AP536">
+        <v>0</v>
+      </c>
     </row>
-    <row r="537" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>575</v>
       </c>
@@ -69142,8 +69855,11 @@
       <c r="AO537">
         <v>0</v>
       </c>
+      <c r="AP537">
+        <v>0</v>
+      </c>
     </row>
-    <row r="538" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>576</v>
       </c>
@@ -69264,8 +69980,11 @@
       <c r="AO538">
         <v>0</v>
       </c>
+      <c r="AP538">
+        <v>0</v>
+      </c>
     </row>
-    <row r="539" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>577</v>
       </c>
@@ -69386,8 +70105,11 @@
       <c r="AO539">
         <v>0</v>
       </c>
+      <c r="AP539">
+        <v>0</v>
+      </c>
     </row>
-    <row r="540" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>578</v>
       </c>
@@ -69508,8 +70230,11 @@
       <c r="AO540">
         <v>0</v>
       </c>
+      <c r="AP540">
+        <v>0</v>
+      </c>
     </row>
-    <row r="541" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>579</v>
       </c>
@@ -69630,8 +70355,11 @@
       <c r="AO541">
         <v>0</v>
       </c>
+      <c r="AP541">
+        <v>0</v>
+      </c>
     </row>
-    <row r="542" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>580</v>
       </c>
@@ -69753,7 +70481,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="543" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>583</v>
       </c>
@@ -69872,7 +70600,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="544" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>584</v>
       </c>
@@ -69994,7 +70722,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="545" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>585</v>
       </c>
@@ -70113,7 +70841,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="546" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>586</v>
       </c>
@@ -70232,7 +70960,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="547" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>587</v>
       </c>
@@ -70351,7 +71079,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="548" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>588</v>
       </c>
@@ -70470,7 +71198,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="549" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>589</v>
       </c>
@@ -70589,7 +71317,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="550" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>590</v>
       </c>
@@ -70708,7 +71436,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="551" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>591</v>
       </c>
@@ -70827,7 +71555,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="552" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>592</v>
       </c>
@@ -70946,7 +71674,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="553" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>593</v>
       </c>
@@ -71065,7 +71793,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="554" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>594</v>
       </c>
@@ -71187,7 +71915,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="555" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>595</v>
       </c>
@@ -71306,7 +72034,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="556" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>596</v>
       </c>
@@ -71425,7 +72153,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="557" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>597</v>
       </c>
@@ -71541,7 +72269,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="558" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>598</v>
       </c>
@@ -71660,7 +72388,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="559" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>599</v>
       </c>
@@ -71779,7 +72507,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="560" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>600</v>
       </c>
@@ -71898,7 +72626,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="561" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>601</v>
       </c>
@@ -72017,7 +72745,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="562" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>602</v>
       </c>
@@ -72136,7 +72864,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="563" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>603</v>
       </c>
@@ -72255,7 +72983,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="564" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>604</v>
       </c>
@@ -72374,7 +73102,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="565" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>605</v>
       </c>
@@ -72493,7 +73221,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="566" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>606</v>
       </c>
@@ -72612,7 +73340,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="567" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>607</v>
       </c>
@@ -72731,7 +73459,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="568" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>608</v>
       </c>
@@ -72850,7 +73578,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="569" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>609</v>
       </c>
@@ -72969,7 +73697,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="570" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>610</v>
       </c>
@@ -73088,7 +73816,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="571" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>611</v>
       </c>
@@ -75001,7 +75729,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="587" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>627</v>
       </c>
@@ -75120,7 +75848,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="588" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>628</v>
       </c>
@@ -75239,7 +75967,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="589" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>629</v>
       </c>
@@ -75358,7 +76086,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="590" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>630</v>
       </c>
@@ -75480,7 +76208,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="591" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>631</v>
       </c>
@@ -75599,7 +76327,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="592" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>632</v>
       </c>
@@ -75718,7 +76446,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="593" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>633</v>
       </c>
@@ -75837,7 +76565,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="594" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>634</v>
       </c>
@@ -75956,7 +76684,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="595" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>635</v>
       </c>
@@ -76075,7 +76803,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="596" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>636</v>
       </c>
@@ -76194,7 +76922,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="597" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>637</v>
       </c>
@@ -76313,7 +77041,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="598" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>638</v>
       </c>
@@ -76432,7 +77160,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="599" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>639</v>
       </c>
@@ -76551,7 +77279,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="600" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>640</v>
       </c>
@@ -76670,7 +77398,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="601" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>641</v>
       </c>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EFDC39-0789-464E-A620-436D84294FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED53541-5B4D-0346-80D6-94A16A039E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5385" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="745">
   <si>
     <t>tree_ID</t>
   </si>
@@ -3181,15 +3181,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:AD631" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:AD631" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="CoolS/WarmF"/>
-        <filter val="WarmS/WarmF"/>
-        <filter val="WarmS/WarmF_nitro"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AD631" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="28"/>
@@ -3545,9 +3537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP527" sqref="AP527:AP541"/>
+    <sheetView tabSelected="1" topLeftCell="A538" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO547" sqref="AO547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3687,7 +3679,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3811,8 +3803,11 @@
       <c r="AO2">
         <v>5</v>
       </c>
+      <c r="AP2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3933,8 +3928,11 @@
       <c r="AO3">
         <v>6</v>
       </c>
+      <c r="AP3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4055,8 +4053,11 @@
       <c r="AO4">
         <v>6</v>
       </c>
+      <c r="AP4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4177,8 +4178,11 @@
       <c r="AO5">
         <v>6</v>
       </c>
+      <c r="AP5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4299,8 +4303,11 @@
       <c r="AO6">
         <v>6</v>
       </c>
+      <c r="AP6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4421,8 +4428,11 @@
       <c r="AO7">
         <v>6</v>
       </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4543,8 +4553,11 @@
       <c r="AO8">
         <v>6</v>
       </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4665,8 +4678,11 @@
       <c r="AO9">
         <v>6</v>
       </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4787,8 +4803,11 @@
       <c r="AO10">
         <v>6</v>
       </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4912,8 +4931,11 @@
       <c r="AO11">
         <v>6</v>
       </c>
+      <c r="AP11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5034,8 +5056,11 @@
       <c r="AO12">
         <v>6</v>
       </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5156,8 +5181,11 @@
       <c r="AO13">
         <v>6</v>
       </c>
+      <c r="AP13">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5278,8 +5306,11 @@
       <c r="AO14">
         <v>6</v>
       </c>
+      <c r="AP14">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5400,8 +5431,11 @@
       <c r="AO15">
         <v>6</v>
       </c>
+      <c r="AP15">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5522,8 +5556,11 @@
       <c r="AO16">
         <v>6</v>
       </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5644,8 +5681,11 @@
       <c r="AO17">
         <v>6</v>
       </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -5766,8 +5806,11 @@
       <c r="AO18">
         <v>6</v>
       </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5888,8 +5931,11 @@
       <c r="AO19">
         <v>6</v>
       </c>
+      <c r="AP19">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -6010,8 +6056,11 @@
       <c r="AO20">
         <v>6</v>
       </c>
+      <c r="AP20">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6132,8 +6181,11 @@
       <c r="AO21">
         <v>6</v>
       </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6257,8 +6309,11 @@
       <c r="AO22">
         <v>6</v>
       </c>
+      <c r="AP22">
+        <v>6</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6379,8 +6434,11 @@
       <c r="AO23">
         <v>6</v>
       </c>
+      <c r="AP23">
+        <v>6</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6501,8 +6559,11 @@
       <c r="AO24">
         <v>6</v>
       </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -6623,8 +6684,11 @@
       <c r="AO25">
         <v>6</v>
       </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -6745,8 +6809,11 @@
       <c r="AO26">
         <v>6</v>
       </c>
+      <c r="AP26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -6867,8 +6934,11 @@
       <c r="AO27">
         <v>5</v>
       </c>
+      <c r="AP27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -6992,8 +7062,11 @@
       <c r="AO28">
         <v>0</v>
       </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7117,8 +7190,11 @@
       <c r="AO29" t="s">
         <v>308</v>
       </c>
+      <c r="AP29" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7239,8 +7315,11 @@
       <c r="AO30">
         <v>6</v>
       </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7360,6 +7439,9 @@
       </c>
       <c r="AO31">
         <v>6</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.2">
@@ -9240,7 +9322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -9361,8 +9443,11 @@
       <c r="AO47">
         <v>6</v>
       </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -9483,8 +9568,11 @@
       <c r="AO48">
         <v>6</v>
       </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -9605,8 +9693,11 @@
       <c r="AO49">
         <v>5</v>
       </c>
+      <c r="AP49">
+        <v>6</v>
+      </c>
     </row>
-    <row r="50" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -9727,8 +9818,11 @@
       <c r="AO50">
         <v>6</v>
       </c>
+      <c r="AP50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="51" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -9849,8 +9943,11 @@
       <c r="AO51">
         <v>6</v>
       </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -9971,8 +10068,11 @@
       <c r="AO52">
         <v>0</v>
       </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -10093,8 +10193,11 @@
       <c r="AO53">
         <v>6</v>
       </c>
+      <c r="AP53">
+        <v>6</v>
+      </c>
     </row>
-    <row r="54" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -10215,8 +10318,11 @@
       <c r="AO54">
         <v>0</v>
       </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -10340,8 +10446,11 @@
       <c r="AO55">
         <v>6</v>
       </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -10465,8 +10574,11 @@
       <c r="AO56">
         <v>0</v>
       </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -10590,8 +10702,11 @@
       <c r="AO57">
         <v>6</v>
       </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -10712,8 +10827,11 @@
       <c r="AO58">
         <v>6</v>
       </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -10834,8 +10952,11 @@
       <c r="AO59" t="s">
         <v>308</v>
       </c>
+      <c r="AP59" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="60" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -10956,8 +11077,11 @@
       <c r="AO60">
         <v>0</v>
       </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -11076,6 +11200,9 @@
         <v>6</v>
       </c>
       <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
         <v>0</v>
       </c>
     </row>
@@ -14832,7 +14959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -14953,8 +15080,11 @@
       <c r="AO92" s="2">
         <v>6</v>
       </c>
+      <c r="AP92" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="93" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -15075,8 +15205,11 @@
       <c r="AO93" s="2">
         <v>6</v>
       </c>
+      <c r="AP93" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="94" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -15197,8 +15330,11 @@
       <c r="AO94" s="2">
         <v>0</v>
       </c>
+      <c r="AP94" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="95" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -15322,8 +15458,11 @@
       <c r="AO95" s="2">
         <v>6</v>
       </c>
+      <c r="AP95" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -15444,8 +15583,11 @@
       <c r="AO96" s="2">
         <v>6</v>
       </c>
+      <c r="AP96" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -15566,8 +15708,11 @@
       <c r="AO97" s="2">
         <v>6</v>
       </c>
+      <c r="AP97" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -15688,8 +15833,11 @@
       <c r="AO98" s="2">
         <v>6</v>
       </c>
+      <c r="AP98" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -15810,8 +15958,11 @@
       <c r="AO99" s="2">
         <v>6</v>
       </c>
+      <c r="AP99" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="100" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -15932,8 +16083,11 @@
       <c r="AO100" s="2">
         <v>0</v>
       </c>
+      <c r="AP100" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -16054,8 +16208,11 @@
       <c r="AO101" s="2">
         <v>6</v>
       </c>
+      <c r="AP101" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -16176,8 +16333,11 @@
       <c r="AO102" s="2">
         <v>6</v>
       </c>
+      <c r="AP102" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="103" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -16298,8 +16458,11 @@
       <c r="AO103" s="2">
         <v>6</v>
       </c>
+      <c r="AP103" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="104" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -16420,8 +16583,11 @@
       <c r="AO104" s="2">
         <v>6</v>
       </c>
+      <c r="AP104" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -16542,8 +16708,11 @@
       <c r="AO105" s="2">
         <v>6</v>
       </c>
+      <c r="AP105" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="106" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -16664,8 +16833,11 @@
       <c r="AO106" s="2">
         <v>6</v>
       </c>
+      <c r="AP106" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -16786,8 +16958,11 @@
       <c r="AO107" s="2">
         <v>6</v>
       </c>
+      <c r="AP107" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="108" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -16908,8 +17083,11 @@
       <c r="AO108" s="2">
         <v>6</v>
       </c>
+      <c r="AP108" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="109" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -17033,8 +17211,11 @@
       <c r="AO109" s="2">
         <v>6</v>
       </c>
+      <c r="AP109" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -17155,8 +17336,11 @@
       <c r="AO110" s="2">
         <v>6</v>
       </c>
+      <c r="AP110" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="111" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -17280,8 +17464,11 @@
       <c r="AO111" s="2">
         <v>5</v>
       </c>
+      <c r="AP111" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="112" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -17402,8 +17589,11 @@
       <c r="AO112" s="2">
         <v>0</v>
       </c>
+      <c r="AP112" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -17524,8 +17714,11 @@
       <c r="AO113" t="s">
         <v>308</v>
       </c>
+      <c r="AP113" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="114" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -17646,8 +17839,11 @@
       <c r="AO114" s="2">
         <v>6</v>
       </c>
+      <c r="AP114" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -17768,8 +17964,11 @@
       <c r="AO115" s="2">
         <v>6</v>
       </c>
+      <c r="AP115" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="116" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -17890,8 +18089,11 @@
       <c r="AO116" s="2">
         <v>0</v>
       </c>
+      <c r="AP116" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -18012,8 +18214,11 @@
       <c r="AO117" s="2">
         <v>6</v>
       </c>
+      <c r="AP117" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="118" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -18134,8 +18339,11 @@
       <c r="AO118" s="2">
         <v>6</v>
       </c>
+      <c r="AP118" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="119" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -18256,8 +18464,11 @@
       <c r="AO119" s="2">
         <v>0</v>
       </c>
+      <c r="AP119" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -18378,8 +18589,11 @@
       <c r="AO120" s="2">
         <v>6</v>
       </c>
+      <c r="AP120" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="121" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -18501,6 +18715,9 @@
         <v>6</v>
       </c>
       <c r="AO121" s="2">
+        <v>6</v>
+      </c>
+      <c r="AP121" s="2">
         <v>6</v>
       </c>
     </row>
@@ -20382,7 +20599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -20506,8 +20723,11 @@
       <c r="AO137">
         <v>5</v>
       </c>
+      <c r="AP137">
+        <v>6</v>
+      </c>
     </row>
-    <row r="138" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -20628,8 +20848,11 @@
       <c r="AO138">
         <v>6</v>
       </c>
+      <c r="AP138">
+        <v>6</v>
+      </c>
     </row>
-    <row r="139" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>155</v>
       </c>
@@ -20750,8 +20973,11 @@
       <c r="AO139">
         <v>6</v>
       </c>
+      <c r="AP139">
+        <v>6</v>
+      </c>
     </row>
-    <row r="140" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -20872,8 +21098,11 @@
       <c r="AO140">
         <v>0</v>
       </c>
+      <c r="AP140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -20994,8 +21223,11 @@
       <c r="AO141">
         <v>0</v>
       </c>
+      <c r="AP141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -21116,8 +21348,11 @@
       <c r="AO142">
         <v>0</v>
       </c>
+      <c r="AP142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -21238,8 +21473,11 @@
       <c r="AO143">
         <v>0</v>
       </c>
+      <c r="AP143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>160</v>
       </c>
@@ -21360,8 +21598,11 @@
       <c r="AO144">
         <v>0</v>
       </c>
+      <c r="AP144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -21482,8 +21723,11 @@
       <c r="AO145">
         <v>0</v>
       </c>
+      <c r="AP145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>162</v>
       </c>
@@ -21604,8 +21848,11 @@
       <c r="AO146">
         <v>6</v>
       </c>
+      <c r="AP146">
+        <v>6</v>
+      </c>
     </row>
-    <row r="147" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -21726,8 +21973,11 @@
       <c r="AO147">
         <v>0</v>
       </c>
+      <c r="AP147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>164</v>
       </c>
@@ -21851,8 +22101,11 @@
       <c r="AO148">
         <v>5</v>
       </c>
+      <c r="AP148">
+        <v>6</v>
+      </c>
     </row>
-    <row r="149" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -21973,8 +22226,11 @@
       <c r="AO149">
         <v>0</v>
       </c>
+      <c r="AP149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>166</v>
       </c>
@@ -22098,8 +22354,11 @@
       <c r="AO150">
         <v>5</v>
       </c>
+      <c r="AP150">
+        <v>6</v>
+      </c>
     </row>
-    <row r="151" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -22218,6 +22477,9 @@
         <v>0</v>
       </c>
       <c r="AO151">
+        <v>0</v>
+      </c>
+      <c r="AP151">
         <v>0</v>
       </c>
     </row>
@@ -25977,7 +26239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>198</v>
       </c>
@@ -26096,8 +26358,11 @@
       <c r="AO182">
         <v>0</v>
       </c>
+      <c r="AP182">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -26216,8 +26481,11 @@
       <c r="AO183">
         <v>0</v>
       </c>
+      <c r="AP183">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -26336,8 +26604,11 @@
       <c r="AO184">
         <v>0</v>
       </c>
+      <c r="AP184">
+        <v>0</v>
+      </c>
     </row>
-    <row r="185" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -26456,8 +26727,11 @@
       <c r="AO185">
         <v>0</v>
       </c>
+      <c r="AP185">
+        <v>0</v>
+      </c>
     </row>
-    <row r="186" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -26579,8 +26853,11 @@
       <c r="AO186">
         <v>0</v>
       </c>
+      <c r="AP186">
+        <v>0</v>
+      </c>
     </row>
-    <row r="187" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -26699,8 +26976,11 @@
       <c r="AO187">
         <v>0</v>
       </c>
+      <c r="AP187">
+        <v>0</v>
+      </c>
     </row>
-    <row r="188" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -26819,8 +27099,11 @@
       <c r="AO188">
         <v>0</v>
       </c>
+      <c r="AP188">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -26939,8 +27222,11 @@
       <c r="AO189">
         <v>0</v>
       </c>
+      <c r="AP189">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -27062,8 +27348,11 @@
       <c r="AO190">
         <v>0</v>
       </c>
+      <c r="AP190">
+        <v>0</v>
+      </c>
     </row>
-    <row r="191" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>210</v>
       </c>
@@ -27182,8 +27471,11 @@
       <c r="AO191">
         <v>0</v>
       </c>
+      <c r="AP191">
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -27302,8 +27594,11 @@
       <c r="AO192">
         <v>0</v>
       </c>
+      <c r="AP192">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>212</v>
       </c>
@@ -27422,8 +27717,11 @@
       <c r="AO193">
         <v>0</v>
       </c>
+      <c r="AP193">
+        <v>0</v>
+      </c>
     </row>
-    <row r="194" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -27545,8 +27843,11 @@
       <c r="AO194">
         <v>0</v>
       </c>
+      <c r="AP194">
+        <v>0</v>
+      </c>
     </row>
-    <row r="195" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -27665,8 +27966,11 @@
       <c r="AO195">
         <v>0</v>
       </c>
+      <c r="AP195">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -27785,8 +28089,11 @@
       <c r="AO196">
         <v>0</v>
       </c>
+      <c r="AP196">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -27905,8 +28212,11 @@
       <c r="AO197">
         <v>0</v>
       </c>
+      <c r="AP197">
+        <v>0</v>
+      </c>
     </row>
-    <row r="198" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -28028,8 +28338,11 @@
       <c r="AO198">
         <v>0</v>
       </c>
+      <c r="AP198">
+        <v>0</v>
+      </c>
     </row>
-    <row r="199" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -28148,8 +28461,11 @@
       <c r="AO199">
         <v>0</v>
       </c>
+      <c r="AP199">
+        <v>0</v>
+      </c>
     </row>
-    <row r="200" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -28271,8 +28587,11 @@
       <c r="AO200">
         <v>0</v>
       </c>
+      <c r="AP200">
+        <v>0</v>
+      </c>
     </row>
-    <row r="201" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -28391,8 +28710,11 @@
       <c r="AO201">
         <v>0</v>
       </c>
+      <c r="AP201">
+        <v>0</v>
+      </c>
     </row>
-    <row r="202" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -28511,8 +28833,11 @@
       <c r="AO202">
         <v>0</v>
       </c>
+      <c r="AP202">
+        <v>0</v>
+      </c>
     </row>
-    <row r="203" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -28631,8 +28956,11 @@
       <c r="AO203">
         <v>0</v>
       </c>
+      <c r="AP203">
+        <v>0</v>
+      </c>
     </row>
-    <row r="204" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -28751,8 +29079,11 @@
       <c r="AO204">
         <v>0</v>
       </c>
+      <c r="AP204">
+        <v>0</v>
+      </c>
     </row>
-    <row r="205" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -28874,8 +29205,11 @@
       <c r="AO205">
         <v>0</v>
       </c>
+      <c r="AP205">
+        <v>0</v>
+      </c>
     </row>
-    <row r="206" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -28994,8 +29328,11 @@
       <c r="AO206">
         <v>0</v>
       </c>
+      <c r="AP206">
+        <v>0</v>
+      </c>
     </row>
-    <row r="207" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -29114,8 +29451,11 @@
       <c r="AO207">
         <v>0</v>
       </c>
+      <c r="AP207">
+        <v>0</v>
+      </c>
     </row>
-    <row r="208" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -29237,8 +29577,11 @@
       <c r="AO208">
         <v>0</v>
       </c>
+      <c r="AP208">
+        <v>0</v>
+      </c>
     </row>
-    <row r="209" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -29357,8 +29700,11 @@
       <c r="AO209">
         <v>0</v>
       </c>
+      <c r="AP209">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -29477,8 +29823,11 @@
       <c r="AO210">
         <v>0</v>
       </c>
+      <c r="AP210">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -29600,8 +29949,11 @@
       <c r="AO211">
         <v>0</v>
       </c>
+      <c r="AP211">
+        <v>0</v>
+      </c>
     </row>
-    <row r="212" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>233</v>
       </c>
@@ -29720,8 +30072,11 @@
       <c r="AO212">
         <v>0</v>
       </c>
+      <c r="AP212">
+        <v>0</v>
+      </c>
     </row>
-    <row r="213" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -29840,8 +30195,11 @@
       <c r="AO213">
         <v>0</v>
       </c>
+      <c r="AP213">
+        <v>0</v>
+      </c>
     </row>
-    <row r="214" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>235</v>
       </c>
@@ -29960,8 +30318,11 @@
       <c r="AO214">
         <v>0</v>
       </c>
+      <c r="AP214">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -30080,8 +30441,11 @@
       <c r="AO215">
         <v>0</v>
       </c>
+      <c r="AP215">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>237</v>
       </c>
@@ -30203,8 +30567,11 @@
       <c r="AO216">
         <v>0</v>
       </c>
+      <c r="AP216">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -30323,8 +30690,11 @@
       <c r="AO217">
         <v>0</v>
       </c>
+      <c r="AP217">
+        <v>0</v>
+      </c>
     </row>
-    <row r="218" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>239</v>
       </c>
@@ -30443,8 +30813,11 @@
       <c r="AO218">
         <v>0</v>
       </c>
+      <c r="AP218">
+        <v>0</v>
+      </c>
     </row>
-    <row r="219" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -30563,8 +30936,11 @@
       <c r="AO219">
         <v>0</v>
       </c>
+      <c r="AP219">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>241</v>
       </c>
@@ -30683,8 +31059,11 @@
       <c r="AO220">
         <v>0</v>
       </c>
+      <c r="AP220">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -30803,8 +31182,11 @@
       <c r="AO221" t="s">
         <v>308</v>
       </c>
+      <c r="AP221" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="222" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>243</v>
       </c>
@@ -30923,8 +31305,11 @@
       <c r="AO222">
         <v>0</v>
       </c>
+      <c r="AP222">
+        <v>0</v>
+      </c>
     </row>
-    <row r="223" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -31046,8 +31431,11 @@
       <c r="AO223">
         <v>0</v>
       </c>
+      <c r="AP223">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -31166,8 +31554,11 @@
       <c r="AO224">
         <v>0</v>
       </c>
+      <c r="AP224">
+        <v>0</v>
+      </c>
     </row>
-    <row r="225" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -31289,8 +31680,11 @@
       <c r="AO225">
         <v>0</v>
       </c>
+      <c r="AP225">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>247</v>
       </c>
@@ -31409,8 +31803,11 @@
       <c r="AO226">
         <v>0</v>
       </c>
+      <c r="AP226">
+        <v>0</v>
+      </c>
     </row>
-    <row r="227" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -31529,8 +31926,11 @@
       <c r="AO227">
         <v>0</v>
       </c>
+      <c r="AP227">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -31649,8 +32049,11 @@
       <c r="AO228">
         <v>0</v>
       </c>
+      <c r="AP228">
+        <v>0</v>
+      </c>
     </row>
-    <row r="229" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -31769,8 +32172,11 @@
       <c r="AO229">
         <v>0</v>
       </c>
+      <c r="AP229">
+        <v>0</v>
+      </c>
     </row>
-    <row r="230" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>251</v>
       </c>
@@ -31889,8 +32295,11 @@
       <c r="AO230">
         <v>0</v>
       </c>
+      <c r="AP230">
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -32009,8 +32418,11 @@
       <c r="AO231">
         <v>0</v>
       </c>
+      <c r="AP231">
+        <v>0</v>
+      </c>
     </row>
-    <row r="232" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -32129,8 +32541,11 @@
       <c r="AO232">
         <v>0</v>
       </c>
+      <c r="AP232">
+        <v>0</v>
+      </c>
     </row>
-    <row r="233" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -32249,8 +32664,11 @@
       <c r="AO233">
         <v>0</v>
       </c>
+      <c r="AP233">
+        <v>0</v>
+      </c>
     </row>
-    <row r="234" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>255</v>
       </c>
@@ -32369,8 +32787,11 @@
       <c r="AO234">
         <v>0</v>
       </c>
+      <c r="AP234">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -32489,8 +32910,11 @@
       <c r="AO235">
         <v>0</v>
       </c>
+      <c r="AP235">
+        <v>0</v>
+      </c>
     </row>
-    <row r="236" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -32609,8 +33033,11 @@
       <c r="AO236">
         <v>0</v>
       </c>
+      <c r="AP236">
+        <v>0</v>
+      </c>
     </row>
-    <row r="237" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -32729,8 +33156,11 @@
       <c r="AO237">
         <v>0</v>
       </c>
+      <c r="AP237">
+        <v>0</v>
+      </c>
     </row>
-    <row r="238" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -32849,8 +33279,11 @@
       <c r="AO238">
         <v>0</v>
       </c>
+      <c r="AP238">
+        <v>0</v>
+      </c>
     </row>
-    <row r="239" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -32969,8 +33402,11 @@
       <c r="AO239">
         <v>0</v>
       </c>
+      <c r="AP239">
+        <v>0</v>
+      </c>
     </row>
-    <row r="240" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -33089,8 +33525,11 @@
       <c r="AO240">
         <v>0</v>
       </c>
+      <c r="AP240">
+        <v>0</v>
+      </c>
     </row>
-    <row r="241" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -33209,8 +33648,11 @@
       <c r="AO241">
         <v>0</v>
       </c>
+      <c r="AP241">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -33329,8 +33771,11 @@
       <c r="AO242">
         <v>0</v>
       </c>
+      <c r="AP242">
+        <v>0</v>
+      </c>
     </row>
-    <row r="243" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -33449,8 +33894,11 @@
       <c r="AO243">
         <v>0</v>
       </c>
+      <c r="AP243">
+        <v>0</v>
+      </c>
     </row>
-    <row r="244" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>265</v>
       </c>
@@ -33569,8 +34017,11 @@
       <c r="AO244">
         <v>0</v>
       </c>
+      <c r="AP244">
+        <v>0</v>
+      </c>
     </row>
-    <row r="245" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -33689,8 +34140,11 @@
       <c r="AO245">
         <v>0</v>
       </c>
+      <c r="AP245">
+        <v>0</v>
+      </c>
     </row>
-    <row r="246" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -33809,8 +34263,11 @@
       <c r="AO246">
         <v>0</v>
       </c>
+      <c r="AP246">
+        <v>0</v>
+      </c>
     </row>
-    <row r="247" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -33929,8 +34386,11 @@
       <c r="AO247">
         <v>0</v>
       </c>
+      <c r="AP247">
+        <v>0</v>
+      </c>
     </row>
-    <row r="248" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>269</v>
       </c>
@@ -34049,8 +34509,11 @@
       <c r="AO248">
         <v>0</v>
       </c>
+      <c r="AP248">
+        <v>0</v>
+      </c>
     </row>
-    <row r="249" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -34169,8 +34632,11 @@
       <c r="AO249">
         <v>0</v>
       </c>
+      <c r="AP249">
+        <v>0</v>
+      </c>
     </row>
-    <row r="250" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>271</v>
       </c>
@@ -34289,8 +34755,11 @@
       <c r="AO250">
         <v>0</v>
       </c>
+      <c r="AP250">
+        <v>0</v>
+      </c>
     </row>
-    <row r="251" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -34409,8 +34878,11 @@
       <c r="AO251">
         <v>0</v>
       </c>
+      <c r="AP251">
+        <v>0</v>
+      </c>
     </row>
-    <row r="252" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>273</v>
       </c>
@@ -34529,8 +35001,11 @@
       <c r="AO252">
         <v>0</v>
       </c>
+      <c r="AP252">
+        <v>0</v>
+      </c>
     </row>
-    <row r="253" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -34649,8 +35124,11 @@
       <c r="AO253">
         <v>0</v>
       </c>
+      <c r="AP253">
+        <v>0</v>
+      </c>
     </row>
-    <row r="254" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>275</v>
       </c>
@@ -34769,8 +35247,11 @@
       <c r="AO254">
         <v>0</v>
       </c>
+      <c r="AP254">
+        <v>0</v>
+      </c>
     </row>
-    <row r="255" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -34889,8 +35370,11 @@
       <c r="AO255">
         <v>0</v>
       </c>
+      <c r="AP255">
+        <v>0</v>
+      </c>
     </row>
-    <row r="256" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>277</v>
       </c>
@@ -35009,8 +35493,11 @@
       <c r="AO256">
         <v>0</v>
       </c>
+      <c r="AP256">
+        <v>0</v>
+      </c>
     </row>
-    <row r="257" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -35129,8 +35616,11 @@
       <c r="AO257">
         <v>0</v>
       </c>
+      <c r="AP257">
+        <v>0</v>
+      </c>
     </row>
-    <row r="258" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -35249,8 +35739,11 @@
       <c r="AO258">
         <v>0</v>
       </c>
+      <c r="AP258">
+        <v>0</v>
+      </c>
     </row>
-    <row r="259" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>280</v>
       </c>
@@ -35369,8 +35862,11 @@
       <c r="AO259">
         <v>0</v>
       </c>
+      <c r="AP259">
+        <v>0</v>
+      </c>
     </row>
-    <row r="260" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -35489,8 +35985,11 @@
       <c r="AO260">
         <v>0</v>
       </c>
+      <c r="AP260">
+        <v>0</v>
+      </c>
     </row>
-    <row r="261" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>282</v>
       </c>
@@ -35609,8 +36108,11 @@
       <c r="AO261">
         <v>0</v>
       </c>
+      <c r="AP261">
+        <v>0</v>
+      </c>
     </row>
-    <row r="262" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -35729,8 +36231,11 @@
       <c r="AO262">
         <v>0</v>
       </c>
+      <c r="AP262">
+        <v>0</v>
+      </c>
     </row>
-    <row r="263" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>284</v>
       </c>
@@ -35849,8 +36354,11 @@
       <c r="AO263">
         <v>0</v>
       </c>
+      <c r="AP263">
+        <v>0</v>
+      </c>
     </row>
-    <row r="264" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -35969,8 +36477,11 @@
       <c r="AO264">
         <v>0</v>
       </c>
+      <c r="AP264">
+        <v>0</v>
+      </c>
     </row>
-    <row r="265" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>286</v>
       </c>
@@ -36089,8 +36600,11 @@
       <c r="AO265">
         <v>0</v>
       </c>
+      <c r="AP265">
+        <v>0</v>
+      </c>
     </row>
-    <row r="266" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -36209,8 +36723,11 @@
       <c r="AO266">
         <v>0</v>
       </c>
+      <c r="AP266">
+        <v>0</v>
+      </c>
     </row>
-    <row r="267" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>288</v>
       </c>
@@ -36329,8 +36846,11 @@
       <c r="AO267">
         <v>0</v>
       </c>
+      <c r="AP267">
+        <v>0</v>
+      </c>
     </row>
-    <row r="268" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -36449,8 +36969,11 @@
       <c r="AO268">
         <v>0</v>
       </c>
+      <c r="AP268">
+        <v>0</v>
+      </c>
     </row>
-    <row r="269" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>290</v>
       </c>
@@ -36569,8 +37092,11 @@
       <c r="AO269">
         <v>0</v>
       </c>
+      <c r="AP269">
+        <v>0</v>
+      </c>
     </row>
-    <row r="270" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -36689,8 +37215,11 @@
       <c r="AO270">
         <v>0</v>
       </c>
+      <c r="AP270">
+        <v>0</v>
+      </c>
     </row>
-    <row r="271" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>292</v>
       </c>
@@ -36809,8 +37338,11 @@
       <c r="AO271">
         <v>0</v>
       </c>
+      <c r="AP271">
+        <v>0</v>
+      </c>
     </row>
-    <row r="272" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -36934,8 +37466,11 @@
       <c r="AO272" t="s">
         <v>308</v>
       </c>
+      <c r="AP272" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="273" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -37056,8 +37591,11 @@
       <c r="AO273">
         <v>0</v>
       </c>
+      <c r="AP273">
+        <v>0</v>
+      </c>
     </row>
-    <row r="274" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -37178,8 +37716,11 @@
       <c r="AO274">
         <v>0</v>
       </c>
+      <c r="AP274">
+        <v>0</v>
+      </c>
     </row>
-    <row r="275" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>298</v>
       </c>
@@ -37303,8 +37844,11 @@
       <c r="AO275" t="s">
         <v>308</v>
       </c>
+      <c r="AP275" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="276" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -37428,8 +37972,11 @@
       <c r="AO276">
         <v>0</v>
       </c>
+      <c r="AP276">
+        <v>0</v>
+      </c>
     </row>
-    <row r="277" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>300</v>
       </c>
@@ -37550,8 +38097,11 @@
       <c r="AO277">
         <v>0</v>
       </c>
+      <c r="AP277">
+        <v>0</v>
+      </c>
     </row>
-    <row r="278" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -37672,8 +38222,11 @@
       <c r="AO278">
         <v>0</v>
       </c>
+      <c r="AP278">
+        <v>0</v>
+      </c>
     </row>
-    <row r="279" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -37797,8 +38350,11 @@
       <c r="AO279" t="s">
         <v>308</v>
       </c>
+      <c r="AP279" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="280" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -37919,8 +38475,11 @@
       <c r="AO280">
         <v>0</v>
       </c>
+      <c r="AP280">
+        <v>0</v>
+      </c>
     </row>
-    <row r="281" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -38041,8 +38600,11 @@
       <c r="AO281">
         <v>0</v>
       </c>
+      <c r="AP281">
+        <v>0</v>
+      </c>
     </row>
-    <row r="282" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>305</v>
       </c>
@@ -38166,8 +38728,11 @@
       <c r="AO282" t="s">
         <v>308</v>
       </c>
+      <c r="AP282" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="283" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -38291,8 +38856,11 @@
       <c r="AO283" t="s">
         <v>308</v>
       </c>
+      <c r="AP283" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="284" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -38413,8 +38981,11 @@
       <c r="AO284">
         <v>0</v>
       </c>
+      <c r="AP284">
+        <v>0</v>
+      </c>
     </row>
-    <row r="285" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -38535,8 +39106,11 @@
       <c r="AO285">
         <v>0</v>
       </c>
+      <c r="AP285">
+        <v>0</v>
+      </c>
     </row>
-    <row r="286" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -38657,8 +39231,11 @@
       <c r="AO286">
         <v>0</v>
       </c>
+      <c r="AP286">
+        <v>0</v>
+      </c>
     </row>
-    <row r="287" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -38779,8 +39356,11 @@
       <c r="AO287">
         <v>0</v>
       </c>
+      <c r="AP287">
+        <v>0</v>
+      </c>
     </row>
-    <row r="288" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -38901,8 +39481,11 @@
       <c r="AO288">
         <v>0</v>
       </c>
+      <c r="AP288">
+        <v>0</v>
+      </c>
     </row>
-    <row r="289" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -39023,8 +39606,11 @@
       <c r="AO289">
         <v>0</v>
       </c>
+      <c r="AP289">
+        <v>0</v>
+      </c>
     </row>
-    <row r="290" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -39145,8 +39731,11 @@
       <c r="AO290">
         <v>0</v>
       </c>
+      <c r="AP290">
+        <v>0</v>
+      </c>
     </row>
-    <row r="291" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -39267,8 +39856,11 @@
       <c r="AO291">
         <v>0</v>
       </c>
+      <c r="AP291">
+        <v>0</v>
+      </c>
     </row>
-    <row r="292" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -39389,8 +39981,11 @@
       <c r="AO292">
         <v>0</v>
       </c>
+      <c r="AP292">
+        <v>0</v>
+      </c>
     </row>
-    <row r="293" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -39511,8 +40106,11 @@
       <c r="AO293">
         <v>0</v>
       </c>
+      <c r="AP293">
+        <v>0</v>
+      </c>
     </row>
-    <row r="294" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -39636,8 +40234,11 @@
       <c r="AO294">
         <v>0</v>
       </c>
+      <c r="AP294">
+        <v>0</v>
+      </c>
     </row>
-    <row r="295" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -39758,8 +40359,11 @@
       <c r="AO295">
         <v>0</v>
       </c>
+      <c r="AP295">
+        <v>0</v>
+      </c>
     </row>
-    <row r="296" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>322</v>
       </c>
@@ -39880,8 +40484,11 @@
       <c r="AO296">
         <v>0</v>
       </c>
+      <c r="AP296">
+        <v>0</v>
+      </c>
     </row>
-    <row r="297" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -40005,8 +40612,11 @@
       <c r="AO297" t="s">
         <v>308</v>
       </c>
+      <c r="AP297" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="298" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>324</v>
       </c>
@@ -40127,8 +40737,11 @@
       <c r="AO298">
         <v>6</v>
       </c>
+      <c r="AP298">
+        <v>6</v>
+      </c>
     </row>
-    <row r="299" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -40252,8 +40865,11 @@
       <c r="AO299" t="s">
         <v>308</v>
       </c>
+      <c r="AP299" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="300" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>326</v>
       </c>
@@ -40374,8 +40990,11 @@
       <c r="AO300">
         <v>0</v>
       </c>
+      <c r="AP300">
+        <v>0</v>
+      </c>
     </row>
-    <row r="301" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -40494,6 +41113,9 @@
         <v>6</v>
       </c>
       <c r="AO301">
+        <v>0</v>
+      </c>
+      <c r="AP301">
         <v>0</v>
       </c>
     </row>
@@ -42375,7 +42997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -42499,8 +43121,11 @@
       <c r="AO317" t="s">
         <v>308</v>
       </c>
+      <c r="AP317" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="318" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -42621,8 +43246,11 @@
       <c r="AO318">
         <v>0</v>
       </c>
+      <c r="AP318">
+        <v>0</v>
+      </c>
     </row>
-    <row r="319" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -42743,8 +43371,11 @@
       <c r="AO319">
         <v>0</v>
       </c>
+      <c r="AP319">
+        <v>0</v>
+      </c>
     </row>
-    <row r="320" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -42865,8 +43496,11 @@
       <c r="AO320">
         <v>0</v>
       </c>
+      <c r="AP320">
+        <v>0</v>
+      </c>
     </row>
-    <row r="321" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -42987,8 +43621,11 @@
       <c r="AO321">
         <v>0</v>
       </c>
+      <c r="AP321">
+        <v>0</v>
+      </c>
     </row>
-    <row r="322" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -43112,8 +43749,11 @@
       <c r="AO322" t="s">
         <v>308</v>
       </c>
+      <c r="AP322" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="323" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -43234,8 +43874,11 @@
       <c r="AO323">
         <v>0</v>
       </c>
+      <c r="AP323">
+        <v>0</v>
+      </c>
     </row>
-    <row r="324" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>351</v>
       </c>
@@ -43359,8 +44002,11 @@
       <c r="AO324" t="s">
         <v>308</v>
       </c>
+      <c r="AP324" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="325" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -43481,8 +44127,11 @@
       <c r="AO325">
         <v>6</v>
       </c>
+      <c r="AP325">
+        <v>6</v>
+      </c>
     </row>
-    <row r="326" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>354</v>
       </c>
@@ -43603,8 +44252,11 @@
       <c r="AO326">
         <v>0</v>
       </c>
+      <c r="AP326">
+        <v>0</v>
+      </c>
     </row>
-    <row r="327" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -43725,8 +44377,11 @@
       <c r="AO327">
         <v>0</v>
       </c>
+      <c r="AP327">
+        <v>0</v>
+      </c>
     </row>
-    <row r="328" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -43850,8 +44505,11 @@
       <c r="AO328" t="s">
         <v>308</v>
       </c>
+      <c r="AP328" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="329" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>357</v>
       </c>
@@ -43972,8 +44630,11 @@
       <c r="AO329">
         <v>0</v>
       </c>
+      <c r="AP329">
+        <v>0</v>
+      </c>
     </row>
-    <row r="330" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -44097,8 +44758,11 @@
       <c r="AO330" t="s">
         <v>308</v>
       </c>
+      <c r="AP330" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="331" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>359</v>
       </c>
@@ -44217,6 +44881,9 @@
         <v>308</v>
       </c>
       <c r="AO331" t="s">
+        <v>308</v>
+      </c>
+      <c r="AP331" t="s">
         <v>308</v>
       </c>
     </row>
@@ -48000,7 +48667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>390</v>
       </c>
@@ -48121,8 +48788,11 @@
       <c r="AO362">
         <v>0</v>
       </c>
+      <c r="AP362">
+        <v>0</v>
+      </c>
     </row>
-    <row r="363" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -48243,8 +48913,11 @@
       <c r="AO363">
         <v>0</v>
       </c>
+      <c r="AP363">
+        <v>0</v>
+      </c>
     </row>
-    <row r="364" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -48365,8 +49038,11 @@
       <c r="AO364">
         <v>0</v>
       </c>
+      <c r="AP364">
+        <v>0</v>
+      </c>
     </row>
-    <row r="365" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -48487,8 +49163,11 @@
       <c r="AO365">
         <v>0</v>
       </c>
+      <c r="AP365">
+        <v>0</v>
+      </c>
     </row>
-    <row r="366" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -48609,8 +49288,11 @@
       <c r="AO366">
         <v>0</v>
       </c>
+      <c r="AP366">
+        <v>0</v>
+      </c>
     </row>
-    <row r="367" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -48731,8 +49413,11 @@
       <c r="AO367">
         <v>0</v>
       </c>
+      <c r="AP367">
+        <v>0</v>
+      </c>
     </row>
-    <row r="368" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>398</v>
       </c>
@@ -48853,8 +49538,11 @@
       <c r="AO368">
         <v>0</v>
       </c>
+      <c r="AP368">
+        <v>0</v>
+      </c>
     </row>
-    <row r="369" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -48978,8 +49666,11 @@
       <c r="AO369">
         <v>0</v>
       </c>
+      <c r="AP369">
+        <v>0</v>
+      </c>
     </row>
-    <row r="370" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -49100,8 +49791,11 @@
       <c r="AO370">
         <v>0</v>
       </c>
+      <c r="AP370">
+        <v>0</v>
+      </c>
     </row>
-    <row r="371" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -49222,8 +49916,11 @@
       <c r="AO371">
         <v>0</v>
       </c>
+      <c r="AP371">
+        <v>0</v>
+      </c>
     </row>
-    <row r="372" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -49344,8 +50041,11 @@
       <c r="AO372">
         <v>0</v>
       </c>
+      <c r="AP372">
+        <v>0</v>
+      </c>
     </row>
-    <row r="373" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -49469,8 +50169,11 @@
       <c r="AO373">
         <v>0</v>
       </c>
+      <c r="AP373">
+        <v>0</v>
+      </c>
     </row>
-    <row r="374" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -49591,8 +50294,11 @@
       <c r="AO374">
         <v>0</v>
       </c>
+      <c r="AP374">
+        <v>0</v>
+      </c>
     </row>
-    <row r="375" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -49713,8 +50419,11 @@
       <c r="AO375">
         <v>0</v>
       </c>
+      <c r="AP375">
+        <v>0</v>
+      </c>
     </row>
-    <row r="376" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -49835,8 +50544,11 @@
       <c r="AO376">
         <v>0</v>
       </c>
+      <c r="AP376">
+        <v>0</v>
+      </c>
     </row>
-    <row r="377" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -49957,8 +50669,11 @@
       <c r="AO377">
         <v>0</v>
       </c>
+      <c r="AP377">
+        <v>0</v>
+      </c>
     </row>
-    <row r="378" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -50079,8 +50794,11 @@
       <c r="AO378">
         <v>0</v>
       </c>
+      <c r="AP378">
+        <v>0</v>
+      </c>
     </row>
-    <row r="379" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -50201,8 +50919,11 @@
       <c r="AO379">
         <v>0</v>
       </c>
+      <c r="AP379">
+        <v>0</v>
+      </c>
     </row>
-    <row r="380" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -50326,8 +51047,11 @@
       <c r="AO380">
         <v>0</v>
       </c>
+      <c r="AP380">
+        <v>0</v>
+      </c>
     </row>
-    <row r="381" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -50448,8 +51172,11 @@
       <c r="AO381">
         <v>0</v>
       </c>
+      <c r="AP381">
+        <v>0</v>
+      </c>
     </row>
-    <row r="382" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>413</v>
       </c>
@@ -50570,8 +51297,11 @@
       <c r="AO382">
         <v>0</v>
       </c>
+      <c r="AP382">
+        <v>0</v>
+      </c>
     </row>
-    <row r="383" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -50692,8 +51422,11 @@
       <c r="AO383">
         <v>0</v>
       </c>
+      <c r="AP383">
+        <v>0</v>
+      </c>
     </row>
-    <row r="384" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>415</v>
       </c>
@@ -50814,8 +51547,11 @@
       <c r="AO384">
         <v>0</v>
       </c>
+      <c r="AP384">
+        <v>0</v>
+      </c>
     </row>
-    <row r="385" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -50936,8 +51672,11 @@
       <c r="AO385">
         <v>0</v>
       </c>
+      <c r="AP385">
+        <v>0</v>
+      </c>
     </row>
-    <row r="386" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>417</v>
       </c>
@@ -51061,8 +51800,11 @@
       <c r="AO386">
         <v>0</v>
       </c>
+      <c r="AP386">
+        <v>0</v>
+      </c>
     </row>
-    <row r="387" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -51183,8 +51925,11 @@
       <c r="AO387" t="s">
         <v>308</v>
       </c>
+      <c r="AP387" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="388" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>419</v>
       </c>
@@ -51305,8 +52050,11 @@
       <c r="AO388">
         <v>0</v>
       </c>
+      <c r="AP388">
+        <v>0</v>
+      </c>
     </row>
-    <row r="389" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -51427,8 +52175,11 @@
       <c r="AO389">
         <v>0</v>
       </c>
+      <c r="AP389">
+        <v>0</v>
+      </c>
     </row>
-    <row r="390" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>421</v>
       </c>
@@ -51549,8 +52300,11 @@
       <c r="AO390">
         <v>0</v>
       </c>
+      <c r="AP390">
+        <v>0</v>
+      </c>
     </row>
-    <row r="391" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -51672,6 +52426,9 @@
         <v>308</v>
       </c>
       <c r="AO391" t="s">
+        <v>308</v>
+      </c>
+      <c r="AP391" t="s">
         <v>308</v>
       </c>
     </row>
@@ -53562,7 +54319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>439</v>
       </c>
@@ -53687,7 +54444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>440</v>
       </c>
@@ -53812,7 +54569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>441</v>
       </c>
@@ -53937,7 +54694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>442</v>
       </c>
@@ -54062,7 +54819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>443</v>
       </c>
@@ -54187,7 +54944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>444</v>
       </c>
@@ -54312,7 +55069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>445</v>
       </c>
@@ -54437,7 +55194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>446</v>
       </c>
@@ -54562,7 +55319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>447</v>
       </c>
@@ -54687,7 +55444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>448</v>
       </c>
@@ -54812,7 +55569,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="417" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>449</v>
       </c>
@@ -54940,7 +55697,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="418" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>450</v>
       </c>
@@ -55065,7 +55822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>451</v>
       </c>
@@ -55190,7 +55947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>452</v>
       </c>
@@ -55315,7 +56072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>453</v>
       </c>
@@ -59208,7 +59965,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="452" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>487</v>
       </c>
@@ -59329,8 +60086,11 @@
       <c r="AO452">
         <v>0</v>
       </c>
+      <c r="AP452">
+        <v>0</v>
+      </c>
     </row>
-    <row r="453" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>490</v>
       </c>
@@ -59451,8 +60211,11 @@
       <c r="AO453">
         <v>6</v>
       </c>
+      <c r="AP453">
+        <v>0</v>
+      </c>
     </row>
-    <row r="454" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>491</v>
       </c>
@@ -59573,8 +60336,11 @@
       <c r="AO454">
         <v>0</v>
       </c>
+      <c r="AP454">
+        <v>0</v>
+      </c>
     </row>
-    <row r="455" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>492</v>
       </c>
@@ -59695,8 +60461,11 @@
       <c r="AO455">
         <v>0</v>
       </c>
+      <c r="AP455">
+        <v>0</v>
+      </c>
     </row>
-    <row r="456" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>493</v>
       </c>
@@ -59817,8 +60586,11 @@
       <c r="AO456">
         <v>0</v>
       </c>
+      <c r="AP456">
+        <v>0</v>
+      </c>
     </row>
-    <row r="457" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>494</v>
       </c>
@@ -59942,8 +60714,11 @@
       <c r="AO457">
         <v>0</v>
       </c>
+      <c r="AP457" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="458" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>495</v>
       </c>
@@ -60064,8 +60839,11 @@
       <c r="AO458">
         <v>6</v>
       </c>
+      <c r="AP458" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="459" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>496</v>
       </c>
@@ -60186,8 +60964,11 @@
       <c r="AO459">
         <v>0</v>
       </c>
+      <c r="AP459" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="460" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>497</v>
       </c>
@@ -60308,8 +61089,11 @@
       <c r="AO460">
         <v>0</v>
       </c>
+      <c r="AP460" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="461" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>498</v>
       </c>
@@ -60430,8 +61214,11 @@
       <c r="AO461">
         <v>0</v>
       </c>
+      <c r="AP461" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="462" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>499</v>
       </c>
@@ -60552,8 +61339,11 @@
       <c r="AO462">
         <v>0</v>
       </c>
+      <c r="AP462" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="463" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>500</v>
       </c>
@@ -60674,8 +61464,11 @@
       <c r="AO463">
         <v>6</v>
       </c>
+      <c r="AP463" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="464" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>501</v>
       </c>
@@ -60796,8 +61589,11 @@
       <c r="AO464">
         <v>6</v>
       </c>
+      <c r="AP464" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="465" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>502</v>
       </c>
@@ -60918,8 +61714,11 @@
       <c r="AO465">
         <v>0</v>
       </c>
+      <c r="AP465" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="466" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>503</v>
       </c>
@@ -61040,8 +61839,11 @@
       <c r="AO466">
         <v>6</v>
       </c>
+      <c r="AP466" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="467" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>504</v>
       </c>
@@ -61162,8 +61964,11 @@
       <c r="AO467">
         <v>0</v>
       </c>
+      <c r="AP467" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="468" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>505</v>
       </c>
@@ -61287,8 +62092,11 @@
       <c r="AO468" s="2">
         <v>0</v>
       </c>
+      <c r="AP468" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="469" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>506</v>
       </c>
@@ -61412,8 +62220,11 @@
       <c r="AO469" s="2">
         <v>0</v>
       </c>
+      <c r="AP469" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="470" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>507</v>
       </c>
@@ -61534,8 +62345,11 @@
       <c r="AO470" s="2">
         <v>0</v>
       </c>
+      <c r="AP470" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="471" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>508</v>
       </c>
@@ -61656,8 +62470,11 @@
       <c r="AO471" s="2">
         <v>0</v>
       </c>
+      <c r="AP471" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="472" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>509</v>
       </c>
@@ -61778,8 +62595,11 @@
       <c r="AO472" s="2">
         <v>0</v>
       </c>
+      <c r="AP472" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="473" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>510</v>
       </c>
@@ -61900,8 +62720,11 @@
       <c r="AO473" s="2">
         <v>6</v>
       </c>
+      <c r="AP473" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="474" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>511</v>
       </c>
@@ -62022,8 +62845,11 @@
       <c r="AO474" s="2">
         <v>0</v>
       </c>
+      <c r="AP474" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="475" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>512</v>
       </c>
@@ -62147,8 +62973,11 @@
       <c r="AO475" s="2">
         <v>0</v>
       </c>
+      <c r="AP475" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="476" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>513</v>
       </c>
@@ -62269,8 +63098,11 @@
       <c r="AO476" s="2">
         <v>0</v>
       </c>
+      <c r="AP476" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="477" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>514</v>
       </c>
@@ -62391,8 +63223,11 @@
       <c r="AO477" s="2">
         <v>0</v>
       </c>
+      <c r="AP477" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="478" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>515</v>
       </c>
@@ -62513,8 +63348,11 @@
       <c r="AO478" s="2">
         <v>0</v>
       </c>
+      <c r="AP478" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="479" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>516</v>
       </c>
@@ -62635,8 +63473,11 @@
       <c r="AO479" s="2">
         <v>6</v>
       </c>
+      <c r="AP479" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="480" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>517</v>
       </c>
@@ -62757,8 +63598,11 @@
       <c r="AO480" s="2">
         <v>0</v>
       </c>
+      <c r="AP480" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="481" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>518</v>
       </c>
@@ -62877,6 +63721,9 @@
         <v>6</v>
       </c>
       <c r="AO481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP481" s="2">
         <v>0</v>
       </c>
     </row>
@@ -64761,7 +65608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>534</v>
       </c>
@@ -64882,8 +65729,11 @@
       <c r="AO497" s="2">
         <v>0</v>
       </c>
+      <c r="AP497" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="498" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>535</v>
       </c>
@@ -65004,8 +65854,11 @@
       <c r="AO498" s="2">
         <v>0</v>
       </c>
+      <c r="AP498" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="499" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>536</v>
       </c>
@@ -65126,8 +65979,11 @@
       <c r="AO499" s="2">
         <v>0</v>
       </c>
+      <c r="AP499" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="500" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>537</v>
       </c>
@@ -65248,8 +66104,11 @@
       <c r="AO500" s="2">
         <v>0</v>
       </c>
+      <c r="AP500" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="501" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>538</v>
       </c>
@@ -65370,8 +66229,11 @@
       <c r="AO501" s="2">
         <v>0</v>
       </c>
+      <c r="AP501" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="502" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>539</v>
       </c>
@@ -65492,8 +66354,11 @@
       <c r="AO502" s="2">
         <v>0</v>
       </c>
+      <c r="AP502" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="503" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>540</v>
       </c>
@@ -65614,8 +66479,11 @@
       <c r="AO503" s="2">
         <v>0</v>
       </c>
+      <c r="AP503" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="504" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>541</v>
       </c>
@@ -65736,8 +66604,11 @@
       <c r="AO504" s="2">
         <v>0</v>
       </c>
+      <c r="AP504" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="505" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>542</v>
       </c>
@@ -65858,8 +66729,11 @@
       <c r="AO505" s="2">
         <v>0</v>
       </c>
+      <c r="AP505" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="506" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>543</v>
       </c>
@@ -65980,8 +66854,11 @@
       <c r="AO506" s="2">
         <v>0</v>
       </c>
+      <c r="AP506" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="507" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>544</v>
       </c>
@@ -66102,8 +66979,11 @@
       <c r="AO507" s="2">
         <v>0</v>
       </c>
+      <c r="AP507" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="508" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>545</v>
       </c>
@@ -66224,8 +67104,11 @@
       <c r="AO508" s="2">
         <v>0</v>
       </c>
+      <c r="AP508" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="509" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>546</v>
       </c>
@@ -66346,8 +67229,11 @@
       <c r="AO509" s="2">
         <v>0</v>
       </c>
+      <c r="AP509" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="510" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>547</v>
       </c>
@@ -66468,8 +67354,11 @@
       <c r="AO510" s="2">
         <v>0</v>
       </c>
+      <c r="AP510" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="511" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>548</v>
       </c>
@@ -66588,6 +67477,9 @@
         <v>0</v>
       </c>
       <c r="AO511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP511" s="2">
         <v>0</v>
       </c>
     </row>
@@ -70359,7 +71251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>580</v>
       </c>
@@ -70481,7 +71373,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="543" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>583</v>
       </c>
@@ -70600,7 +71492,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="544" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>584</v>
       </c>
@@ -70722,7 +71614,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="545" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>585</v>
       </c>
@@ -70841,7 +71733,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="546" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>586</v>
       </c>
@@ -70960,7 +71852,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="547" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>587</v>
       </c>
@@ -71079,7 +71971,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="548" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>588</v>
       </c>
@@ -71198,7 +72090,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="549" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>589</v>
       </c>
@@ -71317,7 +72209,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="550" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>590</v>
       </c>
@@ -71436,7 +72328,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="551" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>591</v>
       </c>
@@ -71555,7 +72447,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="552" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>592</v>
       </c>
@@ -71674,7 +72566,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="553" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>593</v>
       </c>
@@ -71793,7 +72685,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="554" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>594</v>
       </c>
@@ -71915,7 +72807,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="555" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>595</v>
       </c>
@@ -72034,7 +72926,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="556" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>596</v>
       </c>
@@ -72153,7 +73045,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="557" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>597</v>
       </c>
@@ -72269,7 +73161,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="558" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>598</v>
       </c>
@@ -72388,7 +73280,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="559" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>599</v>
       </c>
@@ -72507,7 +73399,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="560" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>600</v>
       </c>
@@ -72626,7 +73518,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="561" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>601</v>
       </c>
@@ -72745,7 +73637,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="562" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>602</v>
       </c>
@@ -72864,7 +73756,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="563" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>603</v>
       </c>
@@ -72983,7 +73875,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="564" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>604</v>
       </c>
@@ -73102,7 +73994,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="565" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>605</v>
       </c>
@@ -73221,7 +74113,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="566" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>606</v>
       </c>
@@ -73340,7 +74232,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="567" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>607</v>
       </c>
@@ -73459,7 +74351,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="568" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>608</v>
       </c>
@@ -73578,7 +74470,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="569" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>609</v>
       </c>
@@ -73697,7 +74589,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="570" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>610</v>
       </c>
@@ -73816,7 +74708,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="571" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>611</v>
       </c>
@@ -75729,7 +76621,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="587" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>627</v>
       </c>
@@ -75848,7 +76740,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="588" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>628</v>
       </c>
@@ -75967,7 +76859,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="589" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>629</v>
       </c>
@@ -76086,7 +76978,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="590" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>630</v>
       </c>
@@ -76208,7 +77100,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="591" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>631</v>
       </c>
@@ -76327,7 +77219,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="592" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>632</v>
       </c>
@@ -76446,7 +77338,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="593" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>633</v>
       </c>
@@ -76565,7 +77457,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="594" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>634</v>
       </c>
@@ -76684,7 +77576,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="595" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>635</v>
       </c>
@@ -76803,7 +77695,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="596" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>636</v>
       </c>
@@ -76922,7 +77814,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="597" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>637</v>
       </c>
@@ -77041,7 +77933,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="598" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>638</v>
       </c>
@@ -77160,7 +78052,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="599" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>639</v>
       </c>
@@ -77279,7 +78171,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="600" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>640</v>
       </c>
@@ -77398,7 +78290,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="601" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>641</v>
       </c>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED53541-5B4D-0346-80D6-94A16A039E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAE0FA8-0D02-0047-A25C-812DAE4F0E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="745">
   <si>
     <t>tree_ID</t>
   </si>
@@ -3535,11 +3535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP631"/>
+  <dimension ref="A1:AQ631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO547" sqref="AO547"/>
+    <sheetView tabSelected="1" topLeftCell="A537" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR272" sqref="AR272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3551,7 +3551,7 @@
     <col min="30" max="30" width="4.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3678,8 +3678,11 @@
       <c r="AP1" s="3">
         <v>283</v>
       </c>
+      <c r="AQ1" s="3">
+        <v>290</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3806,8 +3809,11 @@
       <c r="AP2">
         <v>6</v>
       </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3931,8 +3937,11 @@
       <c r="AP3">
         <v>6</v>
       </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4056,8 +4065,11 @@
       <c r="AP4">
         <v>6</v>
       </c>
+      <c r="AQ4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4181,8 +4193,11 @@
       <c r="AP5">
         <v>6</v>
       </c>
+      <c r="AQ5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4306,8 +4321,11 @@
       <c r="AP6">
         <v>6</v>
       </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4431,8 +4449,11 @@
       <c r="AP7">
         <v>0</v>
       </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4556,8 +4577,11 @@
       <c r="AP8">
         <v>0</v>
       </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4681,8 +4705,11 @@
       <c r="AP9">
         <v>0</v>
       </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4806,8 +4833,11 @@
       <c r="AP10">
         <v>0</v>
       </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4934,8 +4964,11 @@
       <c r="AP11">
         <v>6</v>
       </c>
+      <c r="AQ11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5059,8 +5092,11 @@
       <c r="AP12">
         <v>0</v>
       </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5184,8 +5220,11 @@
       <c r="AP13">
         <v>6</v>
       </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5309,8 +5348,11 @@
       <c r="AP14">
         <v>6</v>
       </c>
+      <c r="AQ14">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5434,8 +5476,11 @@
       <c r="AP15">
         <v>6</v>
       </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5559,8 +5604,11 @@
       <c r="AP16">
         <v>0</v>
       </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5684,8 +5732,11 @@
       <c r="AP17">
         <v>0</v>
       </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -5809,8 +5860,11 @@
       <c r="AP18">
         <v>0</v>
       </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5934,8 +5988,11 @@
       <c r="AP19">
         <v>6</v>
       </c>
+      <c r="AQ19">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -6059,8 +6116,11 @@
       <c r="AP20">
         <v>6</v>
       </c>
+      <c r="AQ20">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6184,8 +6244,11 @@
       <c r="AP21">
         <v>0</v>
       </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6312,8 +6375,11 @@
       <c r="AP22">
         <v>6</v>
       </c>
+      <c r="AQ22">
+        <v>6</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6437,8 +6503,11 @@
       <c r="AP23">
         <v>6</v>
       </c>
+      <c r="AQ23">
+        <v>6</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6562,8 +6631,11 @@
       <c r="AP24">
         <v>0</v>
       </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -6687,8 +6759,11 @@
       <c r="AP25">
         <v>0</v>
       </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -6812,8 +6887,11 @@
       <c r="AP26">
         <v>6</v>
       </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -6937,8 +7015,11 @@
       <c r="AP27">
         <v>6</v>
       </c>
+      <c r="AQ27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -7065,8 +7146,11 @@
       <c r="AP28">
         <v>0</v>
       </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7193,8 +7277,11 @@
       <c r="AP29" t="s">
         <v>308</v>
       </c>
+      <c r="AQ29" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7318,8 +7405,11 @@
       <c r="AP30">
         <v>0</v>
       </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7443,8 +7533,11 @@
       <c r="AP31">
         <v>0</v>
       </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -7569,7 +7662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -7694,7 +7787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -7819,7 +7912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -7944,7 +8037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -8069,7 +8162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -8194,7 +8287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -8319,7 +8412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -8444,7 +8537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -8569,7 +8662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -8694,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -8822,7 +8915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -8947,7 +9040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -9072,7 +9165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -9197,7 +9290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -9322,7 +9415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -9446,8 +9539,11 @@
       <c r="AP47">
         <v>0</v>
       </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -9571,8 +9667,11 @@
       <c r="AP48">
         <v>0</v>
       </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -9696,8 +9795,11 @@
       <c r="AP49">
         <v>6</v>
       </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -9821,8 +9923,11 @@
       <c r="AP50">
         <v>6</v>
       </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -9946,8 +10051,11 @@
       <c r="AP51">
         <v>0</v>
       </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -10071,8 +10179,11 @@
       <c r="AP52">
         <v>0</v>
       </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -10196,8 +10307,11 @@
       <c r="AP53">
         <v>6</v>
       </c>
+      <c r="AQ53">
+        <v>6</v>
+      </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -10321,8 +10435,11 @@
       <c r="AP54">
         <v>0</v>
       </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -10449,8 +10566,11 @@
       <c r="AP55">
         <v>0</v>
       </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -10577,8 +10697,11 @@
       <c r="AP56">
         <v>0</v>
       </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -10705,8 +10828,11 @@
       <c r="AP57">
         <v>0</v>
       </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -10830,8 +10956,11 @@
       <c r="AP58">
         <v>0</v>
       </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -10955,8 +11084,11 @@
       <c r="AP59" t="s">
         <v>308</v>
       </c>
+      <c r="AQ59" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -11080,8 +11212,11 @@
       <c r="AP60">
         <v>0</v>
       </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -11205,8 +11340,11 @@
       <c r="AP61">
         <v>0</v>
       </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -11331,7 +11469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -11456,7 +11594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -13584,7 +13722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -13709,7 +13847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -13834,7 +13972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -13959,7 +14097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -14084,7 +14222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -14209,7 +14347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -14334,7 +14472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -14459,7 +14597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -14584,7 +14722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -14709,7 +14847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -14834,7 +14972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -14959,7 +15097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -15083,8 +15221,11 @@
       <c r="AP92" s="2">
         <v>6</v>
       </c>
+      <c r="AQ92">
+        <v>6</v>
+      </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -15208,8 +15349,11 @@
       <c r="AP93" s="2">
         <v>6</v>
       </c>
+      <c r="AQ93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -15331,10 +15475,13 @@
         <v>0</v>
       </c>
       <c r="AP94" s="2">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -15461,8 +15608,11 @@
       <c r="AP95" s="2">
         <v>0</v>
       </c>
+      <c r="AQ95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -15586,8 +15736,11 @@
       <c r="AP96" s="2">
         <v>0</v>
       </c>
+      <c r="AQ96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -15711,8 +15864,11 @@
       <c r="AP97" s="2">
         <v>0</v>
       </c>
+      <c r="AQ97" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -15836,8 +15992,11 @@
       <c r="AP98" s="2">
         <v>0</v>
       </c>
+      <c r="AQ98" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -15961,8 +16120,11 @@
       <c r="AP99" s="2">
         <v>6</v>
       </c>
+      <c r="AQ99" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -16086,8 +16248,11 @@
       <c r="AP100" s="2">
         <v>0</v>
       </c>
+      <c r="AQ100" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -16211,8 +16376,11 @@
       <c r="AP101" s="2">
         <v>6</v>
       </c>
+      <c r="AQ101" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -16336,8 +16504,11 @@
       <c r="AP102" s="2">
         <v>6</v>
       </c>
+      <c r="AQ102" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -16461,8 +16632,11 @@
       <c r="AP103" s="2">
         <v>6</v>
       </c>
+      <c r="AQ103" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -16586,8 +16760,11 @@
       <c r="AP104" s="2">
         <v>0</v>
       </c>
+      <c r="AQ104" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -16711,8 +16888,11 @@
       <c r="AP105" s="2">
         <v>6</v>
       </c>
+      <c r="AQ105" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -16836,8 +17016,11 @@
       <c r="AP106" s="2">
         <v>0</v>
       </c>
+      <c r="AQ106" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -16961,8 +17144,11 @@
       <c r="AP107" s="2">
         <v>6</v>
       </c>
+      <c r="AQ107" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -17086,8 +17272,11 @@
       <c r="AP108" s="2">
         <v>6</v>
       </c>
+      <c r="AQ108" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -17214,8 +17403,11 @@
       <c r="AP109" s="2">
         <v>0</v>
       </c>
+      <c r="AQ109" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -17339,8 +17531,11 @@
       <c r="AP110" s="2">
         <v>6</v>
       </c>
+      <c r="AQ110" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -17467,8 +17662,11 @@
       <c r="AP111" s="2">
         <v>6</v>
       </c>
+      <c r="AQ111" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -17592,8 +17790,11 @@
       <c r="AP112" s="2">
         <v>0</v>
       </c>
+      <c r="AQ112" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -17717,8 +17918,11 @@
       <c r="AP113" t="s">
         <v>308</v>
       </c>
+      <c r="AQ113" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -17842,8 +18046,11 @@
       <c r="AP114" s="2">
         <v>0</v>
       </c>
+      <c r="AQ114" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -17967,8 +18174,11 @@
       <c r="AP115" s="2">
         <v>6</v>
       </c>
+      <c r="AQ115" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -18092,8 +18302,11 @@
       <c r="AP116" s="2">
         <v>0</v>
       </c>
+      <c r="AQ116" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -18217,8 +18430,11 @@
       <c r="AP117" s="2">
         <v>6</v>
       </c>
+      <c r="AQ117" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -18342,8 +18558,11 @@
       <c r="AP118" s="2">
         <v>6</v>
       </c>
+      <c r="AQ118" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -18467,8 +18686,11 @@
       <c r="AP119" s="2">
         <v>0</v>
       </c>
+      <c r="AQ119" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -18592,8 +18814,11 @@
       <c r="AP120" s="2">
         <v>6</v>
       </c>
+      <c r="AQ120" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -18720,8 +18945,11 @@
       <c r="AP121" s="2">
         <v>6</v>
       </c>
+      <c r="AQ121" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -18846,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -18971,7 +19199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -19096,7 +19324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -19221,7 +19449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -19346,7 +19574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -19471,7 +19699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -19596,7 +19824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>145</v>
       </c>
@@ -19721,7 +19949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -19846,7 +20074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -19974,7 +20202,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -20099,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -20224,7 +20452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -20349,7 +20577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -20474,7 +20702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -20599,7 +20827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -20726,8 +20954,11 @@
       <c r="AP137">
         <v>6</v>
       </c>
+      <c r="AQ137">
+        <v>6</v>
+      </c>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -20851,8 +21082,11 @@
       <c r="AP138">
         <v>6</v>
       </c>
+      <c r="AQ138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>155</v>
       </c>
@@ -20976,8 +21210,11 @@
       <c r="AP139">
         <v>6</v>
       </c>
+      <c r="AQ139">
+        <v>6</v>
+      </c>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -21101,8 +21338,11 @@
       <c r="AP140">
         <v>0</v>
       </c>
+      <c r="AQ140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -21226,8 +21466,11 @@
       <c r="AP141">
         <v>0</v>
       </c>
+      <c r="AQ141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -21351,8 +21594,11 @@
       <c r="AP142">
         <v>0</v>
       </c>
+      <c r="AQ142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -21476,8 +21722,11 @@
       <c r="AP143">
         <v>0</v>
       </c>
+      <c r="AQ143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>160</v>
       </c>
@@ -21601,8 +21850,11 @@
       <c r="AP144">
         <v>0</v>
       </c>
+      <c r="AQ144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -21726,8 +21978,11 @@
       <c r="AP145">
         <v>0</v>
       </c>
+      <c r="AQ145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>162</v>
       </c>
@@ -21851,8 +22106,11 @@
       <c r="AP146">
         <v>6</v>
       </c>
+      <c r="AQ146">
+        <v>6</v>
+      </c>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -21976,8 +22234,11 @@
       <c r="AP147">
         <v>0</v>
       </c>
+      <c r="AQ147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>164</v>
       </c>
@@ -22104,8 +22365,11 @@
       <c r="AP148">
         <v>6</v>
       </c>
+      <c r="AQ148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -22229,8 +22493,11 @@
       <c r="AP149">
         <v>0</v>
       </c>
+      <c r="AQ149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>166</v>
       </c>
@@ -22357,8 +22624,11 @@
       <c r="AP150">
         <v>6</v>
       </c>
+      <c r="AQ150">
+        <v>6</v>
+      </c>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -22482,8 +22752,11 @@
       <c r="AP151">
         <v>0</v>
       </c>
+      <c r="AQ151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -22608,7 +22881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -22733,7 +23006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>170</v>
       </c>
@@ -22858,7 +23131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -22983,7 +23256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>172</v>
       </c>
@@ -23108,7 +23381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -23233,7 +23506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>174</v>
       </c>
@@ -23358,7 +23631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -23483,7 +23756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>176</v>
       </c>
@@ -35497,7 +35770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -35620,7 +35893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -35743,7 +36016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>280</v>
       </c>
@@ -35866,7 +36139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -35989,7 +36262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>282</v>
       </c>
@@ -36112,7 +36385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -36235,7 +36508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>284</v>
       </c>
@@ -36358,7 +36631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -36481,7 +36754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>286</v>
       </c>
@@ -36604,7 +36877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -36727,7 +37000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>288</v>
       </c>
@@ -36850,7 +37123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -36973,7 +37246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>290</v>
       </c>
@@ -37096,7 +37369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -37219,7 +37492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>292</v>
       </c>
@@ -37342,7 +37615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -37469,8 +37742,11 @@
       <c r="AP272" t="s">
         <v>308</v>
       </c>
+      <c r="AQ272" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="273" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -37594,8 +37870,11 @@
       <c r="AP273">
         <v>0</v>
       </c>
+      <c r="AQ273">
+        <v>0</v>
+      </c>
     </row>
-    <row r="274" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -37719,8 +37998,11 @@
       <c r="AP274">
         <v>0</v>
       </c>
+      <c r="AQ274">
+        <v>0</v>
+      </c>
     </row>
-    <row r="275" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>298</v>
       </c>
@@ -37847,8 +38129,11 @@
       <c r="AP275" t="s">
         <v>308</v>
       </c>
+      <c r="AQ275" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="276" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -37975,8 +38260,11 @@
       <c r="AP276">
         <v>0</v>
       </c>
+      <c r="AQ276">
+        <v>0</v>
+      </c>
     </row>
-    <row r="277" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>300</v>
       </c>
@@ -38100,8 +38388,11 @@
       <c r="AP277">
         <v>0</v>
       </c>
+      <c r="AQ277">
+        <v>0</v>
+      </c>
     </row>
-    <row r="278" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -38225,8 +38516,11 @@
       <c r="AP278">
         <v>0</v>
       </c>
+      <c r="AQ278">
+        <v>0</v>
+      </c>
     </row>
-    <row r="279" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -38353,8 +38647,11 @@
       <c r="AP279" t="s">
         <v>308</v>
       </c>
+      <c r="AQ279" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="280" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -38478,8 +38775,11 @@
       <c r="AP280">
         <v>0</v>
       </c>
+      <c r="AQ280">
+        <v>0</v>
+      </c>
     </row>
-    <row r="281" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -38603,8 +38903,11 @@
       <c r="AP281">
         <v>0</v>
       </c>
+      <c r="AQ281">
+        <v>0</v>
+      </c>
     </row>
-    <row r="282" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>305</v>
       </c>
@@ -38731,8 +39034,11 @@
       <c r="AP282" t="s">
         <v>308</v>
       </c>
+      <c r="AQ282" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="283" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -38859,8 +39165,11 @@
       <c r="AP283" t="s">
         <v>308</v>
       </c>
+      <c r="AQ283" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="284" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -38984,8 +39293,11 @@
       <c r="AP284">
         <v>0</v>
       </c>
+      <c r="AQ284">
+        <v>0</v>
+      </c>
     </row>
-    <row r="285" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -39109,8 +39421,11 @@
       <c r="AP285">
         <v>0</v>
       </c>
+      <c r="AQ285">
+        <v>0</v>
+      </c>
     </row>
-    <row r="286" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -39234,8 +39549,11 @@
       <c r="AP286">
         <v>0</v>
       </c>
+      <c r="AQ286">
+        <v>0</v>
+      </c>
     </row>
-    <row r="287" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -39359,8 +39677,11 @@
       <c r="AP287">
         <v>0</v>
       </c>
+      <c r="AQ287">
+        <v>0</v>
+      </c>
     </row>
-    <row r="288" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -39484,8 +39805,11 @@
       <c r="AP288">
         <v>0</v>
       </c>
+      <c r="AQ288">
+        <v>0</v>
+      </c>
     </row>
-    <row r="289" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -39609,8 +39933,11 @@
       <c r="AP289">
         <v>0</v>
       </c>
+      <c r="AQ289">
+        <v>0</v>
+      </c>
     </row>
-    <row r="290" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -39734,8 +40061,11 @@
       <c r="AP290">
         <v>0</v>
       </c>
+      <c r="AQ290">
+        <v>0</v>
+      </c>
     </row>
-    <row r="291" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -39859,8 +40189,11 @@
       <c r="AP291">
         <v>0</v>
       </c>
+      <c r="AQ291">
+        <v>0</v>
+      </c>
     </row>
-    <row r="292" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -39984,8 +40317,11 @@
       <c r="AP292">
         <v>0</v>
       </c>
+      <c r="AQ292">
+        <v>0</v>
+      </c>
     </row>
-    <row r="293" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -40109,8 +40445,11 @@
       <c r="AP293">
         <v>0</v>
       </c>
+      <c r="AQ293">
+        <v>0</v>
+      </c>
     </row>
-    <row r="294" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -40237,8 +40576,11 @@
       <c r="AP294">
         <v>0</v>
       </c>
+      <c r="AQ294">
+        <v>0</v>
+      </c>
     </row>
-    <row r="295" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -40362,8 +40704,11 @@
       <c r="AP295">
         <v>0</v>
       </c>
+      <c r="AQ295">
+        <v>0</v>
+      </c>
     </row>
-    <row r="296" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>322</v>
       </c>
@@ -40487,8 +40832,11 @@
       <c r="AP296">
         <v>0</v>
       </c>
+      <c r="AQ296">
+        <v>0</v>
+      </c>
     </row>
-    <row r="297" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -40615,8 +40963,11 @@
       <c r="AP297" t="s">
         <v>308</v>
       </c>
+      <c r="AQ297" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="298" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>324</v>
       </c>
@@ -40740,8 +41091,11 @@
       <c r="AP298">
         <v>6</v>
       </c>
+      <c r="AQ298">
+        <v>6</v>
+      </c>
     </row>
-    <row r="299" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -40868,8 +41222,11 @@
       <c r="AP299" t="s">
         <v>308</v>
       </c>
+      <c r="AQ299" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="300" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>326</v>
       </c>
@@ -40993,8 +41350,11 @@
       <c r="AP300">
         <v>0</v>
       </c>
+      <c r="AQ300">
+        <v>0</v>
+      </c>
     </row>
-    <row r="301" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -41118,8 +41478,11 @@
       <c r="AP301">
         <v>0</v>
       </c>
+      <c r="AQ301">
+        <v>0</v>
+      </c>
     </row>
-    <row r="302" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>328</v>
       </c>
@@ -41244,7 +41607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -41369,7 +41732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>330</v>
       </c>
@@ -41494,7 +41857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -41619,7 +41982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>332</v>
       </c>
@@ -41744,7 +42107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -41869,7 +42232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>334</v>
       </c>
@@ -41994,7 +42357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -42119,7 +42482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>336</v>
       </c>
@@ -42244,7 +42607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -42369,7 +42732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -42494,7 +42857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -42619,7 +42982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -42744,7 +43107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -42869,7 +43232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -42997,7 +43360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -43124,8 +43487,11 @@
       <c r="AP317" t="s">
         <v>308</v>
       </c>
+      <c r="AQ317" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="318" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -43249,8 +43615,11 @@
       <c r="AP318">
         <v>0</v>
       </c>
+      <c r="AQ318">
+        <v>0</v>
+      </c>
     </row>
-    <row r="319" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -43374,8 +43743,11 @@
       <c r="AP319">
         <v>0</v>
       </c>
+      <c r="AQ319">
+        <v>0</v>
+      </c>
     </row>
-    <row r="320" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -43499,8 +43871,11 @@
       <c r="AP320">
         <v>0</v>
       </c>
+      <c r="AQ320">
+        <v>0</v>
+      </c>
     </row>
-    <row r="321" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -43624,8 +43999,11 @@
       <c r="AP321">
         <v>0</v>
       </c>
+      <c r="AQ321">
+        <v>0</v>
+      </c>
     </row>
-    <row r="322" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -43752,8 +44130,11 @@
       <c r="AP322" t="s">
         <v>308</v>
       </c>
+      <c r="AQ322" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="323" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -43877,8 +44258,11 @@
       <c r="AP323">
         <v>0</v>
       </c>
+      <c r="AQ323">
+        <v>0</v>
+      </c>
     </row>
-    <row r="324" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>351</v>
       </c>
@@ -44005,8 +44389,11 @@
       <c r="AP324" t="s">
         <v>308</v>
       </c>
+      <c r="AQ324" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="325" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -44130,8 +44517,11 @@
       <c r="AP325">
         <v>6</v>
       </c>
+      <c r="AQ325">
+        <v>0</v>
+      </c>
     </row>
-    <row r="326" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>354</v>
       </c>
@@ -44255,8 +44645,11 @@
       <c r="AP326">
         <v>0</v>
       </c>
+      <c r="AQ326">
+        <v>0</v>
+      </c>
     </row>
-    <row r="327" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -44380,8 +44773,11 @@
       <c r="AP327">
         <v>0</v>
       </c>
+      <c r="AQ327">
+        <v>0</v>
+      </c>
     </row>
-    <row r="328" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -44508,8 +44904,11 @@
       <c r="AP328" t="s">
         <v>308</v>
       </c>
+      <c r="AQ328" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="329" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>357</v>
       </c>
@@ -44633,8 +45032,11 @@
       <c r="AP329">
         <v>0</v>
       </c>
+      <c r="AQ329">
+        <v>0</v>
+      </c>
     </row>
-    <row r="330" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -44761,8 +45163,11 @@
       <c r="AP330" t="s">
         <v>308</v>
       </c>
+      <c r="AQ330" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="331" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>359</v>
       </c>
@@ -44886,8 +45291,11 @@
       <c r="AP331" t="s">
         <v>308</v>
       </c>
+      <c r="AQ331" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="332" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -45012,7 +45420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>361</v>
       </c>
@@ -45137,7 +45545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -45265,7 +45673,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="335" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>363</v>
       </c>
@@ -45393,7 +45801,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="336" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAE0FA8-0D02-0047-A25C-812DAE4F0E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5871E1-4B64-384A-A44E-BA57010A4721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5449" uniqueCount="746">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2273,6 +2273,9 @@
   <si>
     <t>doy276: seems like it flushed and starts to set bud again</t>
   </si>
+  <si>
+    <t>doy290: bud broken</t>
+  </si>
 </sst>
 </file>
 
@@ -3537,9 +3540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR272" sqref="AR272"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ137" sqref="AQ137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7661,6 +7664,9 @@
       <c r="AP32">
         <v>6</v>
       </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -7786,6 +7792,9 @@
       <c r="AP33">
         <v>6</v>
       </c>
+      <c r="AQ33">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -7911,6 +7920,9 @@
       <c r="AP34">
         <v>5</v>
       </c>
+      <c r="AQ34">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -8036,6 +8048,9 @@
       <c r="AP35">
         <v>6</v>
       </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -8161,6 +8176,9 @@
       <c r="AP36">
         <v>6</v>
       </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -8286,6 +8304,9 @@
       <c r="AP37">
         <v>6</v>
       </c>
+      <c r="AQ37">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -8411,6 +8432,9 @@
       <c r="AP38">
         <v>6</v>
       </c>
+      <c r="AQ38">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -8536,6 +8560,9 @@
       <c r="AP39">
         <v>6</v>
       </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -8661,6 +8688,9 @@
       <c r="AP40">
         <v>6</v>
       </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -8786,6 +8816,9 @@
       <c r="AP41">
         <v>0</v>
       </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -8914,6 +8947,9 @@
       <c r="AP42">
         <v>6</v>
       </c>
+      <c r="AQ42">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -9039,6 +9075,9 @@
       <c r="AP43">
         <v>6</v>
       </c>
+      <c r="AQ43">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -9164,6 +9203,9 @@
       <c r="AP44">
         <v>6</v>
       </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -9289,6 +9331,9 @@
       <c r="AP45">
         <v>6</v>
       </c>
+      <c r="AQ45">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -9414,6 +9459,9 @@
       <c r="AP46">
         <v>6</v>
       </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -11468,6 +11516,9 @@
       <c r="AP62">
         <v>6</v>
       </c>
+      <c r="AQ62">
+        <v>6</v>
+      </c>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -11593,6 +11644,9 @@
       <c r="AP63">
         <v>6</v>
       </c>
+      <c r="AQ63">
+        <v>6</v>
+      </c>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -11718,8 +11772,11 @@
       <c r="AP64">
         <v>6</v>
       </c>
+      <c r="AQ64">
+        <v>6</v>
+      </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -11843,8 +11900,11 @@
       <c r="AP65">
         <v>0</v>
       </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -11968,8 +12028,11 @@
       <c r="AP66">
         <v>5</v>
       </c>
+      <c r="AQ66">
+        <v>6</v>
+      </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -12093,8 +12156,11 @@
       <c r="AP67">
         <v>6</v>
       </c>
+      <c r="AQ67">
+        <v>6</v>
+      </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -12218,8 +12284,11 @@
       <c r="AP68">
         <v>6</v>
       </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -12343,8 +12412,11 @@
       <c r="AP69">
         <v>0</v>
       </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -12468,8 +12540,11 @@
       <c r="AP70">
         <v>6</v>
       </c>
+      <c r="AQ70">
+        <v>6</v>
+      </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -12596,8 +12671,11 @@
       <c r="AP71" t="s">
         <v>308</v>
       </c>
+      <c r="AQ71" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -12721,8 +12799,11 @@
       <c r="AP72">
         <v>6</v>
       </c>
+      <c r="AQ72">
+        <v>6</v>
+      </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -12846,8 +12927,11 @@
       <c r="AP73">
         <v>0</v>
       </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -12971,8 +13055,11 @@
       <c r="AP74">
         <v>6</v>
       </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -12988,6 +13075,9 @@
       <c r="E75" t="s">
         <v>9</v>
       </c>
+      <c r="F75" t="s">
+        <v>745</v>
+      </c>
       <c r="G75" t="s">
         <v>10</v>
       </c>
@@ -13096,8 +13186,11 @@
       <c r="AP75">
         <v>6</v>
       </c>
+      <c r="AQ75" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -13221,8 +13314,11 @@
       <c r="AP76">
         <v>0</v>
       </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -13346,8 +13442,11 @@
       <c r="AP77">
         <v>0</v>
       </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -13471,8 +13570,11 @@
       <c r="AP78" s="2">
         <v>6</v>
       </c>
+      <c r="AQ78" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -13596,8 +13698,11 @@
       <c r="AP79" s="2">
         <v>6</v>
       </c>
+      <c r="AQ79" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -13719,6 +13824,9 @@
         <v>6</v>
       </c>
       <c r="AP80" s="2">
+        <v>6</v>
+      </c>
+      <c r="AQ80" s="2">
         <v>6</v>
       </c>
     </row>
@@ -13846,6 +13954,9 @@
       <c r="AP81" s="2">
         <v>6</v>
       </c>
+      <c r="AQ81" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -13971,6 +14082,9 @@
       <c r="AP82" s="2">
         <v>6</v>
       </c>
+      <c r="AQ82" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -14096,6 +14210,9 @@
       <c r="AP83" s="2">
         <v>6</v>
       </c>
+      <c r="AQ83" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -14221,6 +14338,9 @@
       <c r="AP84" s="2">
         <v>6</v>
       </c>
+      <c r="AQ84" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -14346,6 +14466,9 @@
       <c r="AP85" s="2">
         <v>6</v>
       </c>
+      <c r="AQ85" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -14471,6 +14594,9 @@
       <c r="AP86" s="2">
         <v>6</v>
       </c>
+      <c r="AQ86" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -14596,6 +14722,9 @@
       <c r="AP87" s="2">
         <v>6</v>
       </c>
+      <c r="AQ87" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -14721,6 +14850,9 @@
       <c r="AP88" s="2">
         <v>6</v>
       </c>
+      <c r="AQ88" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -14846,6 +14978,9 @@
       <c r="AP89" s="2">
         <v>6</v>
       </c>
+      <c r="AQ89" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -14971,6 +15106,9 @@
       <c r="AP90" s="2">
         <v>6</v>
       </c>
+      <c r="AQ90" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -15096,6 +15234,9 @@
       <c r="AP91" s="2">
         <v>6</v>
       </c>
+      <c r="AQ91" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -19073,6 +19214,9 @@
       <c r="AP122">
         <v>0</v>
       </c>
+      <c r="AQ122" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -19198,6 +19342,9 @@
       <c r="AP123">
         <v>0</v>
       </c>
+      <c r="AQ123" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -19323,6 +19470,9 @@
       <c r="AP124">
         <v>0</v>
       </c>
+      <c r="AQ124" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -19448,6 +19598,9 @@
       <c r="AP125">
         <v>6</v>
       </c>
+      <c r="AQ125" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="126" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -19573,6 +19726,9 @@
       <c r="AP126">
         <v>6</v>
       </c>
+      <c r="AQ126" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -19698,6 +19854,9 @@
       <c r="AP127">
         <v>6</v>
       </c>
+      <c r="AQ127" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -19823,6 +19982,9 @@
       <c r="AP128">
         <v>6</v>
       </c>
+      <c r="AQ128" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="129" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -19948,6 +20110,9 @@
       <c r="AP129">
         <v>0</v>
       </c>
+      <c r="AQ129" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -20073,6 +20238,9 @@
       <c r="AP130">
         <v>6</v>
       </c>
+      <c r="AQ130" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -20201,6 +20369,9 @@
       <c r="AP131" t="s">
         <v>308</v>
       </c>
+      <c r="AQ131" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="132" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -20326,6 +20497,9 @@
       <c r="AP132">
         <v>0</v>
       </c>
+      <c r="AQ132" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -20451,6 +20625,9 @@
       <c r="AP133">
         <v>6</v>
       </c>
+      <c r="AQ133" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -20576,6 +20753,9 @@
       <c r="AP134">
         <v>6</v>
       </c>
+      <c r="AQ134" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="135" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -20701,6 +20881,9 @@
       <c r="AP135">
         <v>0</v>
       </c>
+      <c r="AQ135" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -20826,6 +21009,9 @@
       <c r="AP136">
         <v>6</v>
       </c>
+      <c r="AQ136" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="137" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -25887,7 +26073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -26012,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>194</v>
       </c>
@@ -26137,7 +26323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -26262,7 +26448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>196</v>
       </c>
@@ -26387,7 +26573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -26512,7 +26698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>198</v>
       </c>
@@ -26634,8 +26820,11 @@
       <c r="AP182">
         <v>0</v>
       </c>
+      <c r="AQ182">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -26757,8 +26946,11 @@
       <c r="AP183">
         <v>0</v>
       </c>
+      <c r="AQ183">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -26880,8 +27072,11 @@
       <c r="AP184">
         <v>0</v>
       </c>
+      <c r="AQ184">
+        <v>0</v>
+      </c>
     </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -27003,8 +27198,11 @@
       <c r="AP185">
         <v>0</v>
       </c>
+      <c r="AQ185">
+        <v>0</v>
+      </c>
     </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -27129,8 +27327,11 @@
       <c r="AP186">
         <v>0</v>
       </c>
+      <c r="AQ186">
+        <v>0</v>
+      </c>
     </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -27252,8 +27453,11 @@
       <c r="AP187">
         <v>0</v>
       </c>
+      <c r="AQ187">
+        <v>0</v>
+      </c>
     </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -27375,8 +27579,11 @@
       <c r="AP188">
         <v>0</v>
       </c>
+      <c r="AQ188">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -27498,8 +27705,11 @@
       <c r="AP189">
         <v>0</v>
       </c>
+      <c r="AQ189">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -27624,8 +27834,11 @@
       <c r="AP190">
         <v>0</v>
       </c>
+      <c r="AQ190">
+        <v>0</v>
+      </c>
     </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>210</v>
       </c>
@@ -27747,8 +27960,11 @@
       <c r="AP191">
         <v>0</v>
       </c>
+      <c r="AQ191">
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -27870,8 +28086,11 @@
       <c r="AP192">
         <v>0</v>
       </c>
+      <c r="AQ192">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>212</v>
       </c>
@@ -27993,8 +28212,11 @@
       <c r="AP193">
         <v>0</v>
       </c>
+      <c r="AQ193">
+        <v>0</v>
+      </c>
     </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -28119,8 +28341,11 @@
       <c r="AP194">
         <v>0</v>
       </c>
+      <c r="AQ194">
+        <v>0</v>
+      </c>
     </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -28242,8 +28467,11 @@
       <c r="AP195">
         <v>0</v>
       </c>
+      <c r="AQ195">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -28365,8 +28593,11 @@
       <c r="AP196">
         <v>0</v>
       </c>
+      <c r="AQ196">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -28488,8 +28719,11 @@
       <c r="AP197">
         <v>0</v>
       </c>
+      <c r="AQ197">
+        <v>0</v>
+      </c>
     </row>
-    <row r="198" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -28614,8 +28848,11 @@
       <c r="AP198">
         <v>0</v>
       </c>
+      <c r="AQ198">
+        <v>0</v>
+      </c>
     </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -28737,8 +28974,11 @@
       <c r="AP199">
         <v>0</v>
       </c>
+      <c r="AQ199">
+        <v>0</v>
+      </c>
     </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -28863,8 +29103,11 @@
       <c r="AP200">
         <v>0</v>
       </c>
+      <c r="AQ200">
+        <v>0</v>
+      </c>
     </row>
-    <row r="201" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -28986,8 +29229,11 @@
       <c r="AP201">
         <v>0</v>
       </c>
+      <c r="AQ201">
+        <v>0</v>
+      </c>
     </row>
-    <row r="202" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -29109,8 +29355,11 @@
       <c r="AP202">
         <v>0</v>
       </c>
+      <c r="AQ202">
+        <v>0</v>
+      </c>
     </row>
-    <row r="203" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -29232,8 +29481,11 @@
       <c r="AP203">
         <v>0</v>
       </c>
+      <c r="AQ203">
+        <v>0</v>
+      </c>
     </row>
-    <row r="204" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -29355,8 +29607,11 @@
       <c r="AP204">
         <v>0</v>
       </c>
+      <c r="AQ204">
+        <v>0</v>
+      </c>
     </row>
-    <row r="205" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -29481,8 +29736,11 @@
       <c r="AP205">
         <v>0</v>
       </c>
+      <c r="AQ205">
+        <v>0</v>
+      </c>
     </row>
-    <row r="206" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -29604,8 +29862,11 @@
       <c r="AP206">
         <v>0</v>
       </c>
+      <c r="AQ206">
+        <v>0</v>
+      </c>
     </row>
-    <row r="207" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -29727,8 +29988,11 @@
       <c r="AP207">
         <v>0</v>
       </c>
+      <c r="AQ207">
+        <v>0</v>
+      </c>
     </row>
-    <row r="208" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -29853,8 +30117,11 @@
       <c r="AP208">
         <v>0</v>
       </c>
+      <c r="AQ208">
+        <v>0</v>
+      </c>
     </row>
-    <row r="209" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -29976,8 +30243,11 @@
       <c r="AP209">
         <v>0</v>
       </c>
+      <c r="AQ209">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -30099,8 +30369,11 @@
       <c r="AP210">
         <v>0</v>
       </c>
+      <c r="AQ210">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -30225,8 +30498,11 @@
       <c r="AP211">
         <v>0</v>
       </c>
+      <c r="AQ211">
+        <v>0</v>
+      </c>
     </row>
-    <row r="212" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>233</v>
       </c>
@@ -30348,8 +30624,11 @@
       <c r="AP212">
         <v>0</v>
       </c>
+      <c r="AQ212">
+        <v>0</v>
+      </c>
     </row>
-    <row r="213" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -30471,8 +30750,11 @@
       <c r="AP213">
         <v>0</v>
       </c>
+      <c r="AQ213">
+        <v>0</v>
+      </c>
     </row>
-    <row r="214" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>235</v>
       </c>
@@ -30594,8 +30876,11 @@
       <c r="AP214">
         <v>0</v>
       </c>
+      <c r="AQ214">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -30717,8 +31002,11 @@
       <c r="AP215">
         <v>0</v>
       </c>
+      <c r="AQ215">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>237</v>
       </c>
@@ -30843,8 +31131,11 @@
       <c r="AP216">
         <v>0</v>
       </c>
+      <c r="AQ216">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -30966,8 +31257,11 @@
       <c r="AP217">
         <v>0</v>
       </c>
+      <c r="AQ217">
+        <v>0</v>
+      </c>
     </row>
-    <row r="218" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>239</v>
       </c>
@@ -31089,8 +31383,11 @@
       <c r="AP218">
         <v>0</v>
       </c>
+      <c r="AQ218">
+        <v>0</v>
+      </c>
     </row>
-    <row r="219" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -31212,8 +31509,11 @@
       <c r="AP219">
         <v>0</v>
       </c>
+      <c r="AQ219">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>241</v>
       </c>
@@ -31335,8 +31635,11 @@
       <c r="AP220">
         <v>0</v>
       </c>
+      <c r="AQ220">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -31458,8 +31761,11 @@
       <c r="AP221" t="s">
         <v>308</v>
       </c>
+      <c r="AQ221" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="222" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>243</v>
       </c>
@@ -31581,8 +31887,11 @@
       <c r="AP222">
         <v>0</v>
       </c>
+      <c r="AQ222">
+        <v>0</v>
+      </c>
     </row>
-    <row r="223" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -31707,8 +32016,11 @@
       <c r="AP223">
         <v>0</v>
       </c>
+      <c r="AQ223">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -31830,8 +32142,11 @@
       <c r="AP224">
         <v>0</v>
       </c>
+      <c r="AQ224">
+        <v>0</v>
+      </c>
     </row>
-    <row r="225" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -31956,8 +32271,11 @@
       <c r="AP225">
         <v>0</v>
       </c>
+      <c r="AQ225">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>247</v>
       </c>
@@ -32079,8 +32397,11 @@
       <c r="AP226">
         <v>0</v>
       </c>
+      <c r="AQ226">
+        <v>0</v>
+      </c>
     </row>
-    <row r="227" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -32202,8 +32523,11 @@
       <c r="AP227">
         <v>0</v>
       </c>
+      <c r="AQ227">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -32325,8 +32649,11 @@
       <c r="AP228">
         <v>0</v>
       </c>
+      <c r="AQ228">
+        <v>0</v>
+      </c>
     </row>
-    <row r="229" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -32448,8 +32775,11 @@
       <c r="AP229">
         <v>0</v>
       </c>
+      <c r="AQ229">
+        <v>0</v>
+      </c>
     </row>
-    <row r="230" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>251</v>
       </c>
@@ -32571,8 +32901,11 @@
       <c r="AP230">
         <v>0</v>
       </c>
+      <c r="AQ230">
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -32694,8 +33027,11 @@
       <c r="AP231">
         <v>0</v>
       </c>
+      <c r="AQ231">
+        <v>0</v>
+      </c>
     </row>
-    <row r="232" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -32817,8 +33153,11 @@
       <c r="AP232">
         <v>0</v>
       </c>
+      <c r="AQ232">
+        <v>0</v>
+      </c>
     </row>
-    <row r="233" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -32940,8 +33279,11 @@
       <c r="AP233">
         <v>0</v>
       </c>
+      <c r="AQ233">
+        <v>0</v>
+      </c>
     </row>
-    <row r="234" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>255</v>
       </c>
@@ -33063,8 +33405,11 @@
       <c r="AP234">
         <v>0</v>
       </c>
+      <c r="AQ234">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -33186,8 +33531,11 @@
       <c r="AP235">
         <v>0</v>
       </c>
+      <c r="AQ235">
+        <v>0</v>
+      </c>
     </row>
-    <row r="236" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -33309,8 +33657,11 @@
       <c r="AP236">
         <v>0</v>
       </c>
+      <c r="AQ236">
+        <v>0</v>
+      </c>
     </row>
-    <row r="237" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -33432,8 +33783,11 @@
       <c r="AP237">
         <v>0</v>
       </c>
+      <c r="AQ237">
+        <v>0</v>
+      </c>
     </row>
-    <row r="238" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -33555,8 +33909,11 @@
       <c r="AP238">
         <v>0</v>
       </c>
+      <c r="AQ238">
+        <v>0</v>
+      </c>
     </row>
-    <row r="239" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -33678,8 +34035,11 @@
       <c r="AP239">
         <v>0</v>
       </c>
+      <c r="AQ239">
+        <v>0</v>
+      </c>
     </row>
-    <row r="240" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -33801,8 +34161,11 @@
       <c r="AP240">
         <v>0</v>
       </c>
+      <c r="AQ240">
+        <v>0</v>
+      </c>
     </row>
-    <row r="241" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -33924,8 +34287,11 @@
       <c r="AP241">
         <v>0</v>
       </c>
+      <c r="AQ241">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -34047,8 +34413,11 @@
       <c r="AP242">
         <v>0</v>
       </c>
+      <c r="AQ242">
+        <v>0</v>
+      </c>
     </row>
-    <row r="243" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -34170,8 +34539,11 @@
       <c r="AP243">
         <v>0</v>
       </c>
+      <c r="AQ243">
+        <v>0</v>
+      </c>
     </row>
-    <row r="244" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>265</v>
       </c>
@@ -34293,8 +34665,11 @@
       <c r="AP244">
         <v>0</v>
       </c>
+      <c r="AQ244">
+        <v>0</v>
+      </c>
     </row>
-    <row r="245" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -34416,8 +34791,11 @@
       <c r="AP245">
         <v>0</v>
       </c>
+      <c r="AQ245">
+        <v>0</v>
+      </c>
     </row>
-    <row r="246" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -34539,8 +34917,11 @@
       <c r="AP246">
         <v>0</v>
       </c>
+      <c r="AQ246">
+        <v>0</v>
+      </c>
     </row>
-    <row r="247" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -34662,8 +35043,11 @@
       <c r="AP247">
         <v>0</v>
       </c>
+      <c r="AQ247">
+        <v>0</v>
+      </c>
     </row>
-    <row r="248" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>269</v>
       </c>
@@ -34785,8 +35169,11 @@
       <c r="AP248">
         <v>0</v>
       </c>
+      <c r="AQ248">
+        <v>0</v>
+      </c>
     </row>
-    <row r="249" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -34908,8 +35295,11 @@
       <c r="AP249">
         <v>0</v>
       </c>
+      <c r="AQ249">
+        <v>0</v>
+      </c>
     </row>
-    <row r="250" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>271</v>
       </c>
@@ -35031,8 +35421,11 @@
       <c r="AP250">
         <v>0</v>
       </c>
+      <c r="AQ250">
+        <v>0</v>
+      </c>
     </row>
-    <row r="251" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -35154,8 +35547,11 @@
       <c r="AP251">
         <v>0</v>
       </c>
+      <c r="AQ251">
+        <v>0</v>
+      </c>
     </row>
-    <row r="252" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>273</v>
       </c>
@@ -35277,8 +35673,11 @@
       <c r="AP252">
         <v>0</v>
       </c>
+      <c r="AQ252">
+        <v>0</v>
+      </c>
     </row>
-    <row r="253" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -35400,8 +35799,11 @@
       <c r="AP253">
         <v>0</v>
       </c>
+      <c r="AQ253">
+        <v>0</v>
+      </c>
     </row>
-    <row r="254" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>275</v>
       </c>
@@ -35523,8 +35925,11 @@
       <c r="AP254">
         <v>0</v>
       </c>
+      <c r="AQ254">
+        <v>0</v>
+      </c>
     </row>
-    <row r="255" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -35646,8 +36051,11 @@
       <c r="AP255">
         <v>0</v>
       </c>
+      <c r="AQ255">
+        <v>0</v>
+      </c>
     </row>
-    <row r="256" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>277</v>
       </c>
@@ -35767,6 +36175,9 @@
         <v>0</v>
       </c>
       <c r="AP256">
+        <v>0</v>
+      </c>
+      <c r="AQ256">
         <v>0</v>
       </c>
     </row>
@@ -35892,6 +36303,9 @@
       <c r="AP257">
         <v>0</v>
       </c>
+      <c r="AQ257">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
@@ -36015,6 +36429,9 @@
       <c r="AP258">
         <v>0</v>
       </c>
+      <c r="AQ258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
@@ -36138,6 +36555,9 @@
       <c r="AP259">
         <v>0</v>
       </c>
+      <c r="AQ259">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
@@ -36261,6 +36681,9 @@
       <c r="AP260">
         <v>0</v>
       </c>
+      <c r="AQ260">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
@@ -36384,6 +36807,9 @@
       <c r="AP261">
         <v>0</v>
       </c>
+      <c r="AQ261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
@@ -36507,6 +36933,9 @@
       <c r="AP262">
         <v>0</v>
       </c>
+      <c r="AQ262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
@@ -36630,6 +37059,9 @@
       <c r="AP263">
         <v>0</v>
       </c>
+      <c r="AQ263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
@@ -36753,6 +37185,9 @@
       <c r="AP264">
         <v>0</v>
       </c>
+      <c r="AQ264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
@@ -36876,6 +37311,9 @@
       <c r="AP265">
         <v>0</v>
       </c>
+      <c r="AQ265">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
@@ -36999,6 +37437,9 @@
       <c r="AP266">
         <v>0</v>
       </c>
+      <c r="AQ266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
@@ -37122,6 +37563,9 @@
       <c r="AP267">
         <v>0</v>
       </c>
+      <c r="AQ267">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
@@ -37245,6 +37689,9 @@
       <c r="AP268">
         <v>0</v>
       </c>
+      <c r="AQ268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
@@ -37368,6 +37815,9 @@
       <c r="AP269">
         <v>0</v>
       </c>
+      <c r="AQ269">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -37491,6 +37941,9 @@
       <c r="AP270">
         <v>0</v>
       </c>
+      <c r="AQ270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -37614,6 +38067,9 @@
       <c r="AP271">
         <v>0</v>
       </c>
+      <c r="AQ271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
@@ -41606,6 +42062,9 @@
       <c r="AP302">
         <v>0</v>
       </c>
+      <c r="AQ302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
@@ -41731,6 +42190,9 @@
       <c r="AP303">
         <v>0</v>
       </c>
+      <c r="AQ303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
@@ -41856,6 +42318,9 @@
       <c r="AP304">
         <v>0</v>
       </c>
+      <c r="AQ304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
@@ -41981,6 +42446,9 @@
       <c r="AP305">
         <v>0</v>
       </c>
+      <c r="AQ305">
+        <v>0</v>
+      </c>
     </row>
     <row r="306" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
@@ -42106,6 +42574,9 @@
       <c r="AP306">
         <v>0</v>
       </c>
+      <c r="AQ306">
+        <v>0</v>
+      </c>
     </row>
     <row r="307" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
@@ -42231,6 +42702,9 @@
       <c r="AP307">
         <v>0</v>
       </c>
+      <c r="AQ307">
+        <v>0</v>
+      </c>
     </row>
     <row r="308" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
@@ -42356,6 +42830,9 @@
       <c r="AP308">
         <v>0</v>
       </c>
+      <c r="AQ308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
@@ -42481,6 +42958,9 @@
       <c r="AP309">
         <v>0</v>
       </c>
+      <c r="AQ309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
@@ -42606,6 +43086,9 @@
       <c r="AP310">
         <v>0</v>
       </c>
+      <c r="AQ310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
@@ -42731,6 +43214,9 @@
       <c r="AP311">
         <v>0</v>
       </c>
+      <c r="AQ311">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
@@ -42856,6 +43342,9 @@
       <c r="AP312">
         <v>0</v>
       </c>
+      <c r="AQ312">
+        <v>0</v>
+      </c>
     </row>
     <row r="313" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -42981,6 +43470,9 @@
       <c r="AP313">
         <v>0</v>
       </c>
+      <c r="AQ313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -43106,6 +43598,9 @@
       <c r="AP314">
         <v>0</v>
       </c>
+      <c r="AQ314">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -43231,6 +43726,9 @@
       <c r="AP315">
         <v>0</v>
       </c>
+      <c r="AQ315">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
@@ -43359,6 +43857,9 @@
       <c r="AP316">
         <v>0</v>
       </c>
+      <c r="AQ316">
+        <v>0</v>
+      </c>
     </row>
     <row r="317" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
@@ -45419,6 +45920,9 @@
       <c r="AP332">
         <v>0</v>
       </c>
+      <c r="AQ332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -45544,6 +46048,9 @@
       <c r="AP333">
         <v>0</v>
       </c>
+      <c r="AQ333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -45672,6 +46179,9 @@
       <c r="AP334" t="s">
         <v>308</v>
       </c>
+      <c r="AQ334" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="335" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -45800,6 +46310,9 @@
       <c r="AP335" t="s">
         <v>308</v>
       </c>
+      <c r="AQ335" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="336" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
@@ -45925,8 +46438,11 @@
       <c r="AP336">
         <v>0</v>
       </c>
+      <c r="AQ336">
+        <v>0</v>
+      </c>
     </row>
-    <row r="337" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>365</v>
       </c>
@@ -46053,8 +46569,11 @@
       <c r="AP337" t="s">
         <v>308</v>
       </c>
+      <c r="AQ337" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="338" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -46178,8 +46697,11 @@
       <c r="AP338">
         <v>0</v>
       </c>
+      <c r="AQ338">
+        <v>0</v>
+      </c>
     </row>
-    <row r="339" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>367</v>
       </c>
@@ -46303,8 +46825,11 @@
       <c r="AP339">
         <v>0</v>
       </c>
+      <c r="AQ339">
+        <v>0</v>
+      </c>
     </row>
-    <row r="340" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -46428,8 +46953,11 @@
       <c r="AP340">
         <v>0</v>
       </c>
+      <c r="AQ340">
+        <v>0</v>
+      </c>
     </row>
-    <row r="341" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>369</v>
       </c>
@@ -46553,8 +47081,11 @@
       <c r="AP341">
         <v>0</v>
       </c>
+      <c r="AQ341">
+        <v>0</v>
+      </c>
     </row>
-    <row r="342" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -46681,8 +47212,11 @@
       <c r="AP342" t="s">
         <v>308</v>
       </c>
+      <c r="AQ342" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="343" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>371</v>
       </c>
@@ -46809,8 +47343,11 @@
       <c r="AP343" t="s">
         <v>308</v>
       </c>
+      <c r="AQ343" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="344" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -46937,8 +47474,11 @@
       <c r="AP344">
         <v>0</v>
       </c>
+      <c r="AQ344">
+        <v>0</v>
+      </c>
     </row>
-    <row r="345" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>373</v>
       </c>
@@ -47062,8 +47602,11 @@
       <c r="AP345" t="s">
         <v>308</v>
       </c>
+      <c r="AQ345" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="346" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -47187,8 +47730,11 @@
       <c r="AP346">
         <v>0</v>
       </c>
+      <c r="AQ346">
+        <v>0</v>
+      </c>
     </row>
-    <row r="347" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>375</v>
       </c>
@@ -47312,8 +47858,11 @@
       <c r="AP347">
         <v>6</v>
       </c>
+      <c r="AQ347">
+        <v>6</v>
+      </c>
     </row>
-    <row r="348" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -47440,8 +47989,11 @@
       <c r="AP348">
         <v>6</v>
       </c>
+      <c r="AQ348">
+        <v>6</v>
+      </c>
     </row>
-    <row r="349" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>377</v>
       </c>
@@ -47565,8 +48117,11 @@
       <c r="AP349">
         <v>0</v>
       </c>
+      <c r="AQ349">
+        <v>0</v>
+      </c>
     </row>
-    <row r="350" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -47690,8 +48245,11 @@
       <c r="AP350" t="s">
         <v>308</v>
       </c>
+      <c r="AQ350" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="351" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -47815,8 +48373,11 @@
       <c r="AP351">
         <v>0</v>
       </c>
+      <c r="AQ351">
+        <v>0</v>
+      </c>
     </row>
-    <row r="352" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>380</v>
       </c>
@@ -47943,8 +48504,11 @@
       <c r="AP352">
         <v>6</v>
       </c>
+      <c r="AQ352">
+        <v>0</v>
+      </c>
     </row>
-    <row r="353" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -48068,8 +48632,11 @@
       <c r="AP353">
         <v>6</v>
       </c>
+      <c r="AQ353">
+        <v>0</v>
+      </c>
     </row>
-    <row r="354" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>382</v>
       </c>
@@ -48193,8 +48760,11 @@
       <c r="AP354">
         <v>0</v>
       </c>
+      <c r="AQ354">
+        <v>0</v>
+      </c>
     </row>
-    <row r="355" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -48321,8 +48891,11 @@
       <c r="AP355" t="s">
         <v>308</v>
       </c>
+      <c r="AQ355" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="356" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>384</v>
       </c>
@@ -48446,8 +49019,11 @@
       <c r="AP356">
         <v>0</v>
       </c>
+      <c r="AQ356">
+        <v>0</v>
+      </c>
     </row>
-    <row r="357" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -48571,8 +49147,11 @@
       <c r="AP357">
         <v>0</v>
       </c>
+      <c r="AQ357">
+        <v>0</v>
+      </c>
     </row>
-    <row r="358" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>386</v>
       </c>
@@ -48696,8 +49275,11 @@
       <c r="AP358">
         <v>0</v>
       </c>
+      <c r="AQ358">
+        <v>0</v>
+      </c>
     </row>
-    <row r="359" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -48824,8 +49406,11 @@
       <c r="AP359" t="s">
         <v>308</v>
       </c>
+      <c r="AQ359" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="360" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>388</v>
       </c>
@@ -48949,8 +49534,11 @@
       <c r="AP360">
         <v>0</v>
       </c>
+      <c r="AQ360">
+        <v>0</v>
+      </c>
     </row>
-    <row r="361" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -49074,8 +49662,14 @@
       <c r="AO361">
         <v>5</v>
       </c>
+      <c r="AP361">
+        <v>6</v>
+      </c>
+      <c r="AQ361">
+        <v>6</v>
+      </c>
     </row>
-    <row r="362" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>390</v>
       </c>
@@ -49199,8 +49793,11 @@
       <c r="AP362">
         <v>0</v>
       </c>
+      <c r="AQ362">
+        <v>0</v>
+      </c>
     </row>
-    <row r="363" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -49324,8 +49921,11 @@
       <c r="AP363">
         <v>0</v>
       </c>
+      <c r="AQ363">
+        <v>0</v>
+      </c>
     </row>
-    <row r="364" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -49449,8 +50049,11 @@
       <c r="AP364">
         <v>0</v>
       </c>
+      <c r="AQ364">
+        <v>0</v>
+      </c>
     </row>
-    <row r="365" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -49574,8 +50177,11 @@
       <c r="AP365">
         <v>0</v>
       </c>
+      <c r="AQ365">
+        <v>0</v>
+      </c>
     </row>
-    <row r="366" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -49699,8 +50305,11 @@
       <c r="AP366">
         <v>0</v>
       </c>
+      <c r="AQ366">
+        <v>0</v>
+      </c>
     </row>
-    <row r="367" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -49824,8 +50433,11 @@
       <c r="AP367">
         <v>0</v>
       </c>
+      <c r="AQ367">
+        <v>0</v>
+      </c>
     </row>
-    <row r="368" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>398</v>
       </c>
@@ -49949,8 +50561,11 @@
       <c r="AP368">
         <v>0</v>
       </c>
+      <c r="AQ368">
+        <v>0</v>
+      </c>
     </row>
-    <row r="369" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -50077,8 +50692,11 @@
       <c r="AP369">
         <v>0</v>
       </c>
+      <c r="AQ369">
+        <v>0</v>
+      </c>
     </row>
-    <row r="370" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -50202,8 +50820,11 @@
       <c r="AP370">
         <v>0</v>
       </c>
+      <c r="AQ370">
+        <v>0</v>
+      </c>
     </row>
-    <row r="371" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -50327,8 +50948,11 @@
       <c r="AP371">
         <v>0</v>
       </c>
+      <c r="AQ371">
+        <v>0</v>
+      </c>
     </row>
-    <row r="372" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -50452,8 +51076,11 @@
       <c r="AP372">
         <v>0</v>
       </c>
+      <c r="AQ372">
+        <v>0</v>
+      </c>
     </row>
-    <row r="373" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -50580,8 +51207,11 @@
       <c r="AP373">
         <v>0</v>
       </c>
+      <c r="AQ373">
+        <v>0</v>
+      </c>
     </row>
-    <row r="374" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -50705,8 +51335,11 @@
       <c r="AP374">
         <v>0</v>
       </c>
+      <c r="AQ374">
+        <v>0</v>
+      </c>
     </row>
-    <row r="375" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -50830,8 +51463,11 @@
       <c r="AP375">
         <v>0</v>
       </c>
+      <c r="AQ375">
+        <v>0</v>
+      </c>
     </row>
-    <row r="376" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -50955,8 +51591,11 @@
       <c r="AP376">
         <v>0</v>
       </c>
+      <c r="AQ376">
+        <v>0</v>
+      </c>
     </row>
-    <row r="377" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -51080,8 +51719,11 @@
       <c r="AP377">
         <v>0</v>
       </c>
+      <c r="AQ377">
+        <v>0</v>
+      </c>
     </row>
-    <row r="378" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -51205,8 +51847,11 @@
       <c r="AP378">
         <v>0</v>
       </c>
+      <c r="AQ378">
+        <v>0</v>
+      </c>
     </row>
-    <row r="379" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -51330,8 +51975,11 @@
       <c r="AP379">
         <v>0</v>
       </c>
+      <c r="AQ379">
+        <v>0</v>
+      </c>
     </row>
-    <row r="380" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -51458,8 +52106,11 @@
       <c r="AP380">
         <v>0</v>
       </c>
+      <c r="AQ380">
+        <v>0</v>
+      </c>
     </row>
-    <row r="381" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -51583,8 +52234,11 @@
       <c r="AP381">
         <v>0</v>
       </c>
+      <c r="AQ381">
+        <v>0</v>
+      </c>
     </row>
-    <row r="382" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>413</v>
       </c>
@@ -51708,8 +52362,11 @@
       <c r="AP382">
         <v>0</v>
       </c>
+      <c r="AQ382">
+        <v>0</v>
+      </c>
     </row>
-    <row r="383" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -51833,8 +52490,11 @@
       <c r="AP383">
         <v>0</v>
       </c>
+      <c r="AQ383">
+        <v>0</v>
+      </c>
     </row>
-    <row r="384" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>415</v>
       </c>
@@ -51958,8 +52618,11 @@
       <c r="AP384">
         <v>0</v>
       </c>
+      <c r="AQ384">
+        <v>0</v>
+      </c>
     </row>
-    <row r="385" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -52083,8 +52746,11 @@
       <c r="AP385">
         <v>0</v>
       </c>
+      <c r="AQ385">
+        <v>0</v>
+      </c>
     </row>
-    <row r="386" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>417</v>
       </c>
@@ -52211,8 +52877,11 @@
       <c r="AP386">
         <v>0</v>
       </c>
+      <c r="AQ386">
+        <v>0</v>
+      </c>
     </row>
-    <row r="387" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -52336,8 +53005,11 @@
       <c r="AP387" t="s">
         <v>308</v>
       </c>
+      <c r="AQ387" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="388" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>419</v>
       </c>
@@ -52461,8 +53133,11 @@
       <c r="AP388">
         <v>0</v>
       </c>
+      <c r="AQ388">
+        <v>0</v>
+      </c>
     </row>
-    <row r="389" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -52586,8 +53261,11 @@
       <c r="AP389">
         <v>0</v>
       </c>
+      <c r="AQ389">
+        <v>0</v>
+      </c>
     </row>
-    <row r="390" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>421</v>
       </c>
@@ -52711,8 +53389,11 @@
       <c r="AP390">
         <v>0</v>
       </c>
+      <c r="AQ390">
+        <v>0</v>
+      </c>
     </row>
-    <row r="391" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -52839,8 +53520,11 @@
       <c r="AP391" t="s">
         <v>308</v>
       </c>
+      <c r="AQ391" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="392" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>423</v>
       </c>
@@ -52967,8 +53651,11 @@
       <c r="AP392">
         <v>0</v>
       </c>
+      <c r="AQ392">
+        <v>0</v>
+      </c>
     </row>
-    <row r="393" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>424</v>
       </c>
@@ -53092,8 +53779,11 @@
       <c r="AP393">
         <v>0</v>
       </c>
+      <c r="AQ393">
+        <v>0</v>
+      </c>
     </row>
-    <row r="394" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>425</v>
       </c>
@@ -53217,8 +53907,11 @@
       <c r="AP394">
         <v>0</v>
       </c>
+      <c r="AQ394">
+        <v>0</v>
+      </c>
     </row>
-    <row r="395" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>426</v>
       </c>
@@ -53342,8 +54035,11 @@
       <c r="AP395">
         <v>0</v>
       </c>
+      <c r="AQ395">
+        <v>0</v>
+      </c>
     </row>
-    <row r="396" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>427</v>
       </c>
@@ -53467,8 +54163,11 @@
       <c r="AP396">
         <v>0</v>
       </c>
+      <c r="AQ396">
+        <v>0</v>
+      </c>
     </row>
-    <row r="397" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>428</v>
       </c>
@@ -53592,8 +54291,11 @@
       <c r="AP397">
         <v>0</v>
       </c>
+      <c r="AQ397">
+        <v>0</v>
+      </c>
     </row>
-    <row r="398" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>429</v>
       </c>
@@ -53717,8 +54419,11 @@
       <c r="AP398">
         <v>0</v>
       </c>
+      <c r="AQ398">
+        <v>0</v>
+      </c>
     </row>
-    <row r="399" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>430</v>
       </c>
@@ -53845,8 +54550,11 @@
       <c r="AP399">
         <v>0</v>
       </c>
+      <c r="AQ399">
+        <v>0</v>
+      </c>
     </row>
-    <row r="400" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>431</v>
       </c>
@@ -53970,8 +54678,11 @@
       <c r="AP400">
         <v>0</v>
       </c>
+      <c r="AQ400">
+        <v>0</v>
+      </c>
     </row>
-    <row r="401" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>432</v>
       </c>
@@ -54095,8 +54806,11 @@
       <c r="AP401">
         <v>0</v>
       </c>
+      <c r="AQ401">
+        <v>0</v>
+      </c>
     </row>
-    <row r="402" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>433</v>
       </c>
@@ -54223,8 +54937,11 @@
       <c r="AP402" t="s">
         <v>308</v>
       </c>
+      <c r="AQ402" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="403" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>434</v>
       </c>
@@ -54348,8 +55065,11 @@
       <c r="AP403">
         <v>0</v>
       </c>
+      <c r="AQ403">
+        <v>0</v>
+      </c>
     </row>
-    <row r="404" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>435</v>
       </c>
@@ -54476,8 +55196,11 @@
       <c r="AP404">
         <v>0</v>
       </c>
+      <c r="AQ404">
+        <v>0</v>
+      </c>
     </row>
-    <row r="405" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>437</v>
       </c>
@@ -54601,8 +55324,11 @@
       <c r="AP405">
         <v>0</v>
       </c>
+      <c r="AQ405">
+        <v>0</v>
+      </c>
     </row>
-    <row r="406" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>438</v>
       </c>
@@ -54726,8 +55452,11 @@
       <c r="AP406">
         <v>0</v>
       </c>
+      <c r="AQ406">
+        <v>0</v>
+      </c>
     </row>
-    <row r="407" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>439</v>
       </c>
@@ -54851,8 +55580,11 @@
       <c r="AP407">
         <v>0</v>
       </c>
+      <c r="AQ407">
+        <v>0</v>
+      </c>
     </row>
-    <row r="408" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>440</v>
       </c>
@@ -54976,8 +55708,11 @@
       <c r="AP408">
         <v>0</v>
       </c>
+      <c r="AQ408">
+        <v>0</v>
+      </c>
     </row>
-    <row r="409" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>441</v>
       </c>
@@ -55101,8 +55836,11 @@
       <c r="AP409">
         <v>0</v>
       </c>
+      <c r="AQ409">
+        <v>0</v>
+      </c>
     </row>
-    <row r="410" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>442</v>
       </c>
@@ -55226,8 +55964,11 @@
       <c r="AP410">
         <v>0</v>
       </c>
+      <c r="AQ410">
+        <v>0</v>
+      </c>
     </row>
-    <row r="411" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>443</v>
       </c>
@@ -55351,8 +56092,11 @@
       <c r="AP411">
         <v>0</v>
       </c>
+      <c r="AQ411">
+        <v>0</v>
+      </c>
     </row>
-    <row r="412" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>444</v>
       </c>
@@ -55476,8 +56220,11 @@
       <c r="AP412">
         <v>0</v>
       </c>
+      <c r="AQ412">
+        <v>0</v>
+      </c>
     </row>
-    <row r="413" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>445</v>
       </c>
@@ -55601,8 +56348,11 @@
       <c r="AP413">
         <v>0</v>
       </c>
+      <c r="AQ413">
+        <v>0</v>
+      </c>
     </row>
-    <row r="414" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>446</v>
       </c>
@@ -55726,8 +56476,11 @@
       <c r="AP414">
         <v>0</v>
       </c>
+      <c r="AQ414">
+        <v>0</v>
+      </c>
     </row>
-    <row r="415" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>447</v>
       </c>
@@ -55851,8 +56604,11 @@
       <c r="AP415">
         <v>0</v>
       </c>
+      <c r="AQ415">
+        <v>0</v>
+      </c>
     </row>
-    <row r="416" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>448</v>
       </c>
@@ -55976,8 +56732,11 @@
       <c r="AP416" t="s">
         <v>308</v>
       </c>
+      <c r="AQ416" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="417" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>449</v>
       </c>
@@ -56104,8 +56863,11 @@
       <c r="AP417" t="s">
         <v>308</v>
       </c>
+      <c r="AQ417" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="418" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>450</v>
       </c>
@@ -56229,8 +56991,11 @@
       <c r="AP418">
         <v>0</v>
       </c>
+      <c r="AQ418">
+        <v>0</v>
+      </c>
     </row>
-    <row r="419" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>451</v>
       </c>
@@ -56354,8 +57119,11 @@
       <c r="AP419">
         <v>0</v>
       </c>
+      <c r="AQ419">
+        <v>0</v>
+      </c>
     </row>
-    <row r="420" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>452</v>
       </c>
@@ -56479,8 +57247,11 @@
       <c r="AP420">
         <v>0</v>
       </c>
+      <c r="AQ420">
+        <v>0</v>
+      </c>
     </row>
-    <row r="421" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>453</v>
       </c>
@@ -56607,8 +57378,11 @@
       <c r="AP421" t="s">
         <v>308</v>
       </c>
+      <c r="AQ421" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="422" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>454</v>
       </c>
@@ -56732,8 +57506,11 @@
       <c r="AP422">
         <v>0</v>
       </c>
+      <c r="AQ422">
+        <v>0</v>
+      </c>
     </row>
-    <row r="423" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>455</v>
       </c>
@@ -56860,8 +57637,11 @@
       <c r="AP423" t="s">
         <v>308</v>
       </c>
+      <c r="AQ423" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="424" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>457</v>
       </c>
@@ -56985,8 +57765,11 @@
       <c r="AP424">
         <v>0</v>
       </c>
+      <c r="AQ424">
+        <v>0</v>
+      </c>
     </row>
-    <row r="425" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>458</v>
       </c>
@@ -57110,8 +57893,11 @@
       <c r="AP425">
         <v>0</v>
       </c>
+      <c r="AQ425">
+        <v>0</v>
+      </c>
     </row>
-    <row r="426" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>459</v>
       </c>
@@ -57235,8 +58021,11 @@
       <c r="AP426" t="s">
         <v>308</v>
       </c>
+      <c r="AQ426" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="427" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>460</v>
       </c>
@@ -57360,8 +58149,11 @@
       <c r="AP427">
         <v>0</v>
       </c>
+      <c r="AQ427">
+        <v>0</v>
+      </c>
     </row>
-    <row r="428" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>461</v>
       </c>
@@ -57485,8 +58277,11 @@
       <c r="AP428">
         <v>0</v>
       </c>
+      <c r="AQ428">
+        <v>0</v>
+      </c>
     </row>
-    <row r="429" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>462</v>
       </c>
@@ -57613,8 +58408,11 @@
       <c r="AP429">
         <v>0</v>
       </c>
+      <c r="AQ429">
+        <v>0</v>
+      </c>
     </row>
-    <row r="430" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>464</v>
       </c>
@@ -57738,8 +58536,11 @@
       <c r="AP430">
         <v>0</v>
       </c>
+      <c r="AQ430">
+        <v>0</v>
+      </c>
     </row>
-    <row r="431" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>465</v>
       </c>
@@ -57866,8 +58667,11 @@
       <c r="AP431" t="s">
         <v>308</v>
       </c>
+      <c r="AQ431" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="432" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>466</v>
       </c>
@@ -57991,8 +58795,11 @@
       <c r="AP432">
         <v>0</v>
       </c>
+      <c r="AQ432">
+        <v>0</v>
+      </c>
     </row>
-    <row r="433" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>467</v>
       </c>
@@ -58116,8 +58923,11 @@
       <c r="AP433">
         <v>0</v>
       </c>
+      <c r="AQ433">
+        <v>0</v>
+      </c>
     </row>
-    <row r="434" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>468</v>
       </c>
@@ -58241,8 +59051,11 @@
       <c r="AP434">
         <v>0</v>
       </c>
+      <c r="AQ434">
+        <v>0</v>
+      </c>
     </row>
-    <row r="435" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>469</v>
       </c>
@@ -58366,8 +59179,11 @@
       <c r="AP435">
         <v>0</v>
       </c>
+      <c r="AQ435">
+        <v>0</v>
+      </c>
     </row>
-    <row r="436" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>470</v>
       </c>
@@ -58491,8 +59307,11 @@
       <c r="AP436">
         <v>0</v>
       </c>
+      <c r="AQ436">
+        <v>0</v>
+      </c>
     </row>
-    <row r="437" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>471</v>
       </c>
@@ -58616,8 +59435,11 @@
       <c r="AP437">
         <v>0</v>
       </c>
+      <c r="AQ437">
+        <v>0</v>
+      </c>
     </row>
-    <row r="438" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>472</v>
       </c>
@@ -58738,8 +59560,11 @@
       <c r="AP438">
         <v>0</v>
       </c>
+      <c r="AQ438">
+        <v>0</v>
+      </c>
     </row>
-    <row r="439" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>473</v>
       </c>
@@ -58863,8 +59688,11 @@
       <c r="AP439">
         <v>0</v>
       </c>
+      <c r="AQ439">
+        <v>0</v>
+      </c>
     </row>
-    <row r="440" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>474</v>
       </c>
@@ -58988,8 +59816,11 @@
       <c r="AP440">
         <v>0</v>
       </c>
+      <c r="AQ440">
+        <v>0</v>
+      </c>
     </row>
-    <row r="441" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>475</v>
       </c>
@@ -59113,8 +59944,11 @@
       <c r="AP441">
         <v>0</v>
       </c>
+      <c r="AQ441">
+        <v>0</v>
+      </c>
     </row>
-    <row r="442" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>476</v>
       </c>
@@ -59241,8 +60075,11 @@
       <c r="AP442" t="s">
         <v>308</v>
       </c>
+      <c r="AQ442" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="443" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>478</v>
       </c>
@@ -59366,8 +60203,11 @@
       <c r="AP443">
         <v>0</v>
       </c>
+      <c r="AQ443">
+        <v>0</v>
+      </c>
     </row>
-    <row r="444" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>479</v>
       </c>
@@ -59494,8 +60334,11 @@
       <c r="AP444" t="s">
         <v>308</v>
       </c>
+      <c r="AQ444" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="445" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>480</v>
       </c>
@@ -59619,8 +60462,11 @@
       <c r="AP445">
         <v>0</v>
       </c>
+      <c r="AQ445">
+        <v>0</v>
+      </c>
     </row>
-    <row r="446" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>481</v>
       </c>
@@ -59744,8 +60590,11 @@
       <c r="AP446">
         <v>0</v>
       </c>
+      <c r="AQ446">
+        <v>0</v>
+      </c>
     </row>
-    <row r="447" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>482</v>
       </c>
@@ -59869,8 +60718,11 @@
       <c r="AP447">
         <v>0</v>
       </c>
+      <c r="AQ447">
+        <v>0</v>
+      </c>
     </row>
-    <row r="448" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>483</v>
       </c>
@@ -59994,8 +60846,11 @@
       <c r="AP448">
         <v>0</v>
       </c>
+      <c r="AQ448">
+        <v>0</v>
+      </c>
     </row>
-    <row r="449" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>484</v>
       </c>
@@ -60119,8 +60974,11 @@
       <c r="AP449">
         <v>0</v>
       </c>
+      <c r="AQ449">
+        <v>0</v>
+      </c>
     </row>
-    <row r="450" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>485</v>
       </c>
@@ -60244,8 +61102,11 @@
       <c r="AP450">
         <v>0</v>
       </c>
+      <c r="AQ450">
+        <v>0</v>
+      </c>
     </row>
-    <row r="451" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>486</v>
       </c>
@@ -60372,8 +61233,11 @@
       <c r="AP451" t="s">
         <v>308</v>
       </c>
+      <c r="AQ451" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="452" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>487</v>
       </c>
@@ -60497,8 +61361,11 @@
       <c r="AP452">
         <v>0</v>
       </c>
+      <c r="AQ452">
+        <v>0</v>
+      </c>
     </row>
-    <row r="453" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>490</v>
       </c>
@@ -60622,8 +61489,11 @@
       <c r="AP453">
         <v>0</v>
       </c>
+      <c r="AQ453">
+        <v>0</v>
+      </c>
     </row>
-    <row r="454" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>491</v>
       </c>
@@ -60747,8 +61617,11 @@
       <c r="AP454">
         <v>0</v>
       </c>
+      <c r="AQ454">
+        <v>0</v>
+      </c>
     </row>
-    <row r="455" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>492</v>
       </c>
@@ -60872,8 +61745,11 @@
       <c r="AP455">
         <v>0</v>
       </c>
+      <c r="AQ455">
+        <v>0</v>
+      </c>
     </row>
-    <row r="456" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>493</v>
       </c>
@@ -60997,8 +61873,11 @@
       <c r="AP456">
         <v>0</v>
       </c>
+      <c r="AQ456">
+        <v>0</v>
+      </c>
     </row>
-    <row r="457" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>494</v>
       </c>
@@ -61125,8 +62004,11 @@
       <c r="AP457" s="2">
         <v>0</v>
       </c>
+      <c r="AQ457" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="458" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>495</v>
       </c>
@@ -61250,8 +62132,11 @@
       <c r="AP458" s="2">
         <v>0</v>
       </c>
+      <c r="AQ458" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="459" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>496</v>
       </c>
@@ -61375,8 +62260,11 @@
       <c r="AP459" s="2">
         <v>0</v>
       </c>
+      <c r="AQ459" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="460" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>497</v>
       </c>
@@ -61500,8 +62388,11 @@
       <c r="AP460" s="2">
         <v>0</v>
       </c>
+      <c r="AQ460" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="461" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>498</v>
       </c>
@@ -61625,8 +62516,11 @@
       <c r="AP461" s="2">
         <v>0</v>
       </c>
+      <c r="AQ461" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="462" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>499</v>
       </c>
@@ -61750,8 +62644,11 @@
       <c r="AP462" s="2">
         <v>0</v>
       </c>
+      <c r="AQ462" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="463" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>500</v>
       </c>
@@ -61875,8 +62772,11 @@
       <c r="AP463" s="2">
         <v>0</v>
       </c>
+      <c r="AQ463" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="464" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>501</v>
       </c>
@@ -62000,8 +62900,11 @@
       <c r="AP464" s="2">
         <v>0</v>
       </c>
+      <c r="AQ464" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="465" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>502</v>
       </c>
@@ -62125,8 +63028,11 @@
       <c r="AP465" s="2">
         <v>0</v>
       </c>
+      <c r="AQ465" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="466" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>503</v>
       </c>
@@ -62250,8 +63156,11 @@
       <c r="AP466" s="2">
         <v>0</v>
       </c>
+      <c r="AQ466" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="467" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>504</v>
       </c>
@@ -62375,8 +63284,11 @@
       <c r="AP467" s="2">
         <v>0</v>
       </c>
+      <c r="AQ467" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="468" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>505</v>
       </c>
@@ -62503,8 +63415,11 @@
       <c r="AP468" s="2">
         <v>0</v>
       </c>
+      <c r="AQ468" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="469" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>506</v>
       </c>
@@ -62631,8 +63546,11 @@
       <c r="AP469" s="2">
         <v>0</v>
       </c>
+      <c r="AQ469" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="470" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>507</v>
       </c>
@@ -62756,8 +63674,11 @@
       <c r="AP470" s="2">
         <v>0</v>
       </c>
+      <c r="AQ470" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="471" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>508</v>
       </c>
@@ -62881,8 +63802,11 @@
       <c r="AP471" s="2">
         <v>0</v>
       </c>
+      <c r="AQ471" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="472" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>509</v>
       </c>
@@ -63006,8 +63930,11 @@
       <c r="AP472" s="2">
         <v>0</v>
       </c>
+      <c r="AQ472" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="473" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>510</v>
       </c>
@@ -63131,8 +64058,11 @@
       <c r="AP473" s="2">
         <v>0</v>
       </c>
+      <c r="AQ473" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="474" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>511</v>
       </c>
@@ -63256,8 +64186,11 @@
       <c r="AP474" s="2">
         <v>0</v>
       </c>
+      <c r="AQ474" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="475" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>512</v>
       </c>
@@ -63384,8 +64317,11 @@
       <c r="AP475" s="2">
         <v>0</v>
       </c>
+      <c r="AQ475" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="476" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>513</v>
       </c>
@@ -63509,8 +64445,11 @@
       <c r="AP476" s="2">
         <v>0</v>
       </c>
+      <c r="AQ476" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="477" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>514</v>
       </c>
@@ -63634,8 +64573,11 @@
       <c r="AP477" s="2">
         <v>0</v>
       </c>
+      <c r="AQ477" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="478" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>515</v>
       </c>
@@ -63759,8 +64701,11 @@
       <c r="AP478" s="2">
         <v>0</v>
       </c>
+      <c r="AQ478" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="479" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>516</v>
       </c>
@@ -63884,8 +64829,11 @@
       <c r="AP479" s="2">
         <v>0</v>
       </c>
+      <c r="AQ479" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="480" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>517</v>
       </c>
@@ -64009,8 +64957,11 @@
       <c r="AP480" s="2">
         <v>0</v>
       </c>
+      <c r="AQ480" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="481" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>518</v>
       </c>
@@ -64134,8 +65085,11 @@
       <c r="AP481" s="2">
         <v>0</v>
       </c>
+      <c r="AQ481" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="482" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>519</v>
       </c>
@@ -64259,8 +65213,11 @@
       <c r="AP482">
         <v>0</v>
       </c>
+      <c r="AQ482">
+        <v>0</v>
+      </c>
     </row>
-    <row r="483" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>520</v>
       </c>
@@ -64384,8 +65341,11 @@
       <c r="AP483">
         <v>0</v>
       </c>
+      <c r="AQ483">
+        <v>0</v>
+      </c>
     </row>
-    <row r="484" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>521</v>
       </c>
@@ -64509,8 +65469,11 @@
       <c r="AP484">
         <v>0</v>
       </c>
+      <c r="AQ484">
+        <v>0</v>
+      </c>
     </row>
-    <row r="485" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>522</v>
       </c>
@@ -64634,8 +65597,11 @@
       <c r="AP485">
         <v>0</v>
       </c>
+      <c r="AQ485">
+        <v>0</v>
+      </c>
     </row>
-    <row r="486" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>523</v>
       </c>
@@ -64759,8 +65725,11 @@
       <c r="AP486">
         <v>0</v>
       </c>
+      <c r="AQ486">
+        <v>0</v>
+      </c>
     </row>
-    <row r="487" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>524</v>
       </c>
@@ -64884,8 +65853,11 @@
       <c r="AP487">
         <v>0</v>
       </c>
+      <c r="AQ487">
+        <v>0</v>
+      </c>
     </row>
-    <row r="488" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>525</v>
       </c>
@@ -65012,8 +65984,11 @@
       <c r="AP488">
         <v>0</v>
       </c>
+      <c r="AQ488">
+        <v>0</v>
+      </c>
     </row>
-    <row r="489" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>526</v>
       </c>
@@ -65137,8 +66112,11 @@
       <c r="AP489">
         <v>0</v>
       </c>
+      <c r="AQ489">
+        <v>0</v>
+      </c>
     </row>
-    <row r="490" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>527</v>
       </c>
@@ -65262,8 +66240,11 @@
       <c r="AP490">
         <v>0</v>
       </c>
+      <c r="AQ490">
+        <v>0</v>
+      </c>
     </row>
-    <row r="491" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>528</v>
       </c>
@@ -65387,8 +66368,11 @@
       <c r="AP491">
         <v>0</v>
       </c>
+      <c r="AQ491">
+        <v>0</v>
+      </c>
     </row>
-    <row r="492" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>529</v>
       </c>
@@ -65512,8 +66496,11 @@
       <c r="AP492">
         <v>0</v>
       </c>
+      <c r="AQ492">
+        <v>0</v>
+      </c>
     </row>
-    <row r="493" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>530</v>
       </c>
@@ -65637,8 +66624,11 @@
       <c r="AP493">
         <v>0</v>
       </c>
+      <c r="AQ493">
+        <v>0</v>
+      </c>
     </row>
-    <row r="494" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>531</v>
       </c>
@@ -65762,8 +66752,11 @@
       <c r="AP494">
         <v>0</v>
       </c>
+      <c r="AQ494">
+        <v>0</v>
+      </c>
     </row>
-    <row r="495" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>532</v>
       </c>
@@ -65890,8 +66883,11 @@
       <c r="AP495" t="s">
         <v>308</v>
       </c>
+      <c r="AQ495" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="496" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>533</v>
       </c>
@@ -66015,8 +67011,11 @@
       <c r="AP496">
         <v>0</v>
       </c>
+      <c r="AQ496">
+        <v>0</v>
+      </c>
     </row>
-    <row r="497" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>534</v>
       </c>
@@ -66140,8 +67139,11 @@
       <c r="AP497" s="2">
         <v>0</v>
       </c>
+      <c r="AQ497" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="498" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>535</v>
       </c>
@@ -66265,8 +67267,11 @@
       <c r="AP498" s="2">
         <v>0</v>
       </c>
+      <c r="AQ498" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="499" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>536</v>
       </c>
@@ -66390,8 +67395,11 @@
       <c r="AP499" s="2">
         <v>0</v>
       </c>
+      <c r="AQ499" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="500" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>537</v>
       </c>
@@ -66515,8 +67523,11 @@
       <c r="AP500" s="2">
         <v>0</v>
       </c>
+      <c r="AQ500" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="501" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>538</v>
       </c>
@@ -66640,8 +67651,11 @@
       <c r="AP501" s="2">
         <v>0</v>
       </c>
+      <c r="AQ501" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="502" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>539</v>
       </c>
@@ -66765,8 +67779,11 @@
       <c r="AP502" s="2">
         <v>0</v>
       </c>
+      <c r="AQ502" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="503" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>540</v>
       </c>
@@ -66890,8 +67907,11 @@
       <c r="AP503" s="2">
         <v>0</v>
       </c>
+      <c r="AQ503" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="504" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>541</v>
       </c>
@@ -67015,8 +68035,11 @@
       <c r="AP504" s="2">
         <v>0</v>
       </c>
+      <c r="AQ504" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="505" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>542</v>
       </c>
@@ -67140,8 +68163,11 @@
       <c r="AP505" s="2">
         <v>0</v>
       </c>
+      <c r="AQ505" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="506" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>543</v>
       </c>
@@ -67265,8 +68291,11 @@
       <c r="AP506" s="2">
         <v>0</v>
       </c>
+      <c r="AQ506" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="507" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>544</v>
       </c>
@@ -67390,8 +68419,11 @@
       <c r="AP507" s="2">
         <v>0</v>
       </c>
+      <c r="AQ507" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="508" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>545</v>
       </c>
@@ -67515,8 +68547,11 @@
       <c r="AP508" s="2">
         <v>0</v>
       </c>
+      <c r="AQ508" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="509" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>546</v>
       </c>
@@ -67640,8 +68675,11 @@
       <c r="AP509" s="2">
         <v>0</v>
       </c>
+      <c r="AQ509" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="510" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>547</v>
       </c>
@@ -67765,8 +68803,11 @@
       <c r="AP510" s="2">
         <v>0</v>
       </c>
+      <c r="AQ510" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="511" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>548</v>
       </c>
@@ -67890,8 +68931,11 @@
       <c r="AP511" s="2">
         <v>0</v>
       </c>
+      <c r="AQ511" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="512" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>549</v>
       </c>
@@ -68018,8 +69062,11 @@
       <c r="AP512">
         <v>0</v>
       </c>
+      <c r="AQ512">
+        <v>0</v>
+      </c>
     </row>
-    <row r="513" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>550</v>
       </c>
@@ -68143,8 +69190,11 @@
       <c r="AP513">
         <v>0</v>
       </c>
+      <c r="AQ513">
+        <v>0</v>
+      </c>
     </row>
-    <row r="514" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>551</v>
       </c>
@@ -68268,8 +69318,11 @@
       <c r="AP514">
         <v>0</v>
       </c>
+      <c r="AQ514">
+        <v>0</v>
+      </c>
     </row>
-    <row r="515" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>552</v>
       </c>
@@ -68393,8 +69446,11 @@
       <c r="AP515">
         <v>0</v>
       </c>
+      <c r="AQ515">
+        <v>0</v>
+      </c>
     </row>
-    <row r="516" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>553</v>
       </c>
@@ -68518,8 +69574,11 @@
       <c r="AP516">
         <v>0</v>
       </c>
+      <c r="AQ516">
+        <v>0</v>
+      </c>
     </row>
-    <row r="517" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>554</v>
       </c>
@@ -68646,8 +69705,11 @@
       <c r="AP517" t="s">
         <v>308</v>
       </c>
+      <c r="AQ517" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="518" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>555</v>
       </c>
@@ -68774,8 +69836,11 @@
       <c r="AP518" t="s">
         <v>308</v>
       </c>
+      <c r="AQ518" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="519" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>557</v>
       </c>
@@ -68899,8 +69964,11 @@
       <c r="AP519">
         <v>0</v>
       </c>
+      <c r="AQ519">
+        <v>0</v>
+      </c>
     </row>
-    <row r="520" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>558</v>
       </c>
@@ -69024,8 +70092,11 @@
       <c r="AP520">
         <v>0</v>
       </c>
+      <c r="AQ520">
+        <v>0</v>
+      </c>
     </row>
-    <row r="521" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>559</v>
       </c>
@@ -69149,8 +70220,11 @@
       <c r="AP521">
         <v>0</v>
       </c>
+      <c r="AQ521">
+        <v>0</v>
+      </c>
     </row>
-    <row r="522" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>560</v>
       </c>
@@ -69274,8 +70348,11 @@
       <c r="AP522">
         <v>0</v>
       </c>
+      <c r="AQ522">
+        <v>0</v>
+      </c>
     </row>
-    <row r="523" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>561</v>
       </c>
@@ -69399,8 +70476,11 @@
       <c r="AP523">
         <v>0</v>
       </c>
+      <c r="AQ523">
+        <v>0</v>
+      </c>
     </row>
-    <row r="524" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>562</v>
       </c>
@@ -69524,8 +70604,11 @@
       <c r="AP524">
         <v>0</v>
       </c>
+      <c r="AQ524">
+        <v>0</v>
+      </c>
     </row>
-    <row r="525" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>563</v>
       </c>
@@ -69649,8 +70732,11 @@
       <c r="AP525">
         <v>0</v>
       </c>
+      <c r="AQ525">
+        <v>0</v>
+      </c>
     </row>
-    <row r="526" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>564</v>
       </c>
@@ -69774,8 +70860,11 @@
       <c r="AP526">
         <v>0</v>
       </c>
+      <c r="AQ526">
+        <v>0</v>
+      </c>
     </row>
-    <row r="527" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>565</v>
       </c>
@@ -69899,8 +70988,11 @@
       <c r="AP527">
         <v>0</v>
       </c>
+      <c r="AQ527">
+        <v>0</v>
+      </c>
     </row>
-    <row r="528" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>566</v>
       </c>
@@ -70027,8 +71119,11 @@
       <c r="AP528">
         <v>0</v>
       </c>
+      <c r="AQ528">
+        <v>0</v>
+      </c>
     </row>
-    <row r="529" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>567</v>
       </c>
@@ -70152,8 +71247,11 @@
       <c r="AP529">
         <v>0</v>
       </c>
+      <c r="AQ529">
+        <v>0</v>
+      </c>
     </row>
-    <row r="530" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>568</v>
       </c>
@@ -70277,8 +71375,11 @@
       <c r="AP530">
         <v>0</v>
       </c>
+      <c r="AQ530">
+        <v>0</v>
+      </c>
     </row>
-    <row r="531" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>569</v>
       </c>
@@ -70405,8 +71506,11 @@
       <c r="AP531">
         <v>0</v>
       </c>
+      <c r="AQ531">
+        <v>0</v>
+      </c>
     </row>
-    <row r="532" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>570</v>
       </c>
@@ -70533,8 +71637,11 @@
       <c r="AP532">
         <v>0</v>
       </c>
+      <c r="AQ532">
+        <v>0</v>
+      </c>
     </row>
-    <row r="533" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>571</v>
       </c>
@@ -70658,8 +71765,11 @@
       <c r="AP533">
         <v>0</v>
       </c>
+      <c r="AQ533">
+        <v>0</v>
+      </c>
     </row>
-    <row r="534" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>572</v>
       </c>
@@ -70783,8 +71893,11 @@
       <c r="AP534">
         <v>0</v>
       </c>
+      <c r="AQ534">
+        <v>0</v>
+      </c>
     </row>
-    <row r="535" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>573</v>
       </c>
@@ -70908,8 +72021,11 @@
       <c r="AP535">
         <v>0</v>
       </c>
+      <c r="AQ535">
+        <v>0</v>
+      </c>
     </row>
-    <row r="536" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>574</v>
       </c>
@@ -71033,8 +72149,11 @@
       <c r="AP536">
         <v>0</v>
       </c>
+      <c r="AQ536">
+        <v>0</v>
+      </c>
     </row>
-    <row r="537" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>575</v>
       </c>
@@ -71158,8 +72277,11 @@
       <c r="AP537">
         <v>0</v>
       </c>
+      <c r="AQ537">
+        <v>0</v>
+      </c>
     </row>
-    <row r="538" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>576</v>
       </c>
@@ -71283,8 +72405,11 @@
       <c r="AP538">
         <v>0</v>
       </c>
+      <c r="AQ538">
+        <v>0</v>
+      </c>
     </row>
-    <row r="539" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>577</v>
       </c>
@@ -71408,8 +72533,11 @@
       <c r="AP539">
         <v>0</v>
       </c>
+      <c r="AQ539">
+        <v>0</v>
+      </c>
     </row>
-    <row r="540" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>578</v>
       </c>
@@ -71533,8 +72661,11 @@
       <c r="AP540">
         <v>0</v>
       </c>
+      <c r="AQ540">
+        <v>0</v>
+      </c>
     </row>
-    <row r="541" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>579</v>
       </c>
@@ -71658,8 +72789,11 @@
       <c r="AP541">
         <v>0</v>
       </c>
+      <c r="AQ541">
+        <v>0</v>
+      </c>
     </row>
-    <row r="542" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>580</v>
       </c>
@@ -71781,7 +72915,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="543" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>583</v>
       </c>
@@ -71900,7 +73034,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="544" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>584</v>
       </c>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5871E1-4B64-384A-A44E-BA57010A4721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E08C8-0166-2444-9312-3C9918400ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -3540,9 +3540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ137" sqref="AQ137"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS190" sqref="AS190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23066,6 +23066,9 @@
       <c r="AP152">
         <v>0</v>
       </c>
+      <c r="AQ152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -23191,6 +23194,9 @@
       <c r="AP153">
         <v>0</v>
       </c>
+      <c r="AQ153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -23316,6 +23322,9 @@
       <c r="AP154">
         <v>6</v>
       </c>
+      <c r="AQ154">
+        <v>6</v>
+      </c>
     </row>
     <row r="155" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -23441,6 +23450,9 @@
       <c r="AP155">
         <v>0</v>
       </c>
+      <c r="AQ155">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -23566,6 +23578,9 @@
       <c r="AP156">
         <v>0</v>
       </c>
+      <c r="AQ156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -23691,6 +23706,9 @@
       <c r="AP157">
         <v>0</v>
       </c>
+      <c r="AQ157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -23816,6 +23834,9 @@
       <c r="AP158">
         <v>6</v>
       </c>
+      <c r="AQ158">
+        <v>6</v>
+      </c>
     </row>
     <row r="159" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -23941,6 +23962,9 @@
       <c r="AP159">
         <v>0</v>
       </c>
+      <c r="AQ159">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -24066,8 +24090,11 @@
       <c r="AP160">
         <v>0</v>
       </c>
+      <c r="AQ160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -24191,8 +24218,11 @@
       <c r="AP161">
         <v>0</v>
       </c>
+      <c r="AQ161">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -24319,8 +24349,11 @@
       <c r="AP162">
         <v>6</v>
       </c>
+      <c r="AQ162">
+        <v>6</v>
+      </c>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -24444,8 +24477,11 @@
       <c r="AP163">
         <v>0</v>
       </c>
+      <c r="AQ163">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -24572,8 +24608,11 @@
       <c r="AP164">
         <v>4</v>
       </c>
+      <c r="AQ164">
+        <v>5</v>
+      </c>
     </row>
-    <row r="165" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -24697,8 +24736,11 @@
       <c r="AP165">
         <v>0</v>
       </c>
+      <c r="AQ165">
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>182</v>
       </c>
@@ -24822,8 +24864,11 @@
       <c r="AP166">
         <v>6</v>
       </c>
+      <c r="AQ166">
+        <v>0</v>
+      </c>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -24947,8 +24992,11 @@
       <c r="AP167">
         <v>6</v>
       </c>
+      <c r="AQ167">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -25072,8 +25120,11 @@
       <c r="AP168">
         <v>6</v>
       </c>
+      <c r="AQ168">
+        <v>0</v>
+      </c>
     </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -25197,8 +25248,11 @@
       <c r="AP169">
         <v>6</v>
       </c>
+      <c r="AQ169">
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>186</v>
       </c>
@@ -25322,8 +25376,11 @@
       <c r="AP170">
         <v>6</v>
       </c>
+      <c r="AQ170">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -25447,8 +25504,11 @@
       <c r="AP171">
         <v>0</v>
       </c>
+      <c r="AQ171">
+        <v>0</v>
+      </c>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>188</v>
       </c>
@@ -25572,8 +25632,11 @@
       <c r="AP172">
         <v>0</v>
       </c>
+      <c r="AQ172">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -25697,8 +25760,11 @@
       <c r="AP173">
         <v>0</v>
       </c>
+      <c r="AQ173">
+        <v>0</v>
+      </c>
     </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>190</v>
       </c>
@@ -25822,8 +25888,11 @@
       <c r="AP174">
         <v>0</v>
       </c>
+      <c r="AQ174">
+        <v>0</v>
+      </c>
     </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -25947,8 +26016,11 @@
       <c r="AP175">
         <v>0</v>
       </c>
+      <c r="AQ175">
+        <v>0</v>
+      </c>
     </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -26071,6 +26143,9 @@
       </c>
       <c r="AP176">
         <v>6</v>
+      </c>
+      <c r="AQ176">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:43" x14ac:dyDescent="0.2">
@@ -26197,6 +26272,9 @@
       <c r="AP177">
         <v>0</v>
       </c>
+      <c r="AQ177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -26322,6 +26400,9 @@
       <c r="AP178">
         <v>0</v>
       </c>
+      <c r="AQ178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
@@ -26447,6 +26528,9 @@
       <c r="AP179">
         <v>6</v>
       </c>
+      <c r="AQ179">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -26572,6 +26656,9 @@
       <c r="AP180">
         <v>0</v>
       </c>
+      <c r="AQ180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -26696,6 +26783,9 @@
       </c>
       <c r="AP181">
         <v>6</v>
+      </c>
+      <c r="AQ181">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:43" x14ac:dyDescent="0.2">

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E08C8-0166-2444-9312-3C9918400ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DCE158-7E6D-AA46-9856-2340A00F6655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5449" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5474" uniqueCount="746">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2779,11 +2779,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3184,7 +3185,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:AD631" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:AD631" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
+  <autoFilter ref="A1:AD631" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="CoolS/WarmF"/>
+        <filter val="WarmS/WarmF"/>
+        <filter val="WarmS/WarmF_nitro"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="28"/>
@@ -3538,11 +3547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ631"/>
+  <dimension ref="A1:AR631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS190" sqref="AS190"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR122" sqref="AR122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3554,7 +3563,7 @@
     <col min="30" max="30" width="4.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3684,8 +3693,11 @@
       <c r="AQ1" s="3">
         <v>290</v>
       </c>
+      <c r="AR1" s="3">
+        <v>297</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3815,8 +3827,11 @@
       <c r="AQ2">
         <v>0</v>
       </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3943,8 +3958,11 @@
       <c r="AQ3">
         <v>0</v>
       </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4071,8 +4089,11 @@
       <c r="AQ4">
         <v>6</v>
       </c>
+      <c r="AR4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4199,8 +4220,11 @@
       <c r="AQ5">
         <v>6</v>
       </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4327,8 +4351,11 @@
       <c r="AQ6">
         <v>0</v>
       </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4455,8 +4482,11 @@
       <c r="AQ7">
         <v>0</v>
       </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4583,8 +4613,11 @@
       <c r="AQ8">
         <v>0</v>
       </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4711,8 +4744,11 @@
       <c r="AQ9">
         <v>0</v>
       </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4839,8 +4875,11 @@
       <c r="AQ10">
         <v>0</v>
       </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4970,8 +5009,11 @@
       <c r="AQ11">
         <v>6</v>
       </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5098,8 +5140,11 @@
       <c r="AQ12">
         <v>0</v>
       </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5226,8 +5271,11 @@
       <c r="AQ13">
         <v>0</v>
       </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5354,8 +5402,11 @@
       <c r="AQ14">
         <v>6</v>
       </c>
+      <c r="AR14">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5482,8 +5533,11 @@
       <c r="AQ15">
         <v>0</v>
       </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5610,8 +5664,11 @@
       <c r="AQ16">
         <v>0</v>
       </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5738,8 +5795,11 @@
       <c r="AQ17">
         <v>0</v>
       </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -5866,8 +5926,11 @@
       <c r="AQ18">
         <v>0</v>
       </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5994,8 +6057,11 @@
       <c r="AQ19">
         <v>6</v>
       </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -6122,8 +6188,11 @@
       <c r="AQ20">
         <v>6</v>
       </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6250,8 +6319,11 @@
       <c r="AQ21">
         <v>0</v>
       </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6381,8 +6453,11 @@
       <c r="AQ22">
         <v>6</v>
       </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6509,8 +6584,11 @@
       <c r="AQ23">
         <v>6</v>
       </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6637,8 +6715,11 @@
       <c r="AQ24">
         <v>0</v>
       </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -6765,8 +6846,11 @@
       <c r="AQ25">
         <v>0</v>
       </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -6893,8 +6977,11 @@
       <c r="AQ26">
         <v>0</v>
       </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -7021,8 +7108,11 @@
       <c r="AQ27">
         <v>6</v>
       </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -7152,8 +7242,11 @@
       <c r="AQ28">
         <v>0</v>
       </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7283,8 +7376,11 @@
       <c r="AQ29" t="s">
         <v>308</v>
       </c>
+      <c r="AR29" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7411,8 +7507,11 @@
       <c r="AQ30">
         <v>0</v>
       </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7539,8 +7638,11 @@
       <c r="AQ31">
         <v>0</v>
       </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -7667,8 +7769,11 @@
       <c r="AQ32">
         <v>0</v>
       </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -7795,8 +7900,11 @@
       <c r="AQ33">
         <v>6</v>
       </c>
+      <c r="AR33" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -7923,8 +8031,11 @@
       <c r="AQ34">
         <v>6</v>
       </c>
+      <c r="AR34" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -8051,8 +8162,11 @@
       <c r="AQ35">
         <v>0</v>
       </c>
+      <c r="AR35" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -8179,8 +8293,11 @@
       <c r="AQ36">
         <v>0</v>
       </c>
+      <c r="AR36" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -8307,8 +8424,11 @@
       <c r="AQ37">
         <v>6</v>
       </c>
+      <c r="AR37" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -8435,8 +8555,11 @@
       <c r="AQ38">
         <v>6</v>
       </c>
+      <c r="AR38" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -8563,8 +8686,11 @@
       <c r="AQ39">
         <v>0</v>
       </c>
+      <c r="AR39" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -8691,8 +8817,11 @@
       <c r="AQ40">
         <v>0</v>
       </c>
+      <c r="AR40" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -8819,8 +8948,11 @@
       <c r="AQ41">
         <v>0</v>
       </c>
+      <c r="AR41" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -8950,8 +9082,11 @@
       <c r="AQ42">
         <v>6</v>
       </c>
+      <c r="AR42" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -9078,8 +9213,11 @@
       <c r="AQ43">
         <v>6</v>
       </c>
+      <c r="AR43" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -9206,8 +9344,11 @@
       <c r="AQ44">
         <v>0</v>
       </c>
+      <c r="AR44" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -9334,8 +9475,11 @@
       <c r="AQ45">
         <v>6</v>
       </c>
+      <c r="AR45" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -9462,8 +9606,11 @@
       <c r="AQ46">
         <v>0</v>
       </c>
+      <c r="AR46" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -9590,8 +9737,11 @@
       <c r="AQ47">
         <v>0</v>
       </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -9718,8 +9868,11 @@
       <c r="AQ48">
         <v>0</v>
       </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -9846,8 +9999,11 @@
       <c r="AQ49">
         <v>0</v>
       </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -9974,8 +10130,11 @@
       <c r="AQ50">
         <v>0</v>
       </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -10102,8 +10261,11 @@
       <c r="AQ51">
         <v>0</v>
       </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -10230,8 +10392,11 @@
       <c r="AQ52">
         <v>0</v>
       </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -10358,8 +10523,11 @@
       <c r="AQ53">
         <v>6</v>
       </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -10486,8 +10654,11 @@
       <c r="AQ54">
         <v>0</v>
       </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -10617,8 +10788,11 @@
       <c r="AQ55">
         <v>0</v>
       </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -10748,8 +10922,11 @@
       <c r="AQ56">
         <v>0</v>
       </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -10879,8 +11056,11 @@
       <c r="AQ57">
         <v>0</v>
       </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -11007,8 +11187,11 @@
       <c r="AQ58">
         <v>0</v>
       </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -11135,8 +11318,11 @@
       <c r="AQ59" t="s">
         <v>308</v>
       </c>
+      <c r="AR59" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -11263,8 +11449,11 @@
       <c r="AQ60">
         <v>0</v>
       </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -11391,8 +11580,11 @@
       <c r="AQ61">
         <v>0</v>
       </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -11519,8 +11711,11 @@
       <c r="AQ62">
         <v>6</v>
       </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -11647,8 +11842,11 @@
       <c r="AQ63">
         <v>6</v>
       </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -11775,8 +11973,11 @@
       <c r="AQ64">
         <v>6</v>
       </c>
+      <c r="AR64">
+        <v>6</v>
+      </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -11903,8 +12104,11 @@
       <c r="AQ65">
         <v>0</v>
       </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -12031,8 +12235,11 @@
       <c r="AQ66">
         <v>6</v>
       </c>
+      <c r="AR66">
+        <v>6</v>
+      </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -12159,8 +12366,11 @@
       <c r="AQ67">
         <v>6</v>
       </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -12287,8 +12497,11 @@
       <c r="AQ68">
         <v>0</v>
       </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -12415,8 +12628,11 @@
       <c r="AQ69">
         <v>0</v>
       </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -12543,8 +12759,11 @@
       <c r="AQ70">
         <v>6</v>
       </c>
+      <c r="AR70">
+        <v>6</v>
+      </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -12674,8 +12893,11 @@
       <c r="AQ71" t="s">
         <v>308</v>
       </c>
+      <c r="AR71" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -12802,8 +13024,11 @@
       <c r="AQ72">
         <v>6</v>
       </c>
+      <c r="AR72">
+        <v>6</v>
+      </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -12930,8 +13155,11 @@
       <c r="AQ73">
         <v>0</v>
       </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -13058,8 +13286,11 @@
       <c r="AQ74">
         <v>0</v>
       </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -13189,8 +13420,11 @@
       <c r="AQ75" t="s">
         <v>308</v>
       </c>
+      <c r="AR75" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -13317,8 +13551,11 @@
       <c r="AQ76">
         <v>0</v>
       </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -13445,8 +13682,11 @@
       <c r="AQ77">
         <v>0</v>
       </c>
+      <c r="AR77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -13573,8 +13813,11 @@
       <c r="AQ78" s="2">
         <v>0</v>
       </c>
+      <c r="AR78" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -13701,8 +13944,11 @@
       <c r="AQ79" s="2">
         <v>6</v>
       </c>
+      <c r="AR79" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -13829,8 +14075,11 @@
       <c r="AQ80" s="2">
         <v>6</v>
       </c>
+      <c r="AR80" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -13957,8 +14206,11 @@
       <c r="AQ81" s="2">
         <v>0</v>
       </c>
+      <c r="AR81" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -14085,8 +14337,11 @@
       <c r="AQ82" s="2">
         <v>6</v>
       </c>
+      <c r="AR82" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -14213,8 +14468,11 @@
       <c r="AQ83" s="2">
         <v>6</v>
       </c>
+      <c r="AR83" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -14341,8 +14599,11 @@
       <c r="AQ84" s="2">
         <v>0</v>
       </c>
+      <c r="AR84" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -14469,8 +14730,11 @@
       <c r="AQ85" s="2">
         <v>6</v>
       </c>
+      <c r="AR85" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -14597,8 +14861,11 @@
       <c r="AQ86" s="2">
         <v>6</v>
       </c>
+      <c r="AR86" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -14725,8 +14992,11 @@
       <c r="AQ87" s="2">
         <v>6</v>
       </c>
+      <c r="AR87" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -14853,8 +15123,11 @@
       <c r="AQ88" s="2">
         <v>0</v>
       </c>
+      <c r="AR88" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -14981,8 +15254,11 @@
       <c r="AQ89" s="2">
         <v>0</v>
       </c>
+      <c r="AR89" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -15109,8 +15385,11 @@
       <c r="AQ90" s="2">
         <v>6</v>
       </c>
+      <c r="AR90" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -15237,8 +15516,11 @@
       <c r="AQ91" s="2">
         <v>6</v>
       </c>
+      <c r="AR91" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -15365,8 +15647,11 @@
       <c r="AQ92">
         <v>6</v>
       </c>
+      <c r="AR92">
+        <v>6</v>
+      </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -15493,8 +15778,11 @@
       <c r="AQ93">
         <v>0</v>
       </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -15621,8 +15909,11 @@
       <c r="AQ94">
         <v>0</v>
       </c>
+      <c r="AR94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -15752,8 +16043,11 @@
       <c r="AQ95">
         <v>0</v>
       </c>
+      <c r="AR95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -15880,8 +16174,11 @@
       <c r="AQ96">
         <v>0</v>
       </c>
+      <c r="AR96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -16008,8 +16305,11 @@
       <c r="AQ97" s="2">
         <v>0</v>
       </c>
+      <c r="AR97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -16136,8 +16436,11 @@
       <c r="AQ98" s="2">
         <v>0</v>
       </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -16264,8 +16567,11 @@
       <c r="AQ99" s="2">
         <v>6</v>
       </c>
+      <c r="AR99" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -16392,8 +16698,11 @@
       <c r="AQ100" s="2">
         <v>0</v>
       </c>
+      <c r="AR100" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -16520,8 +16829,11 @@
       <c r="AQ101" s="2">
         <v>6</v>
       </c>
+      <c r="AR101" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -16648,8 +16960,11 @@
       <c r="AQ102" s="2">
         <v>6</v>
       </c>
+      <c r="AR102" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -16776,8 +17091,11 @@
       <c r="AQ103" s="2">
         <v>6</v>
       </c>
+      <c r="AR103" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -16904,8 +17222,11 @@
       <c r="AQ104" s="2">
         <v>0</v>
       </c>
+      <c r="AR104" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -17032,8 +17353,11 @@
       <c r="AQ105" s="2">
         <v>0</v>
       </c>
+      <c r="AR105" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -17160,8 +17484,11 @@
       <c r="AQ106" s="2">
         <v>0</v>
       </c>
+      <c r="AR106" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -17288,8 +17615,11 @@
       <c r="AQ107" s="2">
         <v>6</v>
       </c>
+      <c r="AR107" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -17416,8 +17746,11 @@
       <c r="AQ108" s="2">
         <v>6</v>
       </c>
+      <c r="AR108" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -17547,8 +17880,11 @@
       <c r="AQ109" s="2">
         <v>0</v>
       </c>
+      <c r="AR109" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -17675,8 +18011,11 @@
       <c r="AQ110" s="2">
         <v>6</v>
       </c>
+      <c r="AR110" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -17806,8 +18145,11 @@
       <c r="AQ111" s="2">
         <v>6</v>
       </c>
+      <c r="AR111" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -17934,8 +18276,11 @@
       <c r="AQ112" s="2">
         <v>0</v>
       </c>
+      <c r="AR112" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -18062,8 +18407,11 @@
       <c r="AQ113" t="s">
         <v>308</v>
       </c>
+      <c r="AR113" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -18190,8 +18538,11 @@
       <c r="AQ114" s="2">
         <v>0</v>
       </c>
+      <c r="AR114" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -18318,8 +18669,11 @@
       <c r="AQ115" s="2">
         <v>6</v>
       </c>
+      <c r="AR115" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -18446,8 +18800,11 @@
       <c r="AQ116" s="2">
         <v>0</v>
       </c>
+      <c r="AR116" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -18574,8 +18931,11 @@
       <c r="AQ117" s="2">
         <v>6</v>
       </c>
+      <c r="AR117" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -18702,8 +19062,11 @@
       <c r="AQ118" s="2">
         <v>0</v>
       </c>
+      <c r="AR118" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -18830,8 +19193,11 @@
       <c r="AQ119" s="2">
         <v>0</v>
       </c>
+      <c r="AR119" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -18958,8 +19324,11 @@
       <c r="AQ120" s="2">
         <v>6</v>
       </c>
+      <c r="AR120" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -19089,8 +19458,11 @@
       <c r="AQ121" s="2">
         <v>6</v>
       </c>
+      <c r="AR121" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -19218,7 +19590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -19346,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -19474,7 +19846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -19602,7 +19974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -19730,7 +20102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -19858,7 +20230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -19986,7 +20358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>145</v>
       </c>
@@ -20114,7 +20486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -20242,7 +20614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -20373,7 +20745,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -20501,7 +20873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -20629,7 +21001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -20757,7 +21129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -20885,7 +21257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -21013,7 +21385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -21143,8 +21515,11 @@
       <c r="AQ137">
         <v>6</v>
       </c>
+      <c r="AR137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -21271,8 +21646,11 @@
       <c r="AQ138">
         <v>0</v>
       </c>
+      <c r="AR138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>155</v>
       </c>
@@ -21399,8 +21777,11 @@
       <c r="AQ139">
         <v>6</v>
       </c>
+      <c r="AR139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -21527,8 +21908,11 @@
       <c r="AQ140">
         <v>0</v>
       </c>
+      <c r="AR140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -21655,8 +22039,11 @@
       <c r="AQ141">
         <v>0</v>
       </c>
+      <c r="AR141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -21783,8 +22170,11 @@
       <c r="AQ142">
         <v>0</v>
       </c>
+      <c r="AR142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -21911,8 +22301,11 @@
       <c r="AQ143">
         <v>0</v>
       </c>
+      <c r="AR143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>160</v>
       </c>
@@ -22039,8 +22432,11 @@
       <c r="AQ144">
         <v>0</v>
       </c>
+      <c r="AR144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -22167,8 +22563,11 @@
       <c r="AQ145">
         <v>0</v>
       </c>
+      <c r="AR145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>162</v>
       </c>
@@ -22295,8 +22694,11 @@
       <c r="AQ146">
         <v>6</v>
       </c>
+      <c r="AR146">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -22423,8 +22825,11 @@
       <c r="AQ147">
         <v>0</v>
       </c>
+      <c r="AR147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>164</v>
       </c>
@@ -22554,8 +22959,11 @@
       <c r="AQ148">
         <v>0</v>
       </c>
+      <c r="AR148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -22682,8 +23090,11 @@
       <c r="AQ149">
         <v>0</v>
       </c>
+      <c r="AR149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>166</v>
       </c>
@@ -22813,8 +23224,11 @@
       <c r="AQ150">
         <v>6</v>
       </c>
+      <c r="AR150">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -22941,8 +23355,11 @@
       <c r="AQ151">
         <v>0</v>
       </c>
+      <c r="AR151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -23070,7 +23487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -23198,7 +23615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>170</v>
       </c>
@@ -23326,7 +23743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -23454,7 +23871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>172</v>
       </c>
@@ -23582,7 +23999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -23710,7 +24127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>174</v>
       </c>
@@ -23838,7 +24255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -23966,7 +24383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>176</v>
       </c>
@@ -26148,7 +26565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -26276,7 +26693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>194</v>
       </c>
@@ -26404,7 +26821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -26532,7 +26949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>196</v>
       </c>
@@ -26660,7 +27077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -26788,7 +27205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>198</v>
       </c>
@@ -26913,8 +27330,11 @@
       <c r="AQ182">
         <v>0</v>
       </c>
+      <c r="AR182">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -27039,8 +27459,11 @@
       <c r="AQ183">
         <v>0</v>
       </c>
+      <c r="AR183">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -27165,8 +27588,11 @@
       <c r="AQ184">
         <v>0</v>
       </c>
+      <c r="AR184">
+        <v>0</v>
+      </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -27291,8 +27717,11 @@
       <c r="AQ185">
         <v>0</v>
       </c>
+      <c r="AR185">
+        <v>0</v>
+      </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -27420,8 +27849,11 @@
       <c r="AQ186">
         <v>0</v>
       </c>
+      <c r="AR186">
+        <v>0</v>
+      </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -27546,8 +27978,11 @@
       <c r="AQ187">
         <v>0</v>
       </c>
+      <c r="AR187">
+        <v>0</v>
+      </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -27672,8 +28107,11 @@
       <c r="AQ188">
         <v>0</v>
       </c>
+      <c r="AR188">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -27798,8 +28236,11 @@
       <c r="AQ189">
         <v>0</v>
       </c>
+      <c r="AR189">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -27927,8 +28368,11 @@
       <c r="AQ190">
         <v>0</v>
       </c>
+      <c r="AR190">
+        <v>0</v>
+      </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>210</v>
       </c>
@@ -28053,8 +28497,11 @@
       <c r="AQ191">
         <v>0</v>
       </c>
+      <c r="AR191">
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -28179,8 +28626,11 @@
       <c r="AQ192">
         <v>0</v>
       </c>
+      <c r="AR192">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>212</v>
       </c>
@@ -28305,8 +28755,11 @@
       <c r="AQ193">
         <v>0</v>
       </c>
+      <c r="AR193">
+        <v>0</v>
+      </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -28434,8 +28887,11 @@
       <c r="AQ194">
         <v>0</v>
       </c>
+      <c r="AR194">
+        <v>0</v>
+      </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -28560,8 +29016,11 @@
       <c r="AQ195">
         <v>0</v>
       </c>
+      <c r="AR195">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -28686,8 +29145,11 @@
       <c r="AQ196">
         <v>0</v>
       </c>
+      <c r="AR196">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -28812,8 +29274,11 @@
       <c r="AQ197">
         <v>0</v>
       </c>
+      <c r="AR197">
+        <v>0</v>
+      </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -28941,8 +29406,11 @@
       <c r="AQ198">
         <v>0</v>
       </c>
+      <c r="AR198">
+        <v>0</v>
+      </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -29067,8 +29535,11 @@
       <c r="AQ199">
         <v>0</v>
       </c>
+      <c r="AR199">
+        <v>0</v>
+      </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -29196,8 +29667,11 @@
       <c r="AQ200">
         <v>0</v>
       </c>
+      <c r="AR200">
+        <v>0</v>
+      </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -29322,8 +29796,11 @@
       <c r="AQ201">
         <v>0</v>
       </c>
+      <c r="AR201">
+        <v>0</v>
+      </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -29448,8 +29925,11 @@
       <c r="AQ202">
         <v>0</v>
       </c>
+      <c r="AR202">
+        <v>0</v>
+      </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -29574,8 +30054,11 @@
       <c r="AQ203">
         <v>0</v>
       </c>
+      <c r="AR203">
+        <v>0</v>
+      </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -29700,8 +30183,11 @@
       <c r="AQ204">
         <v>0</v>
       </c>
+      <c r="AR204">
+        <v>0</v>
+      </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -29829,8 +30315,11 @@
       <c r="AQ205">
         <v>0</v>
       </c>
+      <c r="AR205">
+        <v>0</v>
+      </c>
     </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -29955,8 +30444,11 @@
       <c r="AQ206">
         <v>0</v>
       </c>
+      <c r="AR206">
+        <v>0</v>
+      </c>
     </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -30081,8 +30573,11 @@
       <c r="AQ207">
         <v>0</v>
       </c>
+      <c r="AR207">
+        <v>0</v>
+      </c>
     </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -30210,8 +30705,11 @@
       <c r="AQ208">
         <v>0</v>
       </c>
+      <c r="AR208">
+        <v>0</v>
+      </c>
     </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -30336,8 +30834,11 @@
       <c r="AQ209">
         <v>0</v>
       </c>
+      <c r="AR209">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -30462,8 +30963,11 @@
       <c r="AQ210">
         <v>0</v>
       </c>
+      <c r="AR210">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -30591,8 +31095,11 @@
       <c r="AQ211">
         <v>0</v>
       </c>
+      <c r="AR211">
+        <v>0</v>
+      </c>
     </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>233</v>
       </c>
@@ -30717,8 +31224,11 @@
       <c r="AQ212">
         <v>0</v>
       </c>
+      <c r="AR212">
+        <v>0</v>
+      </c>
     </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -30843,8 +31353,11 @@
       <c r="AQ213">
         <v>0</v>
       </c>
+      <c r="AR213">
+        <v>0</v>
+      </c>
     </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>235</v>
       </c>
@@ -30969,8 +31482,11 @@
       <c r="AQ214">
         <v>0</v>
       </c>
+      <c r="AR214">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -31095,8 +31611,11 @@
       <c r="AQ215">
         <v>0</v>
       </c>
+      <c r="AR215">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>237</v>
       </c>
@@ -31224,8 +31743,11 @@
       <c r="AQ216">
         <v>0</v>
       </c>
+      <c r="AR216">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -31350,8 +31872,11 @@
       <c r="AQ217">
         <v>0</v>
       </c>
+      <c r="AR217">
+        <v>0</v>
+      </c>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>239</v>
       </c>
@@ -31476,8 +32001,11 @@
       <c r="AQ218">
         <v>0</v>
       </c>
+      <c r="AR218">
+        <v>0</v>
+      </c>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -31602,8 +32130,11 @@
       <c r="AQ219">
         <v>0</v>
       </c>
+      <c r="AR219">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>241</v>
       </c>
@@ -31728,8 +32259,11 @@
       <c r="AQ220">
         <v>0</v>
       </c>
+      <c r="AR220">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -31854,8 +32388,11 @@
       <c r="AQ221" t="s">
         <v>308</v>
       </c>
+      <c r="AR221">
+        <v>0</v>
+      </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>243</v>
       </c>
@@ -31980,8 +32517,11 @@
       <c r="AQ222">
         <v>0</v>
       </c>
+      <c r="AR222">
+        <v>0</v>
+      </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -32109,8 +32649,11 @@
       <c r="AQ223">
         <v>0</v>
       </c>
+      <c r="AR223">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -32235,8 +32778,11 @@
       <c r="AQ224">
         <v>0</v>
       </c>
+      <c r="AR224">
+        <v>0</v>
+      </c>
     </row>
-    <row r="225" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -32364,8 +32910,11 @@
       <c r="AQ225">
         <v>0</v>
       </c>
+      <c r="AR225">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>247</v>
       </c>
@@ -32490,8 +33039,11 @@
       <c r="AQ226">
         <v>0</v>
       </c>
+      <c r="AR226">
+        <v>0</v>
+      </c>
     </row>
-    <row r="227" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -32616,8 +33168,11 @@
       <c r="AQ227">
         <v>0</v>
       </c>
+      <c r="AR227">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -32742,8 +33297,11 @@
       <c r="AQ228">
         <v>0</v>
       </c>
+      <c r="AR228">
+        <v>0</v>
+      </c>
     </row>
-    <row r="229" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -32868,8 +33426,11 @@
       <c r="AQ229">
         <v>0</v>
       </c>
+      <c r="AR229">
+        <v>0</v>
+      </c>
     </row>
-    <row r="230" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>251</v>
       </c>
@@ -32994,8 +33555,11 @@
       <c r="AQ230">
         <v>0</v>
       </c>
+      <c r="AR230">
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -33120,8 +33684,11 @@
       <c r="AQ231">
         <v>0</v>
       </c>
+      <c r="AR231">
+        <v>0</v>
+      </c>
     </row>
-    <row r="232" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -33246,8 +33813,11 @@
       <c r="AQ232">
         <v>0</v>
       </c>
+      <c r="AR232">
+        <v>0</v>
+      </c>
     </row>
-    <row r="233" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -33372,8 +33942,11 @@
       <c r="AQ233">
         <v>0</v>
       </c>
+      <c r="AR233">
+        <v>0</v>
+      </c>
     </row>
-    <row r="234" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>255</v>
       </c>
@@ -33498,8 +34071,11 @@
       <c r="AQ234">
         <v>0</v>
       </c>
+      <c r="AR234">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -33624,8 +34200,11 @@
       <c r="AQ235">
         <v>0</v>
       </c>
+      <c r="AR235">
+        <v>0</v>
+      </c>
     </row>
-    <row r="236" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -33750,8 +34329,11 @@
       <c r="AQ236">
         <v>0</v>
       </c>
+      <c r="AR236">
+        <v>0</v>
+      </c>
     </row>
-    <row r="237" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -33876,8 +34458,11 @@
       <c r="AQ237">
         <v>0</v>
       </c>
+      <c r="AR237">
+        <v>0</v>
+      </c>
     </row>
-    <row r="238" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -34002,8 +34587,11 @@
       <c r="AQ238">
         <v>0</v>
       </c>
+      <c r="AR238">
+        <v>0</v>
+      </c>
     </row>
-    <row r="239" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -34128,8 +34716,11 @@
       <c r="AQ239">
         <v>0</v>
       </c>
+      <c r="AR239">
+        <v>0</v>
+      </c>
     </row>
-    <row r="240" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -34254,8 +34845,11 @@
       <c r="AQ240">
         <v>0</v>
       </c>
+      <c r="AR240">
+        <v>0</v>
+      </c>
     </row>
-    <row r="241" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -34380,8 +34974,11 @@
       <c r="AQ241">
         <v>0</v>
       </c>
+      <c r="AR241">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -34507,7 +35104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -34633,7 +35230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>265</v>
       </c>
@@ -34759,7 +35356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -34885,7 +35482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -35011,7 +35608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -35137,7 +35734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>269</v>
       </c>
@@ -35263,7 +35860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -35389,7 +35986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>271</v>
       </c>
@@ -35515,7 +36112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -35641,7 +36238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>273</v>
       </c>
@@ -35767,7 +36364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -35893,7 +36490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>275</v>
       </c>
@@ -36019,7 +36616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -36145,7 +36742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>277</v>
       </c>
@@ -36271,7 +36868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -36397,7 +36994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -36523,7 +37120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>280</v>
       </c>
@@ -36649,7 +37246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -36775,7 +37372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>282</v>
       </c>
@@ -36901,7 +37498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -37027,7 +37624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>284</v>
       </c>
@@ -37153,7 +37750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -37279,7 +37876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>286</v>
       </c>
@@ -37405,7 +38002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -37531,7 +38128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>288</v>
       </c>
@@ -37657,7 +38254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -37783,7 +38380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>290</v>
       </c>
@@ -37909,7 +38506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -38035,7 +38632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>292</v>
       </c>
@@ -38161,7 +38758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -38291,8 +38888,11 @@
       <c r="AQ272" t="s">
         <v>308</v>
       </c>
+      <c r="AR272" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="273" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -38419,8 +39019,11 @@
       <c r="AQ273">
         <v>0</v>
       </c>
+      <c r="AR273">
+        <v>0</v>
+      </c>
     </row>
-    <row r="274" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -38547,8 +39150,11 @@
       <c r="AQ274">
         <v>0</v>
       </c>
+      <c r="AR274">
+        <v>0</v>
+      </c>
     </row>
-    <row r="275" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>298</v>
       </c>
@@ -38678,8 +39284,11 @@
       <c r="AQ275" t="s">
         <v>308</v>
       </c>
+      <c r="AR275" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="276" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -38809,8 +39418,11 @@
       <c r="AQ276">
         <v>0</v>
       </c>
+      <c r="AR276">
+        <v>0</v>
+      </c>
     </row>
-    <row r="277" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>300</v>
       </c>
@@ -38937,8 +39549,11 @@
       <c r="AQ277">
         <v>0</v>
       </c>
+      <c r="AR277">
+        <v>0</v>
+      </c>
     </row>
-    <row r="278" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -39065,8 +39680,11 @@
       <c r="AQ278">
         <v>0</v>
       </c>
+      <c r="AR278">
+        <v>0</v>
+      </c>
     </row>
-    <row r="279" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -39196,8 +39814,11 @@
       <c r="AQ279" t="s">
         <v>308</v>
       </c>
+      <c r="AR279" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="280" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -39324,8 +39945,11 @@
       <c r="AQ280">
         <v>0</v>
       </c>
+      <c r="AR280">
+        <v>0</v>
+      </c>
     </row>
-    <row r="281" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -39452,8 +40076,11 @@
       <c r="AQ281">
         <v>0</v>
       </c>
+      <c r="AR281">
+        <v>0</v>
+      </c>
     </row>
-    <row r="282" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>305</v>
       </c>
@@ -39583,8 +40210,11 @@
       <c r="AQ282" t="s">
         <v>308</v>
       </c>
+      <c r="AR282" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="283" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -39714,8 +40344,11 @@
       <c r="AQ283" t="s">
         <v>308</v>
       </c>
+      <c r="AR283" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="284" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -39842,8 +40475,11 @@
       <c r="AQ284">
         <v>0</v>
       </c>
+      <c r="AR284">
+        <v>0</v>
+      </c>
     </row>
-    <row r="285" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -39970,8 +40606,11 @@
       <c r="AQ285">
         <v>0</v>
       </c>
+      <c r="AR285">
+        <v>0</v>
+      </c>
     </row>
-    <row r="286" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -40098,8 +40737,11 @@
       <c r="AQ286">
         <v>0</v>
       </c>
+      <c r="AR286">
+        <v>0</v>
+      </c>
     </row>
-    <row r="287" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -40226,8 +40868,11 @@
       <c r="AQ287">
         <v>0</v>
       </c>
+      <c r="AR287">
+        <v>0</v>
+      </c>
     </row>
-    <row r="288" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -40354,8 +40999,11 @@
       <c r="AQ288">
         <v>0</v>
       </c>
+      <c r="AR288">
+        <v>0</v>
+      </c>
     </row>
-    <row r="289" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -40482,8 +41130,11 @@
       <c r="AQ289">
         <v>0</v>
       </c>
+      <c r="AR289">
+        <v>0</v>
+      </c>
     </row>
-    <row r="290" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -40610,8 +41261,11 @@
       <c r="AQ290">
         <v>0</v>
       </c>
+      <c r="AR290">
+        <v>0</v>
+      </c>
     </row>
-    <row r="291" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -40738,8 +41392,11 @@
       <c r="AQ291">
         <v>0</v>
       </c>
+      <c r="AR291">
+        <v>0</v>
+      </c>
     </row>
-    <row r="292" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -40866,8 +41523,11 @@
       <c r="AQ292">
         <v>0</v>
       </c>
+      <c r="AR292">
+        <v>0</v>
+      </c>
     </row>
-    <row r="293" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -40994,8 +41654,11 @@
       <c r="AQ293">
         <v>0</v>
       </c>
+      <c r="AR293">
+        <v>0</v>
+      </c>
     </row>
-    <row r="294" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -41125,8 +41788,11 @@
       <c r="AQ294">
         <v>0</v>
       </c>
+      <c r="AR294">
+        <v>0</v>
+      </c>
     </row>
-    <row r="295" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -41253,8 +41919,11 @@
       <c r="AQ295">
         <v>0</v>
       </c>
+      <c r="AR295">
+        <v>0</v>
+      </c>
     </row>
-    <row r="296" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>322</v>
       </c>
@@ -41381,8 +42050,11 @@
       <c r="AQ296">
         <v>0</v>
       </c>
+      <c r="AR296">
+        <v>0</v>
+      </c>
     </row>
-    <row r="297" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -41512,8 +42184,11 @@
       <c r="AQ297" t="s">
         <v>308</v>
       </c>
+      <c r="AR297" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="298" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>324</v>
       </c>
@@ -41640,8 +42315,11 @@
       <c r="AQ298">
         <v>6</v>
       </c>
+      <c r="AR298">
+        <v>0</v>
+      </c>
     </row>
-    <row r="299" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -41771,8 +42449,11 @@
       <c r="AQ299" t="s">
         <v>308</v>
       </c>
+      <c r="AR299" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="300" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>326</v>
       </c>
@@ -41899,8 +42580,11 @@
       <c r="AQ300">
         <v>0</v>
       </c>
+      <c r="AR300">
+        <v>0</v>
+      </c>
     </row>
-    <row r="301" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -42027,8 +42711,11 @@
       <c r="AQ301">
         <v>0</v>
       </c>
+      <c r="AR301">
+        <v>0</v>
+      </c>
     </row>
-    <row r="302" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>328</v>
       </c>
@@ -42155,8 +42842,11 @@
       <c r="AQ302">
         <v>0</v>
       </c>
+      <c r="AR302">
+        <v>0</v>
+      </c>
     </row>
-    <row r="303" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -42283,8 +42973,11 @@
       <c r="AQ303">
         <v>0</v>
       </c>
+      <c r="AR303">
+        <v>0</v>
+      </c>
     </row>
-    <row r="304" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>330</v>
       </c>
@@ -42411,8 +43104,11 @@
       <c r="AQ304">
         <v>0</v>
       </c>
+      <c r="AR304">
+        <v>0</v>
+      </c>
     </row>
-    <row r="305" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -42539,8 +43235,11 @@
       <c r="AQ305">
         <v>0</v>
       </c>
+      <c r="AR305">
+        <v>0</v>
+      </c>
     </row>
-    <row r="306" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>332</v>
       </c>
@@ -42667,8 +43366,11 @@
       <c r="AQ306">
         <v>0</v>
       </c>
+      <c r="AR306">
+        <v>0</v>
+      </c>
     </row>
-    <row r="307" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -42795,8 +43497,11 @@
       <c r="AQ307">
         <v>0</v>
       </c>
+      <c r="AR307">
+        <v>0</v>
+      </c>
     </row>
-    <row r="308" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>334</v>
       </c>
@@ -42923,8 +43628,11 @@
       <c r="AQ308">
         <v>0</v>
       </c>
+      <c r="AR308">
+        <v>0</v>
+      </c>
     </row>
-    <row r="309" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -43051,8 +43759,11 @@
       <c r="AQ309">
         <v>0</v>
       </c>
+      <c r="AR309">
+        <v>0</v>
+      </c>
     </row>
-    <row r="310" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>336</v>
       </c>
@@ -43179,8 +43890,11 @@
       <c r="AQ310">
         <v>0</v>
       </c>
+      <c r="AR310">
+        <v>0</v>
+      </c>
     </row>
-    <row r="311" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -43307,8 +44021,11 @@
       <c r="AQ311">
         <v>0</v>
       </c>
+      <c r="AR311">
+        <v>0</v>
+      </c>
     </row>
-    <row r="312" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -43435,8 +44152,11 @@
       <c r="AQ312">
         <v>0</v>
       </c>
+      <c r="AR312">
+        <v>0</v>
+      </c>
     </row>
-    <row r="313" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -43563,8 +44283,11 @@
       <c r="AQ313">
         <v>0</v>
       </c>
+      <c r="AR313">
+        <v>0</v>
+      </c>
     </row>
-    <row r="314" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -43691,8 +44414,11 @@
       <c r="AQ314">
         <v>0</v>
       </c>
+      <c r="AR314">
+        <v>0</v>
+      </c>
     </row>
-    <row r="315" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -43819,8 +44545,11 @@
       <c r="AQ315">
         <v>0</v>
       </c>
+      <c r="AR315">
+        <v>0</v>
+      </c>
     </row>
-    <row r="316" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -43950,8 +44679,11 @@
       <c r="AQ316">
         <v>0</v>
       </c>
+      <c r="AR316">
+        <v>0</v>
+      </c>
     </row>
-    <row r="317" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -44081,8 +44813,11 @@
       <c r="AQ317" t="s">
         <v>308</v>
       </c>
+      <c r="AR317" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="318" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -44209,8 +44944,11 @@
       <c r="AQ318">
         <v>0</v>
       </c>
+      <c r="AR318">
+        <v>0</v>
+      </c>
     </row>
-    <row r="319" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -44337,8 +45075,11 @@
       <c r="AQ319">
         <v>0</v>
       </c>
+      <c r="AR319">
+        <v>0</v>
+      </c>
     </row>
-    <row r="320" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -44465,8 +45206,11 @@
       <c r="AQ320">
         <v>0</v>
       </c>
+      <c r="AR320">
+        <v>0</v>
+      </c>
     </row>
-    <row r="321" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -44593,8 +45337,11 @@
       <c r="AQ321">
         <v>0</v>
       </c>
+      <c r="AR321">
+        <v>0</v>
+      </c>
     </row>
-    <row r="322" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -44724,8 +45471,11 @@
       <c r="AQ322" t="s">
         <v>308</v>
       </c>
+      <c r="AR322" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="323" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -44852,8 +45602,11 @@
       <c r="AQ323">
         <v>0</v>
       </c>
+      <c r="AR323">
+        <v>0</v>
+      </c>
     </row>
-    <row r="324" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>351</v>
       </c>
@@ -44983,8 +45736,11 @@
       <c r="AQ324" t="s">
         <v>308</v>
       </c>
+      <c r="AR324" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="325" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -45111,8 +45867,11 @@
       <c r="AQ325">
         <v>0</v>
       </c>
+      <c r="AR325">
+        <v>0</v>
+      </c>
     </row>
-    <row r="326" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>354</v>
       </c>
@@ -45239,8 +45998,11 @@
       <c r="AQ326">
         <v>0</v>
       </c>
+      <c r="AR326">
+        <v>0</v>
+      </c>
     </row>
-    <row r="327" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -45367,8 +46129,11 @@
       <c r="AQ327">
         <v>0</v>
       </c>
+      <c r="AR327">
+        <v>0</v>
+      </c>
     </row>
-    <row r="328" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -45498,8 +46263,11 @@
       <c r="AQ328" t="s">
         <v>308</v>
       </c>
+      <c r="AR328" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="329" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>357</v>
       </c>
@@ -45626,8 +46394,11 @@
       <c r="AQ329">
         <v>0</v>
       </c>
+      <c r="AR329">
+        <v>0</v>
+      </c>
     </row>
-    <row r="330" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -45757,8 +46528,11 @@
       <c r="AQ330" t="s">
         <v>308</v>
       </c>
+      <c r="AR330" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="331" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>359</v>
       </c>
@@ -45885,8 +46659,11 @@
       <c r="AQ331" t="s">
         <v>308</v>
       </c>
+      <c r="AR331" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="332" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -46014,7 +46791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>361</v>
       </c>
@@ -46142,7 +46919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -46273,7 +47050,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="335" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>363</v>
       </c>
@@ -46404,7 +47181,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="336" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -48598,7 +49375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -48726,7 +49503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>382</v>
       </c>
@@ -48854,7 +49631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -48985,7 +49762,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="356" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>384</v>
       </c>
@@ -49113,7 +49890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -49241,7 +50018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>386</v>
       </c>
@@ -49369,7 +50146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -49500,7 +50277,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="360" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>388</v>
       </c>
@@ -49628,7 +50405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -49759,7 +50536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>390</v>
       </c>
@@ -49886,8 +50663,11 @@
       <c r="AQ362">
         <v>0</v>
       </c>
+      <c r="AR362">
+        <v>0</v>
+      </c>
     </row>
-    <row r="363" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -50014,8 +50794,11 @@
       <c r="AQ363">
         <v>0</v>
       </c>
+      <c r="AR363">
+        <v>0</v>
+      </c>
     </row>
-    <row r="364" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -50142,8 +50925,11 @@
       <c r="AQ364">
         <v>0</v>
       </c>
+      <c r="AR364">
+        <v>0</v>
+      </c>
     </row>
-    <row r="365" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -50270,8 +51056,11 @@
       <c r="AQ365">
         <v>0</v>
       </c>
+      <c r="AR365">
+        <v>0</v>
+      </c>
     </row>
-    <row r="366" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -50398,8 +51187,11 @@
       <c r="AQ366">
         <v>0</v>
       </c>
+      <c r="AR366">
+        <v>0</v>
+      </c>
     </row>
-    <row r="367" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -50526,8 +51318,11 @@
       <c r="AQ367">
         <v>0</v>
       </c>
+      <c r="AR367">
+        <v>0</v>
+      </c>
     </row>
-    <row r="368" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>398</v>
       </c>
@@ -50654,8 +51449,11 @@
       <c r="AQ368">
         <v>0</v>
       </c>
+      <c r="AR368">
+        <v>0</v>
+      </c>
     </row>
-    <row r="369" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -50785,8 +51583,11 @@
       <c r="AQ369">
         <v>0</v>
       </c>
+      <c r="AR369">
+        <v>0</v>
+      </c>
     </row>
-    <row r="370" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -50913,8 +51714,11 @@
       <c r="AQ370">
         <v>0</v>
       </c>
+      <c r="AR370">
+        <v>0</v>
+      </c>
     </row>
-    <row r="371" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -51041,8 +51845,11 @@
       <c r="AQ371">
         <v>0</v>
       </c>
+      <c r="AR371">
+        <v>0</v>
+      </c>
     </row>
-    <row r="372" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -51169,8 +51976,11 @@
       <c r="AQ372">
         <v>0</v>
       </c>
+      <c r="AR372">
+        <v>0</v>
+      </c>
     </row>
-    <row r="373" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -51300,8 +52110,11 @@
       <c r="AQ373">
         <v>0</v>
       </c>
+      <c r="AR373">
+        <v>0</v>
+      </c>
     </row>
-    <row r="374" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -51428,8 +52241,11 @@
       <c r="AQ374">
         <v>0</v>
       </c>
+      <c r="AR374">
+        <v>0</v>
+      </c>
     </row>
-    <row r="375" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -51556,8 +52372,11 @@
       <c r="AQ375">
         <v>0</v>
       </c>
+      <c r="AR375">
+        <v>0</v>
+      </c>
     </row>
-    <row r="376" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -51684,8 +52503,11 @@
       <c r="AQ376">
         <v>0</v>
       </c>
+      <c r="AR376">
+        <v>0</v>
+      </c>
     </row>
-    <row r="377" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -51812,8 +52634,11 @@
       <c r="AQ377">
         <v>0</v>
       </c>
+      <c r="AR377">
+        <v>0</v>
+      </c>
     </row>
-    <row r="378" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -51940,8 +52765,11 @@
       <c r="AQ378">
         <v>0</v>
       </c>
+      <c r="AR378">
+        <v>0</v>
+      </c>
     </row>
-    <row r="379" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -52068,8 +52896,11 @@
       <c r="AQ379">
         <v>0</v>
       </c>
+      <c r="AR379">
+        <v>0</v>
+      </c>
     </row>
-    <row r="380" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -52199,8 +53030,11 @@
       <c r="AQ380">
         <v>0</v>
       </c>
+      <c r="AR380">
+        <v>0</v>
+      </c>
     </row>
-    <row r="381" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -52327,8 +53161,11 @@
       <c r="AQ381">
         <v>0</v>
       </c>
+      <c r="AR381">
+        <v>0</v>
+      </c>
     </row>
-    <row r="382" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>413</v>
       </c>
@@ -52455,8 +53292,11 @@
       <c r="AQ382">
         <v>0</v>
       </c>
+      <c r="AR382">
+        <v>0</v>
+      </c>
     </row>
-    <row r="383" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -52583,8 +53423,11 @@
       <c r="AQ383">
         <v>0</v>
       </c>
+      <c r="AR383">
+        <v>0</v>
+      </c>
     </row>
-    <row r="384" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>415</v>
       </c>
@@ -52711,8 +53554,11 @@
       <c r="AQ384">
         <v>0</v>
       </c>
+      <c r="AR384">
+        <v>0</v>
+      </c>
     </row>
-    <row r="385" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -52839,8 +53685,11 @@
       <c r="AQ385">
         <v>0</v>
       </c>
+      <c r="AR385">
+        <v>0</v>
+      </c>
     </row>
-    <row r="386" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>417</v>
       </c>
@@ -52970,8 +53819,11 @@
       <c r="AQ386">
         <v>0</v>
       </c>
+      <c r="AR386">
+        <v>0</v>
+      </c>
     </row>
-    <row r="387" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -53098,8 +53950,11 @@
       <c r="AQ387" t="s">
         <v>308</v>
       </c>
+      <c r="AR387" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="388" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>419</v>
       </c>
@@ -53226,8 +54081,11 @@
       <c r="AQ388">
         <v>0</v>
       </c>
+      <c r="AR388">
+        <v>0</v>
+      </c>
     </row>
-    <row r="389" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -53354,8 +54212,11 @@
       <c r="AQ389">
         <v>0</v>
       </c>
+      <c r="AR389">
+        <v>0</v>
+      </c>
     </row>
-    <row r="390" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>421</v>
       </c>
@@ -53482,8 +54343,11 @@
       <c r="AQ390">
         <v>0</v>
       </c>
+      <c r="AR390">
+        <v>0</v>
+      </c>
     </row>
-    <row r="391" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -53613,8 +54477,11 @@
       <c r="AQ391" t="s">
         <v>308</v>
       </c>
+      <c r="AR391" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="392" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>423</v>
       </c>
@@ -53744,8 +54611,11 @@
       <c r="AQ392">
         <v>0</v>
       </c>
+      <c r="AR392">
+        <v>0</v>
+      </c>
     </row>
-    <row r="393" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>424</v>
       </c>
@@ -53872,8 +54742,11 @@
       <c r="AQ393">
         <v>0</v>
       </c>
+      <c r="AR393">
+        <v>0</v>
+      </c>
     </row>
-    <row r="394" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>425</v>
       </c>
@@ -54000,8 +54873,11 @@
       <c r="AQ394">
         <v>0</v>
       </c>
+      <c r="AR394">
+        <v>0</v>
+      </c>
     </row>
-    <row r="395" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>426</v>
       </c>
@@ -54128,8 +55004,11 @@
       <c r="AQ395">
         <v>0</v>
       </c>
+      <c r="AR395">
+        <v>0</v>
+      </c>
     </row>
-    <row r="396" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>427</v>
       </c>
@@ -54256,8 +55135,11 @@
       <c r="AQ396">
         <v>0</v>
       </c>
+      <c r="AR396">
+        <v>0</v>
+      </c>
     </row>
-    <row r="397" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>428</v>
       </c>
@@ -54384,8 +55266,11 @@
       <c r="AQ397">
         <v>0</v>
       </c>
+      <c r="AR397">
+        <v>0</v>
+      </c>
     </row>
-    <row r="398" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>429</v>
       </c>
@@ -54512,8 +55397,11 @@
       <c r="AQ398">
         <v>0</v>
       </c>
+      <c r="AR398">
+        <v>0</v>
+      </c>
     </row>
-    <row r="399" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>430</v>
       </c>
@@ -54643,8 +55531,11 @@
       <c r="AQ399">
         <v>0</v>
       </c>
+      <c r="AR399">
+        <v>0</v>
+      </c>
     </row>
-    <row r="400" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>431</v>
       </c>
@@ -54771,8 +55662,11 @@
       <c r="AQ400">
         <v>0</v>
       </c>
+      <c r="AR400">
+        <v>0</v>
+      </c>
     </row>
-    <row r="401" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>432</v>
       </c>
@@ -54899,8 +55793,11 @@
       <c r="AQ401">
         <v>0</v>
       </c>
+      <c r="AR401">
+        <v>0</v>
+      </c>
     </row>
-    <row r="402" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>433</v>
       </c>
@@ -55030,8 +55927,11 @@
       <c r="AQ402" t="s">
         <v>308</v>
       </c>
+      <c r="AR402" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="403" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>434</v>
       </c>
@@ -55158,8 +56058,11 @@
       <c r="AQ403">
         <v>0</v>
       </c>
+      <c r="AR403">
+        <v>0</v>
+      </c>
     </row>
-    <row r="404" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>435</v>
       </c>
@@ -55289,8 +56192,11 @@
       <c r="AQ404">
         <v>0</v>
       </c>
+      <c r="AR404">
+        <v>0</v>
+      </c>
     </row>
-    <row r="405" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>437</v>
       </c>
@@ -55417,8 +56323,11 @@
       <c r="AQ405">
         <v>0</v>
       </c>
+      <c r="AR405">
+        <v>0</v>
+      </c>
     </row>
-    <row r="406" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>438</v>
       </c>
@@ -55545,8 +56454,11 @@
       <c r="AQ406">
         <v>0</v>
       </c>
+      <c r="AR406">
+        <v>0</v>
+      </c>
     </row>
-    <row r="407" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>439</v>
       </c>
@@ -55673,8 +56585,11 @@
       <c r="AQ407">
         <v>0</v>
       </c>
+      <c r="AR407">
+        <v>0</v>
+      </c>
     </row>
-    <row r="408" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>440</v>
       </c>
@@ -55801,8 +56716,11 @@
       <c r="AQ408">
         <v>0</v>
       </c>
+      <c r="AR408">
+        <v>0</v>
+      </c>
     </row>
-    <row r="409" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>441</v>
       </c>
@@ -55929,8 +56847,11 @@
       <c r="AQ409">
         <v>0</v>
       </c>
+      <c r="AR409">
+        <v>0</v>
+      </c>
     </row>
-    <row r="410" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>442</v>
       </c>
@@ -56057,8 +56978,11 @@
       <c r="AQ410">
         <v>0</v>
       </c>
+      <c r="AR410">
+        <v>0</v>
+      </c>
     </row>
-    <row r="411" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>443</v>
       </c>
@@ -56185,8 +57109,11 @@
       <c r="AQ411">
         <v>0</v>
       </c>
+      <c r="AR411">
+        <v>0</v>
+      </c>
     </row>
-    <row r="412" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>444</v>
       </c>
@@ -56313,8 +57240,11 @@
       <c r="AQ412">
         <v>0</v>
       </c>
+      <c r="AR412">
+        <v>0</v>
+      </c>
     </row>
-    <row r="413" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>445</v>
       </c>
@@ -56441,8 +57371,11 @@
       <c r="AQ413">
         <v>0</v>
       </c>
+      <c r="AR413">
+        <v>0</v>
+      </c>
     </row>
-    <row r="414" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>446</v>
       </c>
@@ -56569,8 +57502,11 @@
       <c r="AQ414">
         <v>0</v>
       </c>
+      <c r="AR414">
+        <v>0</v>
+      </c>
     </row>
-    <row r="415" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>447</v>
       </c>
@@ -56697,8 +57633,11 @@
       <c r="AQ415">
         <v>0</v>
       </c>
+      <c r="AR415">
+        <v>0</v>
+      </c>
     </row>
-    <row r="416" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>448</v>
       </c>
@@ -56825,8 +57764,11 @@
       <c r="AQ416" t="s">
         <v>308</v>
       </c>
+      <c r="AR416" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="417" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>449</v>
       </c>
@@ -56956,8 +57898,11 @@
       <c r="AQ417" t="s">
         <v>308</v>
       </c>
+      <c r="AR417" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="418" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>450</v>
       </c>
@@ -57084,8 +58029,11 @@
       <c r="AQ418">
         <v>0</v>
       </c>
+      <c r="AR418">
+        <v>0</v>
+      </c>
     </row>
-    <row r="419" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>451</v>
       </c>
@@ -57212,8 +58160,11 @@
       <c r="AQ419">
         <v>0</v>
       </c>
+      <c r="AR419">
+        <v>0</v>
+      </c>
     </row>
-    <row r="420" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>452</v>
       </c>
@@ -57340,8 +58291,11 @@
       <c r="AQ420">
         <v>0</v>
       </c>
+      <c r="AR420">
+        <v>0</v>
+      </c>
     </row>
-    <row r="421" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>453</v>
       </c>
@@ -57471,8 +58425,11 @@
       <c r="AQ421" t="s">
         <v>308</v>
       </c>
+      <c r="AR421" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="422" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>454</v>
       </c>
@@ -57600,7 +58557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>455</v>
       </c>
@@ -57731,7 +58688,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="424" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>457</v>
       </c>
@@ -57859,7 +58816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>458</v>
       </c>
@@ -57987,7 +58944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>459</v>
       </c>
@@ -58115,7 +59072,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="427" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>460</v>
       </c>
@@ -58243,7 +59200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>461</v>
       </c>
@@ -58371,7 +59328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>462</v>
       </c>
@@ -58502,7 +59459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>464</v>
       </c>
@@ -58630,7 +59587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>465</v>
       </c>
@@ -58761,7 +59718,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="432" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>466</v>
       </c>
@@ -60940,7 +61897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>484</v>
       </c>
@@ -61068,7 +62025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>485</v>
       </c>
@@ -61196,7 +62153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>486</v>
       </c>
@@ -61327,7 +62284,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="452" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>487</v>
       </c>
@@ -61454,8 +62411,11 @@
       <c r="AQ452">
         <v>0</v>
       </c>
+      <c r="AR452">
+        <v>0</v>
+      </c>
     </row>
-    <row r="453" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>490</v>
       </c>
@@ -61582,8 +62542,11 @@
       <c r="AQ453">
         <v>0</v>
       </c>
+      <c r="AR453">
+        <v>0</v>
+      </c>
     </row>
-    <row r="454" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>491</v>
       </c>
@@ -61710,8 +62673,11 @@
       <c r="AQ454">
         <v>0</v>
       </c>
+      <c r="AR454">
+        <v>0</v>
+      </c>
     </row>
-    <row r="455" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>492</v>
       </c>
@@ -61838,8 +62804,11 @@
       <c r="AQ455">
         <v>0</v>
       </c>
+      <c r="AR455">
+        <v>0</v>
+      </c>
     </row>
-    <row r="456" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>493</v>
       </c>
@@ -61966,8 +62935,11 @@
       <c r="AQ456">
         <v>0</v>
       </c>
+      <c r="AR456">
+        <v>0</v>
+      </c>
     </row>
-    <row r="457" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>494</v>
       </c>
@@ -62097,8 +63069,11 @@
       <c r="AQ457" s="2">
         <v>0</v>
       </c>
+      <c r="AR457" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="458" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>495</v>
       </c>
@@ -62225,8 +63200,11 @@
       <c r="AQ458" s="2">
         <v>0</v>
       </c>
+      <c r="AR458" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="459" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>496</v>
       </c>
@@ -62353,8 +63331,11 @@
       <c r="AQ459" s="2">
         <v>0</v>
       </c>
+      <c r="AR459" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="460" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>497</v>
       </c>
@@ -62481,8 +63462,11 @@
       <c r="AQ460" s="2">
         <v>0</v>
       </c>
+      <c r="AR460" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="461" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>498</v>
       </c>
@@ -62609,8 +63593,11 @@
       <c r="AQ461" s="2">
         <v>0</v>
       </c>
+      <c r="AR461" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="462" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>499</v>
       </c>
@@ -62737,8 +63724,11 @@
       <c r="AQ462" s="2">
         <v>0</v>
       </c>
+      <c r="AR462" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="463" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>500</v>
       </c>
@@ -62865,8 +63855,11 @@
       <c r="AQ463" s="2">
         <v>0</v>
       </c>
+      <c r="AR463" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="464" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>501</v>
       </c>
@@ -62993,8 +63986,11 @@
       <c r="AQ464" s="2">
         <v>0</v>
       </c>
+      <c r="AR464" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="465" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>502</v>
       </c>
@@ -63121,8 +64117,11 @@
       <c r="AQ465" s="2">
         <v>0</v>
       </c>
+      <c r="AR465" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="466" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>503</v>
       </c>
@@ -63249,8 +64248,11 @@
       <c r="AQ466" s="2">
         <v>0</v>
       </c>
+      <c r="AR466" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="467" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>504</v>
       </c>
@@ -63377,8 +64379,11 @@
       <c r="AQ467" s="2">
         <v>0</v>
       </c>
+      <c r="AR467" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="468" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>505</v>
       </c>
@@ -63508,8 +64513,11 @@
       <c r="AQ468" s="2">
         <v>0</v>
       </c>
+      <c r="AR468" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="469" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>506</v>
       </c>
@@ -63639,8 +64647,11 @@
       <c r="AQ469" s="2">
         <v>0</v>
       </c>
+      <c r="AR469" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="470" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>507</v>
       </c>
@@ -63767,8 +64778,11 @@
       <c r="AQ470" s="2">
         <v>0</v>
       </c>
+      <c r="AR470" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="471" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>508</v>
       </c>
@@ -63895,8 +64909,11 @@
       <c r="AQ471" s="2">
         <v>0</v>
       </c>
+      <c r="AR471" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="472" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>509</v>
       </c>
@@ -64023,8 +65040,11 @@
       <c r="AQ472" s="2">
         <v>0</v>
       </c>
+      <c r="AR472" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="473" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>510</v>
       </c>
@@ -64151,8 +65171,11 @@
       <c r="AQ473" s="2">
         <v>0</v>
       </c>
+      <c r="AR473" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="474" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>511</v>
       </c>
@@ -64279,8 +65302,11 @@
       <c r="AQ474" s="2">
         <v>0</v>
       </c>
+      <c r="AR474" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="475" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>512</v>
       </c>
@@ -64410,8 +65436,11 @@
       <c r="AQ475" s="2">
         <v>0</v>
       </c>
+      <c r="AR475" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="476" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>513</v>
       </c>
@@ -64538,8 +65567,11 @@
       <c r="AQ476" s="2">
         <v>0</v>
       </c>
+      <c r="AR476" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="477" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>514</v>
       </c>
@@ -64666,8 +65698,11 @@
       <c r="AQ477" s="2">
         <v>0</v>
       </c>
+      <c r="AR477" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="478" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>515</v>
       </c>
@@ -64794,8 +65829,11 @@
       <c r="AQ478" s="2">
         <v>0</v>
       </c>
+      <c r="AR478" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="479" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>516</v>
       </c>
@@ -64922,8 +65960,11 @@
       <c r="AQ479" s="2">
         <v>0</v>
       </c>
+      <c r="AR479" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="480" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>517</v>
       </c>
@@ -65050,8 +66091,11 @@
       <c r="AQ480" s="2">
         <v>0</v>
       </c>
+      <c r="AR480" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="481" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>518</v>
       </c>
@@ -65178,8 +66222,11 @@
       <c r="AQ481" s="2">
         <v>0</v>
       </c>
+      <c r="AR481" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="482" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>519</v>
       </c>
@@ -65306,8 +66353,11 @@
       <c r="AQ482">
         <v>0</v>
       </c>
+      <c r="AR482">
+        <v>0</v>
+      </c>
     </row>
-    <row r="483" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>520</v>
       </c>
@@ -65434,8 +66484,11 @@
       <c r="AQ483">
         <v>0</v>
       </c>
+      <c r="AR483">
+        <v>0</v>
+      </c>
     </row>
-    <row r="484" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>521</v>
       </c>
@@ -65562,8 +66615,11 @@
       <c r="AQ484">
         <v>0</v>
       </c>
+      <c r="AR484">
+        <v>0</v>
+      </c>
     </row>
-    <row r="485" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>522</v>
       </c>
@@ -65690,8 +66746,11 @@
       <c r="AQ485">
         <v>0</v>
       </c>
+      <c r="AR485">
+        <v>0</v>
+      </c>
     </row>
-    <row r="486" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>523</v>
       </c>
@@ -65818,8 +66877,11 @@
       <c r="AQ486">
         <v>0</v>
       </c>
+      <c r="AR486">
+        <v>0</v>
+      </c>
     </row>
-    <row r="487" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>524</v>
       </c>
@@ -65946,8 +67008,11 @@
       <c r="AQ487">
         <v>0</v>
       </c>
+      <c r="AR487">
+        <v>0</v>
+      </c>
     </row>
-    <row r="488" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>525</v>
       </c>
@@ -66077,8 +67142,11 @@
       <c r="AQ488">
         <v>0</v>
       </c>
+      <c r="AR488">
+        <v>0</v>
+      </c>
     </row>
-    <row r="489" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>526</v>
       </c>
@@ -66205,8 +67273,11 @@
       <c r="AQ489">
         <v>0</v>
       </c>
+      <c r="AR489">
+        <v>0</v>
+      </c>
     </row>
-    <row r="490" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>527</v>
       </c>
@@ -66333,8 +67404,11 @@
       <c r="AQ490">
         <v>0</v>
       </c>
+      <c r="AR490">
+        <v>0</v>
+      </c>
     </row>
-    <row r="491" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>528</v>
       </c>
@@ -66461,8 +67535,11 @@
       <c r="AQ491">
         <v>0</v>
       </c>
+      <c r="AR491">
+        <v>0</v>
+      </c>
     </row>
-    <row r="492" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>529</v>
       </c>
@@ -66589,8 +67666,11 @@
       <c r="AQ492">
         <v>0</v>
       </c>
+      <c r="AR492">
+        <v>0</v>
+      </c>
     </row>
-    <row r="493" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>530</v>
       </c>
@@ -66717,8 +67797,11 @@
       <c r="AQ493">
         <v>0</v>
       </c>
+      <c r="AR493">
+        <v>0</v>
+      </c>
     </row>
-    <row r="494" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>531</v>
       </c>
@@ -66845,8 +67928,11 @@
       <c r="AQ494">
         <v>0</v>
       </c>
+      <c r="AR494">
+        <v>0</v>
+      </c>
     </row>
-    <row r="495" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>532</v>
       </c>
@@ -66976,8 +68062,11 @@
       <c r="AQ495" t="s">
         <v>308</v>
       </c>
+      <c r="AR495" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="496" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>533</v>
       </c>
@@ -67104,8 +68193,11 @@
       <c r="AQ496">
         <v>0</v>
       </c>
+      <c r="AR496">
+        <v>0</v>
+      </c>
     </row>
-    <row r="497" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>534</v>
       </c>
@@ -67232,8 +68324,11 @@
       <c r="AQ497" s="2">
         <v>0</v>
       </c>
+      <c r="AR497" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="498" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>535</v>
       </c>
@@ -67360,8 +68455,11 @@
       <c r="AQ498" s="2">
         <v>0</v>
       </c>
+      <c r="AR498" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="499" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>536</v>
       </c>
@@ -67488,8 +68586,11 @@
       <c r="AQ499" s="2">
         <v>0</v>
       </c>
+      <c r="AR499" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="500" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>537</v>
       </c>
@@ -67616,8 +68717,11 @@
       <c r="AQ500" s="2">
         <v>0</v>
       </c>
+      <c r="AR500" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="501" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>538</v>
       </c>
@@ -67744,8 +68848,11 @@
       <c r="AQ501" s="2">
         <v>0</v>
       </c>
+      <c r="AR501" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="502" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>539</v>
       </c>
@@ -67872,8 +68979,11 @@
       <c r="AQ502" s="2">
         <v>0</v>
       </c>
+      <c r="AR502" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="503" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>540</v>
       </c>
@@ -68000,8 +69110,11 @@
       <c r="AQ503" s="2">
         <v>0</v>
       </c>
+      <c r="AR503" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="504" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>541</v>
       </c>
@@ -68128,8 +69241,11 @@
       <c r="AQ504" s="2">
         <v>0</v>
       </c>
+      <c r="AR504" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="505" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>542</v>
       </c>
@@ -68256,8 +69372,11 @@
       <c r="AQ505" s="2">
         <v>0</v>
       </c>
+      <c r="AR505" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="506" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>543</v>
       </c>
@@ -68384,8 +69503,11 @@
       <c r="AQ506" s="2">
         <v>0</v>
       </c>
+      <c r="AR506" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="507" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>544</v>
       </c>
@@ -68512,8 +69634,11 @@
       <c r="AQ507" s="2">
         <v>0</v>
       </c>
+      <c r="AR507" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="508" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>545</v>
       </c>
@@ -68640,8 +69765,11 @@
       <c r="AQ508" s="2">
         <v>0</v>
       </c>
+      <c r="AR508" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="509" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>546</v>
       </c>
@@ -68768,8 +69896,11 @@
       <c r="AQ509" s="2">
         <v>0</v>
       </c>
+      <c r="AR509" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="510" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>547</v>
       </c>
@@ -68896,8 +70027,11 @@
       <c r="AQ510" s="2">
         <v>0</v>
       </c>
+      <c r="AR510" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="511" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>548</v>
       </c>
@@ -69024,8 +70158,11 @@
       <c r="AQ511" s="2">
         <v>0</v>
       </c>
+      <c r="AR511" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="512" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>549</v>
       </c>
@@ -72883,7 +74020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>580</v>
       </c>
@@ -73005,7 +74142,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="543" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>583</v>
       </c>
@@ -73124,7 +74261,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="544" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>584</v>
       </c>
@@ -73246,7 +74383,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="545" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>585</v>
       </c>
@@ -73365,7 +74502,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="546" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>586</v>
       </c>
@@ -73484,7 +74621,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="547" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>587</v>
       </c>
@@ -73603,7 +74740,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="548" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>588</v>
       </c>
@@ -73722,7 +74859,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="549" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>589</v>
       </c>
@@ -73841,7 +74978,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="550" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>590</v>
       </c>
@@ -73960,7 +75097,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="551" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>591</v>
       </c>
@@ -74079,7 +75216,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="552" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>592</v>
       </c>
@@ -74198,7 +75335,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="553" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>593</v>
       </c>
@@ -74317,7 +75454,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="554" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>594</v>
       </c>
@@ -74439,7 +75576,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="555" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>595</v>
       </c>
@@ -74558,7 +75695,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="556" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>596</v>
       </c>
@@ -74677,7 +75814,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="557" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>597</v>
       </c>
@@ -74793,7 +75930,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="558" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>598</v>
       </c>
@@ -74912,7 +76049,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="559" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>599</v>
       </c>
@@ -75031,7 +76168,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="560" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>600</v>
       </c>
@@ -75150,7 +76287,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="561" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>601</v>
       </c>
@@ -75269,7 +76406,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="562" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>602</v>
       </c>
@@ -75388,7 +76525,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="563" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>603</v>
       </c>
@@ -75507,7 +76644,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="564" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>604</v>
       </c>
@@ -75626,7 +76763,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="565" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>605</v>
       </c>
@@ -75745,7 +76882,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="566" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>606</v>
       </c>
@@ -75864,7 +77001,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="567" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>607</v>
       </c>
@@ -75983,7 +77120,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="568" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>608</v>
       </c>
@@ -76102,7 +77239,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="569" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>609</v>
       </c>
@@ -76221,7 +77358,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="570" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>610</v>
       </c>
@@ -76340,7 +77477,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="571" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>611</v>
       </c>
@@ -78253,7 +79390,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="587" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>627</v>
       </c>
@@ -78372,7 +79509,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="588" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>628</v>
       </c>
@@ -78491,7 +79628,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="589" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>629</v>
       </c>
@@ -78610,7 +79747,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="590" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>630</v>
       </c>
@@ -78732,7 +79869,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="591" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>631</v>
       </c>
@@ -78851,7 +79988,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="592" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>632</v>
       </c>
@@ -78970,7 +80107,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="593" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>633</v>
       </c>
@@ -79089,7 +80226,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="594" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>634</v>
       </c>
@@ -79208,7 +80345,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="595" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>635</v>
       </c>
@@ -79327,7 +80464,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="596" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>636</v>
       </c>
@@ -79446,7 +80583,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="597" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>637</v>
       </c>
@@ -79565,7 +80702,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="598" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>638</v>
       </c>
@@ -79684,7 +80821,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="599" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>639</v>
       </c>
@@ -79803,7 +80940,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="600" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>640</v>
       </c>
@@ -79922,7 +81059,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="601" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>641</v>
       </c>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DCE158-7E6D-AA46-9856-2340A00F6655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB68AC2-1087-724F-8E8B-7D6BAF56C3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5474" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="746">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2779,12 +2779,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3549,9 +3548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR122" sqref="AR122"/>
+    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS164" sqref="AS164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7900,7 +7899,7 @@
       <c r="AQ33">
         <v>6</v>
       </c>
-      <c r="AR33" s="4">
+      <c r="AR33">
         <v>0</v>
       </c>
     </row>
@@ -8031,7 +8030,7 @@
       <c r="AQ34">
         <v>6</v>
       </c>
-      <c r="AR34" s="4">
+      <c r="AR34">
         <v>6</v>
       </c>
     </row>
@@ -8162,7 +8161,7 @@
       <c r="AQ35">
         <v>0</v>
       </c>
-      <c r="AR35" s="4">
+      <c r="AR35">
         <v>0</v>
       </c>
     </row>
@@ -8293,7 +8292,7 @@
       <c r="AQ36">
         <v>0</v>
       </c>
-      <c r="AR36" s="4">
+      <c r="AR36">
         <v>0</v>
       </c>
     </row>
@@ -8424,7 +8423,7 @@
       <c r="AQ37">
         <v>6</v>
       </c>
-      <c r="AR37" s="4">
+      <c r="AR37">
         <v>0</v>
       </c>
     </row>
@@ -8555,7 +8554,7 @@
       <c r="AQ38">
         <v>6</v>
       </c>
-      <c r="AR38" s="4">
+      <c r="AR38">
         <v>0</v>
       </c>
     </row>
@@ -8686,7 +8685,7 @@
       <c r="AQ39">
         <v>0</v>
       </c>
-      <c r="AR39" s="4">
+      <c r="AR39">
         <v>0</v>
       </c>
     </row>
@@ -8817,7 +8816,7 @@
       <c r="AQ40">
         <v>0</v>
       </c>
-      <c r="AR40" s="4">
+      <c r="AR40">
         <v>0</v>
       </c>
     </row>
@@ -8948,7 +8947,7 @@
       <c r="AQ41">
         <v>0</v>
       </c>
-      <c r="AR41" s="4">
+      <c r="AR41">
         <v>0</v>
       </c>
     </row>
@@ -9082,7 +9081,7 @@
       <c r="AQ42">
         <v>6</v>
       </c>
-      <c r="AR42" s="4">
+      <c r="AR42">
         <v>6</v>
       </c>
     </row>
@@ -9213,7 +9212,7 @@
       <c r="AQ43">
         <v>6</v>
       </c>
-      <c r="AR43" s="4">
+      <c r="AR43">
         <v>0</v>
       </c>
     </row>
@@ -9344,7 +9343,7 @@
       <c r="AQ44">
         <v>0</v>
       </c>
-      <c r="AR44" s="4">
+      <c r="AR44">
         <v>0</v>
       </c>
     </row>
@@ -9475,7 +9474,7 @@
       <c r="AQ45">
         <v>6</v>
       </c>
-      <c r="AR45" s="4">
+      <c r="AR45">
         <v>0</v>
       </c>
     </row>
@@ -9606,7 +9605,7 @@
       <c r="AQ46">
         <v>0</v>
       </c>
-      <c r="AR46" s="4">
+      <c r="AR46">
         <v>0</v>
       </c>
     </row>
@@ -19589,6 +19588,9 @@
       <c r="AQ122" s="2">
         <v>0</v>
       </c>
+      <c r="AR122" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -19717,6 +19719,9 @@
       <c r="AQ123" s="2">
         <v>0</v>
       </c>
+      <c r="AR123" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -19845,6 +19850,9 @@
       <c r="AQ124" s="2">
         <v>0</v>
       </c>
+      <c r="AR124" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -19973,6 +19981,9 @@
       <c r="AQ125" s="2">
         <v>6</v>
       </c>
+      <c r="AR125" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -20101,6 +20112,9 @@
       <c r="AQ126" s="2">
         <v>0</v>
       </c>
+      <c r="AR126" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -20229,6 +20243,9 @@
       <c r="AQ127" s="2">
         <v>0</v>
       </c>
+      <c r="AR127" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -20357,6 +20374,9 @@
       <c r="AQ128" s="2">
         <v>6</v>
       </c>
+      <c r="AR128" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="129" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -20485,6 +20505,9 @@
       <c r="AQ129" s="2">
         <v>0</v>
       </c>
+      <c r="AR129" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -20613,6 +20636,9 @@
       <c r="AQ130" s="2">
         <v>0</v>
       </c>
+      <c r="AR130" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -20744,6 +20770,9 @@
       <c r="AQ131" t="s">
         <v>308</v>
       </c>
+      <c r="AR131" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="132" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -20872,6 +20901,9 @@
       <c r="AQ132" s="2">
         <v>0</v>
       </c>
+      <c r="AR132" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -21000,6 +21032,9 @@
       <c r="AQ133" s="2">
         <v>0</v>
       </c>
+      <c r="AR133" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -21128,6 +21163,9 @@
       <c r="AQ134" s="2">
         <v>6</v>
       </c>
+      <c r="AR134" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="135" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -21256,6 +21294,9 @@
       <c r="AQ135" s="2">
         <v>0</v>
       </c>
+      <c r="AR135" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -21384,6 +21425,9 @@
       <c r="AQ136" s="2">
         <v>6</v>
       </c>
+      <c r="AR136" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="137" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -21516,7 +21560,7 @@
         <v>6</v>
       </c>
       <c r="AR137">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
@@ -21778,7 +21822,7 @@
         <v>6</v>
       </c>
       <c r="AR139">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
@@ -22695,7 +22739,7 @@
         <v>6</v>
       </c>
       <c r="AR146">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
@@ -23225,7 +23269,7 @@
         <v>6</v>
       </c>
       <c r="AR150">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
@@ -23486,6 +23530,9 @@
       <c r="AQ152">
         <v>0</v>
       </c>
+      <c r="AR152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -23614,6 +23661,9 @@
       <c r="AQ153">
         <v>0</v>
       </c>
+      <c r="AR153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -23742,6 +23792,9 @@
       <c r="AQ154">
         <v>6</v>
       </c>
+      <c r="AR154">
+        <v>6</v>
+      </c>
     </row>
     <row r="155" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -23870,6 +23923,9 @@
       <c r="AQ155">
         <v>0</v>
       </c>
+      <c r="AR155">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -23998,6 +24054,9 @@
       <c r="AQ156">
         <v>0</v>
       </c>
+      <c r="AR156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -24126,6 +24185,9 @@
       <c r="AQ157">
         <v>0</v>
       </c>
+      <c r="AR157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -24254,6 +24316,9 @@
       <c r="AQ158">
         <v>6</v>
       </c>
+      <c r="AR158">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -24382,6 +24447,9 @@
       <c r="AQ159">
         <v>0</v>
       </c>
+      <c r="AR159">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -24510,8 +24578,11 @@
       <c r="AQ160">
         <v>0</v>
       </c>
+      <c r="AR160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -24638,8 +24709,11 @@
       <c r="AQ161">
         <v>0</v>
       </c>
+      <c r="AR161">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -24769,8 +24843,11 @@
       <c r="AQ162">
         <v>6</v>
       </c>
+      <c r="AR162">
+        <v>6</v>
+      </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -24897,8 +24974,11 @@
       <c r="AQ163">
         <v>0</v>
       </c>
+      <c r="AR163">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -25028,8 +25108,11 @@
       <c r="AQ164">
         <v>5</v>
       </c>
+      <c r="AR164">
+        <v>6</v>
+      </c>
     </row>
-    <row r="165" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -25156,8 +25239,11 @@
       <c r="AQ165">
         <v>0</v>
       </c>
+      <c r="AR165">
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>182</v>
       </c>
@@ -25284,8 +25370,11 @@
       <c r="AQ166">
         <v>0</v>
       </c>
+      <c r="AR166">
+        <v>0</v>
+      </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -25412,8 +25501,11 @@
       <c r="AQ167">
         <v>0</v>
       </c>
+      <c r="AR167">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -25540,8 +25632,11 @@
       <c r="AQ168">
         <v>0</v>
       </c>
+      <c r="AR168">
+        <v>0</v>
+      </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -25668,8 +25763,11 @@
       <c r="AQ169">
         <v>0</v>
       </c>
+      <c r="AR169">
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>186</v>
       </c>
@@ -25796,8 +25894,11 @@
       <c r="AQ170">
         <v>0</v>
       </c>
+      <c r="AR170">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -25924,8 +26025,11 @@
       <c r="AQ171">
         <v>0</v>
       </c>
+      <c r="AR171">
+        <v>0</v>
+      </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>188</v>
       </c>
@@ -26052,8 +26156,11 @@
       <c r="AQ172">
         <v>0</v>
       </c>
+      <c r="AR172">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -26180,8 +26287,11 @@
       <c r="AQ173">
         <v>0</v>
       </c>
+      <c r="AR173">
+        <v>0</v>
+      </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>190</v>
       </c>
@@ -26308,8 +26418,11 @@
       <c r="AQ174">
         <v>0</v>
       </c>
+      <c r="AR174">
+        <v>0</v>
+      </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -26436,8 +26549,11 @@
       <c r="AQ175">
         <v>0</v>
       </c>
+      <c r="AR175">
+        <v>0</v>
+      </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -26562,6 +26678,9 @@
         <v>6</v>
       </c>
       <c r="AQ176">
+        <v>0</v>
+      </c>
+      <c r="AR176">
         <v>0</v>
       </c>
     </row>
@@ -26692,6 +26811,9 @@
       <c r="AQ177">
         <v>0</v>
       </c>
+      <c r="AR177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -26820,6 +26942,9 @@
       <c r="AQ178">
         <v>0</v>
       </c>
+      <c r="AR178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
@@ -26948,6 +27073,9 @@
       <c r="AQ179">
         <v>0</v>
       </c>
+      <c r="AR179">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -27076,6 +27204,9 @@
       <c r="AQ180">
         <v>0</v>
       </c>
+      <c r="AR180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -27204,6 +27335,9 @@
       <c r="AQ181">
         <v>0</v>
       </c>
+      <c r="AR181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -35103,6 +35237,9 @@
       <c r="AQ242">
         <v>0</v>
       </c>
+      <c r="AR242">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
@@ -35229,6 +35366,9 @@
       <c r="AQ243">
         <v>0</v>
       </c>
+      <c r="AR243">
+        <v>0</v>
+      </c>
     </row>
     <row r="244" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
@@ -35355,6 +35495,9 @@
       <c r="AQ244">
         <v>0</v>
       </c>
+      <c r="AR244">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
@@ -35481,6 +35624,9 @@
       <c r="AQ245">
         <v>0</v>
       </c>
+      <c r="AR245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
@@ -35607,6 +35753,9 @@
       <c r="AQ246">
         <v>0</v>
       </c>
+      <c r="AR246">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -35733,6 +35882,9 @@
       <c r="AQ247">
         <v>0</v>
       </c>
+      <c r="AR247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
@@ -35859,6 +36011,9 @@
       <c r="AQ248">
         <v>0</v>
       </c>
+      <c r="AR248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
@@ -35985,6 +36140,9 @@
       <c r="AQ249">
         <v>0</v>
       </c>
+      <c r="AR249">
+        <v>0</v>
+      </c>
     </row>
     <row r="250" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
@@ -36111,6 +36269,9 @@
       <c r="AQ250">
         <v>0</v>
       </c>
+      <c r="AR250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
@@ -36237,6 +36398,9 @@
       <c r="AQ251">
         <v>0</v>
       </c>
+      <c r="AR251">
+        <v>0</v>
+      </c>
     </row>
     <row r="252" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
@@ -36363,6 +36527,9 @@
       <c r="AQ252">
         <v>0</v>
       </c>
+      <c r="AR252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
@@ -36489,6 +36656,9 @@
       <c r="AQ253">
         <v>0</v>
       </c>
+      <c r="AR253">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
@@ -36615,6 +36785,9 @@
       <c r="AQ254">
         <v>0</v>
       </c>
+      <c r="AR254">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -36741,6 +36914,9 @@
       <c r="AQ255">
         <v>0</v>
       </c>
+      <c r="AR255">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
@@ -36867,6 +37043,9 @@
       <c r="AQ256">
         <v>0</v>
       </c>
+      <c r="AR256">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
@@ -36993,6 +37172,9 @@
       <c r="AQ257">
         <v>0</v>
       </c>
+      <c r="AR257">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
@@ -37119,6 +37301,9 @@
       <c r="AQ258">
         <v>0</v>
       </c>
+      <c r="AR258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
@@ -37245,6 +37430,9 @@
       <c r="AQ259">
         <v>0</v>
       </c>
+      <c r="AR259">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
@@ -37371,6 +37559,9 @@
       <c r="AQ260">
         <v>0</v>
       </c>
+      <c r="AR260">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
@@ -37497,6 +37688,9 @@
       <c r="AQ261">
         <v>0</v>
       </c>
+      <c r="AR261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
@@ -37623,6 +37817,9 @@
       <c r="AQ262">
         <v>0</v>
       </c>
+      <c r="AR262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
@@ -37749,6 +37946,9 @@
       <c r="AQ263">
         <v>0</v>
       </c>
+      <c r="AR263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
@@ -37875,6 +38075,9 @@
       <c r="AQ264">
         <v>0</v>
       </c>
+      <c r="AR264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
@@ -38001,6 +38204,9 @@
       <c r="AQ265">
         <v>0</v>
       </c>
+      <c r="AR265">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
@@ -38127,6 +38333,9 @@
       <c r="AQ266">
         <v>0</v>
       </c>
+      <c r="AR266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
@@ -38253,6 +38462,9 @@
       <c r="AQ267">
         <v>0</v>
       </c>
+      <c r="AR267">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
@@ -38379,6 +38591,9 @@
       <c r="AQ268">
         <v>0</v>
       </c>
+      <c r="AR268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
@@ -38505,6 +38720,9 @@
       <c r="AQ269">
         <v>0</v>
       </c>
+      <c r="AR269">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -38631,6 +38849,9 @@
       <c r="AQ270">
         <v>0</v>
       </c>
+      <c r="AR270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -38757,6 +38978,9 @@
       <c r="AQ271">
         <v>0</v>
       </c>
+      <c r="AR271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
@@ -46790,6 +47014,9 @@
       <c r="AQ332">
         <v>0</v>
       </c>
+      <c r="AR332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -46918,6 +47145,9 @@
       <c r="AQ333">
         <v>0</v>
       </c>
+      <c r="AR333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -47049,6 +47279,9 @@
       <c r="AQ334" t="s">
         <v>308</v>
       </c>
+      <c r="AR334" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="335" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -47180,6 +47413,9 @@
       <c r="AQ335" t="s">
         <v>308</v>
       </c>
+      <c r="AR335" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="336" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
@@ -47308,8 +47544,11 @@
       <c r="AQ336">
         <v>0</v>
       </c>
+      <c r="AR336">
+        <v>0</v>
+      </c>
     </row>
-    <row r="337" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>365</v>
       </c>
@@ -47439,8 +47678,11 @@
       <c r="AQ337" t="s">
         <v>308</v>
       </c>
+      <c r="AR337" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="338" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -47567,8 +47809,11 @@
       <c r="AQ338">
         <v>0</v>
       </c>
+      <c r="AR338">
+        <v>0</v>
+      </c>
     </row>
-    <row r="339" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>367</v>
       </c>
@@ -47695,8 +47940,11 @@
       <c r="AQ339">
         <v>0</v>
       </c>
+      <c r="AR339">
+        <v>0</v>
+      </c>
     </row>
-    <row r="340" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -47823,8 +48071,11 @@
       <c r="AQ340">
         <v>0</v>
       </c>
+      <c r="AR340">
+        <v>0</v>
+      </c>
     </row>
-    <row r="341" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>369</v>
       </c>
@@ -47951,8 +48202,11 @@
       <c r="AQ341">
         <v>0</v>
       </c>
+      <c r="AR341">
+        <v>0</v>
+      </c>
     </row>
-    <row r="342" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -48082,8 +48336,11 @@
       <c r="AQ342" t="s">
         <v>308</v>
       </c>
+      <c r="AR342" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="343" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>371</v>
       </c>
@@ -48213,8 +48470,11 @@
       <c r="AQ343" t="s">
         <v>308</v>
       </c>
+      <c r="AR343" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="344" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -48344,8 +48604,11 @@
       <c r="AQ344">
         <v>0</v>
       </c>
+      <c r="AR344">
+        <v>0</v>
+      </c>
     </row>
-    <row r="345" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>373</v>
       </c>
@@ -48472,8 +48735,11 @@
       <c r="AQ345" t="s">
         <v>308</v>
       </c>
+      <c r="AR345" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="346" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -48600,8 +48866,11 @@
       <c r="AQ346">
         <v>0</v>
       </c>
+      <c r="AR346">
+        <v>0</v>
+      </c>
     </row>
-    <row r="347" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>375</v>
       </c>
@@ -48728,8 +48997,11 @@
       <c r="AQ347">
         <v>6</v>
       </c>
+      <c r="AR347">
+        <v>0</v>
+      </c>
     </row>
-    <row r="348" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -48859,8 +49131,11 @@
       <c r="AQ348">
         <v>6</v>
       </c>
+      <c r="AR348">
+        <v>0</v>
+      </c>
     </row>
-    <row r="349" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>377</v>
       </c>
@@ -48987,8 +49262,11 @@
       <c r="AQ349">
         <v>0</v>
       </c>
+      <c r="AR349">
+        <v>0</v>
+      </c>
     </row>
-    <row r="350" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -49115,8 +49393,11 @@
       <c r="AQ350" t="s">
         <v>308</v>
       </c>
+      <c r="AR350" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="351" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -49243,8 +49524,11 @@
       <c r="AQ351">
         <v>0</v>
       </c>
+      <c r="AR351">
+        <v>0</v>
+      </c>
     </row>
-    <row r="352" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>380</v>
       </c>
@@ -49372,6 +49656,9 @@
         <v>6</v>
       </c>
       <c r="AQ352">
+        <v>0</v>
+      </c>
+      <c r="AR352">
         <v>0</v>
       </c>
     </row>
@@ -49502,6 +49789,9 @@
       <c r="AQ353">
         <v>0</v>
       </c>
+      <c r="AR353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -49630,6 +49920,9 @@
       <c r="AQ354">
         <v>0</v>
       </c>
+      <c r="AR354">
+        <v>0</v>
+      </c>
     </row>
     <row r="355" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
@@ -49761,6 +50054,9 @@
       <c r="AQ355" t="s">
         <v>308</v>
       </c>
+      <c r="AR355" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="356" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
@@ -49889,6 +50185,9 @@
       <c r="AQ356">
         <v>0</v>
       </c>
+      <c r="AR356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
@@ -50017,6 +50316,9 @@
       <c r="AQ357">
         <v>0</v>
       </c>
+      <c r="AR357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -50145,6 +50447,9 @@
       <c r="AQ358">
         <v>0</v>
       </c>
+      <c r="AR358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
@@ -50276,6 +50581,9 @@
       <c r="AQ359" t="s">
         <v>308</v>
       </c>
+      <c r="AR359" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="360" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -50404,6 +50712,9 @@
       <c r="AQ360">
         <v>0</v>
       </c>
+      <c r="AR360">
+        <v>0</v>
+      </c>
     </row>
     <row r="361" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
@@ -50535,6 +50846,9 @@
       <c r="AQ361">
         <v>6</v>
       </c>
+      <c r="AR361">
+        <v>0</v>
+      </c>
     </row>
     <row r="362" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
@@ -58556,6 +58870,9 @@
       <c r="AQ422">
         <v>0</v>
       </c>
+      <c r="AR422">
+        <v>0</v>
+      </c>
     </row>
     <row r="423" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
@@ -58687,6 +59004,9 @@
       <c r="AQ423" t="s">
         <v>308</v>
       </c>
+      <c r="AR423" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="424" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
@@ -58815,6 +59135,9 @@
       <c r="AQ424">
         <v>0</v>
       </c>
+      <c r="AR424">
+        <v>0</v>
+      </c>
     </row>
     <row r="425" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
@@ -58943,6 +59266,9 @@
       <c r="AQ425">
         <v>0</v>
       </c>
+      <c r="AR425">
+        <v>0</v>
+      </c>
     </row>
     <row r="426" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
@@ -59071,6 +59397,9 @@
       <c r="AQ426" t="s">
         <v>308</v>
       </c>
+      <c r="AR426" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="427" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
@@ -59199,6 +59528,9 @@
       <c r="AQ427">
         <v>0</v>
       </c>
+      <c r="AR427">
+        <v>0</v>
+      </c>
     </row>
     <row r="428" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
@@ -59327,6 +59659,9 @@
       <c r="AQ428">
         <v>0</v>
       </c>
+      <c r="AR428">
+        <v>0</v>
+      </c>
     </row>
     <row r="429" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
@@ -59458,6 +59793,9 @@
       <c r="AQ429">
         <v>0</v>
       </c>
+      <c r="AR429">
+        <v>0</v>
+      </c>
     </row>
     <row r="430" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
@@ -59586,6 +59924,9 @@
       <c r="AQ430">
         <v>0</v>
       </c>
+      <c r="AR430">
+        <v>0</v>
+      </c>
     </row>
     <row r="431" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
@@ -59717,6 +60058,9 @@
       <c r="AQ431" t="s">
         <v>308</v>
       </c>
+      <c r="AR431" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="432" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
@@ -59845,8 +60189,11 @@
       <c r="AQ432">
         <v>0</v>
       </c>
+      <c r="AR432">
+        <v>0</v>
+      </c>
     </row>
-    <row r="433" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>467</v>
       </c>
@@ -59973,8 +60320,11 @@
       <c r="AQ433">
         <v>0</v>
       </c>
+      <c r="AR433">
+        <v>0</v>
+      </c>
     </row>
-    <row r="434" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>468</v>
       </c>
@@ -60101,8 +60451,11 @@
       <c r="AQ434">
         <v>0</v>
       </c>
+      <c r="AR434">
+        <v>0</v>
+      </c>
     </row>
-    <row r="435" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>469</v>
       </c>
@@ -60229,8 +60582,11 @@
       <c r="AQ435">
         <v>0</v>
       </c>
+      <c r="AR435">
+        <v>0</v>
+      </c>
     </row>
-    <row r="436" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>470</v>
       </c>
@@ -60357,8 +60713,11 @@
       <c r="AQ436">
         <v>0</v>
       </c>
+      <c r="AR436">
+        <v>0</v>
+      </c>
     </row>
-    <row r="437" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>471</v>
       </c>
@@ -60485,8 +60844,11 @@
       <c r="AQ437">
         <v>0</v>
       </c>
+      <c r="AR437">
+        <v>0</v>
+      </c>
     </row>
-    <row r="438" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>472</v>
       </c>
@@ -60610,8 +60972,11 @@
       <c r="AQ438">
         <v>0</v>
       </c>
+      <c r="AR438">
+        <v>0</v>
+      </c>
     </row>
-    <row r="439" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>473</v>
       </c>
@@ -60738,8 +61103,11 @@
       <c r="AQ439">
         <v>0</v>
       </c>
+      <c r="AR439">
+        <v>0</v>
+      </c>
     </row>
-    <row r="440" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>474</v>
       </c>
@@ -60866,8 +61234,11 @@
       <c r="AQ440">
         <v>0</v>
       </c>
+      <c r="AR440">
+        <v>0</v>
+      </c>
     </row>
-    <row r="441" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>475</v>
       </c>
@@ -60994,8 +61365,11 @@
       <c r="AQ441">
         <v>0</v>
       </c>
+      <c r="AR441">
+        <v>0</v>
+      </c>
     </row>
-    <row r="442" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>476</v>
       </c>
@@ -61125,8 +61499,11 @@
       <c r="AQ442" t="s">
         <v>308</v>
       </c>
+      <c r="AR442" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="443" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>478</v>
       </c>
@@ -61253,8 +61630,11 @@
       <c r="AQ443">
         <v>0</v>
       </c>
+      <c r="AR443">
+        <v>0</v>
+      </c>
     </row>
-    <row r="444" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>479</v>
       </c>
@@ -61384,8 +61764,11 @@
       <c r="AQ444" t="s">
         <v>308</v>
       </c>
+      <c r="AR444" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="445" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>480</v>
       </c>
@@ -61512,8 +61895,11 @@
       <c r="AQ445">
         <v>0</v>
       </c>
+      <c r="AR445">
+        <v>0</v>
+      </c>
     </row>
-    <row r="446" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>481</v>
       </c>
@@ -61640,8 +62026,11 @@
       <c r="AQ446">
         <v>0</v>
       </c>
+      <c r="AR446">
+        <v>0</v>
+      </c>
     </row>
-    <row r="447" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>482</v>
       </c>
@@ -61768,8 +62157,11 @@
       <c r="AQ447">
         <v>0</v>
       </c>
+      <c r="AR447">
+        <v>0</v>
+      </c>
     </row>
-    <row r="448" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>483</v>
       </c>
@@ -61894,6 +62286,9 @@
         <v>0</v>
       </c>
       <c r="AQ448">
+        <v>0</v>
+      </c>
+      <c r="AR448">
         <v>0</v>
       </c>
     </row>
@@ -62024,6 +62419,9 @@
       <c r="AQ449">
         <v>0</v>
       </c>
+      <c r="AR449">
+        <v>0</v>
+      </c>
     </row>
     <row r="450" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
@@ -62152,6 +62550,9 @@
       <c r="AQ450">
         <v>0</v>
       </c>
+      <c r="AR450">
+        <v>0</v>
+      </c>
     </row>
     <row r="451" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
@@ -62283,6 +62684,9 @@
       <c r="AQ451" t="s">
         <v>308</v>
       </c>
+      <c r="AR451" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="452" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
@@ -70292,8 +70696,11 @@
       <c r="AQ512">
         <v>0</v>
       </c>
+      <c r="AR512">
+        <v>0</v>
+      </c>
     </row>
-    <row r="513" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>550</v>
       </c>
@@ -70420,8 +70827,11 @@
       <c r="AQ513">
         <v>0</v>
       </c>
+      <c r="AR513">
+        <v>0</v>
+      </c>
     </row>
-    <row r="514" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>551</v>
       </c>
@@ -70548,8 +70958,11 @@
       <c r="AQ514">
         <v>0</v>
       </c>
+      <c r="AR514">
+        <v>0</v>
+      </c>
     </row>
-    <row r="515" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>552</v>
       </c>
@@ -70676,8 +71089,11 @@
       <c r="AQ515">
         <v>0</v>
       </c>
+      <c r="AR515">
+        <v>0</v>
+      </c>
     </row>
-    <row r="516" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>553</v>
       </c>
@@ -70804,8 +71220,11 @@
       <c r="AQ516">
         <v>0</v>
       </c>
+      <c r="AR516">
+        <v>0</v>
+      </c>
     </row>
-    <row r="517" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>554</v>
       </c>
@@ -70935,8 +71354,11 @@
       <c r="AQ517" t="s">
         <v>308</v>
       </c>
+      <c r="AR517" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="518" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>555</v>
       </c>
@@ -71066,8 +71488,11 @@
       <c r="AQ518" t="s">
         <v>308</v>
       </c>
+      <c r="AR518" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="519" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>557</v>
       </c>
@@ -71194,8 +71619,11 @@
       <c r="AQ519">
         <v>0</v>
       </c>
+      <c r="AR519">
+        <v>0</v>
+      </c>
     </row>
-    <row r="520" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>558</v>
       </c>
@@ -71322,8 +71750,11 @@
       <c r="AQ520">
         <v>0</v>
       </c>
+      <c r="AR520">
+        <v>0</v>
+      </c>
     </row>
-    <row r="521" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>559</v>
       </c>
@@ -71450,8 +71881,11 @@
       <c r="AQ521">
         <v>0</v>
       </c>
+      <c r="AR521">
+        <v>0</v>
+      </c>
     </row>
-    <row r="522" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>560</v>
       </c>
@@ -71578,8 +72012,11 @@
       <c r="AQ522">
         <v>0</v>
       </c>
+      <c r="AR522">
+        <v>0</v>
+      </c>
     </row>
-    <row r="523" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>561</v>
       </c>
@@ -71706,8 +72143,11 @@
       <c r="AQ523">
         <v>0</v>
       </c>
+      <c r="AR523">
+        <v>0</v>
+      </c>
     </row>
-    <row r="524" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>562</v>
       </c>
@@ -71834,8 +72274,11 @@
       <c r="AQ524">
         <v>0</v>
       </c>
+      <c r="AR524">
+        <v>0</v>
+      </c>
     </row>
-    <row r="525" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>563</v>
       </c>
@@ -71962,8 +72405,11 @@
       <c r="AQ525">
         <v>0</v>
       </c>
+      <c r="AR525">
+        <v>0</v>
+      </c>
     </row>
-    <row r="526" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>564</v>
       </c>
@@ -72090,8 +72536,11 @@
       <c r="AQ526">
         <v>0</v>
       </c>
+      <c r="AR526">
+        <v>0</v>
+      </c>
     </row>
-    <row r="527" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>565</v>
       </c>
@@ -72218,8 +72667,11 @@
       <c r="AQ527">
         <v>0</v>
       </c>
+      <c r="AR527">
+        <v>0</v>
+      </c>
     </row>
-    <row r="528" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>566</v>
       </c>
@@ -72349,8 +72801,11 @@
       <c r="AQ528">
         <v>0</v>
       </c>
+      <c r="AR528">
+        <v>0</v>
+      </c>
     </row>
-    <row r="529" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>567</v>
       </c>
@@ -72477,8 +72932,11 @@
       <c r="AQ529">
         <v>0</v>
       </c>
+      <c r="AR529">
+        <v>0</v>
+      </c>
     </row>
-    <row r="530" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>568</v>
       </c>
@@ -72605,8 +73063,11 @@
       <c r="AQ530">
         <v>0</v>
       </c>
+      <c r="AR530">
+        <v>0</v>
+      </c>
     </row>
-    <row r="531" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>569</v>
       </c>
@@ -72736,8 +73197,11 @@
       <c r="AQ531">
         <v>0</v>
       </c>
+      <c r="AR531">
+        <v>0</v>
+      </c>
     </row>
-    <row r="532" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>570</v>
       </c>
@@ -72867,8 +73331,11 @@
       <c r="AQ532">
         <v>0</v>
       </c>
+      <c r="AR532">
+        <v>0</v>
+      </c>
     </row>
-    <row r="533" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>571</v>
       </c>
@@ -72995,8 +73462,11 @@
       <c r="AQ533">
         <v>0</v>
       </c>
+      <c r="AR533">
+        <v>0</v>
+      </c>
     </row>
-    <row r="534" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>572</v>
       </c>
@@ -73123,8 +73593,11 @@
       <c r="AQ534">
         <v>0</v>
       </c>
+      <c r="AR534">
+        <v>0</v>
+      </c>
     </row>
-    <row r="535" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>573</v>
       </c>
@@ -73251,8 +73724,11 @@
       <c r="AQ535">
         <v>0</v>
       </c>
+      <c r="AR535">
+        <v>0</v>
+      </c>
     </row>
-    <row r="536" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>574</v>
       </c>
@@ -73379,8 +73855,11 @@
       <c r="AQ536">
         <v>0</v>
       </c>
+      <c r="AR536">
+        <v>0</v>
+      </c>
     </row>
-    <row r="537" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>575</v>
       </c>
@@ -73507,8 +73986,11 @@
       <c r="AQ537">
         <v>0</v>
       </c>
+      <c r="AR537">
+        <v>0</v>
+      </c>
     </row>
-    <row r="538" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>576</v>
       </c>
@@ -73635,8 +74117,11 @@
       <c r="AQ538">
         <v>0</v>
       </c>
+      <c r="AR538">
+        <v>0</v>
+      </c>
     </row>
-    <row r="539" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>577</v>
       </c>
@@ -73763,8 +74248,11 @@
       <c r="AQ539">
         <v>0</v>
       </c>
+      <c r="AR539">
+        <v>0</v>
+      </c>
     </row>
-    <row r="540" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>578</v>
       </c>
@@ -73891,8 +74379,11 @@
       <c r="AQ540">
         <v>0</v>
       </c>
+      <c r="AR540">
+        <v>0</v>
+      </c>
     </row>
-    <row r="541" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>579</v>
       </c>
@@ -74019,8 +74510,11 @@
       <c r="AQ541">
         <v>0</v>
       </c>
+      <c r="AR541">
+        <v>0</v>
+      </c>
     </row>
-    <row r="542" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>580</v>
       </c>
@@ -74142,7 +74636,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="543" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>583</v>
       </c>
@@ -74261,7 +74755,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="544" spans="1:43" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>584</v>
       </c>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB68AC2-1087-724F-8E8B-7D6BAF56C3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72BF92C-05AA-AB4A-9DF5-7C920AFC8C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5497" uniqueCount="746">
   <si>
     <t>tree_ID</t>
   </si>
@@ -3184,15 +3184,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:AD631" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:AD631" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="CoolS/WarmF"/>
-        <filter val="WarmS/WarmF"/>
-        <filter val="WarmS/WarmF_nitro"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AD631" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="28"/>
@@ -3546,11 +3538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR631"/>
+  <dimension ref="A1:AS631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS164" sqref="AS164"/>
+    <sheetView tabSelected="1" topLeftCell="A534" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS542" sqref="AS542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3562,7 +3554,7 @@
     <col min="30" max="30" width="4.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3695,8 +3687,11 @@
       <c r="AR1" s="3">
         <v>297</v>
       </c>
+      <c r="AS1" s="3">
+        <v>311</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3829,8 +3824,11 @@
       <c r="AR2">
         <v>0</v>
       </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3960,8 +3958,11 @@
       <c r="AR3">
         <v>0</v>
       </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4091,8 +4092,11 @@
       <c r="AR4">
         <v>6</v>
       </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4222,8 +4226,11 @@
       <c r="AR5">
         <v>0</v>
       </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4353,8 +4360,11 @@
       <c r="AR6">
         <v>0</v>
       </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4484,8 +4494,11 @@
       <c r="AR7">
         <v>0</v>
       </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4615,8 +4628,11 @@
       <c r="AR8">
         <v>0</v>
       </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4746,8 +4762,11 @@
       <c r="AR9">
         <v>0</v>
       </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4877,8 +4896,11 @@
       <c r="AR10">
         <v>0</v>
       </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5011,8 +5033,11 @@
       <c r="AR11">
         <v>0</v>
       </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5142,8 +5167,11 @@
       <c r="AR12">
         <v>0</v>
       </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5273,8 +5301,11 @@
       <c r="AR13">
         <v>0</v>
       </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5404,8 +5435,11 @@
       <c r="AR14">
         <v>6</v>
       </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5535,8 +5569,11 @@
       <c r="AR15">
         <v>0</v>
       </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5666,8 +5703,11 @@
       <c r="AR16">
         <v>0</v>
       </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5797,8 +5837,11 @@
       <c r="AR17">
         <v>0</v>
       </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -5928,8 +5971,11 @@
       <c r="AR18">
         <v>0</v>
       </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6059,8 +6105,11 @@
       <c r="AR19">
         <v>0</v>
       </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -6190,8 +6239,11 @@
       <c r="AR20">
         <v>0</v>
       </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6321,8 +6373,11 @@
       <c r="AR21">
         <v>0</v>
       </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6455,8 +6510,11 @@
       <c r="AR22">
         <v>0</v>
       </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6586,8 +6644,11 @@
       <c r="AR23">
         <v>0</v>
       </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6717,8 +6778,11 @@
       <c r="AR24">
         <v>0</v>
       </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -6848,8 +6912,11 @@
       <c r="AR25">
         <v>0</v>
       </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -6979,8 +7046,11 @@
       <c r="AR26">
         <v>0</v>
       </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -7110,8 +7180,11 @@
       <c r="AR27">
         <v>0</v>
       </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -7244,8 +7317,11 @@
       <c r="AR28">
         <v>0</v>
       </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7378,8 +7454,11 @@
       <c r="AR29" t="s">
         <v>308</v>
       </c>
+      <c r="AS29" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7509,8 +7588,11 @@
       <c r="AR30">
         <v>0</v>
       </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7640,8 +7722,11 @@
       <c r="AR31">
         <v>0</v>
       </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -7771,8 +7856,11 @@
       <c r="AR32">
         <v>0</v>
       </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -7902,8 +7990,11 @@
       <c r="AR33">
         <v>0</v>
       </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -8033,8 +8124,11 @@
       <c r="AR34">
         <v>6</v>
       </c>
+      <c r="AS34">
+        <v>6</v>
+      </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -8164,8 +8258,11 @@
       <c r="AR35">
         <v>0</v>
       </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -8295,8 +8392,11 @@
       <c r="AR36">
         <v>0</v>
       </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -8426,8 +8526,11 @@
       <c r="AR37">
         <v>0</v>
       </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -8557,8 +8660,11 @@
       <c r="AR38">
         <v>0</v>
       </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -8688,8 +8794,11 @@
       <c r="AR39">
         <v>0</v>
       </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -8819,8 +8928,11 @@
       <c r="AR40">
         <v>0</v>
       </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -8950,8 +9062,11 @@
       <c r="AR41">
         <v>0</v>
       </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -9084,8 +9199,11 @@
       <c r="AR42">
         <v>6</v>
       </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -9215,8 +9333,11 @@
       <c r="AR43">
         <v>0</v>
       </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -9346,8 +9467,11 @@
       <c r="AR44">
         <v>0</v>
       </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -9477,8 +9601,11 @@
       <c r="AR45">
         <v>0</v>
       </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -9608,8 +9735,11 @@
       <c r="AR46">
         <v>0</v>
       </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -9739,8 +9869,11 @@
       <c r="AR47">
         <v>0</v>
       </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -9870,8 +10003,11 @@
       <c r="AR48">
         <v>0</v>
       </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -10001,8 +10137,11 @@
       <c r="AR49">
         <v>0</v>
       </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -10132,8 +10271,11 @@
       <c r="AR50">
         <v>0</v>
       </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -10263,8 +10405,11 @@
       <c r="AR51">
         <v>0</v>
       </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -10394,8 +10539,11 @@
       <c r="AR52">
         <v>0</v>
       </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -10525,8 +10673,11 @@
       <c r="AR53">
         <v>0</v>
       </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -10656,8 +10807,11 @@
       <c r="AR54">
         <v>0</v>
       </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -10790,8 +10944,11 @@
       <c r="AR55">
         <v>0</v>
       </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -10924,8 +11081,11 @@
       <c r="AR56">
         <v>0</v>
       </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -11058,8 +11218,11 @@
       <c r="AR57">
         <v>0</v>
       </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -11189,8 +11352,11 @@
       <c r="AR58">
         <v>0</v>
       </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -11320,8 +11486,11 @@
       <c r="AR59" t="s">
         <v>308</v>
       </c>
+      <c r="AS59" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="60" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -11451,8 +11620,11 @@
       <c r="AR60">
         <v>0</v>
       </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -11582,8 +11754,11 @@
       <c r="AR61">
         <v>0</v>
       </c>
+      <c r="AS61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -11713,8 +11888,11 @@
       <c r="AR62">
         <v>0</v>
       </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -11844,8 +12022,11 @@
       <c r="AR63">
         <v>0</v>
       </c>
+      <c r="AS63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -11975,8 +12156,11 @@
       <c r="AR64">
         <v>6</v>
       </c>
+      <c r="AS64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -12106,8 +12290,11 @@
       <c r="AR65">
         <v>0</v>
       </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -12237,8 +12424,11 @@
       <c r="AR66">
         <v>6</v>
       </c>
+      <c r="AS66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -12368,8 +12558,11 @@
       <c r="AR67">
         <v>0</v>
       </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -12499,8 +12692,11 @@
       <c r="AR68">
         <v>0</v>
       </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -12630,8 +12826,11 @@
       <c r="AR69">
         <v>0</v>
       </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -12761,8 +12960,11 @@
       <c r="AR70">
         <v>6</v>
       </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -12895,8 +13097,11 @@
       <c r="AR71" t="s">
         <v>308</v>
       </c>
+      <c r="AS71" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -13026,8 +13231,11 @@
       <c r="AR72">
         <v>6</v>
       </c>
+      <c r="AS72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -13157,8 +13365,11 @@
       <c r="AR73">
         <v>0</v>
       </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -13288,8 +13499,11 @@
       <c r="AR74">
         <v>0</v>
       </c>
+      <c r="AS74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -13422,8 +13636,11 @@
       <c r="AR75" t="s">
         <v>308</v>
       </c>
+      <c r="AS75" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -13553,8 +13770,11 @@
       <c r="AR76">
         <v>0</v>
       </c>
+      <c r="AS76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -13684,8 +13904,11 @@
       <c r="AR77">
         <v>0</v>
       </c>
+      <c r="AS77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -13815,8 +14038,11 @@
       <c r="AR78" s="2">
         <v>0</v>
       </c>
+      <c r="AS78" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -13946,8 +14172,11 @@
       <c r="AR79" s="2">
         <v>6</v>
       </c>
+      <c r="AS79" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -14077,8 +14306,11 @@
       <c r="AR80" s="2">
         <v>6</v>
       </c>
+      <c r="AS80" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -14208,8 +14440,11 @@
       <c r="AR81" s="2">
         <v>0</v>
       </c>
+      <c r="AS81" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -14339,8 +14574,11 @@
       <c r="AR82" s="2">
         <v>6</v>
       </c>
+      <c r="AS82" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -14470,8 +14708,11 @@
       <c r="AR83" s="2">
         <v>6</v>
       </c>
+      <c r="AS83" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -14601,8 +14842,11 @@
       <c r="AR84" s="2">
         <v>0</v>
       </c>
+      <c r="AS84" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -14732,8 +14976,11 @@
       <c r="AR85" s="2">
         <v>0</v>
       </c>
+      <c r="AS85" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -14863,8 +15110,11 @@
       <c r="AR86" s="2">
         <v>0</v>
       </c>
+      <c r="AS86" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -14994,8 +15244,11 @@
       <c r="AR87" s="2">
         <v>6</v>
       </c>
+      <c r="AS87" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -15125,8 +15378,11 @@
       <c r="AR88" s="2">
         <v>0</v>
       </c>
+      <c r="AS88" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -15256,8 +15512,11 @@
       <c r="AR89" s="2">
         <v>0</v>
       </c>
+      <c r="AS89" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -15387,8 +15646,11 @@
       <c r="AR90" s="2">
         <v>0</v>
       </c>
+      <c r="AS90" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -15518,8 +15780,11 @@
       <c r="AR91" s="2">
         <v>0</v>
       </c>
+      <c r="AS91" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -15649,8 +15914,11 @@
       <c r="AR92">
         <v>6</v>
       </c>
+      <c r="AS92" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -15780,8 +16048,11 @@
       <c r="AR93">
         <v>0</v>
       </c>
+      <c r="AS93" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -15911,8 +16182,11 @@
       <c r="AR94">
         <v>0</v>
       </c>
+      <c r="AS94" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -16045,8 +16319,11 @@
       <c r="AR95">
         <v>0</v>
       </c>
+      <c r="AS95" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -16176,8 +16453,11 @@
       <c r="AR96">
         <v>0</v>
       </c>
+      <c r="AS96" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -16307,8 +16587,11 @@
       <c r="AR97">
         <v>0</v>
       </c>
+      <c r="AS97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -16438,8 +16721,11 @@
       <c r="AR98">
         <v>0</v>
       </c>
+      <c r="AS98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -16569,8 +16855,11 @@
       <c r="AR99" s="2">
         <v>0</v>
       </c>
+      <c r="AS99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -16700,8 +16989,11 @@
       <c r="AR100" s="2">
         <v>0</v>
       </c>
+      <c r="AS100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -16831,8 +17123,11 @@
       <c r="AR101" s="2">
         <v>6</v>
       </c>
+      <c r="AS101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -16962,8 +17257,11 @@
       <c r="AR102" s="2">
         <v>0</v>
       </c>
+      <c r="AS102" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -17093,8 +17391,11 @@
       <c r="AR103" s="2">
         <v>0</v>
       </c>
+      <c r="AS103" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -17224,8 +17525,11 @@
       <c r="AR104" s="2">
         <v>0</v>
       </c>
+      <c r="AS104" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -17355,8 +17659,11 @@
       <c r="AR105" s="2">
         <v>0</v>
       </c>
+      <c r="AS105" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -17486,8 +17793,11 @@
       <c r="AR106" s="2">
         <v>0</v>
       </c>
+      <c r="AS106" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -17617,8 +17927,11 @@
       <c r="AR107" s="2">
         <v>6</v>
       </c>
+      <c r="AS107" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -17748,8 +18061,11 @@
       <c r="AR108" s="2">
         <v>0</v>
       </c>
+      <c r="AS108" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -17882,8 +18198,11 @@
       <c r="AR109" s="2">
         <v>0</v>
       </c>
+      <c r="AS109" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -18013,8 +18332,11 @@
       <c r="AR110" s="2">
         <v>6</v>
       </c>
+      <c r="AS110" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -18147,8 +18469,11 @@
       <c r="AR111" s="2">
         <v>6</v>
       </c>
+      <c r="AS111" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -18278,8 +18603,11 @@
       <c r="AR112" s="2">
         <v>0</v>
       </c>
+      <c r="AS112" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -18409,8 +18737,11 @@
       <c r="AR113" t="s">
         <v>308</v>
       </c>
+      <c r="AS113" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="114" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -18540,8 +18871,11 @@
       <c r="AR114" s="2">
         <v>0</v>
       </c>
+      <c r="AS114" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -18671,8 +19005,11 @@
       <c r="AR115" s="2">
         <v>0</v>
       </c>
+      <c r="AS115" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -18802,8 +19139,11 @@
       <c r="AR116" s="2">
         <v>0</v>
       </c>
+      <c r="AS116" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -18933,8 +19273,11 @@
       <c r="AR117" s="2">
         <v>6</v>
       </c>
+      <c r="AS117" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -19064,8 +19407,11 @@
       <c r="AR118" s="2">
         <v>0</v>
       </c>
+      <c r="AS118" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -19195,8 +19541,11 @@
       <c r="AR119" s="2">
         <v>0</v>
       </c>
+      <c r="AS119" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -19326,8 +19675,11 @@
       <c r="AR120" s="2">
         <v>0</v>
       </c>
+      <c r="AS120" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -19460,8 +19812,11 @@
       <c r="AR121" s="2">
         <v>0</v>
       </c>
+      <c r="AS121" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -19591,8 +19946,11 @@
       <c r="AR122" s="2">
         <v>0</v>
       </c>
+      <c r="AS122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -19722,8 +20080,11 @@
       <c r="AR123" s="2">
         <v>0</v>
       </c>
+      <c r="AS123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -19853,8 +20214,11 @@
       <c r="AR124" s="2">
         <v>0</v>
       </c>
+      <c r="AS124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -19984,8 +20348,11 @@
       <c r="AR125" s="2">
         <v>6</v>
       </c>
+      <c r="AS125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -20115,8 +20482,11 @@
       <c r="AR126" s="2">
         <v>0</v>
       </c>
+      <c r="AS126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -20246,8 +20616,11 @@
       <c r="AR127" s="2">
         <v>0</v>
       </c>
+      <c r="AS127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -20377,8 +20750,11 @@
       <c r="AR128" s="2">
         <v>6</v>
       </c>
+      <c r="AS128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>145</v>
       </c>
@@ -20508,8 +20884,11 @@
       <c r="AR129" s="2">
         <v>0</v>
       </c>
+      <c r="AS129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -20639,8 +21018,11 @@
       <c r="AR130" s="2">
         <v>0</v>
       </c>
+      <c r="AS130">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -20773,8 +21155,11 @@
       <c r="AR131" t="s">
         <v>308</v>
       </c>
+      <c r="AS131" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -20904,8 +21289,11 @@
       <c r="AR132" s="2">
         <v>0</v>
       </c>
+      <c r="AS132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -21035,8 +21423,11 @@
       <c r="AR133" s="2">
         <v>0</v>
       </c>
+      <c r="AS133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -21166,8 +21557,11 @@
       <c r="AR134" s="2">
         <v>6</v>
       </c>
+      <c r="AS134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -21297,8 +21691,11 @@
       <c r="AR135" s="2">
         <v>0</v>
       </c>
+      <c r="AS135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -21428,8 +21825,11 @@
       <c r="AR136" s="2">
         <v>6</v>
       </c>
+      <c r="AS136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -21562,8 +21962,11 @@
       <c r="AR137">
         <v>6</v>
       </c>
+      <c r="AS137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -21693,8 +22096,11 @@
       <c r="AR138">
         <v>0</v>
       </c>
+      <c r="AS138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>155</v>
       </c>
@@ -21824,8 +22230,11 @@
       <c r="AR139">
         <v>6</v>
       </c>
+      <c r="AS139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -21955,8 +22364,11 @@
       <c r="AR140">
         <v>0</v>
       </c>
+      <c r="AS140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -22086,8 +22498,11 @@
       <c r="AR141">
         <v>0</v>
       </c>
+      <c r="AS141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -22217,8 +22632,11 @@
       <c r="AR142">
         <v>0</v>
       </c>
+      <c r="AS142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -22348,8 +22766,11 @@
       <c r="AR143">
         <v>0</v>
       </c>
+      <c r="AS143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>160</v>
       </c>
@@ -22479,8 +22900,11 @@
       <c r="AR144">
         <v>0</v>
       </c>
+      <c r="AS144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -22610,8 +23034,11 @@
       <c r="AR145">
         <v>0</v>
       </c>
+      <c r="AS145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>162</v>
       </c>
@@ -22741,8 +23168,11 @@
       <c r="AR146">
         <v>6</v>
       </c>
+      <c r="AS146">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -22872,8 +23302,11 @@
       <c r="AR147">
         <v>0</v>
       </c>
+      <c r="AS147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>164</v>
       </c>
@@ -23006,8 +23439,11 @@
       <c r="AR148">
         <v>0</v>
       </c>
+      <c r="AS148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -23137,8 +23573,11 @@
       <c r="AR149">
         <v>0</v>
       </c>
+      <c r="AS149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>166</v>
       </c>
@@ -23271,8 +23710,11 @@
       <c r="AR150">
         <v>6</v>
       </c>
+      <c r="AS150">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -23402,8 +23844,11 @@
       <c r="AR151">
         <v>0</v>
       </c>
+      <c r="AS151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -23533,8 +23978,11 @@
       <c r="AR152">
         <v>0</v>
       </c>
+      <c r="AS152">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -23664,8 +24112,11 @@
       <c r="AR153">
         <v>0</v>
       </c>
+      <c r="AS153">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>170</v>
       </c>
@@ -23795,8 +24246,11 @@
       <c r="AR154">
         <v>6</v>
       </c>
+      <c r="AS154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -23926,8 +24380,11 @@
       <c r="AR155">
         <v>0</v>
       </c>
+      <c r="AS155">
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>172</v>
       </c>
@@ -24057,8 +24514,11 @@
       <c r="AR156">
         <v>0</v>
       </c>
+      <c r="AS156">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -24188,8 +24648,11 @@
       <c r="AR157">
         <v>0</v>
       </c>
+      <c r="AS157">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>174</v>
       </c>
@@ -24319,8 +24782,11 @@
       <c r="AR158">
         <v>0</v>
       </c>
+      <c r="AS158">
+        <v>0</v>
+      </c>
     </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -24450,8 +24916,11 @@
       <c r="AR159">
         <v>0</v>
       </c>
+      <c r="AS159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>176</v>
       </c>
@@ -24581,8 +25050,11 @@
       <c r="AR160">
         <v>0</v>
       </c>
+      <c r="AS160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -24712,8 +25184,11 @@
       <c r="AR161">
         <v>0</v>
       </c>
+      <c r="AS161">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -24846,8 +25321,11 @@
       <c r="AR162">
         <v>6</v>
       </c>
+      <c r="AS162">
+        <v>0</v>
+      </c>
     </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -24977,8 +25455,11 @@
       <c r="AR163">
         <v>0</v>
       </c>
+      <c r="AS163">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -25111,8 +25592,11 @@
       <c r="AR164">
         <v>6</v>
       </c>
+      <c r="AS164">
+        <v>6</v>
+      </c>
     </row>
-    <row r="165" spans="1:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -25242,8 +25726,11 @@
       <c r="AR165">
         <v>0</v>
       </c>
+      <c r="AS165">
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>182</v>
       </c>
@@ -25373,8 +25860,11 @@
       <c r="AR166">
         <v>0</v>
       </c>
+      <c r="AS166">
+        <v>0</v>
+      </c>
     </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -25504,8 +25994,11 @@
       <c r="AR167">
         <v>0</v>
       </c>
+      <c r="AS167">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -25635,8 +26128,11 @@
       <c r="AR168">
         <v>0</v>
       </c>
+      <c r="AS168">
+        <v>0</v>
+      </c>
     </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -25766,8 +26262,11 @@
       <c r="AR169">
         <v>0</v>
       </c>
+      <c r="AS169">
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>186</v>
       </c>
@@ -25897,8 +26396,11 @@
       <c r="AR170">
         <v>0</v>
       </c>
+      <c r="AS170">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -26028,8 +26530,11 @@
       <c r="AR171">
         <v>0</v>
       </c>
+      <c r="AS171">
+        <v>0</v>
+      </c>
     </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>188</v>
       </c>
@@ -26159,8 +26664,11 @@
       <c r="AR172">
         <v>0</v>
       </c>
+      <c r="AS172">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -26290,8 +26798,11 @@
       <c r="AR173">
         <v>0</v>
       </c>
+      <c r="AS173">
+        <v>0</v>
+      </c>
     </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>190</v>
       </c>
@@ -26421,8 +26932,11 @@
       <c r="AR174">
         <v>0</v>
       </c>
+      <c r="AS174">
+        <v>0</v>
+      </c>
     </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -26552,8 +27066,11 @@
       <c r="AR175">
         <v>0</v>
       </c>
+      <c r="AS175">
+        <v>0</v>
+      </c>
     </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -26683,8 +27200,11 @@
       <c r="AR176">
         <v>0</v>
       </c>
+      <c r="AS176">
+        <v>0</v>
+      </c>
     </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -26814,8 +27334,11 @@
       <c r="AR177">
         <v>0</v>
       </c>
+      <c r="AS177">
+        <v>0</v>
+      </c>
     </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>194</v>
       </c>
@@ -26945,8 +27468,11 @@
       <c r="AR178">
         <v>0</v>
       </c>
+      <c r="AS178">
+        <v>0</v>
+      </c>
     </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -27076,8 +27602,11 @@
       <c r="AR179">
         <v>0</v>
       </c>
+      <c r="AS179">
+        <v>0</v>
+      </c>
     </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>196</v>
       </c>
@@ -27207,8 +27736,11 @@
       <c r="AR180">
         <v>0</v>
       </c>
+      <c r="AS180">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -27338,8 +27870,11 @@
       <c r="AR181">
         <v>0</v>
       </c>
+      <c r="AS181">
+        <v>0</v>
+      </c>
     </row>
-    <row r="182" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>198</v>
       </c>
@@ -27468,7 +28003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -27597,7 +28132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -27726,7 +28261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -27855,7 +28390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -27987,7 +28522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -28116,7 +28651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -28245,7 +28780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -28374,7 +28909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -28506,7 +29041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>210</v>
       </c>
@@ -28635,7 +29170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -28764,7 +29299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>212</v>
       </c>
@@ -28893,7 +29428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -29025,7 +29560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -29154,7 +29689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -29283,7 +29818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -29412,7 +29947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -29544,7 +30079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -29673,7 +30208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -29805,7 +30340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -29934,7 +30469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -30063,7 +30598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -30192,7 +30727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -30321,7 +30856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -30453,7 +30988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -30582,7 +31117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -30711,7 +31246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -30843,7 +31378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -30972,7 +31507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -31101,7 +31636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -33177,7 +33712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -33306,7 +33841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -33435,7 +33970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -33564,7 +34099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>251</v>
       </c>
@@ -33693,7 +34228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -33822,7 +34357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -33951,7 +34486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -34080,7 +34615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>255</v>
       </c>
@@ -34209,7 +34744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -34338,7 +34873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -34467,7 +35002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -34596,7 +35131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -34725,7 +35260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -34854,7 +35389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -34983,7 +35518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -38982,7 +39517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -39112,11 +39647,8 @@
       <c r="AQ272" t="s">
         <v>308</v>
       </c>
-      <c r="AR272" t="s">
-        <v>308</v>
-      </c>
     </row>
-    <row r="273" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -39247,7 +39779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -39378,7 +39910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>298</v>
       </c>
@@ -39512,7 +40044,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="276" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -39646,7 +40178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>300</v>
       </c>
@@ -39777,7 +40309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -39908,7 +40440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -40042,7 +40574,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="280" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -40173,7 +40705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -40304,7 +40836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>305</v>
       </c>
@@ -40438,7 +40970,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="283" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -40572,7 +41104,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="284" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -40703,7 +41235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -40834,7 +41366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -40965,7 +41497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -41096,7 +41628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -41227,7 +41759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -41358,7 +41890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -41489,7 +42021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -41620,7 +42152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -41751,7 +42283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -41882,7 +42414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -42016,7 +42548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -42147,7 +42679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>322</v>
       </c>
@@ -42278,7 +42810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -42412,7 +42944,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="298" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>324</v>
       </c>
@@ -42543,7 +43075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -42677,7 +43209,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="300" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>326</v>
       </c>
@@ -42808,7 +43340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -44907,7 +45439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -45041,7 +45573,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="318" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -45172,7 +45704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -45303,7 +45835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -45434,7 +45966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -45565,7 +46097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -45699,7 +46231,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="323" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -45830,7 +46362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>351</v>
       </c>
@@ -45964,7 +46496,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="325" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -46095,7 +46627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>354</v>
       </c>
@@ -46226,7 +46758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -46357,7 +46889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -46491,7 +47023,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="329" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>357</v>
       </c>
@@ -46622,7 +47154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -46756,7 +47288,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="331" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>359</v>
       </c>
@@ -50850,7 +51382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>390</v>
       </c>
@@ -50981,7 +51513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -51112,7 +51644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -51243,7 +51775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -51374,7 +51906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -51505,7 +52037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -51636,7 +52168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>398</v>
       </c>
@@ -51767,7 +52299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -51901,7 +52433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -52032,7 +52564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -52163,7 +52695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -52294,7 +52826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -52428,7 +52960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -52559,7 +53091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -52690,7 +53222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -52821,7 +53353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -52952,7 +53484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -53083,7 +53615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -53214,7 +53746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -53348,7 +53880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -53479,7 +54011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>413</v>
       </c>
@@ -53610,7 +54142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -53741,7 +54273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>415</v>
       </c>
@@ -53872,7 +54404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -54003,7 +54535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>417</v>
       </c>
@@ -54137,7 +54669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -54268,7 +54800,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="388" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>419</v>
       </c>
@@ -54399,7 +54931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -54530,7 +55062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>421</v>
       </c>
@@ -54661,7 +55193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -56772,7 +57304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>439</v>
       </c>
@@ -56903,7 +57435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>440</v>
       </c>
@@ -57034,7 +57566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>441</v>
       </c>
@@ -57165,7 +57697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>442</v>
       </c>
@@ -57296,7 +57828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>443</v>
       </c>
@@ -57427,7 +57959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>444</v>
       </c>
@@ -57558,7 +58090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>445</v>
       </c>
@@ -57689,7 +58221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>446</v>
       </c>
@@ -57820,7 +58352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>447</v>
       </c>
@@ -57951,7 +58483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>448</v>
       </c>
@@ -58082,7 +58614,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="417" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>449</v>
       </c>
@@ -58216,7 +58748,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="418" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>450</v>
       </c>
@@ -58347,7 +58879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>451</v>
       </c>
@@ -58478,7 +59010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>452</v>
       </c>
@@ -58609,7 +59141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>453</v>
       </c>
@@ -62688,7 +63220,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="452" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>487</v>
       </c>
@@ -62819,7 +63351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>490</v>
       </c>
@@ -62950,7 +63482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>491</v>
       </c>
@@ -63081,7 +63613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>492</v>
       </c>
@@ -63212,7 +63744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>493</v>
       </c>
@@ -63343,7 +63875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>494</v>
       </c>
@@ -63477,7 +64009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>495</v>
       </c>
@@ -63608,7 +64140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>496</v>
       </c>
@@ -63739,7 +64271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>497</v>
       </c>
@@ -63870,7 +64402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>498</v>
       </c>
@@ -64001,7 +64533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>499</v>
       </c>
@@ -64132,7 +64664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>500</v>
       </c>
@@ -64263,7 +64795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>501</v>
       </c>
@@ -64394,7 +64926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>502</v>
       </c>
@@ -64525,7 +65057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>503</v>
       </c>
@@ -64656,7 +65188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>504</v>
       </c>
@@ -64787,7 +65319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>505</v>
       </c>
@@ -64921,7 +65453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>506</v>
       </c>
@@ -65055,7 +65587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>507</v>
       </c>
@@ -65186,7 +65718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>508</v>
       </c>
@@ -65317,7 +65849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>509</v>
       </c>
@@ -65448,7 +65980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>510</v>
       </c>
@@ -65579,7 +66111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>511</v>
       </c>
@@ -65710,7 +66242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>512</v>
       </c>
@@ -65844,7 +66376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>513</v>
       </c>
@@ -65975,7 +66507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>514</v>
       </c>
@@ -66106,7 +66638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>515</v>
       </c>
@@ -66237,7 +66769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>516</v>
       </c>
@@ -66368,7 +66900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>517</v>
       </c>
@@ -66499,7 +67031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>518</v>
       </c>
@@ -68601,7 +69133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>534</v>
       </c>
@@ -68732,7 +69264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>535</v>
       </c>
@@ -68863,7 +69395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>536</v>
       </c>
@@ -68994,7 +69526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>537</v>
       </c>
@@ -69125,7 +69657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>538</v>
       </c>
@@ -69256,7 +69788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>539</v>
       </c>
@@ -69387,7 +69919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>540</v>
       </c>
@@ -69518,7 +70050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>541</v>
       </c>
@@ -69649,7 +70181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>542</v>
       </c>
@@ -69780,7 +70312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>543</v>
       </c>
@@ -69911,7 +70443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>544</v>
       </c>
@@ -70042,7 +70574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>545</v>
       </c>
@@ -70173,7 +70705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>546</v>
       </c>
@@ -70304,7 +70836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>547</v>
       </c>
@@ -70435,7 +70967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>548</v>
       </c>
@@ -74514,7 +75046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>580</v>
       </c>
@@ -74636,7 +75168,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="543" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>583</v>
       </c>
@@ -74755,7 +75287,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="544" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>584</v>
       </c>
@@ -74877,7 +75409,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="545" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>585</v>
       </c>
@@ -74996,7 +75528,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="546" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>586</v>
       </c>
@@ -75115,7 +75647,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="547" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>587</v>
       </c>
@@ -75234,7 +75766,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="548" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>588</v>
       </c>
@@ -75353,7 +75885,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="549" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>589</v>
       </c>
@@ -75472,7 +76004,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="550" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>590</v>
       </c>
@@ -75591,7 +76123,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="551" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>591</v>
       </c>
@@ -75710,7 +76242,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="552" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>592</v>
       </c>
@@ -75829,7 +76361,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="553" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>593</v>
       </c>
@@ -75948,7 +76480,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="554" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>594</v>
       </c>
@@ -76070,7 +76602,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="555" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>595</v>
       </c>
@@ -76189,7 +76721,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="556" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>596</v>
       </c>
@@ -76308,7 +76840,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="557" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>597</v>
       </c>
@@ -76424,7 +76956,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="558" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>598</v>
       </c>
@@ -76543,7 +77075,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="559" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>599</v>
       </c>
@@ -76662,7 +77194,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="560" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>600</v>
       </c>
@@ -76781,7 +77313,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="561" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>601</v>
       </c>
@@ -76900,7 +77432,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="562" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>602</v>
       </c>
@@ -77019,7 +77551,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="563" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>603</v>
       </c>
@@ -77138,7 +77670,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="564" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>604</v>
       </c>
@@ -77257,7 +77789,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="565" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>605</v>
       </c>
@@ -77376,7 +77908,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="566" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>606</v>
       </c>
@@ -77495,7 +78027,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="567" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>607</v>
       </c>
@@ -77614,7 +78146,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="568" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>608</v>
       </c>
@@ -77733,7 +78265,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="569" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>609</v>
       </c>
@@ -77852,7 +78384,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="570" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>610</v>
       </c>
@@ -77971,7 +78503,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="571" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>611</v>
       </c>
@@ -79884,7 +80416,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="587" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>627</v>
       </c>
@@ -80003,7 +80535,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="588" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>628</v>
       </c>
@@ -80122,7 +80654,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="589" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>629</v>
       </c>
@@ -80241,7 +80773,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="590" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>630</v>
       </c>
@@ -80363,7 +80895,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="591" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>631</v>
       </c>
@@ -80482,7 +81014,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="592" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>632</v>
       </c>
@@ -80601,7 +81133,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="593" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>633</v>
       </c>
@@ -80720,7 +81252,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="594" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>634</v>
       </c>
@@ -80839,7 +81371,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="595" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>635</v>
       </c>
@@ -80958,7 +81490,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="596" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>636</v>
       </c>
@@ -81077,7 +81609,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="597" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>637</v>
       </c>
@@ -81196,7 +81728,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="598" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>638</v>
       </c>
@@ -81315,7 +81847,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="599" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>639</v>
       </c>
@@ -81434,7 +81966,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="600" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>640</v>
       </c>
@@ -81553,7 +82085,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="601" spans="1:40" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>641</v>
       </c>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72BF92C-05AA-AB4A-9DF5-7C920AFC8C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3154D4A3-080E-234A-A4C7-B3C95B272834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -3540,9 +3540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A534" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS542" sqref="AS542"/>
+      <selection pane="topRight" activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/monitoring_phenology/2024_budburst_to_budset.xlsx
+++ b/data/monitoring_phenology/2024_budburst_to_budset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/data/monitoring_phenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3154D4A3-080E-234A-A4C7-B3C95B272834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF473121-ED65-0443-8188-F1BD9F074377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5497" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5578" uniqueCount="746">
   <si>
     <t>tree_ID</t>
   </si>
@@ -3538,11 +3538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS631"/>
+  <dimension ref="A1:AT631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS1" sqref="AS1"/>
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3554,7 +3554,7 @@
     <col min="30" max="30" width="4.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3690,8 +3690,11 @@
       <c r="AS1" s="3">
         <v>311</v>
       </c>
+      <c r="AT1" s="3">
+        <v>325</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3827,8 +3830,11 @@
       <c r="AS2">
         <v>0</v>
       </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3961,8 +3967,11 @@
       <c r="AS3">
         <v>0</v>
       </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4095,8 +4104,11 @@
       <c r="AS4">
         <v>0</v>
       </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4229,8 +4241,11 @@
       <c r="AS5">
         <v>0</v>
       </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4363,8 +4378,11 @@
       <c r="AS6">
         <v>0</v>
       </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4497,8 +4515,11 @@
       <c r="AS7">
         <v>0</v>
       </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4631,8 +4652,11 @@
       <c r="AS8">
         <v>0</v>
       </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4765,8 +4789,11 @@
       <c r="AS9">
         <v>0</v>
       </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4899,8 +4926,11 @@
       <c r="AS10">
         <v>0</v>
       </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5036,8 +5066,11 @@
       <c r="AS11">
         <v>0</v>
       </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5170,8 +5203,11 @@
       <c r="AS12">
         <v>0</v>
       </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5304,8 +5340,11 @@
       <c r="AS13">
         <v>0</v>
       </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5438,8 +5477,11 @@
       <c r="AS14">
         <v>0</v>
       </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5572,8 +5614,11 @@
       <c r="AS15">
         <v>0</v>
       </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5706,8 +5751,11 @@
       <c r="AS16">
         <v>0</v>
       </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5840,8 +5888,11 @@
       <c r="AS17">
         <v>0</v>
       </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -5974,8 +6025,11 @@
       <c r="AS18">
         <v>0</v>
       </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -6108,8 +6162,11 @@
       <c r="AS19">
         <v>0</v>
       </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -6242,8 +6299,11 @@
       <c r="AS20">
         <v>0</v>
       </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6376,8 +6436,11 @@
       <c r="AS21">
         <v>0</v>
       </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -6513,8 +6576,11 @@
       <c r="AS22">
         <v>0</v>
       </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -6647,8 +6713,11 @@
       <c r="AS23">
         <v>0</v>
       </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6781,8 +6850,11 @@
       <c r="AS24">
         <v>0</v>
       </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -6915,8 +6987,11 @@
       <c r="AS25">
         <v>0</v>
       </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -7049,8 +7124,11 @@
       <c r="AS26">
         <v>0</v>
       </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -7183,8 +7261,11 @@
       <c r="AS27">
         <v>0</v>
       </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -7320,8 +7401,11 @@
       <c r="AS28">
         <v>0</v>
       </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -7457,8 +7541,11 @@
       <c r="AS29" t="s">
         <v>308</v>
       </c>
+      <c r="AT29" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -7591,8 +7678,11 @@
       <c r="AS30">
         <v>0</v>
       </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -7725,8 +7815,11 @@
       <c r="AS31">
         <v>0</v>
       </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -7859,8 +7952,11 @@
       <c r="AS32">
         <v>0</v>
       </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -7993,8 +8089,11 @@
       <c r="AS33">
         <v>0</v>
       </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -8127,8 +8226,11 @@
       <c r="AS34">
         <v>6</v>
       </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -8261,8 +8363,11 @@
       <c r="AS35">
         <v>0</v>
       </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -8395,8 +8500,11 @@
       <c r="AS36">
         <v>0</v>
       </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -8529,8 +8637,11 @@
       <c r="AS37">
         <v>0</v>
       </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -8663,8 +8774,11 @@
       <c r="AS38">
         <v>0</v>
       </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -8797,8 +8911,11 @@
       <c r="AS39">
         <v>0</v>
       </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -8931,8 +9048,11 @@
       <c r="AS40">
         <v>0</v>
       </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -9065,8 +9185,11 @@
       <c r="AS41">
         <v>0</v>
       </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -9202,8 +9325,11 @@
       <c r="AS42">
         <v>0</v>
       </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -9336,8 +9462,11 @@
       <c r="AS43">
         <v>0</v>
       </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -9470,8 +9599,11 @@
       <c r="AS44">
         <v>0</v>
       </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -9604,8 +9736,11 @@
       <c r="AS45">
         <v>0</v>
       </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -9738,8 +9873,11 @@
       <c r="AS46">
         <v>0</v>
       </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -9872,8 +10010,11 @@
       <c r="AS47">
         <v>0</v>
       </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -10006,8 +10147,11 @@
       <c r="AS48">
         <v>0</v>
       </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -10140,8 +10284,11 @@
       <c r="AS49">
         <v>0</v>
       </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -10274,8 +10421,11 @@
       <c r="AS50">
         <v>0</v>
       </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -10408,8 +10558,11 @@
       <c r="AS51">
         <v>0</v>
       </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -10542,8 +10695,11 @@
       <c r="AS52">
         <v>0</v>
       </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -10676,8 +10832,11 @@
       <c r="AS53">
         <v>0</v>
       </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -10810,8 +10969,11 @@
       <c r="AS54">
         <v>0</v>
       </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -10947,8 +11109,11 @@
       <c r="AS55">
         <v>0</v>
       </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -11084,8 +11249,11 @@
       <c r="AS56">
         <v>0</v>
       </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -11221,8 +11389,11 @@
       <c r="AS57">
         <v>0</v>
       </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -11355,8 +11526,11 @@
       <c r="AS58">
         <v>0</v>
       </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -11489,8 +11663,11 @@
       <c r="AS59" t="s">
         <v>308</v>
       </c>
+      <c r="AT59" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -11623,8 +11800,11 @@
       <c r="AS60">
         <v>0</v>
       </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -11757,8 +11937,11 @@
       <c r="AS61">
         <v>0</v>
       </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -11891,8 +12074,11 @@
       <c r="AS62">
         <v>0</v>
       </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -12025,8 +12211,11 @@
       <c r="AS63">
         <v>0</v>
       </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -12159,8 +12348,11 @@
       <c r="AS64">
         <v>0</v>
       </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -12293,8 +12485,11 @@
       <c r="AS65">
         <v>0</v>
       </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -12427,8 +12622,11 @@
       <c r="AS66">
         <v>0</v>
       </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -12561,8 +12759,11 @@
       <c r="AS67">
         <v>0</v>
       </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -12695,8 +12896,11 @@
       <c r="AS68">
         <v>0</v>
       </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -12829,8 +13033,11 @@
       <c r="AS69">
         <v>0</v>
       </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -12963,8 +13170,11 @@
       <c r="AS70">
         <v>0</v>
       </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -13100,8 +13310,11 @@
       <c r="AS71" t="s">
         <v>308</v>
       </c>
+      <c r="AT71" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -13234,8 +13447,11 @@
       <c r="AS72">
         <v>0</v>
       </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -13368,8 +13584,11 @@
       <c r="AS73">
         <v>0</v>
       </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -13502,8 +13721,11 @@
       <c r="AS74">
         <v>0</v>
       </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -13639,8 +13861,11 @@
       <c r="AS75" t="s">
         <v>308</v>
       </c>
+      <c r="AT75" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -13773,8 +13998,11 @@
       <c r="AS76">
         <v>0</v>
       </c>
+      <c r="AT76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -13907,8 +14135,11 @@
       <c r="AS77">
         <v>0</v>
       </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -14041,8 +14272,11 @@
       <c r="AS78" s="2">
         <v>0</v>
       </c>
+      <c r="AT78" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -14175,8 +14409,11 @@
       <c r="AS79" s="2">
         <v>0</v>
       </c>
+      <c r="AT79" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -14309,8 +14546,11 @@
       <c r="AS80" s="2">
         <v>0</v>
       </c>
+      <c r="AT80" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -14443,8 +14683,11 @@
       <c r="AS81" s="2">
         <v>0</v>
       </c>
+      <c r="AT81" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -14577,8 +14820,11 @@
       <c r="AS82" s="2">
         <v>0</v>
       </c>
+      <c r="AT82" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -14711,8 +14957,11 @@
       <c r="AS83" s="2">
         <v>6</v>
       </c>
+      <c r="AT83" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -14845,8 +15094,11 @@
       <c r="AS84" s="2">
         <v>0</v>
       </c>
+      <c r="AT84" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -14979,8 +15231,11 @@
       <c r="AS85" s="2">
         <v>0</v>
       </c>
+      <c r="AT85" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -15113,8 +15368,11 @@
       <c r="AS86" s="2">
         <v>0</v>
       </c>
+      <c r="AT86" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -15247,8 +15505,11 @@
       <c r="AS87" s="2">
         <v>0</v>
       </c>
+      <c r="AT87" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -15381,8 +15642,11 @@
       <c r="AS88" s="2">
         <v>0</v>
       </c>
+      <c r="AT88" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -15515,8 +15779,11 @@
       <c r="AS89" s="2">
         <v>0</v>
       </c>
+      <c r="AT89" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -15649,8 +15916,11 @@
       <c r="AS90" s="2">
         <v>0</v>
       </c>
+      <c r="AT90" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -15783,8 +16053,11 @@
       <c r="AS91" s="2">
         <v>0</v>
       </c>
+      <c r="AT91" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -15917,8 +16190,11 @@
       <c r="AS92" s="2">
         <v>0</v>
       </c>
+      <c r="AT92" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -16051,8 +16327,11 @@
       <c r="AS93" s="2">
         <v>0</v>
       </c>
+      <c r="AT93" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -16185,8 +16464,11 @@
       <c r="AS94" s="2">
         <v>0</v>
       </c>
+      <c r="AT94" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -16322,8 +16604,11 @@
       <c r="AS95" s="2">
         <v>0</v>
       </c>
+      <c r="AT95" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -16456,8 +16741,11 @@
       <c r="AS96" s="2">
         <v>0</v>
       </c>
+      <c r="AT96" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -16590,8 +16878,11 @@
       <c r="AS97">
         <v>0</v>
       </c>
+      <c r="AT97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -16724,8 +17015,11 @@
       <c r="AS98">
         <v>0</v>
       </c>
+      <c r="AT98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -16858,8 +17152,11 @@
       <c r="AS99">
         <v>0</v>
       </c>
+      <c r="AT99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -16992,8 +17289,11 @@
       <c r="AS100">
         <v>0</v>
       </c>
+      <c r="AT100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -17126,8 +17426,11 @@
       <c r="AS101">
         <v>0</v>
       </c>
+      <c r="AT101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -17260,8 +17563,11 @@
       <c r="AS102" s="2">
         <v>0</v>
       </c>
+      <c r="AT102" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -17394,8 +17700,11 @@
       <c r="AS103" s="2">
         <v>0</v>
       </c>
+      <c r="AT103" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -17528,8 +17837,11 @@
       <c r="AS104" s="2">
         <v>0</v>
       </c>
+      <c r="AT104" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -17662,8 +17974,11 @@
       <c r="AS105" s="2">
         <v>0</v>
       </c>
+      <c r="AT105" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -17796,8 +18111,11 @@
       <c r="AS106" s="2">
         <v>0</v>
       </c>
+      <c r="AT106" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -17930,8 +18248,11 @@
       <c r="AS107" s="2">
         <v>0</v>
       </c>
+      <c r="AT107" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -18064,8 +18385,11 @@
       <c r="AS108" s="2">
         <v>0</v>
       </c>
+      <c r="AT108" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -18201,8 +18525,11 @@
       <c r="AS109" s="2">
         <v>0</v>
       </c>
+      <c r="AT109" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -18335,8 +18662,11 @@
       <c r="AS110" s="2">
         <v>0</v>
       </c>
+      <c r="AT110" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -18472,8 +18802,11 @@
       <c r="AS111" s="2">
         <v>0</v>
       </c>
+      <c r="AT111" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -18606,8 +18939,11 @@
       <c r="AS112" s="2">
         <v>0</v>
       </c>
+      <c r="AT112" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -18740,8 +19076,11 @@
       <c r="AS113" t="s">
         <v>308</v>
       </c>
+      <c r="AT113" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -18874,8 +19213,11 @@
       <c r="AS114" s="2">
         <v>0</v>
       </c>
+      <c r="AT114" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -19008,8 +19350,11 @@
       <c r="AS115" s="2">
         <v>0</v>
       </c>
+      <c r="AT115" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -19142,8 +19487,11 @@
       <c r="AS116" s="2">
         <v>0</v>
       </c>
+      <c r="AT116" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -19276,8 +19624,11 @@
       <c r="AS117" s="2">
         <v>0</v>
       </c>
+      <c r="AT117" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -19410,8 +19761,11 @@
       <c r="AS118" s="2">
         <v>0</v>
       </c>
+      <c r="AT118" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -19544,8 +19898,11 @@
       <c r="AS119" s="2">
         <v>0</v>
       </c>
+      <c r="AT119" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -19678,8 +20035,11 @@
       <c r="AS120" s="2">
         <v>0</v>
       </c>
+      <c r="AT120" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -19815,8 +20175,11 @@
       <c r="AS121" s="2">
         <v>0</v>
       </c>
+      <c r="AT121" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -19949,8 +20312,11 @@
       <c r="AS122">
         <v>0</v>
       </c>
+      <c r="AT122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -20083,8 +20449,11 @@
       <c r="AS123">
         <v>0</v>
       </c>
+      <c r="AT123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>140</v>
       </c>
@@ -20217,8 +20586,11 @@
       <c r="AS124">
         <v>0</v>
       </c>
+      <c r="AT124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -20351,8 +20723,11 @@
       <c r="AS125">
         <v>0</v>
       </c>
+      <c r="AT125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -20485,8 +20860,11 @@
       <c r="AS126">
         <v>0</v>
       </c>
+      <c r="AT126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -20619,8 +20997,11 @@
       <c r="AS127">
         <v>0</v>
       </c>
+      <c r="AT127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -20753,8 +21134,11 @@
       <c r="AS128">
         <v>0</v>
       </c>
+      <c r="AT128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>145</v>
       </c>
@@ -20887,8 +21271,11 @@
       <c r="AS129">
         <v>0</v>
       </c>
+      <c r="AT129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -21021,8 +21408,11 @@
       <c r="AS130">
         <v>0</v>
       </c>
+      <c r="AT130">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -21158,8 +21548,11 @@
       <c r="AS131" t="s">
         <v>308</v>
       </c>
+      <c r="AT131" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -21292,8 +21685,11 @@
       <c r="AS132">
         <v>0</v>
       </c>
+      <c r="AT132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -21426,8 +21822,11 @@
       <c r="AS133">
         <v>0</v>
       </c>
+      <c r="AT133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -21560,8 +21959,11 @@
       <c r="AS134">
         <v>0</v>
       </c>
+      <c r="AT134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -21694,8 +22096,11 @@
       <c r="AS135">
         <v>0</v>
       </c>
+      <c r="AT135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -21828,8 +22233,11 @@
       <c r="AS136">
         <v>0</v>
       </c>
+      <c r="AT136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -21965,8 +22373,11 @@
       <c r="AS137">
         <v>0</v>
       </c>
+      <c r="AT137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -22099,8 +22510,11 @@
       <c r="AS138">
         <v>0</v>
       </c>
+      <c r="AT138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>155</v>
       </c>
@@ -22233,8 +22647,11 @@
       <c r="AS139">
         <v>0</v>
       </c>
+      <c r="AT139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -22367,8 +22784,11 @@
       <c r="AS140">
         <v>0</v>
       </c>
+      <c r="AT140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -22501,8 +22921,11 @@
       <c r="AS141">
         <v>0</v>
       </c>
+      <c r="AT141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -22635,8 +23058,11 @@
       <c r="AS142">
         <v>0</v>
       </c>
+      <c r="AT142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -22769,8 +23195,11 @@
       <c r="AS143">
         <v>0</v>
       </c>
+      <c r="AT143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>160</v>
       </c>
@@ -22903,8 +23332,11 @@
       <c r="AS144">
         <v>0</v>
       </c>
+      <c r="AT144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -23037,8 +23469,11 @@
       <c r="AS145">
         <v>0</v>
       </c>
+      <c r="AT145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>162</v>
       </c>
@@ -23171,8 +23606,11 @@
       <c r="AS146">
         <v>0</v>
       </c>
+      <c r="AT146">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -23305,8 +23743,11 @@
       <c r="AS147">
         <v>0</v>
       </c>
+      <c r="AT147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>164</v>
       </c>
@@ -23442,8 +23883,11 @@
       <c r="AS148">
         <v>0</v>
       </c>
+      <c r="AT148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -23576,8 +24020,11 @@
       <c r="AS149">
         <v>0</v>
       </c>
+      <c r="AT149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>166</v>
       </c>
@@ -23713,8 +24160,11 @@
       <c r="AS150">
         <v>0</v>
       </c>
+      <c r="AT150">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>167</v>
       </c>
@@ -23847,8 +24297,11 @@
       <c r="AS151">
         <v>0</v>
       </c>
+      <c r="AT151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -23981,8 +24434,11 @@
       <c r="AS152">
         <v>0</v>
       </c>
+      <c r="AT152">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>169</v>
       </c>
@@ -24115,8 +24571,11 @@
       <c r="AS153">
         <v>0</v>
       </c>
+      <c r="AT153">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>170</v>
       </c>
@@ -24249,8 +24708,11 @@
       <c r="AS154">
         <v>0</v>
       </c>
+      <c r="AT154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -24383,8 +24845,11 @@
       <c r="AS155">
         <v>0</v>
       </c>
+      <c r="AT155">
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>172</v>
       </c>
@@ -24517,8 +24982,11 @@
       <c r="AS156">
         <v>0</v>
       </c>
+      <c r="AT156">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -24651,8 +25119,11 @@
       <c r="AS157">
         <v>0</v>
       </c>
+      <c r="AT157">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>174</v>
       </c>
@@ -24785,8 +25256,11 @@
       <c r="AS158">
         <v>0</v>
       </c>
+      <c r="AT158">
+        <v>0</v>
+      </c>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -24919,8 +25393,11 @@
       <c r="AS159">
         <v>0</v>
       </c>
+      <c r="AT159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>176</v>
       </c>
@@ -25053,8 +25530,11 @@
       <c r="AS160">
         <v>0</v>
       </c>
+      <c r="AT160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -25187,8 +25667,11 @@
       <c r="AS161">
         <v>0</v>
       </c>
+      <c r="AT161">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -25324,8 +25807,11 @@
       <c r="AS162">
         <v>0</v>
       </c>
+      <c r="AT162">
+        <v>0</v>
+      </c>
     </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -25458,8 +25944,11 @@
       <c r="AS163">
         <v>0</v>
       </c>
+      <c r="AT163">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -25595,8 +26084,11 @@
       <c r="AS164">
         <v>6</v>
       </c>
+      <c r="AT164">
+        <v>0</v>
+      </c>
     </row>
-    <row r="165" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -25729,8 +26221,11 @@
       <c r="AS165">
         <v>0</v>
       </c>
+      <c r="AT165">
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>182</v>
       </c>
@@ -25863,8 +26358,11 @@
       <c r="AS166">
         <v>0</v>
       </c>
+      <c r="AT166">
+        <v>0</v>
+      </c>
     </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -25997,8 +26495,11 @@
       <c r="AS167">
         <v>0</v>
       </c>
+      <c r="AT167">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -26131,8 +26632,11 @@
       <c r="AS168">
         <v>0</v>
       </c>
+      <c r="AT168">
+        <v>0</v>
+      </c>
     </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -26265,8 +26769,11 @@
       <c r="AS169">
         <v>0</v>
       </c>
+      <c r="AT169">
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>186</v>
       </c>
@@ -26399,8 +26906,11 @@
       <c r="AS170">
         <v>0</v>
       </c>
+      <c r="AT170">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -26533,8 +27043,11 @@
       <c r="AS171">
         <v>0</v>
       </c>
+      <c r="AT171">
+        <v>0</v>
+      </c>
     </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>188</v>
       </c>
@@ -26667,8 +27180,11 @@
       <c r="AS172">
         <v>0</v>
       </c>
+      <c r="AT172">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -26801,8 +27317,11 @@
       <c r="AS173">
         <v>0</v>
       </c>
+      <c r="AT173">
+        <v>0</v>
+      </c>
     </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>190</v>
       </c>
@@ -26935,8 +27454,11 @@
       <c r="AS174">
         <v>0</v>
       </c>
+      <c r="AT174">
+        <v>0</v>
+      </c>
     </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -27069,8 +27591,11 @@
       <c r="AS175">
         <v>0</v>
       </c>
+      <c r="AT175">
+        <v>0</v>
+      </c>
     </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -27203,8 +27728,11 @@
       <c r="AS176">
         <v>0</v>
       </c>
+      <c r="AT176">
+        <v>0</v>
+      </c>
     </row>
-    <row r="177" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -27337,8 +27865,11 @@
       <c r="AS177">
         <v>0</v>
       </c>
+      <c r="AT177">
+        <v>0</v>
+      </c>
     </row>
-    <row r="178" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>194</v>
       </c>
@@ -27471,8 +28002,11 @@
       <c r="AS178">
         <v>0</v>
       </c>
+      <c r="AT178">
+        <v>0</v>
+      </c>
     </row>
-    <row r="179" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -27605,8 +28139,11 @@
       <c r="AS179">
         <v>0</v>
       </c>
+      <c r="AT179">
+        <v>0</v>
+      </c>
     </row>
-    <row r="180" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>196</v>
       </c>
@@ -27739,8 +28276,11 @@
       <c r="AS180">
         <v>0</v>
       </c>
+      <c r="AT180">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -27873,8 +28413,11 @@
       <c r="AS181">
         <v>0</v>
       </c>
+      <c r="AT181">
+        <v>0</v>
+      </c>
     </row>
-    <row r="182" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>198</v>
       </c>
@@ -28002,8 +28545,14 @@
       <c r="AR182">
         <v>0</v>
       </c>
+      <c r="AS182">
+        <v>0</v>
+      </c>
+      <c r="AT182">
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>201</v>
       </c>
@@ -28131,8 +28680,14 @@
       <c r="AR183">
         <v>0</v>
       </c>
+      <c r="AS183">
+        <v>0</v>
+      </c>
+      <c r="AT183">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -28260,8 +28815,14 @@
       <c r="AR184">
         <v>0</v>
       </c>
+      <c r="AS184">
+        <v>0</v>
+      </c>
+      <c r="AT184">
+        <v>0</v>
+      </c>
     </row>
-    <row r="185" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -28389,8 +28950,14 @@
       <c r="AR185">
         <v>0</v>
       </c>
+      <c r="AS185">
+        <v>0</v>
+      </c>
+      <c r="AT185">
+        <v>0</v>
+      </c>
     </row>
-    <row r="186" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>204</v>
       </c>
@@ -28521,8 +29088,14 @@
       <c r="AR186">
         <v>0</v>
       </c>
+      <c r="AS186">
+        <v>0</v>
+      </c>
+      <c r="AT186">
+        <v>0</v>
+      </c>
     </row>
-    <row r="187" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -28650,8 +29223,14 @@
       <c r="AR187">
         <v>0</v>
       </c>
+      <c r="AS187">
+        <v>0</v>
+      </c>
+      <c r="AT187">
+        <v>0</v>
+      </c>
     </row>
-    <row r="188" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -28779,8 +29358,14 @@
       <c r="AR188">
         <v>0</v>
       </c>
+      <c r="AS188">
+        <v>0</v>
+      </c>
+      <c r="AT188">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -28908,8 +29493,14 @@
       <c r="AR189">
         <v>0</v>
       </c>
+      <c r="AS189">
+        <v>0</v>
+      </c>
+      <c r="AT189">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -29040,8 +29631,14 @@
       <c r="AR190">
         <v>0</v>
       </c>
+      <c r="AS190">
+        <v>0</v>
+      </c>
+      <c r="AT190">
+        <v>0</v>
+      </c>
     </row>
-    <row r="191" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>210</v>
       </c>
@@ -29169,8 +29766,14 @@
       <c r="AR191">
         <v>0</v>
       </c>
+      <c r="AS191">
+        <v>0</v>
+      </c>
+      <c r="AT191">
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -29298,8 +29901,14 @@
       <c r="AR192">
         <v>0</v>
       </c>
+      <c r="AS192">
+        <v>0</v>
+      </c>
+      <c r="AT192">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>212</v>
       </c>
@@ -29427,8 +30036,14 @@
       <c r="AR193">
         <v>0</v>
       </c>
+      <c r="AS193">
+        <v>0</v>
+      </c>
+      <c r="AT193">
+        <v>0</v>
+      </c>
     </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -29559,8 +30174,14 @@
       <c r="AR194">
         <v>0</v>
       </c>
+      <c r="AS194">
+        <v>0</v>
+      </c>
+      <c r="AT194">
+        <v>0</v>
+      </c>
     </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>215</v>
       </c>
@@ -29688,8 +30309,14 @@
       <c r="AR195">
         <v>0</v>
       </c>
+      <c r="AS195">
+        <v>0</v>
+      </c>
+      <c r="AT195">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>216</v>
       </c>
@@ -29817,8 +30444,14 @@
       <c r="AR196">
         <v>0</v>
       </c>
+      <c r="AS196">
+        <v>0</v>
+      </c>
+      <c r="AT196">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>217</v>
       </c>
@@ -29946,8 +30579,14 @@
       <c r="AR197">
         <v>0</v>
       </c>
+      <c r="AS197">
+        <v>0</v>
+      </c>
+      <c r="AT197">
+        <v>0</v>
+      </c>
     </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -30078,8 +30717,14 @@
       <c r="AR198">
         <v>0</v>
       </c>
+      <c r="AS198">
+        <v>0</v>
+      </c>
+      <c r="AT198">
+        <v>0</v>
+      </c>
     </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
@@ -30207,8 +30852,14 @@
       <c r="AR199">
         <v>0</v>
       </c>
+      <c r="AS199">
+        <v>0</v>
+      </c>
+      <c r="AT199">
+        <v>0</v>
+      </c>
     </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
@@ -30339,8 +30990,14 @@
       <c r="AR200">
         <v>0</v>
       </c>
+      <c r="AS200">
+        <v>0</v>
+      </c>
+      <c r="AT200">
+        <v>0</v>
+      </c>
     </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
@@ -30468,8 +31125,14 @@
       <c r="AR201">
         <v>0</v>
       </c>
+      <c r="AS201">
+        <v>0</v>
+      </c>
+      <c r="AT201">
+        <v>0</v>
+      </c>
     </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
@@ -30597,8 +31260,14 @@
       <c r="AR202">
         <v>0</v>
       </c>
+      <c r="AS202">
+        <v>0</v>
+      </c>
+      <c r="AT202">
+        <v>0</v>
+      </c>
     </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
@@ -30726,8 +31395,14 @@
       <c r="AR203">
         <v>0</v>
       </c>
+      <c r="AS203">
+        <v>0</v>
+      </c>
+      <c r="AT203">
+        <v>0</v>
+      </c>
     </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
@@ -30855,8 +31530,14 @@
       <c r="AR204">
         <v>0</v>
       </c>
+      <c r="AS204">
+        <v>0</v>
+      </c>
+      <c r="AT204">
+        <v>0</v>
+      </c>
     </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -30987,8 +31668,14 @@
       <c r="AR205">
         <v>0</v>
       </c>
+      <c r="AS205">
+        <v>0</v>
+      </c>
+      <c r="AT205">
+        <v>0</v>
+      </c>
     </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
@@ -31116,8 +31803,14 @@
       <c r="AR206">
         <v>0</v>
       </c>
+      <c r="AS206">
+        <v>0</v>
+      </c>
+      <c r="AT206">
+        <v>0</v>
+      </c>
     </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>228</v>
       </c>
@@ -31245,8 +31938,14 @@
       <c r="AR207">
         <v>0</v>
       </c>
+      <c r="AS207">
+        <v>0</v>
+      </c>
+      <c r="AT207">
+        <v>0</v>
+      </c>
     </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
@@ -31377,8 +32076,14 @@
       <c r="AR208">
         <v>0</v>
       </c>
+      <c r="AS208">
+        <v>0</v>
+      </c>
+      <c r="AT208">
+        <v>0</v>
+      </c>
     </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>230</v>
       </c>
@@ -31506,8 +32211,14 @@
       <c r="AR209">
         <v>0</v>
       </c>
+      <c r="AS209">
+        <v>0</v>
+      </c>
+      <c r="AT209">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
@@ -31635,8 +32346,14 @@
       <c r="AR210">
         <v>0</v>
       </c>
+      <c r="AS210">
+        <v>0</v>
+      </c>
+      <c r="AT210">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -31767,8 +32484,14 @@
       <c r="AR211">
         <v>0</v>
       </c>
+      <c r="AS211">
+        <v>0</v>
+      </c>
+      <c r="AT211">
+        <v>0</v>
+      </c>
     </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>233</v>
       </c>
@@ -31896,8 +32619,14 @@
       <c r="AR212">
         <v>0</v>
       </c>
+      <c r="AS212">
+        <v>0</v>
+      </c>
+      <c r="AT212">
+        <v>0</v>
+      </c>
     </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -32025,8 +32754,14 @@
       <c r="AR213">
         <v>0</v>
       </c>
+      <c r="AS213">
+        <v>0</v>
+      </c>
+      <c r="AT213">
+        <v>0</v>
+      </c>
     </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>235</v>
       </c>
@@ -32154,8 +32889,14 @@
       <c r="AR214">
         <v>0</v>
       </c>
+      <c r="AS214">
+        <v>0</v>
+      </c>
+      <c r="AT214">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
@@ -32283,8 +33024,14 @@
       <c r="AR215">
         <v>0</v>
       </c>
+      <c r="AS215">
+        <v>0</v>
+      </c>
+      <c r="AT215">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>237</v>
       </c>
@@ -32415,8 +33162,14 @@
       <c r="AR216">
         <v>0</v>
       </c>
+      <c r="AS216">
+        <v>0</v>
+      </c>
+      <c r="AT216">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
@@ -32544,8 +33297,14 @@
       <c r="AR217">
         <v>0</v>
       </c>
+      <c r="AS217">
+        <v>0</v>
+      </c>
+      <c r="AT217">
+        <v>0</v>
+      </c>
     </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>239</v>
       </c>
@@ -32673,8 +33432,14 @@
       <c r="AR218">
         <v>0</v>
       </c>
+      <c r="AS218">
+        <v>0</v>
+      </c>
+      <c r="AT218">
+        <v>0</v>
+      </c>
     </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
@@ -32802,8 +33567,14 @@
       <c r="AR219">
         <v>0</v>
       </c>
+      <c r="AS219">
+        <v>0</v>
+      </c>
+      <c r="AT219">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>241</v>
       </c>
@@ -32931,8 +33702,14 @@
       <c r="AR220">
         <v>0</v>
       </c>
+      <c r="AS220">
+        <v>0</v>
+      </c>
+      <c r="AT220">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -33060,8 +33837,14 @@
       <c r="AR221">
         <v>0</v>
       </c>
+      <c r="AS221">
+        <v>0</v>
+      </c>
+      <c r="AT221">
+        <v>0</v>
+      </c>
     </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>243</v>
       </c>
@@ -33189,8 +33972,14 @@
       <c r="AR222">
         <v>0</v>
       </c>
+      <c r="AS222">
+        <v>0</v>
+      </c>
+      <c r="AT222">
+        <v>0</v>
+      </c>
     </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
@@ -33321,8 +34110,14 @@
       <c r="AR223">
         <v>0</v>
       </c>
+      <c r="AS223">
+        <v>0</v>
+      </c>
+      <c r="AT223">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -33450,8 +34245,14 @@
       <c r="AR224">
         <v>0</v>
       </c>
+      <c r="AS224">
+        <v>0</v>
+      </c>
+      <c r="AT224">
+        <v>0</v>
+      </c>
     </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
@@ -33582,8 +34383,14 @@
       <c r="AR225">
         <v>0</v>
       </c>
+      <c r="AS225">
+        <v>0</v>
+      </c>
+      <c r="AT225">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>247</v>
       </c>
@@ -33711,8 +34518,14 @@
       <c r="AR226">
         <v>0</v>
       </c>
+      <c r="AS226">
+        <v>0</v>
+      </c>
+      <c r="AT226">
+        <v>0</v>
+      </c>
     </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
@@ -33840,8 +34653,14 @@
       <c r="AR227">
         <v>0</v>
       </c>
+      <c r="AS227">
+        <v>0</v>
+      </c>
+      <c r="AT227">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -33969,8 +34788,14 @@
       <c r="AR228">
         <v>0</v>
       </c>
+      <c r="AS228">
+        <v>0</v>
+      </c>
+      <c r="AT228">
+        <v>0</v>
+      </c>
     </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>250</v>
       </c>
@@ -34098,8 +34923,14 @@
       <c r="AR229">
         <v>0</v>
       </c>
+      <c r="AS229">
+        <v>0</v>
+      </c>
+      <c r="AT229">
+        <v>0</v>
+      </c>
     </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>251</v>
       </c>
@@ -34227,8 +35058,14 @@
       <c r="AR230">
         <v>0</v>
       </c>
+      <c r="AS230">
+        <v>0</v>
+      </c>
+      <c r="AT230">
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -34356,8 +35193,14 @@
       <c r="AR231">
         <v>0</v>
       </c>
+      <c r="AS231">
+        <v>0</v>
+      </c>
+      <c r="AT231">
+        <v>0</v>
+      </c>
     </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>253</v>
       </c>
@@ -34485,8 +35328,14 @@
       <c r="AR232">
         <v>0</v>
       </c>
+      <c r="AS232">
+        <v>0</v>
+      </c>
+      <c r="AT232">
+        <v>0</v>
+      </c>
     </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>254</v>
       </c>
@@ -34614,8 +35463,14 @@
       <c r="AR233">
         <v>0</v>
       </c>
+      <c r="AS233">
+        <v>0</v>
+      </c>
+      <c r="AT233">
+        <v>0</v>
+      </c>
     </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>255</v>
       </c>
@@ -34743,8 +35598,14 @@
       <c r="AR234">
         <v>0</v>
       </c>
+      <c r="AS234">
+        <v>0</v>
+      </c>
+      <c r="AT234">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -34872,8 +35733,14 @@
       <c r="AR235">
         <v>0</v>
       </c>
+      <c r="AS235">
+        <v>0</v>
+      </c>
+      <c r="AT235">
+        <v>0</v>
+      </c>
     </row>
-    <row r="236" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -35001,8 +35868,14 @@
       <c r="AR236">
         <v>0</v>
       </c>
+      <c r="AS236">
+        <v>0</v>
+      </c>
+      <c r="AT236">
+        <v>0</v>
+      </c>
     </row>
-    <row r="237" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -35130,8 +36003,14 @@
       <c r="AR237">
         <v>0</v>
       </c>
+      <c r="AS237">
+        <v>0</v>
+      </c>
+      <c r="AT237">
+        <v>0</v>
+      </c>
     </row>
-    <row r="238" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -35259,8 +36138,14 @@
       <c r="AR238">
         <v>0</v>
       </c>
+      <c r="AS238">
+        <v>0</v>
+      </c>
+      <c r="AT238">
+        <v>0</v>
+      </c>
     </row>
-    <row r="239" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -35388,8 +36273,14 @@
       <c r="AR239">
         <v>0</v>
       </c>
+      <c r="AS239">
+        <v>0</v>
+      </c>
+      <c r="AT239">
+        <v>0</v>
+      </c>
     </row>
-    <row r="240" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -35517,8 +36408,14 @@
       <c r="AR240">
         <v>0</v>
       </c>
+      <c r="AS240">
+        <v>0</v>
+      </c>
+      <c r="AT240">
+        <v>0</v>
+      </c>
     </row>
-    <row r="241" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -35646,8 +36543,14 @@
       <c r="AR241">
         <v>0</v>
       </c>
+      <c r="AS241">
+        <v>0</v>
+      </c>
+      <c r="AT241">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -35775,8 +36678,14 @@
       <c r="AR242">
         <v>0</v>
       </c>
+      <c r="AS242">
+        <v>0</v>
+      </c>
+      <c r="AT242">
+        <v>0</v>
+      </c>
     </row>
-    <row r="243" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -35904,8 +36813,14 @@
       <c r="AR243">
         <v>0</v>
       </c>
+      <c r="AS243">
+        <v>0</v>
+      </c>
+      <c r="AT243">
+        <v>0</v>
+      </c>
     </row>
-    <row r="244" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>265</v>
       </c>
@@ -36033,8 +36948,14 @@
       <c r="AR244">
         <v>0</v>
       </c>
+      <c r="AS244">
+        <v>0</v>
+      </c>
+      <c r="AT244">
+        <v>0</v>
+      </c>
     </row>
-    <row r="245" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -36162,8 +37083,14 @@
       <c r="AR245">
         <v>0</v>
       </c>
+      <c r="AS245">
+        <v>0</v>
+      </c>
+      <c r="AT245">
+        <v>0</v>
+      </c>
     </row>
-    <row r="246" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>267</v>
       </c>
@@ -36291,8 +37218,14 @@
       <c r="AR246">
         <v>0</v>
       </c>
+      <c r="AS246">
+        <v>0</v>
+      </c>
+      <c r="AT246">
+        <v>0</v>
+      </c>
     </row>
-    <row r="247" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>268</v>
       </c>
@@ -36420,8 +37353,14 @@
       <c r="AR247">
         <v>0</v>
       </c>
+      <c r="AS247">
+        <v>0</v>
+      </c>
+      <c r="AT247">
+        <v>0</v>
+      </c>
     </row>
-    <row r="248" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>269</v>
       </c>
@@ -36549,8 +37488,14 @@
       <c r="AR248">
         <v>0</v>
       </c>
+      <c r="AS248">
+        <v>0</v>
+      </c>
+      <c r="AT248">
+        <v>0</v>
+      </c>
     </row>
-    <row r="249" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>270</v>
       </c>
@@ -36678,8 +37623,14 @@
       <c r="AR249">
         <v>0</v>
       </c>
+      <c r="AS249">
+        <v>0</v>
+      </c>
+      <c r="AT249">
+        <v>0</v>
+      </c>
     </row>
-    <row r="250" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>271</v>
       </c>
@@ -36807,8 +37758,14 @@
       <c r="AR250">
         <v>0</v>
       </c>
+      <c r="AS250">
+        <v>0</v>
+      </c>
+      <c r="AT250">
+        <v>0</v>
+      </c>
     </row>
-    <row r="251" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>272</v>
       </c>
@@ -36936,8 +37893,14 @@
       <c r="AR251">
         <v>0</v>
       </c>
+      <c r="AS251">
+        <v>0</v>
+      </c>
+      <c r="AT251">
+        <v>0</v>
+      </c>
     </row>
-    <row r="252" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>273</v>
       </c>
@@ -37065,8 +38028,14 @@
       <c r="AR252">
         <v>0</v>
       </c>
+      <c r="AS252">
+        <v>0</v>
+      </c>
+      <c r="AT252">
+        <v>0</v>
+      </c>
     </row>
-    <row r="253" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>274</v>
       </c>
@@ -37194,8 +38163,14 @@
       <c r="AR253">
         <v>0</v>
       </c>
+      <c r="AS253">
+        <v>0</v>
+      </c>
+      <c r="AT253">
+        <v>0</v>
+      </c>
     </row>
-    <row r="254" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>275</v>
       </c>
@@ -37323,8 +38298,14 @@
       <c r="AR254">
         <v>0</v>
       </c>
+      <c r="AS254">
+        <v>0</v>
+      </c>
+      <c r="AT254">
+        <v>0</v>
+      </c>
     </row>
-    <row r="255" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>276</v>
       </c>
@@ -37452,8 +38433,14 @@
       <c r="AR255">
         <v>0</v>
       </c>
+      <c r="AS255">
+        <v>0</v>
+      </c>
+      <c r="AT255">
+        <v>0</v>
+      </c>
     </row>
-    <row r="256" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>277</v>
       </c>
@@ -37581,8 +38568,14 @@
       <c r="AR256">
         <v>0</v>
       </c>
+      <c r="AS256">
+        <v>0</v>
+      </c>
+      <c r="AT256">
+        <v>0</v>
+      </c>
     </row>
-    <row r="257" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>278</v>
       </c>
@@ -37710,8 +38703,14 @@
       <c r="AR257">
         <v>0</v>
       </c>
+      <c r="AS257">
+        <v>0</v>
+      </c>
+      <c r="AT257">
+        <v>0</v>
+      </c>
     </row>
-    <row r="258" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>279</v>
       </c>
@@ -37839,8 +38838,14 @@
       <c r="AR258">
         <v>0</v>
       </c>
+      <c r="AS258">
+        <v>0</v>
+      </c>
+      <c r="AT258">
+        <v>0</v>
+      </c>
     </row>
-    <row r="259" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>280</v>
       </c>
@@ -37968,8 +38973,14 @@
       <c r="AR259">
         <v>0</v>
       </c>
+      <c r="AS259">
+        <v>0</v>
+      </c>
+      <c r="AT259">
+        <v>0</v>
+      </c>
     </row>
-    <row r="260" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>281</v>
       </c>
@@ -38097,8 +39108,14 @@
       <c r="AR260">
         <v>0</v>
       </c>
+      <c r="AS260">
+        <v>0</v>
+      </c>
+      <c r="AT260">
+        <v>0</v>
+      </c>
     </row>
-    <row r="261" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>282</v>
       </c>
@@ -38226,8 +39243,14 @@
       <c r="AR261">
         <v>0</v>
       </c>
+      <c r="AS261">
+        <v>0</v>
+      </c>
+      <c r="AT261">
+        <v>0</v>
+      </c>
     </row>
-    <row r="262" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>283</v>
       </c>
@@ -38355,8 +39378,14 @@
       <c r="AR262">
         <v>0</v>
       </c>
+      <c r="AS262">
+        <v>0</v>
+      </c>
+      <c r="AT262">
+        <v>0</v>
+      </c>
     </row>
-    <row r="263" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>284</v>
       </c>
@@ -38484,8 +39513,14 @@
       <c r="AR263">
         <v>0</v>
       </c>
+      <c r="AS263">
+        <v>0</v>
+      </c>
+      <c r="AT263">
+        <v>0</v>
+      </c>
     </row>
-    <row r="264" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>285</v>
       </c>
@@ -38613,8 +39648,14 @@
       <c r="AR264">
         <v>0</v>
       </c>
+      <c r="AS264">
+        <v>0</v>
+      </c>
+      <c r="AT264">
+        <v>0</v>
+      </c>
     </row>
-    <row r="265" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>286</v>
       </c>
@@ -38742,8 +39783,14 @@
       <c r="AR265">
         <v>0</v>
       </c>
+      <c r="AS265">
+        <v>0</v>
+      </c>
+      <c r="AT265">
+        <v>0</v>
+      </c>
     </row>
-    <row r="266" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -38871,8 +39918,14 @@
       <c r="AR266">
         <v>0</v>
       </c>
+      <c r="AS266">
+        <v>0</v>
+      </c>
+      <c r="AT266">
+        <v>0</v>
+      </c>
     </row>
-    <row r="267" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>288</v>
       </c>
@@ -39000,8 +40053,14 @@
       <c r="AR267">
         <v>0</v>
       </c>
+      <c r="AS267">
+        <v>0</v>
+      </c>
+      <c r="AT267">
+        <v>0</v>
+      </c>
     </row>
-    <row r="268" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -39129,8 +40188,14 @@
       <c r="AR268">
         <v>0</v>
       </c>
+      <c r="AS268">
+        <v>0</v>
+      </c>
+      <c r="AT268">
+        <v>0</v>
+      </c>
     </row>
-    <row r="269" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>290</v>
       </c>
@@ -39258,8 +40323,14 @@
       <c r="AR269">
         <v>0</v>
       </c>
+      <c r="AS269">
+        <v>0</v>
+      </c>
+      <c r="AT269">
+        <v>0</v>
+      </c>
     </row>
-    <row r="270" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -39387,8 +40458,14 @@
       <c r="AR270">
         <v>0</v>
       </c>
+      <c r="AS270">
+        <v>0</v>
+      </c>
+      <c r="AT270">
+        <v>0</v>
+      </c>
     </row>
-    <row r="271" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>292</v>
       </c>
@@ -39516,8 +40593,14 @@
       <c r="AR271">
         <v>0</v>
       </c>
+      <c r="AS271">
+        <v>0</v>
+      </c>
+      <c r="AT271">
+        <v>0</v>
+      </c>
     </row>
-    <row r="272" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -39647,8 +40730,17 @@
       <c r="AQ272" t="s">
         <v>308</v>
       </c>
+      <c r="AR272" t="s">
+        <v>308</v>
+      </c>
+      <c r="AS272" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT272" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="273" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>296</v>
       </c>
@@ -39778,8 +40870,14 @@
       <c r="AR273">
         <v>0</v>
       </c>
+      <c r="AS273">
+        <v>0</v>
+      </c>
+      <c r="AT273">
+        <v>0</v>
+      </c>
     </row>
-    <row r="274" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>297</v>
       </c>
@@ -39909,8 +41007,14 @@
       <c r="AR274">
         <v>0</v>
       </c>
+      <c r="AS274">
+        <v>0</v>
+      </c>
+      <c r="AT274">
+        <v>0</v>
+      </c>
     </row>
-    <row r="275" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>298</v>
       </c>
@@ -40043,8 +41147,14 @@
       <c r="AR275" t="s">
         <v>308</v>
       </c>
+      <c r="AS275" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT275" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="276" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>299</v>
       </c>
@@ -40177,8 +41287,14 @@
       <c r="AR276">
         <v>0</v>
       </c>
+      <c r="AS276">
+        <v>0</v>
+      </c>
+      <c r="AT276">
+        <v>0</v>
+      </c>
     </row>
-    <row r="277" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>300</v>
       </c>
@@ -40308,8 +41424,14 @@
       <c r="AR277">
         <v>0</v>
       </c>
+      <c r="AS277">
+        <v>0</v>
+      </c>
+      <c r="AT277">
+        <v>0</v>
+      </c>
     </row>
-    <row r="278" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>301</v>
       </c>
@@ -40439,8 +41561,14 @@
       <c r="AR278">
         <v>0</v>
       </c>
+      <c r="AS278">
+        <v>0</v>
+      </c>
+      <c r="AT278">
+        <v>0</v>
+      </c>
     </row>
-    <row r="279" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>302</v>
       </c>
@@ -40573,8 +41701,14 @@
       <c r="AR279" t="s">
         <v>308</v>
       </c>
+      <c r="AS279" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT279" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="280" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>303</v>
       </c>
@@ -40704,8 +41838,14 @@
       <c r="AR280">
         <v>0</v>
       </c>
+      <c r="AS280">
+        <v>0</v>
+      </c>
+      <c r="AT280">
+        <v>0</v>
+      </c>
     </row>
-    <row r="281" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -40835,8 +41975,14 @@
       <c r="AR281">
         <v>0</v>
       </c>
+      <c r="AS281">
+        <v>0</v>
+      </c>
+      <c r="AT281">
+        <v>0</v>
+      </c>
     </row>
-    <row r="282" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>305</v>
       </c>
@@ -40969,8 +42115,14 @@
       <c r="AR282" t="s">
         <v>308</v>
       </c>
+      <c r="AS282" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT282" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="283" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>306</v>
       </c>
@@ -41103,8 +42255,14 @@
       <c r="AR283" t="s">
         <v>308</v>
       </c>
+      <c r="AS283" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT283" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="284" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -41234,8 +42392,14 @@
       <c r="AR284">
         <v>0</v>
       </c>
+      <c r="AS284">
+        <v>0</v>
+      </c>
+      <c r="AT284">
+        <v>0</v>
+      </c>
     </row>
-    <row r="285" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -41365,8 +42529,14 @@
       <c r="AR285">
         <v>0</v>
       </c>
+      <c r="AS285">
+        <v>0</v>
+      </c>
+      <c r="AT285">
+        <v>0</v>
+      </c>
     </row>
-    <row r="286" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -41496,8 +42666,14 @@
       <c r="AR286">
         <v>0</v>
       </c>
+      <c r="AS286">
+        <v>0</v>
+      </c>
+      <c r="AT286">
+        <v>0</v>
+      </c>
     </row>
-    <row r="287" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -41627,8 +42803,14 @@
       <c r="AR287">
         <v>0</v>
       </c>
+      <c r="AS287">
+        <v>0</v>
+      </c>
+      <c r="AT287">
+        <v>0</v>
+      </c>
     </row>
-    <row r="288" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -41758,8 +42940,14 @@
       <c r="AR288">
         <v>0</v>
       </c>
+      <c r="AS288">
+        <v>0</v>
+      </c>
+      <c r="AT288">
+        <v>0</v>
+      </c>
     </row>
-    <row r="289" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -41889,8 +43077,14 @@
       <c r="AR289">
         <v>0</v>
       </c>
+      <c r="AS289">
+        <v>0</v>
+      </c>
+      <c r="AT289">
+        <v>0</v>
+      </c>
     </row>
-    <row r="290" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -42020,8 +43214,14 @@
       <c r="AR290">
         <v>0</v>
       </c>
+      <c r="AS290">
+        <v>0</v>
+      </c>
+      <c r="AT290">
+        <v>0</v>
+      </c>
     </row>
-    <row r="291" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -42151,8 +43351,14 @@
       <c r="AR291">
         <v>0</v>
       </c>
+      <c r="AS291">
+        <v>0</v>
+      </c>
+      <c r="AT291">
+        <v>0</v>
+      </c>
     </row>
-    <row r="292" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -42282,8 +43488,14 @@
       <c r="AR292">
         <v>0</v>
       </c>
+      <c r="AS292">
+        <v>0</v>
+      </c>
+      <c r="AT292">
+        <v>0</v>
+      </c>
     </row>
-    <row r="293" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -42413,8 +43625,14 @@
       <c r="AR293">
         <v>0</v>
       </c>
+      <c r="AS293">
+        <v>0</v>
+      </c>
+      <c r="AT293">
+        <v>0</v>
+      </c>
     </row>
-    <row r="294" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -42547,8 +43765,14 @@
       <c r="AR294">
         <v>0</v>
       </c>
+      <c r="AS294">
+        <v>0</v>
+      </c>
+      <c r="AT294">
+        <v>0</v>
+      </c>
     </row>
-    <row r="295" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>321</v>
       </c>
@@ -42678,8 +43902,14 @@
       <c r="AR295">
         <v>0</v>
       </c>
+      <c r="AS295">
+        <v>0</v>
+      </c>
+      <c r="AT295">
+        <v>0</v>
+      </c>
     </row>
-    <row r="296" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>322</v>
       </c>
@@ -42809,8 +44039,14 @@
       <c r="AR296">
         <v>0</v>
       </c>
+      <c r="AS296">
+        <v>0</v>
+      </c>
+      <c r="AT296">
+        <v>0</v>
+      </c>
     </row>
-    <row r="297" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>323</v>
       </c>
@@ -42943,8 +44179,14 @@
       <c r="AR297" t="s">
         <v>308</v>
       </c>
+      <c r="AS297" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT297" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="298" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>324</v>
       </c>
@@ -43074,8 +44316,14 @@
       <c r="AR298">
         <v>0</v>
       </c>
+      <c r="AS298">
+        <v>0</v>
+      </c>
+      <c r="AT298">
+        <v>0</v>
+      </c>
     </row>
-    <row r="299" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>325</v>
       </c>
@@ -43208,8 +44456,14 @@
       <c r="AR299" t="s">
         <v>308</v>
       </c>
+      <c r="AS299" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT299" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="300" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>326</v>
       </c>
@@ -43339,8 +44593,14 @@
       <c r="AR300">
         <v>0</v>
       </c>
+      <c r="AS300">
+        <v>0</v>
+      </c>
+      <c r="AT300">
+        <v>0</v>
+      </c>
     </row>
-    <row r="301" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>327</v>
       </c>
@@ -43470,8 +44730,14 @@
       <c r="AR301">
         <v>0</v>
       </c>
+      <c r="AS301">
+        <v>0</v>
+      </c>
+      <c r="AT301">
+        <v>0</v>
+      </c>
     </row>
-    <row r="302" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>328</v>
       </c>
@@ -43601,8 +44867,14 @@
       <c r="AR302">
         <v>0</v>
       </c>
+      <c r="AS302">
+        <v>0</v>
+      </c>
+      <c r="AT302">
+        <v>0</v>
+      </c>
     </row>
-    <row r="303" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>329</v>
       </c>
@@ -43732,8 +45004,14 @@
       <c r="AR303">
         <v>0</v>
       </c>
+      <c r="AS303">
+        <v>0</v>
+      </c>
+      <c r="AT303">
+        <v>0</v>
+      </c>
     </row>
-    <row r="304" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>330</v>
       </c>
@@ -43863,8 +45141,14 @@
       <c r="AR304">
         <v>0</v>
       </c>
+      <c r="AS304">
+        <v>0</v>
+      </c>
+      <c r="AT304">
+        <v>0</v>
+      </c>
     </row>
-    <row r="305" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>331</v>
       </c>
@@ -43994,8 +45278,14 @@
       <c r="AR305">
         <v>0</v>
       </c>
+      <c r="AS305">
+        <v>0</v>
+      </c>
+      <c r="AT305">
+        <v>0</v>
+      </c>
     </row>
-    <row r="306" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>332</v>
       </c>
@@ -44125,8 +45415,14 @@
       <c r="AR306">
         <v>0</v>
       </c>
+      <c r="AS306">
+        <v>0</v>
+      </c>
+      <c r="AT306">
+        <v>0</v>
+      </c>
     </row>
-    <row r="307" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -44256,8 +45552,14 @@
       <c r="AR307">
         <v>0</v>
       </c>
+      <c r="AS307">
+        <v>0</v>
+      </c>
+      <c r="AT307">
+        <v>0</v>
+      </c>
     </row>
-    <row r="308" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>334</v>
       </c>
@@ -44387,8 +45689,14 @@
       <c r="AR308">
         <v>0</v>
       </c>
+      <c r="AS308">
+        <v>0</v>
+      </c>
+      <c r="AT308">
+        <v>0</v>
+      </c>
     </row>
-    <row r="309" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>335</v>
       </c>
@@ -44518,8 +45826,14 @@
       <c r="AR309">
         <v>0</v>
       </c>
+      <c r="AS309">
+        <v>0</v>
+      </c>
+      <c r="AT309">
+        <v>0</v>
+      </c>
     </row>
-    <row r="310" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>336</v>
       </c>
@@ -44649,8 +45963,14 @@
       <c r="AR310">
         <v>0</v>
       </c>
+      <c r="AS310">
+        <v>0</v>
+      </c>
+      <c r="AT310">
+        <v>0</v>
+      </c>
     </row>
-    <row r="311" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -44780,8 +46100,14 @@
       <c r="AR311">
         <v>0</v>
       </c>
+      <c r="AS311">
+        <v>0</v>
+      </c>
+      <c r="AT311">
+        <v>0</v>
+      </c>
     </row>
-    <row r="312" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -44911,8 +46237,14 @@
       <c r="AR312">
         <v>0</v>
       </c>
+      <c r="AS312">
+        <v>0</v>
+      </c>
+      <c r="AT312">
+        <v>0</v>
+      </c>
     </row>
-    <row r="313" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -45042,8 +46374,14 @@
       <c r="AR313">
         <v>0</v>
       </c>
+      <c r="AS313">
+        <v>0</v>
+      </c>
+      <c r="AT313">
+        <v>0</v>
+      </c>
     </row>
-    <row r="314" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -45173,8 +46511,14 @@
       <c r="AR314">
         <v>0</v>
       </c>
+      <c r="AS314">
+        <v>0</v>
+      </c>
+      <c r="AT314">
+        <v>0</v>
+      </c>
     </row>
-    <row r="315" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -45304,8 +46648,14 @@
       <c r="AR315">
         <v>0</v>
       </c>
+      <c r="AS315">
+        <v>0</v>
+      </c>
+      <c r="AT315">
+        <v>0</v>
+      </c>
     </row>
-    <row r="316" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -45438,8 +46788,14 @@
       <c r="AR316">
         <v>0</v>
       </c>
+      <c r="AS316">
+        <v>0</v>
+      </c>
+      <c r="AT316">
+        <v>0</v>
+      </c>
     </row>
-    <row r="317" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -45572,8 +46928,14 @@
       <c r="AR317" t="s">
         <v>308</v>
       </c>
+      <c r="AS317" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT317" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="318" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -45703,8 +47065,14 @@
       <c r="AR318">
         <v>0</v>
       </c>
+      <c r="AS318">
+        <v>0</v>
+      </c>
+      <c r="AT318">
+        <v>0</v>
+      </c>
     </row>
-    <row r="319" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -45834,8 +47202,14 @@
       <c r="AR319">
         <v>0</v>
       </c>
+      <c r="AS319">
+        <v>0</v>
+      </c>
+      <c r="AT319">
+        <v>0</v>
+      </c>
     </row>
-    <row r="320" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -45965,8 +47339,14 @@
       <c r="AR320">
         <v>0</v>
       </c>
+      <c r="AS320">
+        <v>0</v>
+      </c>
+      <c r="AT320">
+        <v>0</v>
+      </c>
     </row>
-    <row r="321" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -46096,8 +47476,14 @@
       <c r="AR321">
         <v>0</v>
       </c>
+      <c r="AS321">
+        <v>0</v>
+      </c>
+      <c r="AT321">
+        <v>0</v>
+      </c>
     </row>
-    <row r="322" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -46230,8 +47616,14 @@
       <c r="AR322" t="s">
         <v>308</v>
       </c>
+      <c r="AS322" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT322" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="323" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>350</v>
       </c>
@@ -46361,8 +47753,14 @@
       <c r="AR323">
         <v>0</v>
       </c>
+      <c r="AS323">
+        <v>0</v>
+      </c>
+      <c r="AT323">
+        <v>0</v>
+      </c>
     </row>
-    <row r="324" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>351</v>
       </c>
@@ -46495,8 +47893,14 @@
       <c r="AR324" t="s">
         <v>308</v>
       </c>
+      <c r="AS324" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT324" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="325" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>353</v>
       </c>
@@ -46626,8 +48030,14 @@
       <c r="AR325">
         <v>0</v>
       </c>
+      <c r="AS325">
+        <v>0</v>
+      </c>
+      <c r="AT325">
+        <v>0</v>
+      </c>
     </row>
-    <row r="326" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>354</v>
       </c>
@@ -46757,8 +48167,14 @@
       <c r="AR326">
         <v>0</v>
       </c>
+      <c r="AS326">
+        <v>0</v>
+      </c>
+      <c r="AT326">
+        <v>0</v>
+      </c>
     </row>
-    <row r="327" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>355</v>
       </c>
@@ -46888,8 +48304,14 @@
       <c r="AR327">
         <v>0</v>
       </c>
+      <c r="AS327">
+        <v>0</v>
+      </c>
+      <c r="AT327">
+        <v>0</v>
+      </c>
     </row>
-    <row r="328" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>356</v>
       </c>
@@ -47022,8 +48444,14 @@
       <c r="AR328" t="s">
         <v>308</v>
       </c>
+      <c r="AS328" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT328" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="329" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>357</v>
       </c>
@@ -47153,8 +48581,14 @@
       <c r="AR329">
         <v>0</v>
       </c>
+      <c r="AS329">
+        <v>0</v>
+      </c>
+      <c r="AT329">
+        <v>0</v>
+      </c>
     </row>
-    <row r="330" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>358</v>
       </c>
@@ -47287,8 +48721,14 @@
       <c r="AR330" t="s">
         <v>308</v>
       </c>
+      <c r="AS330" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT330" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="331" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>359</v>
       </c>
@@ -47418,8 +48858,14 @@
       <c r="AR331" t="s">
         <v>308</v>
       </c>
+      <c r="AS331" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT331" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="332" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>360</v>
       </c>
@@ -47549,8 +48995,14 @@
       <c r="AR332">
         <v>0</v>
       </c>
+      <c r="AS332">
+        <v>0</v>
+      </c>
+      <c r="AT332">
+        <v>0</v>
+      </c>
     </row>
-    <row r="333" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>361</v>
       </c>
@@ -47680,8 +49132,14 @@
       <c r="AR333">
         <v>0</v>
       </c>
+      <c r="AS333">
+        <v>0</v>
+      </c>
+      <c r="AT333">
+        <v>0</v>
+      </c>
     </row>
-    <row r="334" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>362</v>
       </c>
@@ -47814,8 +49272,14 @@
       <c r="AR334" t="s">
         <v>308</v>
       </c>
+      <c r="AS334" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT334" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="335" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>363</v>
       </c>
@@ -47948,8 +49412,14 @@
       <c r="AR335" t="s">
         <v>308</v>
       </c>
+      <c r="AS335" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT335" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="336" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>364</v>
       </c>
@@ -48079,8 +49549,14 @@
       <c r="AR336">
         <v>0</v>
       </c>
+      <c r="AS336">
+        <v>0</v>
+      </c>
+      <c r="AT336">
+        <v>0</v>
+      </c>
     </row>
-    <row r="337" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>365</v>
       </c>
@@ -48213,8 +49689,14 @@
       <c r="AR337" t="s">
         <v>308</v>
       </c>
+      <c r="AS337" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT337" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="338" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -48344,8 +49826,14 @@
       <c r="AR338">
         <v>0</v>
       </c>
+      <c r="AS338">
+        <v>0</v>
+      </c>
+      <c r="AT338">
+        <v>0</v>
+      </c>
     </row>
-    <row r="339" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>367</v>
       </c>
@@ -48475,8 +49963,14 @@
       <c r="AR339">
         <v>0</v>
       </c>
+      <c r="AS339">
+        <v>0</v>
+      </c>
+      <c r="AT339">
+        <v>0</v>
+      </c>
     </row>
-    <row r="340" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>368</v>
       </c>
@@ -48606,8 +50100,14 @@
       <c r="AR340">
         <v>0</v>
       </c>
+      <c r="AS340">
+        <v>0</v>
+      </c>
+      <c r="AT340">
+        <v>0</v>
+      </c>
     </row>
-    <row r="341" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>369</v>
       </c>
@@ -48737,8 +50237,14 @@
       <c r="AR341">
         <v>0</v>
       </c>
+      <c r="AS341">
+        <v>0</v>
+      </c>
+      <c r="AT341">
+        <v>0</v>
+      </c>
     </row>
-    <row r="342" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>370</v>
       </c>
@@ -48871,8 +50377,14 @@
       <c r="AR342" t="s">
         <v>308</v>
       </c>
+      <c r="AS342" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT342" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="343" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>371</v>
       </c>
@@ -49005,8 +50517,14 @@
       <c r="AR343" t="s">
         <v>308</v>
       </c>
+      <c r="AS343" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT343" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="344" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>372</v>
       </c>
@@ -49139,8 +50657,14 @@
       <c r="AR344">
         <v>0</v>
       </c>
+      <c r="AS344">
+        <v>0</v>
+      </c>
+      <c r="AT344">
+        <v>0</v>
+      </c>
     </row>
-    <row r="345" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>373</v>
       </c>
@@ -49270,8 +50794,14 @@
       <c r="AR345" t="s">
         <v>308</v>
       </c>
+      <c r="AS345" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT345" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="346" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>374</v>
       </c>
@@ -49401,8 +50931,14 @@
       <c r="AR346">
         <v>0</v>
       </c>
+      <c r="AS346">
+        <v>0</v>
+      </c>
+      <c r="AT346">
+        <v>0</v>
+      </c>
     </row>
-    <row r="347" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>375</v>
       </c>
@@ -49532,8 +51068,14 @@
       <c r="AR347">
         <v>0</v>
       </c>
+      <c r="AS347">
+        <v>0</v>
+      </c>
+      <c r="AT347">
+        <v>0</v>
+      </c>
     </row>
-    <row r="348" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>376</v>
       </c>
@@ -49666,8 +51208,14 @@
       <c r="AR348">
         <v>0</v>
       </c>
+      <c r="AS348">
+        <v>0</v>
+      </c>
+      <c r="AT348">
+        <v>0</v>
+      </c>
     </row>
-    <row r="349" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>377</v>
       </c>
@@ -49797,8 +51345,14 @@
       <c r="AR349">
         <v>0</v>
       </c>
+      <c r="AS349">
+        <v>0</v>
+      </c>
+      <c r="AT349">
+        <v>0</v>
+      </c>
     </row>
-    <row r="350" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -49928,8 +51482,14 @@
       <c r="AR350" t="s">
         <v>308</v>
       </c>
+      <c r="AS350" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT350" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="351" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>379</v>
       </c>
@@ -50059,8 +51619,14 @@
       <c r="AR351">
         <v>0</v>
       </c>
+      <c r="AS351">
+        <v>0</v>
+      </c>
+      <c r="AT351">
+        <v>0</v>
+      </c>
     </row>
-    <row r="352" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>380</v>
       </c>
@@ -50193,8 +51759,14 @@
       <c r="AR352">
         <v>0</v>
       </c>
+      <c r="AS352">
+        <v>0</v>
+      </c>
+      <c r="AT352">
+        <v>0</v>
+      </c>
     </row>
-    <row r="353" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>381</v>
       </c>
@@ -50324,8 +51896,14 @@
       <c r="AR353">
         <v>0</v>
       </c>
+      <c r="AS353">
+        <v>0</v>
+      </c>
+      <c r="AT353">
+        <v>0</v>
+      </c>
     </row>
-    <row r="354" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>382</v>
       </c>
@@ -50455,8 +52033,14 @@
       <c r="AR354">
         <v>0</v>
       </c>
+      <c r="AS354">
+        <v>0</v>
+      </c>
+      <c r="AT354">
+        <v>0</v>
+      </c>
     </row>
-    <row r="355" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>383</v>
       </c>
@@ -50589,8 +52173,14 @@
       <c r="AR355" t="s">
         <v>308</v>
       </c>
+      <c r="AS355" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT355" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="356" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>384</v>
       </c>
@@ -50720,8 +52310,14 @@
       <c r="AR356">
         <v>0</v>
       </c>
+      <c r="AS356">
+        <v>0</v>
+      </c>
+      <c r="AT356">
+        <v>0</v>
+      </c>
     </row>
-    <row r="357" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>385</v>
       </c>
@@ -50851,8 +52447,14 @@
       <c r="AR357">
         <v>0</v>
       </c>
+      <c r="AS357">
+        <v>0</v>
+      </c>
+      <c r="AT357">
+        <v>0</v>
+      </c>
     </row>
-    <row r="358" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>386</v>
       </c>
@@ -50982,8 +52584,14 @@
       <c r="AR358">
         <v>0</v>
       </c>
+      <c r="AS358">
+        <v>0</v>
+      </c>
+      <c r="AT358">
+        <v>0</v>
+      </c>
     </row>
-    <row r="359" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>387</v>
       </c>
@@ -51116,8 +52724,14 @@
       <c r="AR359" t="s">
         <v>308</v>
       </c>
+      <c r="AS359" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT359" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="360" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>388</v>
       </c>
@@ -51247,8 +52861,14 @@
       <c r="AR360">
         <v>0</v>
       </c>
+      <c r="AS360">
+        <v>0</v>
+      </c>
+      <c r="AT360">
+        <v>0</v>
+      </c>
     </row>
-    <row r="361" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>389</v>
       </c>
@@ -51381,8 +53001,14 @@
       <c r="AR361">
         <v>0</v>
       </c>
+      <c r="AS361">
+        <v>0</v>
+      </c>
+      <c r="AT361">
+        <v>0</v>
+      </c>
     </row>
-    <row r="362" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>390</v>
       </c>
@@ -51512,8 +53138,14 @@
       <c r="AR362">
         <v>0</v>
       </c>
+      <c r="AS362">
+        <v>0</v>
+      </c>
+      <c r="AT362">
+        <v>0</v>
+      </c>
     </row>
-    <row r="363" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>393</v>
       </c>
@@ -51643,8 +53275,14 @@
       <c r="AR363">
         <v>0</v>
       </c>
+      <c r="AS363">
+        <v>0</v>
+      </c>
+      <c r="AT363">
+        <v>0</v>
+      </c>
     </row>
-    <row r="364" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>394</v>
       </c>
@@ -51774,8 +53412,14 @@
       <c r="AR364">
         <v>0</v>
       </c>
+      <c r="AS364">
+        <v>0</v>
+      </c>
+      <c r="AT364">
+        <v>0</v>
+      </c>
     </row>
-    <row r="365" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>395</v>
       </c>
@@ -51905,8 +53549,14 @@
       <c r="AR365">
         <v>0</v>
       </c>
+      <c r="AS365">
+        <v>0</v>
+      </c>
+      <c r="AT365">
+        <v>0</v>
+      </c>
     </row>
-    <row r="366" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>396</v>
       </c>
@@ -52036,8 +53686,14 @@
       <c r="AR366">
         <v>0</v>
       </c>
+      <c r="AS366">
+        <v>0</v>
+      </c>
+      <c r="AT366">
+        <v>0</v>
+      </c>
     </row>
-    <row r="367" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>397</v>
       </c>
@@ -52167,8 +53823,14 @@
       <c r="AR367">
         <v>0</v>
       </c>
+      <c r="AS367">
+        <v>0</v>
+      </c>
+      <c r="AT367">
+        <v>0</v>
+      </c>
     </row>
-    <row r="368" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>398</v>
       </c>
@@ -52298,8 +53960,14 @@
       <c r="AR368">
         <v>0</v>
       </c>
+      <c r="AS368">
+        <v>0</v>
+      </c>
+      <c r="AT368">
+        <v>0</v>
+      </c>
     </row>
-    <row r="369" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -52432,8 +54100,14 @@
       <c r="AR369">
         <v>0</v>
       </c>
+      <c r="AS369">
+        <v>0</v>
+      </c>
+      <c r="AT369">
+        <v>0</v>
+      </c>
     </row>
-    <row r="370" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -52563,8 +54237,14 @@
       <c r="AR370">
         <v>0</v>
       </c>
+      <c r="AS370">
+        <v>0</v>
+      </c>
+      <c r="AT370">
+        <v>0</v>
+      </c>
     </row>
-    <row r="371" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -52694,8 +54374,14 @@
       <c r="AR371">
         <v>0</v>
       </c>
+      <c r="AS371">
+        <v>0</v>
+      </c>
+      <c r="AT371">
+        <v>0</v>
+      </c>
     </row>
-    <row r="372" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -52825,8 +54511,14 @@
       <c r="AR372">
         <v>0</v>
       </c>
+      <c r="AS372">
+        <v>0</v>
+      </c>
+      <c r="AT372">
+        <v>0</v>
+      </c>
     </row>
-    <row r="373" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -52959,8 +54651,14 @@
       <c r="AR373">
         <v>0</v>
       </c>
+      <c r="AS373">
+        <v>0</v>
+      </c>
+      <c r="AT373">
+        <v>0</v>
+      </c>
     </row>
-    <row r="374" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -53090,8 +54788,14 @@
       <c r="AR374">
         <v>0</v>
       </c>
+      <c r="AS374">
+        <v>0</v>
+      </c>
+      <c r="AT374">
+        <v>0</v>
+      </c>
     </row>
-    <row r="375" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -53221,8 +54925,14 @@
       <c r="AR375">
         <v>0</v>
       </c>
+      <c r="AS375">
+        <v>0</v>
+      </c>
+      <c r="AT375">
+        <v>0</v>
+      </c>
     </row>
-    <row r="376" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -53352,8 +55062,14 @@
       <c r="AR376">
         <v>0</v>
       </c>
+      <c r="AS376">
+        <v>0</v>
+      </c>
+      <c r="AT376">
+        <v>0</v>
+      </c>
     </row>
-    <row r="377" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -53483,8 +55199,14 @@
       <c r="AR377">
         <v>0</v>
       </c>
+      <c r="AS377">
+        <v>0</v>
+      </c>
+      <c r="AT377">
+        <v>0</v>
+      </c>
     </row>
-    <row r="378" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -53614,8 +55336,14 @@
       <c r="AR378">
         <v>0</v>
       </c>
+      <c r="AS378">
+        <v>0</v>
+      </c>
+      <c r="AT378">
+        <v>0</v>
+      </c>
     </row>
-    <row r="379" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -53745,8 +55473,14 @@
       <c r="AR379">
         <v>0</v>
       </c>
+      <c r="AS379">
+        <v>0</v>
+      </c>
+      <c r="AT379">
+        <v>0</v>
+      </c>
     </row>
-    <row r="380" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -53879,8 +55613,14 @@
       <c r="AR380">
         <v>0</v>
       </c>
+      <c r="AS380">
+        <v>0</v>
+      </c>
+      <c r="AT380">
+        <v>0</v>
+      </c>
     </row>
-    <row r="381" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -54010,8 +55750,14 @@
       <c r="AR381">
         <v>0</v>
       </c>
+      <c r="AS381">
+        <v>0</v>
+      </c>
+      <c r="AT381">
+        <v>0</v>
+      </c>
     </row>
-    <row r="382" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>413</v>
       </c>
@@ -54141,8 +55887,14 @@
       <c r="AR382">
         <v>0</v>
       </c>
+      <c r="AS382">
+        <v>0</v>
+      </c>
+      <c r="AT382">
+        <v>0</v>
+      </c>
     </row>
-    <row r="383" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>414</v>
       </c>
@@ -54272,8 +56024,14 @@
       <c r="AR383">
         <v>0</v>
       </c>
+      <c r="AS383">
+        <v>0</v>
+      </c>
+      <c r="AT383">
+        <v>0</v>
+      </c>
     </row>
-    <row r="384" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>415</v>
       </c>
@@ -54403,8 +56161,14 @@
       <c r="AR384">
         <v>0</v>
       </c>
+      <c r="AS384">
+        <v>0</v>
+      </c>
+      <c r="AT384">
+        <v>0</v>
+      </c>
     </row>
-    <row r="385" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>416</v>
       </c>
@@ -54534,8 +56298,14 @@
       <c r="AR385">
         <v>0</v>
       </c>
+      <c r="AS385">
+        <v>0</v>
+      </c>
+      <c r="AT385">
+        <v>0</v>
+      </c>
     </row>
-    <row r="386" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>417</v>
       </c>
@@ -54668,8 +56438,14 @@
       <c r="AR386">
         <v>0</v>
       </c>
+      <c r="AS386">
+        <v>0</v>
+      </c>
+      <c r="AT386">
+        <v>0</v>
+      </c>
     </row>
-    <row r="387" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>418</v>
       </c>
@@ -54799,8 +56575,14 @@
       <c r="AR387" t="s">
         <v>308</v>
       </c>
+      <c r="AS387" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT387" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="388" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>419</v>
       </c>
@@ -54930,8 +56712,14 @@
       <c r="AR388">
         <v>0</v>
       </c>
+      <c r="AS388">
+        <v>0</v>
+      </c>
+      <c r="AT388">
+        <v>0</v>
+      </c>
     </row>
-    <row r="389" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>420</v>
       </c>
@@ -55061,8 +56849,14 @@
       <c r="AR389">
         <v>0</v>
       </c>
+      <c r="AS389">
+        <v>0</v>
+      </c>
+      <c r="AT389">
+        <v>0</v>
+      </c>
     </row>
-    <row r="390" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>421</v>
       </c>
@@ -55192,8 +56986,14 @@
       <c r="AR390">
         <v>0</v>
       </c>
+      <c r="AS390">
+        <v>0</v>
+      </c>
+      <c r="AT390">
+        <v>0</v>
+      </c>
     </row>
-    <row r="391" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>422</v>
       </c>
@@ -55326,8 +57126,14 @@
       <c r="AR391" t="s">
         <v>308</v>
       </c>
+      <c r="AS391" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT391" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="392" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>423</v>
       </c>
@@ -55460,8 +57266,14 @@
       <c r="AR392">
         <v>0</v>
       </c>
+      <c r="AS392">
+        <v>0</v>
+      </c>
+      <c r="AT392">
+        <v>0</v>
+      </c>
     </row>
-    <row r="393" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>424</v>
       </c>
@@ -55591,8 +57403,14 @@
       <c r="AR393">
         <v>0</v>
       </c>
+      <c r="AS393">
+        <v>0</v>
+      </c>
+      <c r="AT393">
+        <v>0</v>
+      </c>
     </row>
-    <row r="394" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>425</v>
       </c>
@@ -55722,8 +57540,14 @@
       <c r="AR394">
         <v>0</v>
       </c>
+      <c r="AS394">
+        <v>0</v>
+      </c>
+      <c r="AT394">
+        <v>0</v>
+      </c>
     </row>
-    <row r="395" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>426</v>
       </c>
@@ -55853,8 +57677,14 @@
       <c r="AR395">
         <v>0</v>
       </c>
+      <c r="AS395">
+        <v>0</v>
+      </c>
+      <c r="AT395">
+        <v>0</v>
+      </c>
     </row>
-    <row r="396" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>427</v>
       </c>
@@ -55984,8 +57814,14 @@
       <c r="AR396">
         <v>0</v>
       </c>
+      <c r="AS396">
+        <v>0</v>
+      </c>
+      <c r="AT396">
+        <v>0</v>
+      </c>
     </row>
-    <row r="397" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>428</v>
       </c>
@@ -56115,8 +57951,14 @@
       <c r="AR397">
         <v>0</v>
       </c>
+      <c r="AS397">
+        <v>0</v>
+      </c>
+      <c r="AT397">
+        <v>0</v>
+      </c>
     </row>
-    <row r="398" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>429</v>
       </c>
@@ -56246,8 +58088,14 @@
       <c r="AR398">
         <v>0</v>
       </c>
+      <c r="AS398">
+        <v>0</v>
+      </c>
+      <c r="AT398">
+        <v>0</v>
+      </c>
     </row>
-    <row r="399" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>430</v>
       </c>
@@ -56380,8 +58228,14 @@
       <c r="AR399">
         <v>0</v>
       </c>
+      <c r="AS399">
+        <v>0</v>
+      </c>
+      <c r="AT399">
+        <v>0</v>
+      </c>
     </row>
-    <row r="400" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>431</v>
       </c>
@@ -56511,8 +58365,14 @@
       <c r="AR400">
         <v>0</v>
       </c>
+      <c r="AS400">
+        <v>0</v>
+      </c>
+      <c r="AT400">
+        <v>0</v>
+      </c>
     </row>
-    <row r="401" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>432</v>
       </c>
@@ -56642,8 +58502,14 @@
       <c r="AR401">
         <v>0</v>
       </c>
+      <c r="AS401">
+        <v>0</v>
+      </c>
+      <c r="AT401">
+        <v>0</v>
+      </c>
     </row>
-    <row r="402" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>433</v>
       </c>
@@ -56776,8 +58642,14 @@
       <c r="AR402" t="s">
         <v>308</v>
       </c>
+      <c r="AS402" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT402" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="403" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>434</v>
       </c>
@@ -56907,8 +58779,14 @@
       <c r="AR403">
         <v>0</v>
       </c>
+      <c r="AS403">
+        <v>0</v>
+      </c>
+      <c r="AT403">
+        <v>0</v>
+      </c>
     </row>
-    <row r="404" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>435</v>
       </c>
@@ -57041,8 +58919,14 @@
       <c r="AR404">
         <v>0</v>
       </c>
+      <c r="AS404">
+        <v>0</v>
+      </c>
+      <c r="AT404">
+        <v>0</v>
+      </c>
     </row>
-    <row r="405" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>437</v>
       </c>
@@ -57172,8 +59056,14 @@
       <c r="AR405">
         <v>0</v>
       </c>
+      <c r="AS405">
+        <v>0</v>
+      </c>
+      <c r="AT405">
+        <v>0</v>
+      </c>
     </row>
-    <row r="406" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>438</v>
       </c>
@@ -57303,8 +59193,14 @@
       <c r="AR406">
         <v>0</v>
       </c>
+      <c r="AS406">
+        <v>0</v>
+      </c>
+      <c r="AT406">
+        <v>0</v>
+      </c>
     </row>
-    <row r="407" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>439</v>
       </c>
@@ -57434,8 +59330,14 @@
       <c r="AR407">
         <v>0</v>
       </c>
+      <c r="AS407">
+        <v>0</v>
+      </c>
+      <c r="AT407">
+        <v>0</v>
+      </c>
     </row>
-    <row r="408" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>440</v>
       </c>
@@ -57565,8 +59467,14 @@
       <c r="AR408">
         <v>0</v>
       </c>
+      <c r="AS408">
+        <v>0</v>
+      </c>
+      <c r="AT408">
+        <v>0</v>
+      </c>
     </row>
-    <row r="409" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>441</v>
       </c>
@@ -57696,8 +59604,14 @@
       <c r="AR409">
         <v>0</v>
       </c>
+      <c r="AS409">
+        <v>0</v>
+      </c>
+      <c r="AT409">
+        <v>0</v>
+      </c>
     </row>
-    <row r="410" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>442</v>
       </c>
@@ -57827,8 +59741,14 @@
       <c r="AR410">
         <v>0</v>
       </c>
+      <c r="AS410">
+        <v>0</v>
+      </c>
+      <c r="AT410">
+        <v>0</v>
+      </c>
     </row>
-    <row r="411" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>443</v>
       </c>
@@ -57958,8 +59878,14 @@
       <c r="AR411">
         <v>0</v>
       </c>
+      <c r="AS411">
+        <v>0</v>
+      </c>
+      <c r="AT411">
+        <v>0</v>
+      </c>
     </row>
-    <row r="412" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>444</v>
       </c>
@@ -58089,8 +60015,14 @@
       <c r="AR412">
         <v>0</v>
       </c>
+      <c r="AS412">
+        <v>0</v>
+      </c>
+      <c r="AT412">
+        <v>0</v>
+      </c>
     </row>
-    <row r="413" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>445</v>
       </c>
@@ -58220,8 +60152,14 @@
       <c r="AR413">
         <v>0</v>
       </c>
+      <c r="AS413">
+        <v>0</v>
+      </c>
+      <c r="AT413">
+        <v>0</v>
+      </c>
     </row>
-    <row r="414" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>446</v>
       </c>
@@ -58351,8 +60289,14 @@
       <c r="AR414">
         <v>0</v>
       </c>
+      <c r="AS414">
+        <v>0</v>
+      </c>
+      <c r="AT414">
+        <v>0</v>
+      </c>
     </row>
-    <row r="415" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>447</v>
       </c>
@@ -58482,8 +60426,14 @@
       <c r="AR415">
         <v>0</v>
       </c>
+      <c r="AS415">
+        <v>0</v>
+      </c>
+      <c r="AT415">
+        <v>0</v>
+      </c>
     </row>
-    <row r="416" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>448</v>
       </c>
@@ -58613,8 +60563,14 @@
       <c r="AR416" t="s">
         <v>308</v>
       </c>
+      <c r="AS416" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT416" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="417" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>449</v>
       </c>
@@ -58747,8 +60703,14 @@
       <c r="AR417" t="s">
         <v>308</v>
       </c>
+      <c r="AS417" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT417" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="418" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>450</v>
       </c>
@@ -58878,8 +60840,14 @@
       <c r="AR418">
         <v>0</v>
       </c>
+      <c r="AS418">
+        <v>0</v>
+      </c>
+      <c r="AT418">
+        <v>0</v>
+      </c>
     </row>
-    <row r="419" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>451</v>
       </c>
@@ -59009,8 +60977,14 @@
       <c r="AR419">
         <v>0</v>
       </c>
+      <c r="AS419">
+        <v>0</v>
+      </c>
+      <c r="AT419">
+        <v>0</v>
+      </c>
     </row>
-    <row r="420" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>452</v>
       </c>
@@ -59140,8 +61114,14 @@
       <c r="AR420">
         <v>0</v>
       </c>
+      <c r="AS420">
+        <v>0</v>
+      </c>
+      <c r="AT420">
+        <v>0</v>
+      </c>
     </row>
-    <row r="421" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>453</v>
       </c>
@@ -59274,8 +61254,14 @@
       <c r="AR421" t="s">
         <v>308</v>
       </c>
+      <c r="AS421" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT421" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="422" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>454</v>
       </c>
@@ -59405,8 +61391,14 @@
       <c r="AR422">
         <v>0</v>
       </c>
+      <c r="AS422">
+        <v>0</v>
+      </c>
+      <c r="AT422">
+        <v>0</v>
+      </c>
     </row>
-    <row r="423" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>455</v>
       </c>
@@ -59539,8 +61531,14 @@
       <c r="AR423" t="s">
         <v>308</v>
       </c>
+      <c r="AS423" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT423" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="424" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>457</v>
       </c>
@@ -59670,8 +61668,14 @@
       <c r="AR424">
         <v>0</v>
       </c>
+      <c r="AS424">
+        <v>0</v>
+      </c>
+      <c r="AT424">
+        <v>0</v>
+      </c>
     </row>
-    <row r="425" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>458</v>
       </c>
@@ -59801,8 +61805,14 @@
       <c r="AR425">
         <v>0</v>
       </c>
+      <c r="AS425">
+        <v>0</v>
+      </c>
+      <c r="AT425">
+        <v>0</v>
+      </c>
     </row>
-    <row r="426" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>459</v>
       </c>
@@ -59932,8 +61942,14 @@
       <c r="AR426" t="s">
         <v>308</v>
       </c>
+      <c r="AS426" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT426" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="427" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>460</v>
       </c>
@@ -60063,8 +62079,14 @@
       <c r="AR427">
         <v>0</v>
       </c>
+      <c r="AS427">
+        <v>0</v>
+      </c>
+      <c r="AT427">
+        <v>0</v>
+      </c>
     </row>
-    <row r="428" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>461</v>
       </c>
@@ -60194,8 +62216,14 @@
       <c r="AR428">
         <v>0</v>
       </c>
+      <c r="AS428">
+        <v>0</v>
+      </c>
+      <c r="AT428">
+        <v>0</v>
+      </c>
     </row>
-    <row r="429" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>462</v>
       </c>
@@ -60328,8 +62356,14 @@
       <c r="AR429">
         <v>0</v>
       </c>
+      <c r="AS429">
+        <v>0</v>
+      </c>
+      <c r="AT429">
+        <v>0</v>
+      </c>
     </row>
-    <row r="430" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>464</v>
       </c>
@@ -60459,8 +62493,14 @@
       <c r="AR430">
         <v>0</v>
       </c>
+      <c r="AS430">
+        <v>0</v>
+      </c>
+      <c r="AT430">
+        <v>0</v>
+      </c>
     </row>
-    <row r="431" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>465</v>
       </c>
@@ -60593,8 +62633,14 @@
       <c r="AR431" t="s">
         <v>308</v>
       </c>
+      <c r="AS431" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT431" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="432" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>466</v>
       </c>
@@ -60724,8 +62770,14 @@
       <c r="AR432">
         <v>0</v>
       </c>
+      <c r="AS432">
+        <v>0</v>
+      </c>
+      <c r="AT432">
+        <v>0</v>
+      </c>
     </row>
-    <row r="433" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>467</v>
       </c>
@@ -60855,8 +62907,14 @@
       <c r="AR433">
         <v>0</v>
       </c>
+      <c r="AS433">
+        <v>0</v>
+      </c>
+      <c r="AT433">
+        <v>0</v>
+      </c>
     </row>
-    <row r="434" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>468</v>
       </c>
@@ -60986,8 +63044,14 @@
       <c r="AR434">
         <v>0</v>
       </c>
+      <c r="AS434">
+        <v>0</v>
+      </c>
+      <c r="AT434">
+        <v>0</v>
+      </c>
     </row>
-    <row r="435" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>469</v>
       </c>
@@ -61117,8 +63181,14 @@
       <c r="AR435">
         <v>0</v>
       </c>
+      <c r="AS435">
+        <v>0</v>
+      </c>
+      <c r="AT435">
+        <v>0</v>
+      </c>
     </row>
-    <row r="436" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>470</v>
       </c>
@@ -61248,8 +63318,14 @@
       <c r="AR436">
         <v>0</v>
       </c>
+      <c r="AS436">
+        <v>0</v>
+      </c>
+      <c r="AT436">
+        <v>0</v>
+      </c>
     </row>
-    <row r="437" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>471</v>
       </c>
@@ -61379,8 +63455,14 @@
       <c r="AR437">
         <v>0</v>
       </c>
+      <c r="AS437">
+        <v>0</v>
+      </c>
+      <c r="AT437">
+        <v>0</v>
+      </c>
     </row>
-    <row r="438" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>472</v>
       </c>
@@ -61507,8 +63589,14 @@
       <c r="AR438">
         <v>0</v>
       </c>
+      <c r="AS438">
+        <v>0</v>
+      </c>
+      <c r="AT438">
+        <v>0</v>
+      </c>
     </row>
-    <row r="439" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>473</v>
       </c>
@@ -61638,8 +63726,14 @@
       <c r="AR439">
         <v>0</v>
       </c>
+      <c r="AS439">
+        <v>0</v>
+      </c>
+      <c r="AT439">
+        <v>0</v>
+      </c>
     </row>
-    <row r="440" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>474</v>
       </c>
@@ -61769,8 +63863,14 @@
       <c r="AR440">
         <v>0</v>
       </c>
+      <c r="AS440">
+        <v>0</v>
+      </c>
+      <c r="AT440">
+        <v>0</v>
+      </c>
     </row>
-    <row r="441" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>475</v>
       </c>
@@ -61900,8 +64000,14 @@
       <c r="AR441">
         <v>0</v>
       </c>
+      <c r="AS441">
+        <v>0</v>
+      </c>
+      <c r="AT441">
+        <v>0</v>
+      </c>
     </row>
-    <row r="442" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>476</v>
       </c>
@@ -62034,8 +64140,14 @@
       <c r="AR442" t="s">
         <v>308</v>
       </c>
+      <c r="AS442" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT442" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="443" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>478</v>
       </c>
@@ -62165,8 +64277,14 @@
       <c r="AR443">
         <v>0</v>
       </c>
+      <c r="AS443">
+        <v>0</v>
+      </c>
+      <c r="AT443">
+        <v>0</v>
+      </c>
     </row>
-    <row r="444" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>479</v>
       </c>
@@ -62299,8 +64417,14 @@
       <c r="AR444" t="s">
         <v>308</v>
       </c>
+      <c r="AS444" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT444" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="445" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>480</v>
       </c>
@@ -62430,8 +64554,14 @@
       <c r="AR445">
         <v>0</v>
       </c>
+      <c r="AS445">
+        <v>0</v>
+      </c>
+      <c r="AT445">
+        <v>0</v>
+      </c>
     </row>
-    <row r="446" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>481</v>
       </c>
@@ -62561,8 +64691,14 @@
       <c r="AR446">
         <v>0</v>
       </c>
+      <c r="AS446">
+        <v>0</v>
+      </c>
+      <c r="AT446">
+        <v>0</v>
+      </c>
     </row>
-    <row r="447" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>482</v>
       </c>
@@ -62692,8 +64828,14 @@
       <c r="AR447">
         <v>0</v>
       </c>
+      <c r="AS447">
+        <v>0</v>
+      </c>
+      <c r="AT447">
+        <v>0</v>
+      </c>
     </row>
-    <row r="448" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>483</v>
       </c>
@@ -62823,8 +64965,14 @@
       <c r="AR448">
         <v>0</v>
       </c>
+      <c r="AS448">
+        <v>0</v>
+      </c>
+      <c r="AT448">
+        <v>0</v>
+      </c>
     </row>
-    <row r="449" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>484</v>
       </c>
@@ -62954,8 +65102,14 @@
       <c r="AR449">
         <v>0</v>
       </c>
+      <c r="AS449">
+        <v>0</v>
+      </c>
+      <c r="AT449">
+        <v>0</v>
+      </c>
     </row>
-    <row r="450" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>485</v>
       </c>
@@ -63085,8 +65239,14 @@
       <c r="AR450">
         <v>0</v>
       </c>
+      <c r="AS450">
+        <v>0</v>
+      </c>
+      <c r="AT450">
+        <v>0</v>
+      </c>
     </row>
-    <row r="451" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>486</v>
       </c>
@@ -63219,8 +65379,14 @@
       <c r="AR451" t="s">
         <v>308</v>
       </c>
+      <c r="AS451" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT451" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="452" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>487</v>
       </c>
@@ -63350,8 +65516,14 @@
       <c r="AR452">
         <v>0</v>
       </c>
+      <c r="AS452">
+        <v>0</v>
+      </c>
+      <c r="AT452">
+        <v>0</v>
+      </c>
     </row>
-    <row r="453" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>490</v>
       </c>
@@ -63481,8 +65653,14 @@
       <c r="AR453">
         <v>0</v>
       </c>
+      <c r="AS453">
+        <v>0</v>
+      </c>
+      <c r="AT453">
+        <v>0</v>
+      </c>
     </row>
-    <row r="454" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>491</v>
       </c>
@@ -63612,8 +65790,14 @@
       <c r="AR454">
         <v>0</v>
       </c>
+      <c r="AS454">
+        <v>0</v>
+      </c>
+      <c r="AT454">
+        <v>0</v>
+      </c>
     </row>
-    <row r="455" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>492</v>
       </c>
@@ -63743,8 +65927,14 @@
       <c r="AR455">
         <v>0</v>
       </c>
+      <c r="AS455">
+        <v>0</v>
+      </c>
+      <c r="AT455">
+        <v>0</v>
+      </c>
     </row>
-    <row r="456" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>493</v>
       </c>
@@ -63874,8 +66064,14 @@
       <c r="AR456">
         <v>0</v>
       </c>
+      <c r="AS456">
+        <v>0</v>
+      </c>
+      <c r="AT456">
+        <v>0</v>
+      </c>
     </row>
-    <row r="457" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>494</v>
       </c>
@@ -64008,8 +66204,14 @@
       <c r="AR457" s="2">
         <v>0</v>
       </c>
+      <c r="AS457" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT457" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="458" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>495</v>
       </c>
@@ -64139,8 +66341,14 @@
       <c r="AR458" s="2">
         <v>0</v>
       </c>
+      <c r="AS458" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT458" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="459" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>496</v>
       </c>
@@ -64270,8 +66478,14 @@
       <c r="AR459" s="2">
         <v>0</v>
       </c>
+      <c r="AS459" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT459" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="460" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>497</v>
       </c>
@@ -64401,8 +66615,14 @@
       <c r="AR460" s="2">
         <v>0</v>
       </c>
+      <c r="AS460" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT460" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="461" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>498</v>
       </c>
@@ -64532,8 +66752,14 @@
       <c r="AR461" s="2">
         <v>0</v>
       </c>
+      <c r="AS461" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT461" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="462" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>499</v>
       </c>
@@ -64663,8 +66889,14 @@
       <c r="AR462" s="2">
         <v>0</v>
       </c>
+      <c r="AS462" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT462" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="463" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>500</v>
       </c>
@@ -64794,8 +67026,14 @@
       <c r="AR463" s="2">
         <v>0</v>
       </c>
+      <c r="AS463" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT463" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="464" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>501</v>
       </c>
@@ -64925,8 +67163,14 @@
       <c r="AR464" s="2">
         <v>0</v>
       </c>
+      <c r="AS464" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT464" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="465" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>502</v>
       </c>
@@ -65056,8 +67300,14 @@
       <c r="AR465" s="2">
         <v>0</v>
       </c>
+      <c r="AS465" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT465" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="466" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>503</v>
       </c>
@@ -65187,8 +67437,14 @@
       <c r="AR466" s="2">
         <v>0</v>
       </c>
+      <c r="AS466" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT466" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="467" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>504</v>
       </c>
@@ -65318,8 +67574,14 @@
       <c r="AR467" s="2">
         <v>0</v>
       </c>
+      <c r="AS467" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT467" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="468" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>505</v>
       </c>
@@ -65452,8 +67714,14 @@
       <c r="AR468" s="2">
         <v>0</v>
       </c>
+      <c r="AS468" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT468" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="469" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>506</v>
       </c>
@@ -65586,8 +67854,14 @@
       <c r="AR469" s="2">
         <v>0</v>
       </c>
+      <c r="AS469" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT469" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="470" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>507</v>
       </c>
@@ -65717,8 +67991,14 @@
       <c r="AR470" s="2">
         <v>0</v>
       </c>
+      <c r="AS470" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT470" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="471" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>508</v>
       </c>
@@ -65848,8 +68128,14 @@
       <c r="AR471" s="2">
         <v>0</v>
       </c>
+      <c r="AS471" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT471" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="472" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>509</v>
       </c>
@@ -65979,8 +68265,14 @@
       <c r="AR472" s="2">
         <v>0</v>
       </c>
+      <c r="AS472" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT472" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="473" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>510</v>
       </c>
@@ -66110,8 +68402,14 @@
       <c r="AR473" s="2">
         <v>0</v>
       </c>
+      <c r="AS473" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT473" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="474" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>511</v>
       </c>
@@ -66241,8 +68539,14 @@
       <c r="AR474" s="2">
         <v>0</v>
       </c>
+      <c r="AS474" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT474" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="475" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>512</v>
       </c>
@@ -66375,8 +68679,14 @@
       <c r="AR475" s="2">
         <v>0</v>
       </c>
+      <c r="AS475" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT475" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="476" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>513</v>
       </c>
@@ -66506,8 +68816,14 @@
       <c r="AR476" s="2">
         <v>0</v>
       </c>
+      <c r="AS476" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT476" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="477" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>514</v>
       </c>
@@ -66637,8 +68953,14 @@
       <c r="AR477" s="2">
         <v>0</v>
       </c>
+      <c r="AS477" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT477" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="478" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>515</v>
       </c>
@@ -66768,8 +69090,14 @@
       <c r="AR478" s="2">
         <v>0</v>
       </c>
+      <c r="AS478" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT478" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="479" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>516</v>
       </c>
@@ -66899,8 +69227,14 @@
       <c r="AR479" s="2">
         <v>0</v>
       </c>
+      <c r="AS479" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT479" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="480" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>517</v>
       </c>
@@ -67030,8 +69364,14 @@
       <c r="AR480" s="2">
         <v>0</v>
       </c>
+      <c r="AS480" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT480" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="481" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>518</v>
       </c>
@@ -67161,8 +69501,14 @@
       <c r="AR481" s="2">
         <v>0</v>
       </c>
+      <c r="AS481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT481" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="482" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>519</v>
       </c>
@@ -67292,8 +69638,14 @@
       <c r="AR482">
         <v>0</v>
       </c>
+      <c r="AS482">
+        <v>0</v>
+      </c>
+      <c r="AT482">
+        <v>0</v>
+      </c>
     </row>
-    <row r="483" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>520</v>
       </c>
@@ -67423,8 +69775,14 @@
       <c r="AR483">
         <v>0</v>
       </c>
+      <c r="AS483">
+        <v>0</v>
+      </c>
+      <c r="AT483">
+        <v>0</v>
+      </c>
     </row>
-    <row r="484" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>521</v>
       </c>
@@ -67554,8 +69912,14 @@
       <c r="AR484">
         <v>0</v>
       </c>
+      <c r="AS484">
+        <v>0</v>
+      </c>
+      <c r="AT484">
+        <v>0</v>
+      </c>
     </row>
-    <row r="485" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>522</v>
       </c>
@@ -67685,8 +70049,14 @@
       <c r="AR485">
         <v>0</v>
       </c>
+      <c r="AS485">
+        <v>0</v>
+      </c>
+      <c r="AT485">
+        <v>0</v>
+      </c>
     </row>
-    <row r="486" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>523</v>
       </c>
@@ -67816,8 +70186,14 @@
       <c r="AR486">
         <v>0</v>
       </c>
+      <c r="AS486">
+        <v>0</v>
+      </c>
+      <c r="AT486">
+        <v>0</v>
+      </c>
     </row>
-    <row r="487" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>524</v>
       </c>
@@ -67947,8 +70323,14 @@
       <c r="AR487">
         <v>0</v>
       </c>
+      <c r="AS487">
+        <v>0</v>
+      </c>
+      <c r="AT487">
+        <v>0</v>
+      </c>
     </row>
-    <row r="488" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>525</v>
       </c>
@@ -68081,8 +70463,14 @@
       <c r="AR488">
         <v>0</v>
       </c>
+      <c r="AS488">
+        <v>0</v>
+      </c>
+      <c r="AT488">
+        <v>0</v>
+      </c>
     </row>
-    <row r="489" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>526</v>
       </c>
@@ -68212,8 +70600,14 @@
       <c r="AR489">
         <v>0</v>
       </c>
+      <c r="AS489">
+        <v>0</v>
+      </c>
+      <c r="AT489">
+        <v>0</v>
+      </c>
     </row>
-    <row r="490" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>527</v>
       </c>
@@ -68343,8 +70737,14 @@
       <c r="AR490">
         <v>0</v>
       </c>
+      <c r="AS490">
+        <v>0</v>
+      </c>
+      <c r="AT490">
+        <v>0</v>
+      </c>
     </row>
-    <row r="491" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>528</v>
       </c>
@@ -68474,8 +70874,14 @@
       <c r="AR491">
         <v>0</v>
       </c>
+      <c r="AS491">
+        <v>0</v>
+      </c>
+      <c r="AT491">
+        <v>0</v>
+      </c>
     </row>
-    <row r="492" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>529</v>
       </c>
@@ -68605,8 +71011,14 @@
       <c r="AR492">
         <v>0</v>
       </c>
+      <c r="AS492">
+        <v>0</v>
+      </c>
+      <c r="AT492">
+        <v>0</v>
+      </c>
     </row>
-    <row r="493" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>530</v>
       </c>
@@ -68736,8 +71148,14 @@
       <c r="AR493">
         <v>0</v>
       </c>
+      <c r="AS493">
+        <v>0</v>
+      </c>
+      <c r="AT493">
+        <v>0</v>
+      </c>
     </row>
-    <row r="494" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>531</v>
       </c>
@@ -68867,8 +71285,14 @@
       <c r="AR494">
         <v>0</v>
       </c>
+      <c r="AS494">
+        <v>0</v>
+      </c>
+      <c r="AT494">
+        <v>0</v>
+      </c>
     </row>
-    <row r="495" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>532</v>
       </c>
@@ -69001,8 +71425,14 @@
       <c r="AR495" t="s">
         <v>308</v>
       </c>
+      <c r="AS495" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT495" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="496" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>533</v>
       </c>
@@ -69132,8 +71562,14 @@
       <c r="AR496">
         <v>0</v>
       </c>
+      <c r="AS496">
+        <v>0</v>
+      </c>
+      <c r="AT496">
+        <v>0</v>
+      </c>
     </row>
-    <row r="497" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>534</v>
       </c>
@@ -69263,8 +71699,14 @@
       <c r="AR497" s="2">
         <v>0</v>
       </c>
+      <c r="AS497" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT497" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="498" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>535</v>
       </c>
@@ -69394,8 +71836,14 @@
       <c r="AR498" s="2">
         <v>0</v>
       </c>
+      <c r="AS498" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT498" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="499" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>536</v>
       </c>
@@ -69525,8 +71973,14 @@
       <c r="AR499" s="2">
         <v>0</v>
       </c>
+      <c r="AS499" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT499" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="500" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>537</v>
       </c>
@@ -69656,8 +72110,14 @@
       <c r="AR500" s="2">
         <v>0</v>
       </c>
+      <c r="AS500" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT500" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="501" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>538</v>
       </c>
@@ -69787,8 +72247,14 @@
       <c r="AR501" s="2">
         <v>0</v>
       </c>
+      <c r="AS501" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT501" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="502" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>539</v>
       </c>
@@ -69918,8 +72384,14 @@
       <c r="AR502" s="2">
         <v>0</v>
       </c>
+      <c r="AS502" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT502" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="503" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>540</v>
       </c>
@@ -70049,8 +72521,14 @@
       <c r="AR503" s="2">
         <v>0</v>
       </c>
+      <c r="AS503" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT503" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="504" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>541</v>
       </c>
@@ -70180,8 +72658,14 @@
       <c r="AR504" s="2">
         <v>0</v>
       </c>
+      <c r="AS504" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT504" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="505" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>542</v>
       </c>
@@ -70311,8 +72795,14 @@
       <c r="AR505" s="2">
         <v>0</v>
       </c>
+      <c r="AS505" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT505" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="506" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>543</v>
       </c>
@@ -70442,8 +72932,14 @@
       <c r="AR506" s="2">
         <v>0</v>
       </c>
+      <c r="AS506" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT506" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="507" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>544</v>
       </c>
@@ -70573,8 +73069,14 @@
       <c r="AR507" s="2">
         <v>0</v>
       </c>
+      <c r="AS507" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT507" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="508" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>545</v>
       </c>
@@ -70704,8 +73206,14 @@
       <c r="AR508" s="2">
         <v>0</v>
       </c>
+      <c r="AS508" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT508" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="509" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>546</v>
       </c>
@@ -70835,8 +73343,14 @@
       <c r="AR509" s="2">
         <v>0</v>
       </c>
+      <c r="AS509" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT509" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="510" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>547</v>
       </c>
@@ -70966,8 +73480,14 @@
       <c r="AR510" s="2">
         <v>0</v>
       </c>
+      <c r="AS510" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT510" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="511" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>548</v>
       </c>
@@ -71097,8 +73617,14 @@
       <c r="AR511" s="2">
         <v>0</v>
       </c>
+      <c r="AS511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT511" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="512" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>549</v>
       </c>
@@ -71231,8 +73757,14 @@
       <c r="AR512">
         <v>0</v>
       </c>
+      <c r="AS512">
+        <v>0</v>
+      </c>
+      <c r="AT512">
+        <v>0</v>
+      </c>
     </row>
-    <row r="513" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>550</v>
       </c>
@@ -71362,8 +73894,14 @@
       <c r="AR513">
         <v>0</v>
       </c>
+      <c r="AS513">
+        <v>0</v>
+      </c>
+      <c r="AT513">
+        <v>0</v>
+      </c>
     </row>
-    <row r="514" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>551</v>
       </c>
@@ -71493,8 +74031,14 @@
       <c r="AR514">
         <v>0</v>
       </c>
+      <c r="AS514">
+        <v>0</v>
+      </c>
+      <c r="AT514">
+        <v>0</v>
+      </c>
     </row>
-    <row r="515" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>552</v>
       </c>
@@ -71624,8 +74168,14 @@
       <c r="AR515">
         <v>0</v>
       </c>
+      <c r="AS515">
+        <v>0</v>
+      </c>
+      <c r="AT515">
+        <v>0</v>
+      </c>
     </row>
-    <row r="516" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>553</v>
       </c>
@@ -71755,8 +74305,14 @@
       <c r="AR516">
         <v>0</v>
       </c>
+      <c r="AS516">
+        <v>0</v>
+      </c>
+      <c r="AT516">
+        <v>0</v>
+      </c>
     </row>
-    <row r="517" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>554</v>
       </c>
@@ -71889,8 +74445,14 @@
       <c r="AR517" t="s">
         <v>308</v>
       </c>
+      <c r="AS517" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT517" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="518" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>555</v>
       </c>
@@ -72023,8 +74585,14 @@
       <c r="AR518" t="s">
         <v>308</v>
       </c>
+      <c r="AS518" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT518" t="s">
+        <v>308</v>
+      </c>
     </row>
-    <row r="519" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>557</v>
       </c>
@@ -72154,8 +74722,14 @@
       <c r="AR519">
         <v>0</v>
       </c>
+      <c r="AS519">
+        <v>0</v>
+      </c>
+      <c r="AT519">
+        <v>0</v>
+      </c>
     </row>
-    <row r="520" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>558</v>
       </c>
@@ -72285,8 +74859,14 @@
       <c r="AR520">
         <v>0</v>
       </c>
+      <c r="AS520">
+        <v>0</v>
+      </c>
+      <c r="AT520">
+        <v>0</v>
+      </c>
     </row>
-    <row r="521" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>559</v>
       </c>
@@ -72416,8 +74996,14 @@
       <c r="AR521">
         <v>0</v>
       </c>
+      <c r="AS521">
+        <v>0</v>
+      </c>
+      <c r="AT521">
+        <v>0</v>
+      </c>
     </row>
-    <row r="522" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>560</v>
       </c>
@@ -72547,8 +75133,14 @@
       <c r="AR522">
         <v>0</v>
       </c>
+      <c r="AS522">
+        <v>0</v>
+      </c>
+      <c r="AT522">
+        <v>0</v>
+      </c>
     </row>
-    <row r="523" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>561</v>
       </c>
@@ -72678,8 +75270,14 @@
       <c r="AR523">
         <v>0</v>
       </c>
+      <c r="AS523">
+        <v>0</v>
+      </c>
+      <c r="AT523">
+        <v>0</v>
+      </c>
     </row>
-    <row r="524" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>562</v>
       </c>
@@ -72809,8 +75407,14 @@
       <c r="AR524">
         <v>0</v>
       </c>
+      <c r="AS524">
+        <v>0</v>
+      </c>
+      <c r="AT524">
+        <v>0</v>
+      </c>
     </row>
-    <row r="525" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>563</v>
       </c>
@@ -72940,8 +75544,14 @@
       <c r="AR525">
         <v>0</v>
       </c>
+      <c r="AS525">
+        <v>0</v>
+      </c>
+      <c r="AT525">
+        <v>0</v>
+      </c>
     </row>
-    <row r="526" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>564</v>
       </c>
@@ -73071,8 +75681,14 @@
       <c r="AR526">
         <v>0</v>
       </c>
+      <c r="AS526">
+        <v>0</v>
+      </c>
+      <c r="AT526">
+        <v>0</v>
+      </c>
     </row>
-    <row r="527" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>565</v>
       </c>
@@ -73202,8 +75818,14 @@
       <c r="AR527">
         <v>0</v>
       </c>
+      <c r="AS527">
+        <v>0</v>
+      </c>
+      <c r="AT527">
+        <v>0</v>
+      </c>
     </row>
-    <row r="528" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>566</v>
       </c>
@@ -73336,8 +75958,14 @@
       <c r="AR528">
         <v>0</v>
       </c>
+      <c r="AS528">
+        <v>0</v>
+      </c>
+      <c r="AT528">
+        <v>0</v>
+      </c>
     </row>
-    <row r="529" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>567</v>
       </c>
@@ -73467,8 +76095,14 @@
       <c r="AR529">
         <v>0</v>
       </c>
+      <c r="AS529">
+        <v>0</v>
+      </c>
+      <c r="AT529">
+        <v>0</v>
+      </c>
     </row>
-    <row r="530" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>568</v>
       </c>
@@ -73598,8 +76232,14 @@
       <c r="AR530">
         <v>0</v>
       </c>
+      <c r="AS530">
+        <v>0</v>
+      </c>
+      <c r="AT530">
+        <v>0</v>
+      </c>
     </row>
-    <row r="531" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>569</v>
       </c>
@@ -73732,8 +76372,14 @@
       <c r="AR531">
         <v>0</v>
       </c>
+      <c r="AS531">
+        <v>0</v>
+      </c>
+      <c r="AT531">
+        <v>0</v>
+      </c>
     </row>
-    <row r="532" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>570</v>
       </c>
@@ -73866,8 +76512,14 @@
       <c r="AR532">
         <v>0</v>
       </c>
+      <c r="AS532">
+        <v>0</v>
+      </c>
+      <c r="AT532">
+        <v>0</v>
+      </c>
     </row>
-    <row r="533" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>571</v>
       </c>
@@ -73997,8 +76649,14 @@
       <c r="AR533">
         <v>0</v>
       </c>
+      <c r="AS533">
+        <v>0</v>
+      </c>
+      <c r="AT533">
+        <v>0</v>
+      </c>
     </row>
-    <row r="534" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>572</v>
       </c>
@@ -74128,8 +76786,14 @@
       <c r="AR534">
         <v>0</v>
       </c>
+      <c r="AS534">
+        <v>0</v>
+      </c>
+      <c r="AT534">
+        <v>0</v>
+      </c>
     </row>
-    <row r="535" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>573</v>
       </c>
@@ -74259,8 +76923,14 @@
       <c r="AR535">
         <v>0</v>
       </c>
+      <c r="AS535">
+        <v>0</v>
+      </c>
+      <c r="AT535">
+        <v>0</v>
+      </c>
     </row>
-    <row r="536" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>574</v>
       </c>
@@ -74390,8 +77060,14 @@
       <c r="AR536">
         <v>0</v>
       </c>
+      <c r="AS536">
+        <v>0</v>
+      </c>
+      <c r="AT536">
+        <v>0</v>
+      </c>
     </row>
-    <row r="537" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>575</v>
       </c>
@@ -74521,8 +77197,14 @@
       <c r="AR537">
         <v>0</v>
       </c>
+      <c r="AS537">
+        <v>0</v>
+      </c>
+      <c r="AT537">
+        <v>0</v>
+      </c>
     </row>
-    <row r="538" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>576</v>
       </c>
@@ -74652,8 +77334,14 @@
       <c r="AR538">
         <v>0</v>
       </c>
+      <c r="AS538">
+        <v>0</v>
+      </c>
+      <c r="AT538">
+        <v>0</v>
+      </c>
     </row>
-    <row r="539" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>577</v>
       </c>
@@ -74783,8 +77471,14 @@
       <c r="AR539">
         <v>0</v>
       </c>
+      <c r="AS539">
+        <v>0</v>
+      </c>
+      <c r="AT539">
+        <v>0</v>
+      </c>
     </row>
-    <row r="540" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>578</v>
       </c>
@@ -74914,8 +77608,14 @@
       <c r="AR540">
         <v>0</v>
       </c>
+      <c r="AS540">
+        <v>0</v>
+      </c>
+      <c r="AT540">
+        <v>0</v>
+      </c>
     </row>
-    <row r="541" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>579</v>
       </c>
@@ -75045,8 +77745,14 @@
       <c r="AR541">
         <v>0</v>
       </c>
+      <c r="AS541">
+        <v>0</v>
+      </c>
+      <c r="AT541">
+        <v>0</v>
+      </c>
     </row>
-    <row r="542" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>580</v>
       </c>
@@ -75168,7 +77874,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="543" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>583</v>
       </c>
@@ -75287,7 +77993,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="544" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>584</v>
       </c>
